--- a/Reduction Notes/Reduction_Status_List.xlsx
+++ b/Reduction Notes/Reduction_Status_List.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26018"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawson/Git/SuprimeCam/Reduction Notes/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17420" windowHeight="16880" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="26060" yWindow="8680" windowWidth="17420" windowHeight="16880" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Radio Relic Sample" sheetId="1" r:id="rId1"/>
     <sheet name="MC3PO Sample" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="106">
   <si>
     <t>Semester</t>
   </si>
@@ -199,6 +194,150 @@
   </si>
   <si>
     <t>FRAMID_end</t>
+  </si>
+  <si>
+    <t>SUPA00232340</t>
+  </si>
+  <si>
+    <t>SUPA00232429</t>
+  </si>
+  <si>
+    <t>SUPA00330440</t>
+  </si>
+  <si>
+    <t>SUPA00330529</t>
+  </si>
+  <si>
+    <t>Exposure (s)</t>
+  </si>
+  <si>
+    <t>SUPA00487380</t>
+  </si>
+  <si>
+    <t>SUPA00487459</t>
+  </si>
+  <si>
+    <t>SUPA00557410</t>
+  </si>
+  <si>
+    <t>SUPA00557509</t>
+  </si>
+  <si>
+    <t>SUPA00561680</t>
+  </si>
+  <si>
+    <t>SUPA00561689</t>
+  </si>
+  <si>
+    <t>SUPA00561700</t>
+  </si>
+  <si>
+    <t>SUPA00561709</t>
+  </si>
+  <si>
+    <t>SUPA00561720</t>
+  </si>
+  <si>
+    <t>SUPA00561729</t>
+  </si>
+  <si>
+    <t>SUPA00561740</t>
+  </si>
+  <si>
+    <t>SUPA00561749</t>
+  </si>
+  <si>
+    <t>SUPA00562030</t>
+  </si>
+  <si>
+    <t>SUPA00562109</t>
+  </si>
+  <si>
+    <t>RXC J2228.6+2037</t>
+  </si>
+  <si>
+    <t>RXC J2228.6+2038</t>
+  </si>
+  <si>
+    <t>RXC J2228.6+2039</t>
+  </si>
+  <si>
+    <t>RXC J2228.6+2040</t>
+  </si>
+  <si>
+    <t>RXC J2228.6+2041</t>
+  </si>
+  <si>
+    <t>RXC J2228.6+2042</t>
+  </si>
+  <si>
+    <t>RXC J2228.6+2043</t>
+  </si>
+  <si>
+    <t>RXC J2228.6+2044</t>
+  </si>
+  <si>
+    <t>SUPA00395940</t>
+  </si>
+  <si>
+    <t>SUPA00396029</t>
+  </si>
+  <si>
+    <t>SUPA00022752</t>
+  </si>
+  <si>
+    <t>SUPA00022809</t>
+  </si>
+  <si>
+    <t>SUPA00022852</t>
+  </si>
+  <si>
+    <t>SUPA00022909</t>
+  </si>
+  <si>
+    <t>SUPA00232540</t>
+  </si>
+  <si>
+    <t>SUPA00232559</t>
+  </si>
+  <si>
+    <t>SUPA00242810</t>
+  </si>
+  <si>
+    <t>SUPA00242869</t>
+  </si>
+  <si>
+    <t>SUPA00543720</t>
+  </si>
+  <si>
+    <t>Exposures</t>
+  </si>
+  <si>
+    <t>SUPA00543769</t>
+  </si>
+  <si>
+    <t>SUPA00557520</t>
+  </si>
+  <si>
+    <t>SUPA00557609</t>
+  </si>
+  <si>
+    <t>MACS J2243.3-0936</t>
+  </si>
+  <si>
+    <t>MACS J2243.3-0937</t>
+  </si>
+  <si>
+    <t>MACS J2243.3-0938</t>
+  </si>
+  <si>
+    <t>MACS J2243.3-0939</t>
+  </si>
+  <si>
+    <t>MACS J2243.3-0940</t>
+  </si>
+  <si>
+    <t>Total Exp (m)</t>
   </si>
 </sst>
 </file>
@@ -206,9 +345,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mmm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mmm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -226,6 +365,22 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -245,17 +400,57 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="21">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -311,7 +506,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -346,7 +541,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,7 +718,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -537,7 +732,7 @@
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
@@ -549,7 +744,7 @@
     <col min="10" max="10" width="75.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -605,7 +800,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -629,7 +824,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -653,7 +848,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -675,7 +870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -695,7 +890,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -715,7 +910,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -739,7 +934,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -765,7 +960,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -789,7 +984,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -813,7 +1008,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -837,7 +1032,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -861,7 +1056,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -885,7 +1080,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -909,7 +1104,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -929,7 +1124,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="3">
         <v>39513</v>
       </c>
@@ -949,7 +1144,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="3">
         <v>40279</v>
       </c>
@@ -969,7 +1164,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="3">
         <v>40637</v>
       </c>
@@ -989,7 +1184,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -1013,7 +1208,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
@@ -1037,7 +1232,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
@@ -1061,7 +1256,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -1087,7 +1282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -1109,7 +1304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1129,7 +1324,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
@@ -1153,7 +1348,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
@@ -1177,7 +1372,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
@@ -1199,7 +1394,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -1219,7 +1414,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
@@ -1243,7 +1438,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
@@ -1267,7 +1462,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -1291,7 +1486,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
@@ -1311,7 +1506,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -1331,7 +1526,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -1351,7 +1546,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -1371,7 +1566,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
@@ -1393,7 +1588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
         <v>34</v>
       </c>
@@ -1413,7 +1608,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="2" t="s">
         <v>34</v>
       </c>
@@ -1433,7 +1628,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
         <v>34</v>
       </c>
@@ -1453,7 +1648,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
         <v>34</v>
       </c>
@@ -1475,7 +1670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
         <v>34</v>
       </c>
@@ -1495,7 +1690,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
         <v>34</v>
       </c>
@@ -1517,7 +1712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
         <v>34</v>
       </c>
@@ -1537,7 +1732,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
         <v>34</v>
       </c>
@@ -1559,7 +1754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
         <v>34</v>
       </c>
@@ -1579,7 +1774,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>39</v>
@@ -1601,26 +1796,34 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1640,25 +1843,34 @@
         <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="4">
         <v>38476</v>
       </c>
@@ -1671,11 +1883,28 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2">
+        <f>(RIGHT(F2,LEN(F2)-4)-RIGHT(E2,LEN(E2)-4)+1)/10</f>
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2">
+        <f>G2*H2/60</f>
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="4">
         <v>37829</v>
       </c>
@@ -1688,247 +1917,601 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G17" si="0">(RIGHT(F3,LEN(F3)-4)-RIGHT(E3,LEN(E3)-4)+1)/10</f>
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>240</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I17" si="1">G3*H3/60</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="4">
         <v>38187</v>
       </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
       <c r="C4" t="s">
         <v>49</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>180</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="4">
         <v>38893</v>
       </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
       <c r="C5" t="s">
         <v>51</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>240</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="4">
         <v>39281</v>
       </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
       <c r="C6" t="s">
         <v>52</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>180</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="4">
         <v>39307</v>
       </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
       <c r="C7" t="s">
         <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="L7" t="s">
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="O7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="4">
         <v>39307</v>
       </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
       <c r="C8" t="s">
         <v>48</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="L8" t="s">
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="O8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="4">
         <v>39307</v>
       </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
       <c r="C9" t="s">
         <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="L9" t="s">
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="O9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="4">
         <v>39307</v>
       </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
       <c r="C10" t="s">
         <v>54</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="L10" t="s">
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="O10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
+      <c r="A11" s="4">
+        <v>39307</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>180</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="4">
+        <v>36744</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>480</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="4">
+        <v>36744</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>180</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="4">
+        <v>37829</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>240</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="4">
+        <v>37889</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>360</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="4">
+        <v>39219</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>150</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="4">
+        <v>39281</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H17">
+        <v>180</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="4"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="4"/>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="4"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="4"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" s="4"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" s="4"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" s="4"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" s="4"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" s="4"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" s="4"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" s="4"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" s="4"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" s="4"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" s="4"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" s="4"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" s="4"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" s="4"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Reduction Notes/Reduction_Status_List.xlsx
+++ b/Reduction Notes/Reduction_Status_List.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25915"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26018"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawson/Git/SuprimeCam/Reduction Notes/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26060" yWindow="8680" windowWidth="17420" windowHeight="16880" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="27600" yWindow="12300" windowWidth="16220" windowHeight="10660" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Radio Relic Sample" sheetId="1" r:id="rId1"/>
     <sheet name="MC3PO Sample" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="107">
   <si>
     <t>Semester</t>
   </si>
@@ -172,24 +177,15 @@
     <t>W-C-IC</t>
   </si>
   <si>
-    <t>check other F4</t>
-  </si>
-  <si>
     <t>W-J-V</t>
   </si>
   <si>
     <t>W-S-Z+</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
     <t>W-J-B</t>
   </si>
   <si>
-    <t>mixed length exposures</t>
-  </si>
-  <si>
     <t>FRAMEID_start</t>
   </si>
   <si>
@@ -338,6 +334,18 @@
   </si>
   <si>
     <t>Total Exp (m)</t>
+  </si>
+  <si>
+    <t>There is no JVO reduction prior to 2001.</t>
+  </si>
+  <si>
+    <t>Flat Raw</t>
+  </si>
+  <si>
+    <t>Flat Reduced</t>
+  </si>
+  <si>
+    <t>short, don't bother</t>
   </si>
 </sst>
 </file>
@@ -718,7 +726,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -732,7 +740,7 @@
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
@@ -744,7 +752,7 @@
     <col min="10" max="10" width="75.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -800,7 +808,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -824,7 +832,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -848,7 +856,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -870,7 +878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -890,7 +898,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -910,7 +918,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -934,7 +942,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -960,7 +968,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -984,7 +992,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1008,7 +1016,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1032,7 +1040,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1056,7 +1064,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1080,7 +1088,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1104,7 +1112,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1124,7 +1132,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>39513</v>
       </c>
@@ -1144,7 +1152,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>40279</v>
       </c>
@@ -1164,7 +1172,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>40637</v>
       </c>
@@ -1184,7 +1192,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -1208,7 +1216,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
@@ -1232,7 +1240,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
@@ -1256,7 +1264,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -1282,7 +1290,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -1304,7 +1312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1324,7 +1332,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
@@ -1348,7 +1356,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
@@ -1372,7 +1380,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
@@ -1394,7 +1402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -1414,7 +1422,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
@@ -1438,7 +1446,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
@@ -1462,7 +1470,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -1486,7 +1494,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
@@ -1506,7 +1514,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -1526,7 +1534,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -1546,7 +1554,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -1566,7 +1574,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
@@ -1588,7 +1596,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>34</v>
       </c>
@@ -1608,7 +1616,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>34</v>
       </c>
@@ -1628,7 +1636,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>34</v>
       </c>
@@ -1648,7 +1656,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>34</v>
       </c>
@@ -1670,7 +1678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>34</v>
       </c>
@@ -1690,7 +1698,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>34</v>
       </c>
@@ -1712,7 +1720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>34</v>
       </c>
@@ -1732,7 +1740,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>34</v>
       </c>
@@ -1754,7 +1762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>34</v>
       </c>
@@ -1774,7 +1782,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>39</v>
@@ -1796,34 +1804,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="6.1640625" customWidth="1"/>
     <col min="9" max="9" width="12.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16">
+    <row r="1" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1837,40 +1840,43 @@
         <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>38476</v>
       </c>
@@ -1884,10 +1890,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G2">
         <f>(RIGHT(F2,LEN(F2)-4)-RIGHT(E2,LEN(E2)-4)+1)/10</f>
@@ -1901,10 +1907,13 @@
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>37829</v>
       </c>
@@ -1918,10 +1927,10 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G17" si="0">(RIGHT(F3,LEN(F3)-4)-RIGHT(E3,LEN(E3)-4)+1)/10</f>
@@ -1934,13 +1943,19 @@
         <f t="shared" ref="I3:I17" si="1">G3*H3/60</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>38187</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
@@ -1949,10 +1964,10 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
@@ -1965,25 +1980,31 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>38893</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
@@ -1996,25 +2017,31 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>39281</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
@@ -2027,13 +2054,19 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>39307</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
         <v>49</v>
@@ -2042,10 +2075,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -2058,16 +2091,16 @@
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="O7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>39307</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
         <v>48</v>
@@ -2076,10 +2109,10 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -2092,28 +2125,28 @@
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="O8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>39307</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -2126,28 +2159,28 @@
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="O9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>39307</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -2160,28 +2193,28 @@
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="O10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>39307</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -2194,8 +2227,11 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>36744</v>
       </c>
@@ -2209,10 +2245,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G12">
         <v>6</v>
@@ -2224,13 +2260,19 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>36744</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
         <v>49</v>
@@ -2239,10 +2281,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G13">
         <v>6</v>
@@ -2254,25 +2296,31 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>37829</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
@@ -2285,25 +2333,31 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="J14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>37889</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
@@ -2316,13 +2370,19 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>39219</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
         <v>48</v>
@@ -2331,10 +2391,10 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
@@ -2347,25 +2407,31 @@
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>39281</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
@@ -2378,140 +2444,141 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Reduction Notes/Reduction_Status_List.xlsx
+++ b/Reduction Notes/Reduction_Status_List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27600" yWindow="12300" windowWidth="16220" windowHeight="10660" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="16360" yWindow="4480" windowWidth="16220" windowHeight="10660" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Radio Relic Sample" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="109">
   <si>
     <t>Semester</t>
   </si>
@@ -346,6 +346,12 @@
   </si>
   <si>
     <t>short, don't bother</t>
+  </si>
+  <si>
+    <t>Downloaded FL1-4 some frames were rejected as part of the JVO reduction.</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -355,7 +361,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mmm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -390,6 +396,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -408,7 +421,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -430,15 +443,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -449,6 +465,7 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -459,6 +476,7 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -736,7 +754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
@@ -1811,13 +1829,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="6.1640625" customWidth="1"/>
     <col min="9" max="9" width="12.83203125" customWidth="1"/>
@@ -1912,6 +1931,18 @@
       <c r="K2" t="s">
         <v>12</v>
       </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="4">

--- a/Reduction Notes/Reduction_Status_List.xlsx
+++ b/Reduction Notes/Reduction_Status_List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16360" yWindow="4480" windowWidth="16220" windowHeight="10660" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="40" yWindow="7540" windowWidth="25080" windowHeight="13620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Radio Relic Sample" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="110">
   <si>
     <t>Semester</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>I don't think that this is really necessary given the 48min exposure in 2000</t>
   </si>
 </sst>
 </file>
@@ -1829,8 +1832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1980,6 +1983,12 @@
       <c r="K3" t="s">
         <v>12</v>
       </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
@@ -2017,6 +2026,12 @@
       <c r="K4" t="s">
         <v>12</v>
       </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
@@ -2054,6 +2069,12 @@
       <c r="K5" t="s">
         <v>12</v>
       </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
@@ -2091,6 +2112,12 @@
       <c r="K6" t="s">
         <v>12</v>
       </c>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
@@ -2261,6 +2288,15 @@
       <c r="J11" t="s">
         <v>12</v>
       </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
@@ -2330,9 +2366,6 @@
       <c r="J13" t="s">
         <v>12</v>
       </c>
-      <c r="K13" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -2443,6 +2476,9 @@
       </c>
       <c r="K16" t="s">
         <v>12</v>
+      </c>
+      <c r="P16" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">

--- a/Reduction Notes/Reduction_Status_List.xlsx
+++ b/Reduction Notes/Reduction_Status_List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26018"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40" yWindow="7540" windowWidth="25080" windowHeight="13620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="880" yWindow="14200" windowWidth="25080" windowHeight="13620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Radio Relic Sample" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="111">
   <si>
     <t>Semester</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>I don't think that this is really necessary given the 48min exposure in 2000</t>
+  </si>
+  <si>
+    <t>I used this as the deepband during reduction since the 2000aug RC band only had 8 chips.</t>
   </si>
 </sst>
 </file>
@@ -1833,7 +1836,7 @@
   <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2330,6 +2333,15 @@
       <c r="J12" t="s">
         <v>12</v>
       </c>
+      <c r="K12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
+        <v>12</v>
+      </c>
       <c r="P12" t="s">
         <v>103</v>
       </c>
@@ -2366,6 +2378,15 @@
       <c r="J13" t="s">
         <v>12</v>
       </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -2403,6 +2424,12 @@
       <c r="K14" t="s">
         <v>12</v>
       </c>
+      <c r="L14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
@@ -2440,6 +2467,15 @@
       <c r="K15" t="s">
         <v>12</v>
       </c>
+      <c r="L15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
@@ -2477,11 +2513,17 @@
       <c r="K16" t="s">
         <v>12</v>
       </c>
+      <c r="L16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" t="s">
+        <v>12</v>
+      </c>
       <c r="P16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>39281</v>
       </c>
@@ -2517,50 +2559,56 @@
       <c r="K17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">

--- a/Reduction Notes/Reduction_Status_List.xlsx
+++ b/Reduction Notes/Reduction_Status_List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="880" yWindow="14200" windowWidth="25080" windowHeight="13620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="23620" yWindow="5920" windowWidth="20920" windowHeight="14000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Radio Relic Sample" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="344">
   <si>
     <t>Semester</t>
   </si>
@@ -249,30 +249,6 @@
     <t>SUPA00562109</t>
   </si>
   <si>
-    <t>RXC J2228.6+2037</t>
-  </si>
-  <si>
-    <t>RXC J2228.6+2038</t>
-  </si>
-  <si>
-    <t>RXC J2228.6+2039</t>
-  </si>
-  <si>
-    <t>RXC J2228.6+2040</t>
-  </si>
-  <si>
-    <t>RXC J2228.6+2041</t>
-  </si>
-  <si>
-    <t>RXC J2228.6+2042</t>
-  </si>
-  <si>
-    <t>RXC J2228.6+2043</t>
-  </si>
-  <si>
-    <t>RXC J2228.6+2044</t>
-  </si>
-  <si>
     <t>SUPA00395940</t>
   </si>
   <si>
@@ -358,6 +334,729 @@
   </si>
   <si>
     <t>I used this as the deepband during reduction since the 2000aug RC band only had 8 chips.</t>
+  </si>
+  <si>
+    <t>A0115</t>
+  </si>
+  <si>
+    <t>A0209</t>
+  </si>
+  <si>
+    <t>A0520</t>
+  </si>
+  <si>
+    <t>A0665</t>
+  </si>
+  <si>
+    <t>A0754</t>
+  </si>
+  <si>
+    <t>A0781</t>
+  </si>
+  <si>
+    <t>A1351</t>
+  </si>
+  <si>
+    <t>A1413</t>
+  </si>
+  <si>
+    <t>A1430</t>
+  </si>
+  <si>
+    <t>A1443</t>
+  </si>
+  <si>
+    <t>A1763</t>
+  </si>
+  <si>
+    <t>A1914</t>
+  </si>
+  <si>
+    <t>A2163</t>
+  </si>
+  <si>
+    <t>A2219</t>
+  </si>
+  <si>
+    <t>A2261</t>
+  </si>
+  <si>
+    <t>A2552</t>
+  </si>
+  <si>
+    <t>A2813</t>
+  </si>
+  <si>
+    <t>Coma</t>
+  </si>
+  <si>
+    <t>MACS J1149.5+2223</t>
+  </si>
+  <si>
+    <t>MACS J2135.2-0102</t>
+  </si>
+  <si>
+    <t>RXC J1206.2-0848</t>
+  </si>
+  <si>
+    <t>RXC J1514.9-1523</t>
+  </si>
+  <si>
+    <t>ZwCl 0634.1+4750</t>
+  </si>
+  <si>
+    <t>ZwCl 0934.8+5216</t>
+  </si>
+  <si>
+    <t>ZwCl 2120.1+2256</t>
+  </si>
+  <si>
+    <t>W-S-I+</t>
+  </si>
+  <si>
+    <t>SUPA00243150</t>
+  </si>
+  <si>
+    <t>SUPA00243269</t>
+  </si>
+  <si>
+    <t>SUPA00429660</t>
+  </si>
+  <si>
+    <t>SUPA00429729</t>
+  </si>
+  <si>
+    <t>SUPA00429730</t>
+  </si>
+  <si>
+    <t>SUPA00429739</t>
+  </si>
+  <si>
+    <t>Check if this was done as part of radio relic sample.</t>
+  </si>
+  <si>
+    <t>SUPA00060870</t>
+  </si>
+  <si>
+    <t>SUPA00060929</t>
+  </si>
+  <si>
+    <t>SUPA00061400</t>
+  </si>
+  <si>
+    <t>SUPA00061439</t>
+  </si>
+  <si>
+    <t>SUPA00061510</t>
+  </si>
+  <si>
+    <t>SUPA00061569</t>
+  </si>
+  <si>
+    <t>SUPA00061720</t>
+  </si>
+  <si>
+    <t>SUPA00061729</t>
+  </si>
+  <si>
+    <t>SUPA01258130</t>
+  </si>
+  <si>
+    <t>SUPA01258449</t>
+  </si>
+  <si>
+    <t>SUPA01258460</t>
+  </si>
+  <si>
+    <t>SUPA01258559</t>
+  </si>
+  <si>
+    <t>SUPA01258560</t>
+  </si>
+  <si>
+    <t>SUPA01258609</t>
+  </si>
+  <si>
+    <t>Ask James for his reduction.</t>
+  </si>
+  <si>
+    <t>SUPA00023842</t>
+  </si>
+  <si>
+    <t>SUPA00023931</t>
+  </si>
+  <si>
+    <t>SUPA00024162</t>
+  </si>
+  <si>
+    <t>SUPA00024171</t>
+  </si>
+  <si>
+    <t>SUPA00024182</t>
+  </si>
+  <si>
+    <t>SUPA00024191</t>
+  </si>
+  <si>
+    <t>SUPA00024202</t>
+  </si>
+  <si>
+    <t>SUPA00024211</t>
+  </si>
+  <si>
+    <t>SUPA00025130</t>
+  </si>
+  <si>
+    <t>SUPA00025179</t>
+  </si>
+  <si>
+    <t>Perhaps discard. It seems like they were having issues. Just use the 2000-Nov-25 exposures?</t>
+  </si>
+  <si>
+    <t>SUPA00025680</t>
+  </si>
+  <si>
+    <t>SUPA00025739</t>
+  </si>
+  <si>
+    <t>SUPA00026900</t>
+  </si>
+  <si>
+    <t>SUPA00026919</t>
+  </si>
+  <si>
+    <t>SUPA00045790</t>
+  </si>
+  <si>
+    <t>SUPA00045809</t>
+  </si>
+  <si>
+    <t>SUPA00045890</t>
+  </si>
+  <si>
+    <t>SUPA00045919</t>
+  </si>
+  <si>
+    <t>SUPA01084300</t>
+  </si>
+  <si>
+    <t>SUPA01084389</t>
+  </si>
+  <si>
+    <t>SUPA01084390</t>
+  </si>
+  <si>
+    <t>SUPA01084439</t>
+  </si>
+  <si>
+    <t>SUPA00393800</t>
+  </si>
+  <si>
+    <t>SUPA00393879</t>
+  </si>
+  <si>
+    <t>W-S-G+</t>
+  </si>
+  <si>
+    <t>SUPA00393890</t>
+  </si>
+  <si>
+    <t>SUPA00393929</t>
+  </si>
+  <si>
+    <t>SUPA00190860</t>
+  </si>
+  <si>
+    <t>SUPA00190939</t>
+  </si>
+  <si>
+    <t>SUPA01195710</t>
+  </si>
+  <si>
+    <t>SUPA01195779</t>
+  </si>
+  <si>
+    <t>~0.7-1.2" seeing</t>
+  </si>
+  <si>
+    <t>SUPA01196980</t>
+  </si>
+  <si>
+    <t>SUPA01197069</t>
+  </si>
+  <si>
+    <t>SUPA01197150</t>
+  </si>
+  <si>
+    <t>SUPA01197219</t>
+  </si>
+  <si>
+    <t>0.52-0.74" seeing</t>
+  </si>
+  <si>
+    <t>done as part of MCC Radio Relic Sample</t>
+  </si>
+  <si>
+    <t>no data</t>
+  </si>
+  <si>
+    <t>SUPA00607960</t>
+  </si>
+  <si>
+    <t>SUPA00608019</t>
+  </si>
+  <si>
+    <t>SUPA00608030</t>
+  </si>
+  <si>
+    <t>SUPA00608199</t>
+  </si>
+  <si>
+    <t>SUPA00608490</t>
+  </si>
+  <si>
+    <t>SUPA00608649</t>
+  </si>
+  <si>
+    <t>SUPA01082950</t>
+  </si>
+  <si>
+    <t>SUPA01083049</t>
+  </si>
+  <si>
+    <t>SUPA01084680</t>
+  </si>
+  <si>
+    <t>SUPA01084729</t>
+  </si>
+  <si>
+    <t>SUPA01084890</t>
+  </si>
+  <si>
+    <t>SUPA01084929</t>
+  </si>
+  <si>
+    <t>(Sky) Clear | (Seeing) 0.62 - 1.26</t>
+  </si>
+  <si>
+    <t>(Sky) Thick Cirrus | (Seeing) 0.52 - 0.75</t>
+  </si>
+  <si>
+    <t>(Sky) Clear/Cirrus | (Seeing) 1.34</t>
+  </si>
+  <si>
+    <t>SUPA01083190</t>
+  </si>
+  <si>
+    <t>SUPA01083220</t>
+  </si>
+  <si>
+    <t>SUPA01083259</t>
+  </si>
+  <si>
+    <t>SUPA01085020</t>
+  </si>
+  <si>
+    <t>SUPA01085089</t>
+  </si>
+  <si>
+    <t>SUPA01196120</t>
+  </si>
+  <si>
+    <t>SUPA01196189</t>
+  </si>
+  <si>
+    <t>SUPA01199350</t>
+  </si>
+  <si>
+    <t>SUPA01199419</t>
+  </si>
+  <si>
+    <t>SUPA01083209</t>
+  </si>
+  <si>
+    <t>(Sky) Thick Cirrus | (Seeing) 0.52 - 0.74</t>
+  </si>
+  <si>
+    <t>(Sky) Clear/Clouds | (Seeing) 1.06</t>
+  </si>
+  <si>
+    <t>(Sky) Clear | (Seeing) 0.64</t>
+  </si>
+  <si>
+    <t>SUPA00394260</t>
+  </si>
+  <si>
+    <t>SUPA00394299</t>
+  </si>
+  <si>
+    <t>SUPA00394310</t>
+  </si>
+  <si>
+    <t>SUPA00394389</t>
+  </si>
+  <si>
+    <t>SUPA01354020</t>
+  </si>
+  <si>
+    <t>SUPA01354089</t>
+  </si>
+  <si>
+    <t>SUPA01397300</t>
+  </si>
+  <si>
+    <t>SUPA01397369</t>
+  </si>
+  <si>
+    <t>(Sky) cloudy | (Seeing) , CFHT Seeing ~0.5</t>
+  </si>
+  <si>
+    <t>(Sky) Clear | (Seeing) 0.52-0.6arcsec w/AG</t>
+  </si>
+  <si>
+    <t>(Sky) Clear | (Seeing) 0.58 -&gt;0.59 asec</t>
+  </si>
+  <si>
+    <t>SUPA00608690</t>
+  </si>
+  <si>
+    <t>SUPA00608839</t>
+  </si>
+  <si>
+    <t>SUPA01097940</t>
+  </si>
+  <si>
+    <t>SUPA01098009</t>
+  </si>
+  <si>
+    <t>SUPA01098020</t>
+  </si>
+  <si>
+    <t>SUPA01098099</t>
+  </si>
+  <si>
+    <t>(Sky) Clear/Cirrus | (Seeing) 0.74-1.11arcsec w/AG</t>
+  </si>
+  <si>
+    <t>Part of radio relic sample. (Sky) Clear | (Seeing) 0.62 - 1.26</t>
+  </si>
+  <si>
+    <t>SUPA00328670</t>
+  </si>
+  <si>
+    <t>SUPA00328759</t>
+  </si>
+  <si>
+    <t>SUPA00330220</t>
+  </si>
+  <si>
+    <t>SUPA00330279</t>
+  </si>
+  <si>
+    <t>SUPA00487030</t>
+  </si>
+  <si>
+    <t>SUPA00487089</t>
+  </si>
+  <si>
+    <t>SUPA00562880</t>
+  </si>
+  <si>
+    <t>SUPA00562959</t>
+  </si>
+  <si>
+    <t>SUPA00562960</t>
+  </si>
+  <si>
+    <t>SUPA00562999</t>
+  </si>
+  <si>
+    <t>SUPA01000380</t>
+  </si>
+  <si>
+    <t>SUPA01000439</t>
+  </si>
+  <si>
+    <t>SUPA01354160</t>
+  </si>
+  <si>
+    <t>SUPA01354229</t>
+  </si>
+  <si>
+    <t>(Sky) Clear | (Seeing) 0.68 - 1.62</t>
+  </si>
+  <si>
+    <t>(Sky) cirrus | (Seeing) 1&gt;</t>
+  </si>
+  <si>
+    <t>(Sky) clear/cirrus | (Seeing) 0.67</t>
+  </si>
+  <si>
+    <t>~0.9" seeing</t>
+  </si>
+  <si>
+    <t>~0.6" seeing</t>
+  </si>
+  <si>
+    <t>SUPA00328920</t>
+  </si>
+  <si>
+    <t>SUPA00329009</t>
+  </si>
+  <si>
+    <t>SUPA00329020</t>
+  </si>
+  <si>
+    <t>SUPA00329109</t>
+  </si>
+  <si>
+    <t>SUPA00484080</t>
+  </si>
+  <si>
+    <t>SUPA00484169</t>
+  </si>
+  <si>
+    <t>SUPA01354230</t>
+  </si>
+  <si>
+    <t>SUPA01354299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Sky) Clear | (Seeing) 0.47 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Sky) Clear | (Seeing) 0.53 - 1.1 </t>
+  </si>
+  <si>
+    <t>SUPA00329390</t>
+  </si>
+  <si>
+    <t>SUPA00329449</t>
+  </si>
+  <si>
+    <t>SUPA00329640</t>
+  </si>
+  <si>
+    <t>SUPA00330899</t>
+  </si>
+  <si>
+    <t>SUPA00436010</t>
+  </si>
+  <si>
+    <t>SUPA00436069</t>
+  </si>
+  <si>
+    <t>SUPA01354370</t>
+  </si>
+  <si>
+    <t>SUPA01354439</t>
+  </si>
+  <si>
+    <t>SUPA00329679</t>
+  </si>
+  <si>
+    <t>SUPA00330870</t>
+  </si>
+  <si>
+    <t>(Sky) clear | (Seeing) 0.41 - 1.11</t>
+  </si>
+  <si>
+    <t>SUPA01125860</t>
+  </si>
+  <si>
+    <t>SUPA01125929</t>
+  </si>
+  <si>
+    <t>SUPA01262770</t>
+  </si>
+  <si>
+    <t>SUPA01262839</t>
+  </si>
+  <si>
+    <t>SUPA01262850</t>
+  </si>
+  <si>
+    <t>SUPA01262939</t>
+  </si>
+  <si>
+    <t>(Sky) Clear | (Seeing) 0.39 - 0.60</t>
+  </si>
+  <si>
+    <t>(Sky) Clear | (Seeing) 0.63 - 0.95</t>
+  </si>
+  <si>
+    <t>MCC Radio Relic Sample Cluster</t>
+  </si>
+  <si>
+    <t>tons of data</t>
+  </si>
+  <si>
+    <t>Old 1999 data with just 6 CCD's and single exposures. Not worth using</t>
+  </si>
+  <si>
+    <t>SUPA00030330</t>
+  </si>
+  <si>
+    <t>SUPA00030379</t>
+  </si>
+  <si>
+    <t>SUPA00198950</t>
+  </si>
+  <si>
+    <t>SUPA00199009</t>
+  </si>
+  <si>
+    <t>SUPA00200320</t>
+  </si>
+  <si>
+    <t>SUPA00200469</t>
+  </si>
+  <si>
+    <t>SUPA00205260</t>
+  </si>
+  <si>
+    <t>SUPA00375719</t>
+  </si>
+  <si>
+    <t>SUPA00375720</t>
+  </si>
+  <si>
+    <t>SUPA00205349</t>
+  </si>
+  <si>
+    <t>SUPA00375690</t>
+  </si>
+  <si>
+    <t>SUPA00375749</t>
+  </si>
+  <si>
+    <t>SUPA00376910</t>
+  </si>
+  <si>
+    <t>SUPA00376939</t>
+  </si>
+  <si>
+    <t>SUPA00508970</t>
+  </si>
+  <si>
+    <t>SUPA00509029</t>
+  </si>
+  <si>
+    <t>SUPA01201720</t>
+  </si>
+  <si>
+    <t>SUPA01201759</t>
+  </si>
+  <si>
+    <t>SUPA01201770</t>
+  </si>
+  <si>
+    <t>SUPA01201859</t>
+  </si>
+  <si>
+    <t>SUPA01201870</t>
+  </si>
+  <si>
+    <t>SUPA01201959</t>
+  </si>
+  <si>
+    <t>MACS J1149.5+2224</t>
+  </si>
+  <si>
+    <t>MACS J1149.5+2225</t>
+  </si>
+  <si>
+    <t>MACS J1149.5+2226</t>
+  </si>
+  <si>
+    <t>MACS J1149.5+2227</t>
+  </si>
+  <si>
+    <t>MACS J1149.5+2228</t>
+  </si>
+  <si>
+    <t>MACS J1149.5+2229</t>
+  </si>
+  <si>
+    <t>MACS J1149.5+2230</t>
+  </si>
+  <si>
+    <t>MACS J1149.5+2231</t>
+  </si>
+  <si>
+    <t>MACS J1149.5+2232</t>
+  </si>
+  <si>
+    <t>MACS J1149.5+2233</t>
+  </si>
+  <si>
+    <t>(Sky) clear to some cirrus | (Seeing) 0.66 to 1.0</t>
+  </si>
+  <si>
+    <t>(Sky) Clear | (Seeing) 0.72 - 1.61</t>
+  </si>
+  <si>
+    <t>(Sky) Patchy Cirrus | (Seeing) 1.06, 0.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Sky) Clear | (Seeing) 0.483, 0.53, 0.95 </t>
+  </si>
+  <si>
+    <t>~0.7" seeing</t>
+  </si>
+  <si>
+    <t>~0.6"-1" seeing</t>
+  </si>
+  <si>
+    <t>SUPA00205360</t>
+  </si>
+  <si>
+    <t>SUPA00205449</t>
+  </si>
+  <si>
+    <t>SUPA00205460</t>
+  </si>
+  <si>
+    <t>SUPA00205519</t>
+  </si>
+  <si>
+    <t>SUPA00285410</t>
+  </si>
+  <si>
+    <t>SUPA00285489</t>
+  </si>
+  <si>
+    <t>SUPA01058610</t>
+  </si>
+  <si>
+    <t>SUPA01058669</t>
+  </si>
+  <si>
+    <t>SUPA01058710</t>
+  </si>
+  <si>
+    <t>SUPA01058769</t>
+  </si>
+  <si>
+    <t>SUPA01096210</t>
+  </si>
+  <si>
+    <t>SUPA01096259</t>
+  </si>
+  <si>
+    <t>SUPA01283500</t>
+  </si>
+  <si>
+    <t>SUPA01283559</t>
+  </si>
+  <si>
+    <t>(Sky) clear to cirrus | (Seeing) 0.66 to 1.3</t>
+  </si>
+  <si>
+    <t>(Sky) Clear/Thin Cirrus | (Seeing) 0.72 - 1.1</t>
+  </si>
+  <si>
+    <t>(Sky) Clear | (Seeing) 0.65 - 1.3"</t>
   </si>
 </sst>
 </file>
@@ -367,7 +1066,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mmm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -404,18 +1103,115 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -452,13 +1248,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -485,7 +1322,28 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mmm\-dd;@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -493,6 +1351,34 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P111" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:P111"/>
+  <sortState ref="A2:P57">
+    <sortCondition ref="B1:B57"/>
+  </sortState>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Semester" dataDxfId="1"/>
+    <tableColumn id="2" name="Cluster"/>
+    <tableColumn id="3" name="Band"/>
+    <tableColumn id="4" name="Raw Data"/>
+    <tableColumn id="5" name="FRAMEID_start"/>
+    <tableColumn id="6" name="FRAMID_end"/>
+    <tableColumn id="7" name="Exposures"/>
+    <tableColumn id="8" name="Exposure (s)"/>
+    <tableColumn id="9" name="Total Exp (m)"/>
+    <tableColumn id="10" name="Flat Raw"/>
+    <tableColumn id="11" name="Flat Reduced"/>
+    <tableColumn id="12" name="Image"/>
+    <tableColumn id="13" name="SExtractor Catalog"/>
+    <tableColumn id="14" name="Shapes"/>
+    <tableColumn id="15" name="Deep Band?"/>
+    <tableColumn id="16" name="Comment"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -760,7 +1646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
@@ -1833,22 +2719,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92:D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" customWidth="1"/>
-    <col min="10" max="11" width="9.6640625" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.5" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="23.1640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="16.1640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" x14ac:dyDescent="0.2">
@@ -1871,19 +2764,19 @@
         <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>4</v>
@@ -1902,798 +2795,4264 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>38476</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2">
+      <c r="A2" s="5">
+        <v>37889</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="6">
         <f>(RIGHT(F2,LEN(F2)-4)-RIGHT(E2,LEN(E2)-4)+1)/10</f>
+        <v>12</v>
+      </c>
+      <c r="H2" s="6">
+        <v>90</v>
+      </c>
+      <c r="I2" s="6">
+        <f>G2*H2/60</f>
+        <v>18</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>38628</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="6">
+        <f>(RIGHT(F3,LEN(F3)-4)-RIGHT(E3,LEN(E3)-4)+1)/10</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>450</v>
+      </c>
+      <c r="I3" s="6">
+        <f>G3*H3/60</f>
+        <v>7.5</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>38628</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="6">
+        <f>(RIGHT(F4,LEN(F4)-4)-RIGHT(E4,LEN(E4)-4)+1)/10</f>
+        <v>7</v>
+      </c>
+      <c r="H4" s="6">
+        <v>300</v>
+      </c>
+      <c r="I4" s="6">
+        <f>G4*H4/60</f>
+        <v>35</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>37178</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="8">
+        <f>(RIGHT(F5,LEN(F5)-4)-RIGHT(E5,LEN(E5)-4)+1)/10</f>
+        <v>6</v>
+      </c>
+      <c r="H5" s="8">
+        <v>240</v>
+      </c>
+      <c r="I5" s="8">
+        <f>G5*H5/60</f>
+        <v>24</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>37179</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="8">
+        <f>(RIGHT(F6,LEN(F6)-4)-RIGHT(E6,LEN(E6)-4)+1)/10</f>
+        <v>4</v>
+      </c>
+      <c r="H6" s="8">
+        <v>450</v>
+      </c>
+      <c r="I6" s="8">
+        <f>G6*H6/60</f>
+        <v>30</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>37179</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="8">
+        <f>(RIGHT(F7,LEN(F7)-4)-RIGHT(E7,LEN(E7)-4)+1)/10</f>
+        <v>6</v>
+      </c>
+      <c r="H7" s="8">
+        <v>120</v>
+      </c>
+      <c r="I7" s="8">
+        <f>G7*H7/60</f>
+        <v>12</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>37179</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="8">
+        <f>(RIGHT(F8,LEN(F8)-4)-RIGHT(E8,LEN(E8)-4)+1)/10</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="8">
+        <v>240</v>
+      </c>
+      <c r="I8" s="8">
+        <f>G8*H8/60</f>
+        <v>4</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>40486</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="8">
+        <f>(RIGHT(F9,LEN(F9)-4)-RIGHT(E9,LEN(E9)-4)+1)/10</f>
+        <v>32</v>
+      </c>
+      <c r="H9" s="8">
+        <v>150</v>
+      </c>
+      <c r="I9" s="8">
+        <f>G9*H9/60</f>
+        <v>80</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>40486</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="8">
+        <f>(RIGHT(F10,LEN(F10)-4)-RIGHT(E10,LEN(E10)-4)+1)/10</f>
+        <v>10</v>
+      </c>
+      <c r="H10" s="8">
+        <v>240</v>
+      </c>
+      <c r="I10" s="8">
+        <f>G10*H10/60</f>
+        <v>40</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>40486</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="8">
+        <f>(RIGHT(F11,LEN(F11)-4)-RIGHT(E11,LEN(E11)-4)+1)/10</f>
+        <v>5</v>
+      </c>
+      <c r="H11" s="8">
+        <v>480</v>
+      </c>
+      <c r="I11" s="8">
+        <f>G11*H11/60</f>
+        <v>40</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>36852</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="12">
+        <f>(RIGHT(F13,LEN(F13)-4)-RIGHT(E13,LEN(E13)-4)+1)/10</f>
         <v>9</v>
       </c>
-      <c r="H2">
-        <v>60</v>
-      </c>
-      <c r="I2">
-        <f>G2*H2/60</f>
+      <c r="H13" s="12">
+        <v>360</v>
+      </c>
+      <c r="I13" s="12">
+        <f>G13*H13/60</f>
+        <v>54</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>36853</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="12">
+        <f>(RIGHT(F14,LEN(F14)-4)-RIGHT(E14,LEN(E14)-4)+1)/10</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="12">
+        <v>120</v>
+      </c>
+      <c r="I14" s="12">
+        <f>G14*H14/60</f>
+        <v>2</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>36853</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="12">
+        <f>(RIGHT(F15,LEN(F15)-4)-RIGHT(E15,LEN(E15)-4)+1)/10</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="12">
+        <v>120</v>
+      </c>
+      <c r="I15" s="12">
+        <f>G15*H15/60</f>
+        <v>2</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>36853</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="12">
+        <f>(RIGHT(F16,LEN(F16)-4)-RIGHT(E16,LEN(E16)-4)+1)/10</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="12">
+        <v>120</v>
+      </c>
+      <c r="I16" s="12">
+        <f>G16*H16/60</f>
+        <v>2</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>36855</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="12">
+        <f>(RIGHT(F17,LEN(F17)-4)-RIGHT(E17,LEN(E17)-4)+1)/10</f>
+        <v>5</v>
+      </c>
+      <c r="H17" s="12">
+        <v>360</v>
+      </c>
+      <c r="I17" s="12">
+        <f>G17*H17/60</f>
+        <v>30</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>36856</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" ref="G18:G29" si="0">(RIGHT(F18,LEN(F18)-4)-RIGHT(E18,LEN(E18)-4)+1)/10</f>
+        <v>6</v>
+      </c>
+      <c r="H18" s="12">
+        <v>90</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" ref="I18:I29" si="1">G18*H18/60</f>
         <v>9</v>
       </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>108</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>37829</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G17" si="0">(RIGHT(F3,LEN(F3)-4)-RIGHT(E3,LEN(E3)-4)+1)/10</f>
-        <v>9</v>
-      </c>
-      <c r="H3">
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>36858</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H19" s="12">
+        <v>360</v>
+      </c>
+      <c r="I19" s="12">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>36974</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H20" s="12">
         <v>240</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I17" si="1">G3*H3/60</f>
-        <v>36</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>38187</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4">
+      <c r="I20" s="12">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>36974</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H21" s="12">
+        <v>360</v>
+      </c>
+      <c r="I21" s="12">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>39901</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H4">
-        <v>180</v>
-      </c>
-      <c r="I4">
+      <c r="H22" s="12">
+        <v>240</v>
+      </c>
+      <c r="I22" s="12">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>38893</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>39901</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5">
+      <c r="D23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H23" s="12">
+        <v>240</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>38453</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H5">
-        <v>240</v>
-      </c>
-      <c r="I5">
+      <c r="H24" s="14">
+        <v>360</v>
+      </c>
+      <c r="I24" s="14">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>39281</v>
-      </c>
-      <c r="B6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <v>38453</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H25" s="14">
+        <v>180</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>37685</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H6">
+      <c r="D26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>39307</v>
-      </c>
-      <c r="B7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="P7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>39307</v>
-      </c>
-      <c r="B8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="P8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>39307</v>
-      </c>
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="P9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>39307</v>
-      </c>
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="P10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>39307</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11">
+      <c r="G26" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H11">
-        <v>180</v>
-      </c>
-      <c r="I11">
+      <c r="H26" s="16">
+        <v>120</v>
+      </c>
+      <c r="I26" s="16">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>36744</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-      <c r="H12">
-        <v>480</v>
-      </c>
-      <c r="I12">
+        <v>16</v>
+      </c>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>40251</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H27" s="16">
+        <v>240</v>
+      </c>
+      <c r="I27" s="16">
         <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="J12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>36744</v>
-      </c>
-      <c r="B13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-      <c r="H13">
-        <v>180</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="J13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>37829</v>
-      </c>
-      <c r="B14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14">
+        <v>28</v>
+      </c>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>40252</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" s="16">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="H28" s="16">
         <v>240</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="J14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>37889</v>
-      </c>
-      <c r="B15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H15">
-        <v>360</v>
-      </c>
-      <c r="I15">
+      <c r="I28" s="16">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="J15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" t="s">
-        <v>12</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>40252</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29" s="16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H29" s="16">
+        <v>240</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="34"/>
+      <c r="B31" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="21">
+        <v>39545</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="C32" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G32" s="22">
+        <f t="shared" ref="G32:G37" si="2">(RIGHT(F32,LEN(F32)-4)-RIGHT(E32,LEN(E32)-4)+1)/10</f>
+        <v>6</v>
+      </c>
+      <c r="H32" s="22">
+        <v>300</v>
+      </c>
+      <c r="I32" s="16">
+        <f t="shared" ref="I32:I37" si="3">G32*H32/60</f>
+        <v>30</v>
+      </c>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="21">
+        <v>39545</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" s="22">
+        <f>(RIGHT(F33,LEN(F33)-4)-RIGHT(E33,LEN(E33)-4)+1)/10-1</f>
+        <v>16</v>
+      </c>
+      <c r="H33" s="22">
+        <v>300</v>
+      </c>
+      <c r="I33" s="16">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="21">
+        <v>39545</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G34" s="22">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="H34" s="22">
+        <v>300</v>
+      </c>
+      <c r="I34" s="16">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="21">
+        <v>39900</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="G35" s="22">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H35" s="22">
+        <v>240</v>
+      </c>
+      <c r="I35" s="16">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="21">
+        <v>39901</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G36" s="22">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H36" s="22">
+        <v>240</v>
+      </c>
+      <c r="I36" s="16">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="21">
+        <v>39901</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="G37" s="22">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H37" s="22">
+        <v>240</v>
+      </c>
+      <c r="I37" s="16">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="36"/>
+      <c r="B38" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="38"/>
+      <c r="B39" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="27">
+        <v>39900</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="G40" s="28">
+        <f t="shared" ref="G40:G71" si="4">(RIGHT(F40,LEN(F40)-4)-RIGHT(E40,LEN(E40)-4)+1)/10</f>
+        <v>2</v>
+      </c>
+      <c r="H40" s="28">
+        <v>240</v>
+      </c>
+      <c r="I40" s="28">
+        <f t="shared" ref="I40:I71" si="5">G40*H40/60</f>
+        <v>8</v>
+      </c>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="27">
+        <v>39900</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="G41" s="28">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H41" s="28">
+        <v>240</v>
+      </c>
+      <c r="I41" s="28">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="27">
+        <v>39901</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="G42" s="28">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H42" s="28">
+        <v>240</v>
+      </c>
+      <c r="I42" s="28">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="27">
+        <v>40251</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="G43" s="28">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H43" s="28">
+        <v>240</v>
+      </c>
+      <c r="I43" s="28">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="27">
+        <v>40253</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="G44" s="28">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H44" s="28">
+        <v>240</v>
+      </c>
+      <c r="I44" s="28">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="29">
+        <v>38453</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="G45" s="30">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H45" s="30">
+        <v>180</v>
+      </c>
+      <c r="I45" s="30">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="29">
+        <v>38453</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="G46" s="30">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H46" s="30">
+        <v>360</v>
+      </c>
+      <c r="I46" s="30">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="29">
+        <v>41115</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="G47" s="30">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H47" s="30">
+        <v>180</v>
+      </c>
+      <c r="I47" s="30">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="29">
+        <v>41434</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="G48" s="30">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H48" s="30">
+        <v>240</v>
+      </c>
+      <c r="I48" s="30">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="31">
+        <v>39545</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="G49" s="32">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="H49" s="32">
+        <v>300</v>
+      </c>
+      <c r="I49" s="32">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="31">
+        <v>39933</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="G50" s="32">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H50" s="32">
+        <v>300</v>
+      </c>
+      <c r="I50" s="32">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="31">
+        <v>39933</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="F51" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="G51" s="32">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H51" s="32">
+        <v>300</v>
+      </c>
+      <c r="I51" s="32">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="19">
+        <v>38186</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="G52" s="20">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H52" s="20">
+        <v>120</v>
+      </c>
+      <c r="I52" s="20">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="19">
+        <v>38187</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="G53" s="20">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H53" s="20">
+        <v>240</v>
+      </c>
+      <c r="I53" s="20">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="19">
+        <v>38893</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="G54" s="20">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H54" s="20">
+        <v>120</v>
+      </c>
+      <c r="I54" s="20">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="19">
+        <v>39308</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="G55" s="20">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H55" s="20">
+        <v>315</v>
+      </c>
+      <c r="I55" s="20">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" s="19">
+        <v>39308</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="G56" s="20">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H56" s="20">
+        <v>315</v>
+      </c>
+      <c r="I56" s="20">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" s="19">
+        <v>39659</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="G57" s="20">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H57" s="20">
+        <v>240</v>
+      </c>
+      <c r="I57" s="20">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" s="19">
+        <v>41115</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="G58" s="20">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H58" s="20">
+        <v>180</v>
+      </c>
+      <c r="I58" s="20">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" s="21">
+        <v>38186</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="G59" s="22">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H59" s="22">
+        <v>120</v>
+      </c>
+      <c r="I59" s="22">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" s="21">
+        <v>38186</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="G60" s="22">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H60" s="22">
+        <v>180</v>
+      </c>
+      <c r="I60" s="22">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" s="21">
+        <v>38867</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G61" s="22">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H61" s="22">
+        <v>80</v>
+      </c>
+      <c r="I61" s="22">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" s="21">
+        <v>41115</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="G62" s="22">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H62" s="22">
+        <v>180</v>
+      </c>
+      <c r="I62" s="22">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63" s="36">
+        <v>38476</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F63" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G63" s="37">
+        <f>(RIGHT(F63,LEN(F63)-4)-RIGHT(E63,LEN(E63)-4)+1)/10</f>
+        <v>9</v>
+      </c>
+      <c r="H63" s="37">
+        <v>60</v>
+      </c>
+      <c r="I63" s="37">
+        <f>G63*H63/60</f>
+        <v>9</v>
+      </c>
+      <c r="J63" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="K63" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="L63" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="M63" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="P63" s="37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64" s="25">
+        <v>38186</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="G64" s="26">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H64" s="26">
+        <v>120</v>
+      </c>
+      <c r="I64" s="26">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="26"/>
+      <c r="O64" s="26"/>
+      <c r="P64" s="26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65" s="25">
+        <v>38186</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="G65" s="26">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H65" s="26">
+        <v>240</v>
+      </c>
+      <c r="I65" s="26">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="26"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="26"/>
+      <c r="P65" s="26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A66" s="25">
+        <v>38187</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="G66" s="26">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H66" s="26">
+        <v>240</v>
+      </c>
+      <c r="I66" s="26">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="26"/>
+      <c r="P66" s="26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A67" s="25">
+        <v>38686</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="F67" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="G67" s="26">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H67" s="26">
+        <v>120</v>
+      </c>
+      <c r="I67" s="26">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="26"/>
+      <c r="P67" s="26" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A68" s="25">
+        <v>41115</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="G68" s="26">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H68" s="26">
+        <v>180</v>
+      </c>
+      <c r="I68" s="26">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="26"/>
+      <c r="P68" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A69" s="27">
+        <v>40075</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="F69" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="G69" s="28">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H69" s="28">
+        <v>240</v>
+      </c>
+      <c r="I69" s="28">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="28"/>
+      <c r="P69" s="28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A70" s="27">
+        <v>40489</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="F70" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="G70" s="28">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H70" s="28">
+        <v>240</v>
+      </c>
+      <c r="I70" s="28">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="28"/>
+      <c r="P70" s="28" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A71" s="27">
+        <v>40489</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="F71" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="G71" s="28">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H71" s="28">
+        <v>240</v>
+      </c>
+      <c r="I71" s="28">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="28"/>
+      <c r="P71" s="28" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A72" s="29"/>
+      <c r="B72" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="30"/>
+      <c r="M72" s="30"/>
+      <c r="N72" s="30"/>
+      <c r="O72" s="30"/>
+      <c r="P72" s="30" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A73" s="31"/>
+      <c r="B73" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="32"/>
+      <c r="N73" s="32"/>
+      <c r="O73" s="32"/>
+      <c r="P73" s="32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A74" s="19">
+        <v>36887</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="G74" s="20">
+        <f t="shared" ref="G74:G84" si="6">(RIGHT(F74,LEN(F74)-4)-RIGHT(E74,LEN(E74)-4)+1)/10</f>
+        <v>5</v>
+      </c>
+      <c r="H74" s="20">
+        <v>300</v>
+      </c>
+      <c r="I74" s="20">
+        <f t="shared" ref="I74:I84" si="7">G74*H74/60</f>
+        <v>25</v>
+      </c>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A75" s="19">
+        <v>37715</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="G75" s="20">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="H75" s="20">
+        <v>480</v>
+      </c>
+      <c r="I75" s="20">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="J75" s="20"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="20"/>
+      <c r="P75" s="20" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A76" s="19">
+        <v>37716</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="G76" s="20">
+        <f>(RIGHT(F76,LEN(F76)-4)-RIGHT(E76,LEN(E76)-4)+1)/10-1</f>
+        <v>14</v>
+      </c>
+      <c r="H76" s="20">
+        <v>360</v>
+      </c>
+      <c r="I76" s="20">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
+      <c r="J76" s="20"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="20"/>
+      <c r="O76" s="20"/>
+      <c r="P76" s="20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A77" s="19">
+        <v>37738</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="F77" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="G77" s="20">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="H77" s="20">
+        <v>180</v>
+      </c>
+      <c r="I77" s="20">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="J77" s="20"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="20"/>
+      <c r="O77" s="20"/>
+      <c r="P77" s="20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A78" s="19">
+        <v>38416</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="G78" s="20">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H78" s="20">
+        <v>150</v>
+      </c>
+      <c r="I78" s="20">
+        <f t="shared" si="7"/>
+        <v>7.5</v>
+      </c>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="20"/>
+      <c r="N78" s="20"/>
+      <c r="O78" s="20"/>
+      <c r="P78" s="20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A79" s="19">
+        <v>38416</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="F79" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="G79" s="20">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H79" s="20">
+        <v>150</v>
+      </c>
+      <c r="I79" s="20">
+        <f t="shared" si="7"/>
+        <v>7.5</v>
+      </c>
+      <c r="J79" s="20"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="20"/>
+      <c r="O79" s="20"/>
+      <c r="P79" s="20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A80" s="19">
+        <v>38417</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="G80" s="20">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H80" s="20">
+        <v>150</v>
+      </c>
+      <c r="I80" s="20">
+        <f t="shared" si="7"/>
+        <v>7.5</v>
+      </c>
+      <c r="J80" s="20"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="20"/>
+      <c r="O80" s="20"/>
+      <c r="P80" s="20" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A81" s="19">
+        <v>39072</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="F81" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="G81" s="20">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="H81" s="20">
+        <v>240</v>
+      </c>
+      <c r="I81" s="20">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="J81" s="20"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="20"/>
+      <c r="O81" s="20"/>
+      <c r="P81" s="20" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A82" s="19">
+        <v>40255</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="G82" s="20">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="H82" s="20">
+        <v>450</v>
+      </c>
+      <c r="I82" s="20">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="J82" s="20"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="20"/>
+      <c r="O82" s="20"/>
+      <c r="P82" s="20" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A83" s="19">
+        <v>40255</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="F83" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="G83" s="20">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="H83" s="20">
+        <v>240</v>
+      </c>
+      <c r="I83" s="20">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="20" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A84" s="19">
+        <v>40255</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="F84" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="G84" s="20">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="H84" s="20">
+        <v>250</v>
+      </c>
+      <c r="I84" s="20">
+        <f t="shared" si="7"/>
+        <v>37.5</v>
+      </c>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="20"/>
+      <c r="O84" s="20"/>
+      <c r="P84" s="20" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A85" s="41"/>
+      <c r="B85" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="42"/>
+      <c r="M85" s="42"/>
+      <c r="N85" s="42"/>
+      <c r="O85" s="42"/>
+      <c r="P85" s="42" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A86" s="23">
+        <v>36744</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G86" s="24">
+        <v>6</v>
+      </c>
+      <c r="H86" s="24">
+        <v>480</v>
+      </c>
+      <c r="I86" s="24">
+        <f>G86*H86/60</f>
+        <v>48</v>
+      </c>
+      <c r="J86" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K86" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L86" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M86" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N86" s="24"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A87" s="23">
+        <v>36744</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G87" s="24">
+        <v>6</v>
+      </c>
+      <c r="H87" s="24">
+        <v>180</v>
+      </c>
+      <c r="I87" s="24">
+        <f>G87*H87/60</f>
+        <v>18</v>
+      </c>
+      <c r="J87" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K87" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L87" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M87" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N87" s="24"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="24"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A88" s="23">
+        <v>37829</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G88" s="24">
+        <f>(RIGHT(F88,LEN(F88)-4)-RIGHT(E88,LEN(E88)-4)+1)/10</f>
+        <v>2</v>
+      </c>
+      <c r="H88" s="24">
+        <v>240</v>
+      </c>
+      <c r="I88" s="24">
+        <f>G88*H88/60</f>
+        <v>8</v>
+      </c>
+      <c r="J88" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K88" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L88" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M88" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N88" s="24"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="24"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A89" s="23">
+        <v>37889</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G89" s="24">
+        <f>(RIGHT(F89,LEN(F89)-4)-RIGHT(E89,LEN(E89)-4)+1)/10</f>
+        <v>6</v>
+      </c>
+      <c r="H89" s="24">
+        <v>360</v>
+      </c>
+      <c r="I89" s="24">
+        <f>G89*H89/60</f>
+        <v>36</v>
+      </c>
+      <c r="J89" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K89" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L89" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M89" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90" s="23">
         <v>39219</v>
       </c>
-      <c r="B16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B90" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
+      <c r="D90" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G90" s="24">
+        <f>(RIGHT(F90,LEN(F90)-4)-RIGHT(E90,LEN(E90)-4)+1)/10</f>
         <v>5</v>
       </c>
-      <c r="H16">
+      <c r="H90" s="24">
         <v>150</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
+      <c r="I90" s="24">
+        <f>G90*H90/60</f>
         <v>12.5</v>
       </c>
-      <c r="J16" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="J90" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K90" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L90" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M90" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N90" s="24"/>
+      <c r="O90" s="24"/>
+      <c r="P90" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A91" s="23">
         <v>39281</v>
       </c>
-      <c r="B17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B91" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
+      <c r="D91" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G91" s="24">
+        <f>(RIGHT(F91,LEN(F91)-4)-RIGHT(E91,LEN(E91)-4)+1)/10</f>
         <v>9</v>
       </c>
-      <c r="H17">
+      <c r="H91" s="24">
         <v>180</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
+      <c r="I91" s="24">
+        <f>G91*H91/60</f>
         <v>27</v>
       </c>
-      <c r="J17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
+      <c r="J91" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K91" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L91" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M91" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N91" s="24"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="24"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A92" s="25">
+        <v>37738</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D92" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="F92" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="G92" s="26">
+        <f>(RIGHT(F92,LEN(F92)-4)-RIGHT(E92,LEN(E92)-4)+1)/10</f>
+        <v>9</v>
+      </c>
+      <c r="H92" s="26">
+        <v>180</v>
+      </c>
+      <c r="I92" s="26">
+        <f>G92*H92/60</f>
+        <v>27</v>
+      </c>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="26"/>
+      <c r="N92" s="26"/>
+      <c r="O92" s="26"/>
+      <c r="P92" s="26" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A93" s="25">
+        <v>37738</v>
+      </c>
+      <c r="B93" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="F93" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="G93" s="26">
+        <f t="shared" ref="G93:G98" si="8">(RIGHT(F93,LEN(F93)-4)-RIGHT(E93,LEN(E93)-4)+1)/10</f>
+        <v>6</v>
+      </c>
+      <c r="H93" s="26">
+        <v>240</v>
+      </c>
+      <c r="I93" s="26">
+        <f t="shared" ref="I93:I98" si="9">G93*H93/60</f>
+        <v>24</v>
+      </c>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="26"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="26"/>
+      <c r="P93" s="26" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A94" s="25">
+        <v>38040</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="F94" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="G94" s="26">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="H94" s="26">
+        <v>360</v>
+      </c>
+      <c r="I94" s="26">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="J94" s="26"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="26"/>
+      <c r="M94" s="26"/>
+      <c r="N94" s="26"/>
+      <c r="O94" s="26"/>
+      <c r="P94" s="26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A95" s="25">
+        <v>39836</v>
+      </c>
+      <c r="B95" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="F95" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="G95" s="26">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="H95" s="26">
+        <v>360</v>
+      </c>
+      <c r="I95" s="26">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="J95" s="26"/>
+      <c r="K95" s="26"/>
+      <c r="L95" s="26"/>
+      <c r="M95" s="26"/>
+      <c r="N95" s="26"/>
+      <c r="O95" s="26"/>
+      <c r="P95" s="26" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A96" s="25">
+        <v>39836</v>
+      </c>
+      <c r="B96" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="F96" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="G96" s="26">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="H96" s="26">
+        <v>360</v>
+      </c>
+      <c r="I96" s="26">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="J96" s="26"/>
+      <c r="K96" s="26"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="26"/>
+      <c r="N96" s="26"/>
+      <c r="O96" s="26"/>
+      <c r="P96" s="26" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A97" s="25">
+        <v>39932</v>
+      </c>
+      <c r="B97" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="F97" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="G97" s="26">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="H97" s="26">
+        <v>480</v>
+      </c>
+      <c r="I97" s="26">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="J97" s="26"/>
+      <c r="K97" s="26"/>
+      <c r="L97" s="26"/>
+      <c r="M97" s="26"/>
+      <c r="N97" s="26"/>
+      <c r="O97" s="26"/>
+      <c r="P97" s="26" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A98" s="25">
+        <v>40549</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="F98" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="G98" s="26">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="H98" s="26">
+        <v>240</v>
+      </c>
+      <c r="I98" s="26">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="J98" s="26"/>
+      <c r="K98" s="26"/>
+      <c r="L98" s="26"/>
+      <c r="M98" s="26"/>
+      <c r="N98" s="26"/>
+      <c r="O98" s="26"/>
+      <c r="P98" s="26" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A99" s="45"/>
+      <c r="B99" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C99" s="46"/>
+      <c r="D99" s="46"/>
+      <c r="E99" s="46"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="46"/>
+      <c r="H99" s="46"/>
+      <c r="I99" s="46"/>
+      <c r="J99" s="46"/>
+      <c r="K99" s="46"/>
+      <c r="L99" s="46"/>
+      <c r="M99" s="46"/>
+      <c r="N99" s="46"/>
+      <c r="O99" s="46"/>
+      <c r="P99" s="46" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A100" s="29">
+        <v>37829</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D100" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F100" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G100" s="30">
+        <f>(RIGHT(F100,LEN(F100)-4)-RIGHT(E100,LEN(E100)-4)+1)/10</f>
+        <v>9</v>
+      </c>
+      <c r="H100" s="30">
+        <v>240</v>
+      </c>
+      <c r="I100" s="30">
+        <f>G100*H100/60</f>
+        <v>36</v>
+      </c>
+      <c r="J100" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K100" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L100" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M100" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N100" s="30"/>
+      <c r="O100" s="30"/>
+      <c r="P100" s="30"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A101" s="29">
+        <v>38187</v>
+      </c>
+      <c r="B101" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D101" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F101" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G101" s="30">
+        <f>(RIGHT(F101,LEN(F101)-4)-RIGHT(E101,LEN(E101)-4)+1)/10</f>
+        <v>9</v>
+      </c>
+      <c r="H101" s="30">
+        <v>180</v>
+      </c>
+      <c r="I101" s="30">
+        <f>G101*H101/60</f>
+        <v>27</v>
+      </c>
+      <c r="J101" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K101" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L101" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M101" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N101" s="30"/>
+      <c r="O101" s="30"/>
+      <c r="P101" s="30"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A102" s="29">
+        <v>38893</v>
+      </c>
+      <c r="B102" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D102" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F102" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G102" s="30">
+        <f>(RIGHT(F102,LEN(F102)-4)-RIGHT(E102,LEN(E102)-4)+1)/10</f>
+        <v>8</v>
+      </c>
+      <c r="H102" s="30">
+        <v>240</v>
+      </c>
+      <c r="I102" s="30">
+        <f>G102*H102/60</f>
+        <v>32</v>
+      </c>
+      <c r="J102" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K102" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L102" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M102" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N102" s="30"/>
+      <c r="O102" s="30"/>
+      <c r="P102" s="30"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A103" s="29">
+        <v>39281</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D103" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F103" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G103" s="30">
+        <f>(RIGHT(F103,LEN(F103)-4)-RIGHT(E103,LEN(E103)-4)+1)/10</f>
+        <v>10</v>
+      </c>
+      <c r="H103" s="30">
+        <v>180</v>
+      </c>
+      <c r="I103" s="30">
+        <f>G103*H103/60</f>
+        <v>30</v>
+      </c>
+      <c r="J103" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K103" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L103" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M103" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N103" s="30"/>
+      <c r="O103" s="30"/>
+      <c r="P103" s="30"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A104" s="29">
+        <v>39307</v>
+      </c>
+      <c r="B104" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F104" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G104" s="30">
+        <f>(RIGHT(F104,LEN(F104)-4)-RIGHT(E104,LEN(E104)-4)+1)/10</f>
+        <v>1</v>
+      </c>
+      <c r="H104" s="30">
+        <v>3</v>
+      </c>
+      <c r="I104" s="30">
+        <f>G104*H104/60</f>
+        <v>0.05</v>
+      </c>
+      <c r="J104" s="30"/>
+      <c r="K104" s="30"/>
+      <c r="L104" s="30"/>
+      <c r="M104" s="30"/>
+      <c r="N104" s="30"/>
+      <c r="O104" s="30"/>
+      <c r="P104" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A105" s="29">
+        <v>39307</v>
+      </c>
+      <c r="B105" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F105" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G105" s="30">
+        <f>(RIGHT(F105,LEN(F105)-4)-RIGHT(E105,LEN(E105)-4)+1)/10</f>
+        <v>1</v>
+      </c>
+      <c r="H105" s="30">
+        <v>3</v>
+      </c>
+      <c r="I105" s="30">
+        <f>G105*H105/60</f>
+        <v>0.05</v>
+      </c>
+      <c r="J105" s="30"/>
+      <c r="K105" s="30"/>
+      <c r="L105" s="30"/>
+      <c r="M105" s="30"/>
+      <c r="N105" s="30"/>
+      <c r="O105" s="30"/>
+      <c r="P105" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A106" s="29">
+        <v>39307</v>
+      </c>
+      <c r="B106" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F106" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G106" s="30">
+        <f>(RIGHT(F106,LEN(F106)-4)-RIGHT(E106,LEN(E106)-4)+1)/10</f>
+        <v>1</v>
+      </c>
+      <c r="H106" s="30">
+        <v>3</v>
+      </c>
+      <c r="I106" s="30">
+        <f>G106*H106/60</f>
+        <v>0.05</v>
+      </c>
+      <c r="J106" s="30"/>
+      <c r="K106" s="30"/>
+      <c r="L106" s="30"/>
+      <c r="M106" s="30"/>
+      <c r="N106" s="30"/>
+      <c r="O106" s="30"/>
+      <c r="P106" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A107" s="29">
+        <v>39307</v>
+      </c>
+      <c r="B107" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D107" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F107" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G107" s="30">
+        <f>(RIGHT(F107,LEN(F107)-4)-RIGHT(E107,LEN(E107)-4)+1)/10</f>
+        <v>1</v>
+      </c>
+      <c r="H107" s="30">
+        <v>3</v>
+      </c>
+      <c r="I107" s="30">
+        <f>G107*H107/60</f>
+        <v>0.05</v>
+      </c>
+      <c r="J107" s="30"/>
+      <c r="K107" s="30"/>
+      <c r="L107" s="30"/>
+      <c r="M107" s="30"/>
+      <c r="N107" s="30"/>
+      <c r="O107" s="30"/>
+      <c r="P107" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A108" s="29">
+        <v>39307</v>
+      </c>
+      <c r="B108" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D108" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F108" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G108" s="30">
+        <f>(RIGHT(F108,LEN(F108)-4)-RIGHT(E108,LEN(E108)-4)+1)/10</f>
+        <v>8</v>
+      </c>
+      <c r="H108" s="30">
+        <v>180</v>
+      </c>
+      <c r="I108" s="30">
+        <f>G108*H108/60</f>
+        <v>24</v>
+      </c>
+      <c r="J108" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K108" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L108" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M108" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N108" s="30"/>
+      <c r="O108" s="30"/>
+      <c r="P108" s="30"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A109" s="43"/>
+      <c r="B109" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C109" s="44"/>
+      <c r="D109" s="44"/>
+      <c r="E109" s="44"/>
+      <c r="F109" s="44"/>
+      <c r="G109" s="44"/>
+      <c r="H109" s="44"/>
+      <c r="I109" s="44"/>
+      <c r="J109" s="44"/>
+      <c r="K109" s="44"/>
+      <c r="L109" s="44"/>
+      <c r="M109" s="44"/>
+      <c r="N109" s="44"/>
+      <c r="O109" s="44"/>
+      <c r="P109" s="44" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A110" s="34"/>
+      <c r="B110" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C110" s="35"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="35"/>
+      <c r="F110" s="35"/>
+      <c r="G110" s="35"/>
+      <c r="H110" s="35"/>
+      <c r="I110" s="35"/>
+      <c r="J110" s="35"/>
+      <c r="K110" s="35"/>
+      <c r="L110" s="35"/>
+      <c r="M110" s="35"/>
+      <c r="N110" s="35"/>
+      <c r="O110" s="35"/>
+      <c r="P110" s="35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A111" s="41"/>
+      <c r="B111" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C111" s="42"/>
+      <c r="D111" s="42"/>
+      <c r="E111" s="42"/>
+      <c r="F111" s="42"/>
+      <c r="G111" s="42"/>
+      <c r="H111" s="42"/>
+      <c r="I111" s="42"/>
+      <c r="J111" s="42"/>
+      <c r="K111" s="42"/>
+      <c r="L111" s="42"/>
+      <c r="M111" s="42"/>
+      <c r="N111" s="42"/>
+      <c r="O111" s="42"/>
+      <c r="P111" s="42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A112" s="4"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="4"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="4"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="4"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="4"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="4"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="4"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="4"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="4"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="4"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="4"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Reduction Notes/Reduction_Status_List.xlsx
+++ b/Reduction Notes/Reduction_Status_List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="680" windowWidth="23260" windowHeight="22020" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="680" windowWidth="20280" windowHeight="22020" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Radio Relic Sample" sheetId="1" r:id="rId1"/>
     <sheet name="MC3PO Sample" sheetId="2" r:id="rId2"/>
+    <sheet name="RELICS Sample" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="537">
   <si>
     <t>Semester</t>
   </si>
@@ -1222,6 +1223,420 @@
   </si>
   <si>
     <t>(Sky) cloud-somewhat clear | (Seeing) 1.05, based on DIM seeing is more around 0.8"</t>
+  </si>
+  <si>
+    <t>PLCK G287.0+32.9</t>
+  </si>
+  <si>
+    <t>MACSJ0308.9+2645</t>
+  </si>
+  <si>
+    <t>ACT-CLJ0102-49151</t>
+  </si>
+  <si>
+    <t>RXC J0600.1-2007</t>
+  </si>
+  <si>
+    <t>PSZ2 G209.79+10.23</t>
+  </si>
+  <si>
+    <t>PLCK G171.9-40.7</t>
+  </si>
+  <si>
+    <t>PLCK G004.5-19.5</t>
+  </si>
+  <si>
+    <t>PLCK G308.3-20.2</t>
+  </si>
+  <si>
+    <t>RXC J0018.5+1626</t>
+  </si>
+  <si>
+    <t>SPT-CLJ0254-5857</t>
+  </si>
+  <si>
+    <t>PSZ2 G138.61-10.84</t>
+  </si>
+  <si>
+    <t>RXC J0142.9+4438</t>
+  </si>
+  <si>
+    <t>WHL J24.3324-8.477</t>
+  </si>
+  <si>
+    <t>MACSJ0553.4-3342</t>
+  </si>
+  <si>
+    <t>SMACSJ0723.3-7327</t>
+  </si>
+  <si>
+    <t>RXC J0949.8+1707</t>
+  </si>
+  <si>
+    <t>A1758a</t>
+  </si>
+  <si>
+    <t>RXC J0032.1+1808</t>
+  </si>
+  <si>
+    <t>RXCJ0232.2-4420</t>
+  </si>
+  <si>
+    <t>A3192</t>
+  </si>
+  <si>
+    <t>MACSJ0159.8-0849</t>
+  </si>
+  <si>
+    <t>MACSJ0035.4-2015</t>
+  </si>
+  <si>
+    <t>RXC J0911.1+1746</t>
+  </si>
+  <si>
+    <t>AS295</t>
+  </si>
+  <si>
+    <t>SPT-CLJ0615-5746</t>
+  </si>
+  <si>
+    <t>MACSJ0257.1-2325</t>
+  </si>
+  <si>
+    <t>A2537</t>
+  </si>
+  <si>
+    <t>MS1008.1-1224</t>
+  </si>
+  <si>
+    <t>MACSJ0025.4-1222</t>
+  </si>
+  <si>
+    <t>CLJ0152.7-1357</t>
+  </si>
+  <si>
+    <t>A0697</t>
+  </si>
+  <si>
+    <t>RELICS #</t>
+  </si>
+  <si>
+    <t>MACS J0417.5-1154</t>
+  </si>
+  <si>
+    <t>SUPA00080900</t>
+  </si>
+  <si>
+    <t>SUPA00080959</t>
+  </si>
+  <si>
+    <t>SUPA00080960</t>
+  </si>
+  <si>
+    <t>SUPA00080969</t>
+  </si>
+  <si>
+    <t>SUPA00284230</t>
+  </si>
+  <si>
+    <t>SUPA00284349</t>
+  </si>
+  <si>
+    <t>SUPA00286020</t>
+  </si>
+  <si>
+    <t>SUPA00286139</t>
+  </si>
+  <si>
+    <t>SUPA01057750</t>
+  </si>
+  <si>
+    <t>SUPA01057869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Sky) Clear | (Seeing) 0.65 - 1.3" </t>
+  </si>
+  <si>
+    <t>~0.8-1.1" seeing</t>
+  </si>
+  <si>
+    <t>~0.9-1.3" seeing</t>
+  </si>
+  <si>
+    <t>SUPA00472420</t>
+  </si>
+  <si>
+    <t>SUPA00472459</t>
+  </si>
+  <si>
+    <t>SUPA00514780</t>
+  </si>
+  <si>
+    <t>SUPA00514829</t>
+  </si>
+  <si>
+    <t>SUPA00515090</t>
+  </si>
+  <si>
+    <t>SUPA00515169</t>
+  </si>
+  <si>
+    <t>(Sky) Clear | (Seeing) 0.67 - 0.90</t>
+  </si>
+  <si>
+    <t>(Sky) cirrus | (Seeing) 1.11-&gt;1.62 asec</t>
+  </si>
+  <si>
+    <t>RXS J060313.4+4212</t>
+  </si>
+  <si>
+    <t>Not visible from Subaru.</t>
+  </si>
+  <si>
+    <t>No data.</t>
+  </si>
+  <si>
+    <t>RXC J2211.7-0350</t>
+  </si>
+  <si>
+    <t>SUPA00022652</t>
+  </si>
+  <si>
+    <t>SUPA00022749</t>
+  </si>
+  <si>
+    <t>SUPA00022822</t>
+  </si>
+  <si>
+    <t>SUPA00022939</t>
+  </si>
+  <si>
+    <t>Missing some chips</t>
+  </si>
+  <si>
+    <t>SUPA00232050</t>
+  </si>
+  <si>
+    <t>SUPA00232129</t>
+  </si>
+  <si>
+    <t>SUPA00242610</t>
+  </si>
+  <si>
+    <t>SUPA00242729</t>
+  </si>
+  <si>
+    <t>SUPA00330720</t>
+  </si>
+  <si>
+    <t>SUPA00330869</t>
+  </si>
+  <si>
+    <t>SUPA00542560</t>
+  </si>
+  <si>
+    <t>No useful data.</t>
+  </si>
+  <si>
+    <t>SUPA00542609</t>
+  </si>
+  <si>
+    <t>SUPA01125490</t>
+  </si>
+  <si>
+    <t>SUPA01125559</t>
+  </si>
+  <si>
+    <t>SUPA01127300</t>
+  </si>
+  <si>
+    <t>SUPA01127389</t>
+  </si>
+  <si>
+    <t>(Sky) Clear/Fog | (Seeing) 0.56 - 0.80</t>
+  </si>
+  <si>
+    <t>(Sky) Cirrus | (Seeing) 0.54 - 1.58</t>
+  </si>
+  <si>
+    <t>~0.6-1.1" seeing</t>
+  </si>
+  <si>
+    <t>~0.5" seeing</t>
+  </si>
+  <si>
+    <t>~0.4-1" seeing</t>
+  </si>
+  <si>
+    <t>SUPA00436280</t>
+  </si>
+  <si>
+    <t>SUPA00436359</t>
+  </si>
+  <si>
+    <t>(Sky) clear | (Seeing) 0.41 - 1.11, seeing 0.8 for these</t>
+  </si>
+  <si>
+    <t>SUPA00582130</t>
+  </si>
+  <si>
+    <t>SUPA00582179</t>
+  </si>
+  <si>
+    <t>SUPA01125570</t>
+  </si>
+  <si>
+    <t>SUPA01125639</t>
+  </si>
+  <si>
+    <t>SUPA01127400</t>
+  </si>
+  <si>
+    <t>SUPA01127489</t>
+  </si>
+  <si>
+    <t>(Sky) Clear | (Seeing) 0.45 - 0.52</t>
+  </si>
+  <si>
+    <t>SUPA00170660</t>
+  </si>
+  <si>
+    <t>SUPA00170759</t>
+  </si>
+  <si>
+    <t>SUPA00170770</t>
+  </si>
+  <si>
+    <t>SUPA00170829</t>
+  </si>
+  <si>
+    <t>SUPA00232460</t>
+  </si>
+  <si>
+    <t>SUPA00232539</t>
+  </si>
+  <si>
+    <t>SUPA00242880</t>
+  </si>
+  <si>
+    <t>SUPA00243059</t>
+  </si>
+  <si>
+    <t>SUPA00244460</t>
+  </si>
+  <si>
+    <t>SUPA00244539</t>
+  </si>
+  <si>
+    <t>SUPA00244670</t>
+  </si>
+  <si>
+    <t>SUPA00244789</t>
+  </si>
+  <si>
+    <t>SUPA00245160</t>
+  </si>
+  <si>
+    <t>SUPA00245379</t>
+  </si>
+  <si>
+    <t>SUPA00245390</t>
+  </si>
+  <si>
+    <t>SUPA00245469</t>
+  </si>
+  <si>
+    <t>SUPA00245620</t>
+  </si>
+  <si>
+    <t>SUPA00245709</t>
+  </si>
+  <si>
+    <t>SUPA00507590</t>
+  </si>
+  <si>
+    <t>SUPA00507679</t>
+  </si>
+  <si>
+    <t>SUPA00554890</t>
+  </si>
+  <si>
+    <t>SUPA00554949</t>
+  </si>
+  <si>
+    <t>SUPA00562160</t>
+  </si>
+  <si>
+    <t>SUPA00562189</t>
+  </si>
+  <si>
+    <t>SUPA00562210</t>
+  </si>
+  <si>
+    <t>SUPA00562389</t>
+  </si>
+  <si>
+    <t>SUPA00577170</t>
+  </si>
+  <si>
+    <t>SUPA00577189</t>
+  </si>
+  <si>
+    <t>SUPA00588480</t>
+  </si>
+  <si>
+    <t>SUPA00588509</t>
+  </si>
+  <si>
+    <t>SUPA01024700</t>
+  </si>
+  <si>
+    <t>SUPA01024799</t>
+  </si>
+  <si>
+    <t>SUPA01024810</t>
+  </si>
+  <si>
+    <t>SUPA01025009</t>
+  </si>
+  <si>
+    <t>SUPA01025020</t>
+  </si>
+  <si>
+    <t>SUPA01025119</t>
+  </si>
+  <si>
+    <t>SUPA01025130</t>
+  </si>
+  <si>
+    <t>SUPA01025189</t>
+  </si>
+  <si>
+    <t>SUPA01025200</t>
+  </si>
+  <si>
+    <t>SUPA01025259</t>
+  </si>
+  <si>
+    <t>(Sky) Clear | (Seeing) ?</t>
+  </si>
+  <si>
+    <t>~0.5-1" seeing</t>
+  </si>
+  <si>
+    <t>(Sky) Clear | (Seeing) 0.52 - 0.73</t>
+  </si>
+  <si>
+    <t>(Sky) Clear | (Seeing) 0.33 - 0.83</t>
+  </si>
+  <si>
+    <t>(Sky) Clear | (Seeing) 0.31-0.47arcsec w/AG</t>
+  </si>
+  <si>
+    <t>~0.4-0.8" seeing</t>
+  </si>
+  <si>
+    <t>~0.4-0.7" seeing</t>
   </si>
 </sst>
 </file>
@@ -1231,7 +1646,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mmm\-dd;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1367,8 +1782,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1381,8 +1808,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1390,8 +1835,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF5B9BD5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5B9BD5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1419,8 +1875,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1477,8 +1939,16 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1492,6 +1962,9 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1505,61 +1978,20 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="164" formatCode="yyyy\-mmm\-dd;@"/>
     </dxf>
     <dxf>
       <font>
@@ -1572,10 +2004,10 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="13"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -1713,6 +2145,42 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1836,6 +2304,23 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1845,14 +2330,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="13"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mmm\-dd;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1865,24 +2347,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Q85" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Q85" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:Q85"/>
   <sortState ref="A2:Q54">
     <sortCondition ref="A1:A54"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="Cluster" dataDxfId="18"/>
-    <tableColumn id="2" name="Date" dataDxfId="17"/>
-    <tableColumn id="3" name="Semester" dataDxfId="16"/>
-    <tableColumn id="4" name="Band" dataDxfId="15"/>
-    <tableColumn id="5" name="Raw Data" dataDxfId="14"/>
-    <tableColumn id="6" name="FRAMEID_start" dataDxfId="13"/>
-    <tableColumn id="7" name="FRAMID_end" dataDxfId="12"/>
-    <tableColumn id="8" name="Exposures" dataDxfId="1">
+    <tableColumn id="1" name="Cluster" dataDxfId="20"/>
+    <tableColumn id="2" name="Date" dataDxfId="19"/>
+    <tableColumn id="3" name="Semester" dataDxfId="18"/>
+    <tableColumn id="4" name="Band" dataDxfId="17"/>
+    <tableColumn id="5" name="Raw Data" dataDxfId="16"/>
+    <tableColumn id="6" name="FRAMEID_start" dataDxfId="15"/>
+    <tableColumn id="7" name="FRAMID_end" dataDxfId="14"/>
+    <tableColumn id="8" name="Exposures" dataDxfId="13">
       <calculatedColumnFormula>(RIGHT(G2,LEN(G2)-4)-RIGHT(F2,LEN(F2)-4)+1)/10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Exposure (s)" dataDxfId="11"/>
-    <tableColumn id="10" name="Total Exp (m)" dataDxfId="0">
+    <tableColumn id="9" name="Exposure (s)" dataDxfId="12"/>
+    <tableColumn id="10" name="Total Exp (m)" dataDxfId="11">
       <calculatedColumnFormula>H2*I2/60</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="Flat Raw" dataDxfId="10"/>
@@ -1898,11 +2380,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q113" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q113" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:Q113"/>
   <tableColumns count="17">
     <tableColumn id="2" name="Cluster"/>
-    <tableColumn id="1" name="Date" dataDxfId="20"/>
+    <tableColumn id="1" name="Date" dataDxfId="2"/>
     <tableColumn id="17" name="Semester2"/>
     <tableColumn id="3" name="Band"/>
     <tableColumn id="4" name="Raw Data"/>
@@ -1920,6 +2402,33 @@
     <tableColumn id="16" name="Comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:R96" totalsRowShown="0">
+  <autoFilter ref="A1:R96"/>
+  <tableColumns count="18">
+    <tableColumn id="18" name="RELICS #"/>
+    <tableColumn id="1" name="Cluster"/>
+    <tableColumn id="2" name="Date"/>
+    <tableColumn id="3" name="Semester"/>
+    <tableColumn id="4" name="Band"/>
+    <tableColumn id="5" name="Raw Data"/>
+    <tableColumn id="6" name="FRAMEID_start"/>
+    <tableColumn id="7" name="FRAMID_end"/>
+    <tableColumn id="8" name="Exposures" dataDxfId="1"/>
+    <tableColumn id="9" name="Exposure (s)"/>
+    <tableColumn id="10" name="Total Exp (m)" dataDxfId="0"/>
+    <tableColumn id="11" name="Flat Raw"/>
+    <tableColumn id="12" name="Flat Reduced"/>
+    <tableColumn id="13" name="Image"/>
+    <tableColumn id="14" name="SExtractor Catalog"/>
+    <tableColumn id="15" name="Shapes"/>
+    <tableColumn id="16" name="Deep Band?"/>
+    <tableColumn id="17" name="Comment"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2188,8 +2697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:Q73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3553,14 +4062,14 @@
         <v>377</v>
       </c>
       <c r="H40" s="54">
-        <f>(RIGHT(G40,LEN(G40)-4)-RIGHT(F40,LEN(F40)-4)+1)/10</f>
+        <f t="shared" ref="H40:H47" si="4">(RIGHT(G40,LEN(G40)-4)-RIGHT(F40,LEN(F40)-4)+1)/10</f>
         <v>8</v>
       </c>
       <c r="I40" s="12">
         <v>315</v>
       </c>
       <c r="J40" s="12">
-        <f t="shared" ref="J40:J85" si="4">H40*I40/60</f>
+        <f t="shared" ref="J40:J85" si="5">H40*I40/60</f>
         <v>42</v>
       </c>
       <c r="K40" s="12"/>
@@ -3594,7 +4103,7 @@
         <v>379</v>
       </c>
       <c r="H41" s="54">
-        <f>(RIGHT(G41,LEN(G41)-4)-RIGHT(F41,LEN(F41)-4)+1)/10</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I41" s="12">
@@ -3635,7 +4144,7 @@
         <v>381</v>
       </c>
       <c r="H42" s="54">
-        <f>(RIGHT(G42,LEN(G42)-4)-RIGHT(F42,LEN(F42)-4)+1)/10</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I42" s="12">
@@ -3676,7 +4185,7 @@
         <v>384</v>
       </c>
       <c r="H43" s="54">
-        <f>(RIGHT(G43,LEN(G43)-4)-RIGHT(F43,LEN(F43)-4)+1)/10</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I43" s="12">
@@ -3717,7 +4226,7 @@
         <v>386</v>
       </c>
       <c r="H44" s="54">
-        <f>(RIGHT(G44,LEN(G44)-4)-RIGHT(F44,LEN(F44)-4)+1)/10</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I44" s="12">
@@ -3758,14 +4267,14 @@
         <v>392</v>
       </c>
       <c r="H45" s="55">
-        <f>(RIGHT(G45,LEN(G45)-4)-RIGHT(F45,LEN(F45)-4)+1)/10</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I45" s="14">
         <v>300</v>
       </c>
       <c r="J45" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="K45" s="14"/>
@@ -3799,7 +4308,7 @@
         <v>395</v>
       </c>
       <c r="H46" s="55">
-        <f>(RIGHT(G46,LEN(G46)-4)-RIGHT(F46,LEN(F46)-4)+1)/10</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="I46" s="14">
@@ -3840,7 +4349,7 @@
         <v>394</v>
       </c>
       <c r="H47" s="55">
-        <f>(RIGHT(G47,LEN(G47)-4)-RIGHT(F47,LEN(F47)-4)+1)/10</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I47" s="14">
@@ -3873,7 +4382,7 @@
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
       <c r="J48" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K48" s="16"/>
@@ -3901,7 +4410,7 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K49" s="4"/>
@@ -3935,7 +4444,7 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K50" s="4"/>
@@ -3969,7 +4478,7 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K51" s="4"/>
@@ -4003,7 +4512,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K52" s="6"/>
@@ -4037,7 +4546,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K53" s="6"/>
@@ -4073,7 +4582,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K54" s="6"/>
@@ -4107,7 +4616,7 @@
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K55" s="8"/>
@@ -4139,7 +4648,7 @@
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
       <c r="J56" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K56" s="8"/>
@@ -4173,14 +4682,14 @@
         <v>285</v>
       </c>
       <c r="H57" s="10">
-        <f t="shared" ref="H57:H67" si="5">(RIGHT(G57,LEN(G57)-4)-RIGHT(F57,LEN(F57)-4)+1)/10</f>
+        <f t="shared" ref="H57:H67" si="6">(RIGHT(G57,LEN(G57)-4)-RIGHT(F57,LEN(F57)-4)+1)/10</f>
         <v>5</v>
       </c>
       <c r="I57" s="10">
         <v>300</v>
       </c>
       <c r="J57" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="K57" s="10"/>
@@ -4214,14 +4723,14 @@
         <v>287</v>
       </c>
       <c r="H58" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I58" s="10">
         <v>480</v>
       </c>
       <c r="J58" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="K58" s="10"/>
@@ -4262,7 +4771,7 @@
         <v>360</v>
       </c>
       <c r="J59" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="K59" s="10"/>
@@ -4296,14 +4805,14 @@
         <v>293</v>
       </c>
       <c r="H60" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="I60" s="10">
         <v>180</v>
       </c>
       <c r="J60" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="K60" s="10"/>
@@ -4337,14 +4846,14 @@
         <v>291</v>
       </c>
       <c r="H61" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I61" s="10">
         <v>150</v>
       </c>
       <c r="J61" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.5</v>
       </c>
       <c r="K61" s="10"/>
@@ -4378,14 +4887,14 @@
         <v>295</v>
       </c>
       <c r="H62" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I62" s="10">
         <v>150</v>
       </c>
       <c r="J62" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.5</v>
       </c>
       <c r="K62" s="10"/>
@@ -4419,14 +4928,14 @@
         <v>297</v>
       </c>
       <c r="H63" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I63" s="10">
         <v>150</v>
       </c>
       <c r="J63" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.5</v>
       </c>
       <c r="K63" s="10"/>
@@ -4460,14 +4969,14 @@
         <v>299</v>
       </c>
       <c r="H64" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I64" s="10">
         <v>240</v>
       </c>
       <c r="J64" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="K64" s="10"/>
@@ -4501,14 +5010,14 @@
         <v>301</v>
       </c>
       <c r="H65" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I65" s="10">
         <v>450</v>
       </c>
       <c r="J65" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="K65" s="10"/>
@@ -4542,14 +5051,14 @@
         <v>303</v>
       </c>
       <c r="H66" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="I66" s="10">
         <v>240</v>
       </c>
       <c r="J66" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="K66" s="10"/>
@@ -4583,14 +5092,14 @@
         <v>305</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="I67" s="10">
         <v>250</v>
       </c>
       <c r="J67" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
       <c r="K67" s="10"/>
@@ -4620,7 +5129,7 @@
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
       <c r="J68" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K68" s="12"/>
@@ -4652,7 +5161,7 @@
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
       <c r="J69" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K69" s="12"/>
@@ -4682,7 +5191,7 @@
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
       <c r="J70" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K70" s="12"/>
@@ -4712,7 +5221,7 @@
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
       <c r="J71" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K71" s="12"/>
@@ -4742,7 +5251,7 @@
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K72" s="14"/>
@@ -4774,7 +5283,7 @@
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K73" s="14"/>
@@ -4804,7 +5313,7 @@
       <c r="H74" s="16"/>
       <c r="I74" s="16"/>
       <c r="J74" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K74" s="16"/>
@@ -4836,7 +5345,7 @@
       <c r="H75" s="16"/>
       <c r="I75" s="16"/>
       <c r="J75" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K75" s="16"/>
@@ -4866,7 +5375,7 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K76" s="4"/>
@@ -4900,7 +5409,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K77" s="4"/>
@@ -4934,7 +5443,7 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K78" s="4"/>
@@ -4968,7 +5477,7 @@
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K79" s="6"/>
@@ -5000,7 +5509,7 @@
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K80" s="6"/>
@@ -5030,7 +5539,7 @@
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
       <c r="J81" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K81" s="8"/>
@@ -5064,7 +5573,7 @@
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
       <c r="J82" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K82" s="8"/>
@@ -5098,7 +5607,7 @@
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K83" s="8"/>
@@ -5132,7 +5641,7 @@
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
       <c r="J84" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K84" s="10"/>
@@ -5164,7 +5673,7 @@
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
       <c r="J85" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K85" s="10"/>
@@ -5189,8 +5698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q125"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5203,12 +5712,12 @@
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="23.1640625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="17.1640625" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="23.1640625" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
     <col min="17" max="17" width="76" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.5" customWidth="1"/>
   </cols>
@@ -5285,14 +5794,14 @@
         <v>125</v>
       </c>
       <c r="H2" s="4">
-        <f>(RIGHT(G2,LEN(G2)-4)-RIGHT(F2,LEN(F2)-4)+1)/10</f>
+        <f t="shared" ref="H2:H11" si="0">(RIGHT(G2,LEN(G2)-4)-RIGHT(F2,LEN(F2)-4)+1)/10</f>
         <v>12</v>
       </c>
       <c r="I2" s="4">
         <v>90</v>
       </c>
       <c r="J2" s="4">
-        <f>H2*I2/60</f>
+        <f t="shared" ref="J2:J11" si="1">H2*I2/60</f>
         <v>18</v>
       </c>
       <c r="K2" s="4"/>
@@ -5324,14 +5833,14 @@
         <v>129</v>
       </c>
       <c r="H3" s="4">
-        <f>(RIGHT(G3,LEN(G3)-4)-RIGHT(F3,LEN(F3)-4)+1)/10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I3" s="4">
         <v>450</v>
       </c>
       <c r="J3" s="4">
-        <f>H3*I3/60</f>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="K3" s="4"/>
@@ -5361,14 +5870,14 @@
         <v>127</v>
       </c>
       <c r="H4" s="4">
-        <f>(RIGHT(G4,LEN(G4)-4)-RIGHT(F4,LEN(F4)-4)+1)/10</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I4" s="4">
         <v>300</v>
       </c>
       <c r="J4" s="4">
-        <f>H4*I4/60</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="K4" s="4"/>
@@ -5400,14 +5909,14 @@
         <v>132</v>
       </c>
       <c r="H5" s="6">
-        <f>(RIGHT(G5,LEN(G5)-4)-RIGHT(F5,LEN(F5)-4)+1)/10</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I5" s="6">
         <v>240</v>
       </c>
       <c r="J5" s="6">
-        <f>H5*I5/60</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="K5" s="6"/>
@@ -5439,14 +5948,14 @@
         <v>134</v>
       </c>
       <c r="H6" s="6">
-        <f>(RIGHT(G6,LEN(G6)-4)-RIGHT(F6,LEN(F6)-4)+1)/10</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I6" s="6">
         <v>450</v>
       </c>
       <c r="J6" s="6">
-        <f>H6*I6/60</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="K6" s="6"/>
@@ -5478,14 +5987,14 @@
         <v>136</v>
       </c>
       <c r="H7" s="6">
-        <f>(RIGHT(G7,LEN(G7)-4)-RIGHT(F7,LEN(F7)-4)+1)/10</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I7" s="6">
         <v>120</v>
       </c>
       <c r="J7" s="6">
-        <f>H7*I7/60</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="K7" s="6"/>
@@ -5517,14 +6026,14 @@
         <v>138</v>
       </c>
       <c r="H8" s="6">
-        <f>(RIGHT(G8,LEN(G8)-4)-RIGHT(F8,LEN(F8)-4)+1)/10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I8" s="6">
         <v>240</v>
       </c>
       <c r="J8" s="6">
-        <f>H8*I8/60</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K8" s="6"/>
@@ -5556,14 +6065,14 @@
         <v>140</v>
       </c>
       <c r="H9" s="6">
-        <f>(RIGHT(G9,LEN(G9)-4)-RIGHT(F9,LEN(F9)-4)+1)/10</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="I9" s="6">
         <v>150</v>
       </c>
       <c r="J9" s="6">
-        <f>H9*I9/60</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="K9" s="6"/>
@@ -5595,14 +6104,14 @@
         <v>142</v>
       </c>
       <c r="H10" s="6">
-        <f>(RIGHT(G10,LEN(G10)-4)-RIGHT(F10,LEN(F10)-4)+1)/10</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I10" s="6">
         <v>240</v>
       </c>
       <c r="J10" s="6">
-        <f>H10*I10/60</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="K10" s="6"/>
@@ -5634,14 +6143,14 @@
         <v>144</v>
       </c>
       <c r="H11" s="6">
-        <f>(RIGHT(G11,LEN(G11)-4)-RIGHT(F11,LEN(F11)-4)+1)/10</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I11" s="6">
         <v>480</v>
       </c>
       <c r="J11" s="6">
-        <f>H11*I11/60</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="K11" s="6"/>
@@ -5899,14 +6408,14 @@
         <v>158</v>
       </c>
       <c r="H18" s="10">
-        <f t="shared" ref="H18:H29" si="0">(RIGHT(G18,LEN(G18)-4)-RIGHT(F18,LEN(F18)-4)+1)/10</f>
+        <f t="shared" ref="H18:H29" si="2">(RIGHT(G18,LEN(G18)-4)-RIGHT(F18,LEN(F18)-4)+1)/10</f>
         <v>6</v>
       </c>
       <c r="I18" s="10">
         <v>90</v>
       </c>
       <c r="J18" s="10">
-        <f t="shared" ref="J18:J29" si="1">H18*I18/60</f>
+        <f t="shared" ref="J18:J29" si="3">H18*I18/60</f>
         <v>9</v>
       </c>
       <c r="K18" s="10"/>
@@ -5938,14 +6447,14 @@
         <v>160</v>
       </c>
       <c r="H19" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I19" s="10">
         <v>360</v>
       </c>
       <c r="J19" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="K19" s="10"/>
@@ -5977,14 +6486,14 @@
         <v>162</v>
       </c>
       <c r="H20" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I20" s="10">
         <v>240</v>
       </c>
       <c r="J20" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="K20" s="10"/>
@@ -6016,14 +6525,14 @@
         <v>164</v>
       </c>
       <c r="H21" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I21" s="10">
         <v>360</v>
       </c>
       <c r="J21" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="K21" s="10"/>
@@ -6055,14 +6564,14 @@
         <v>166</v>
       </c>
       <c r="H22" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I22" s="10">
         <v>240</v>
       </c>
       <c r="J22" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="K22" s="10"/>
@@ -6094,14 +6603,14 @@
         <v>168</v>
       </c>
       <c r="H23" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I23" s="10">
         <v>240</v>
       </c>
       <c r="J23" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="K23" s="10"/>
@@ -6133,14 +6642,14 @@
         <v>170</v>
       </c>
       <c r="H24" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I24" s="12">
         <v>360</v>
       </c>
       <c r="J24" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="K24" s="12"/>
@@ -6172,14 +6681,14 @@
         <v>173</v>
       </c>
       <c r="H25" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I25" s="12">
         <v>180</v>
       </c>
       <c r="J25" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="K25" s="12"/>
@@ -6211,14 +6720,14 @@
         <v>175</v>
       </c>
       <c r="H26" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I26" s="14">
         <v>120</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="K26" s="14"/>
@@ -6250,14 +6759,14 @@
         <v>177</v>
       </c>
       <c r="H27" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I27" s="14">
         <v>240</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="K27" s="14"/>
@@ -6291,14 +6800,14 @@
         <v>180</v>
       </c>
       <c r="H28" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I28" s="14">
         <v>240</v>
       </c>
       <c r="J28" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="K28" s="14"/>
@@ -6332,14 +6841,14 @@
         <v>182</v>
       </c>
       <c r="H29" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I29" s="14">
         <v>240</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="K29" s="14"/>
@@ -6419,14 +6928,14 @@
         <v>187</v>
       </c>
       <c r="H32" s="20">
-        <f t="shared" ref="H32:H37" si="2">(RIGHT(G32,LEN(G32)-4)-RIGHT(F32,LEN(F32)-4)+1)/10</f>
+        <f t="shared" ref="H32:H37" si="4">(RIGHT(G32,LEN(G32)-4)-RIGHT(F32,LEN(F32)-4)+1)/10</f>
         <v>6</v>
       </c>
       <c r="I32" s="20">
         <v>300</v>
       </c>
       <c r="J32" s="14">
-        <f t="shared" ref="J32:J37" si="3">H32*I32/60</f>
+        <f t="shared" ref="J32:J37" si="5">H32*I32/60</f>
         <v>30</v>
       </c>
       <c r="K32" s="20"/>
@@ -6465,7 +6974,7 @@
         <v>300</v>
       </c>
       <c r="J33" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="K33" s="20"/>
@@ -6499,14 +7008,14 @@
         <v>191</v>
       </c>
       <c r="H34" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="I34" s="20">
         <v>300</v>
       </c>
       <c r="J34" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="K34" s="20"/>
@@ -6540,14 +7049,14 @@
         <v>193</v>
       </c>
       <c r="H35" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I35" s="20">
         <v>240</v>
       </c>
       <c r="J35" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="K35" s="20"/>
@@ -6581,14 +7090,14 @@
         <v>195</v>
       </c>
       <c r="H36" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I36" s="20">
         <v>240</v>
       </c>
       <c r="J36" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="K36" s="20"/>
@@ -6622,14 +7131,14 @@
         <v>197</v>
       </c>
       <c r="H37" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I37" s="20">
         <v>240</v>
       </c>
       <c r="J37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="K37" s="20"/>
@@ -6709,14 +7218,14 @@
         <v>210</v>
       </c>
       <c r="H40" s="26">
-        <f t="shared" ref="H40:H71" si="4">(RIGHT(G40,LEN(G40)-4)-RIGHT(F40,LEN(F40)-4)+1)/10</f>
+        <f t="shared" ref="H40:H71" si="6">(RIGHT(G40,LEN(G40)-4)-RIGHT(F40,LEN(F40)-4)+1)/10</f>
         <v>2</v>
       </c>
       <c r="I40" s="26">
         <v>240</v>
       </c>
       <c r="J40" s="26">
-        <f t="shared" ref="J40:J74" si="5">H40*I40/60</f>
+        <f t="shared" ref="J40:J74" si="7">H40*I40/60</f>
         <v>8</v>
       </c>
       <c r="K40" s="26"/>
@@ -6750,14 +7259,14 @@
         <v>203</v>
       </c>
       <c r="H41" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I41" s="26">
         <v>240</v>
       </c>
       <c r="J41" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="K41" s="26"/>
@@ -6791,14 +7300,14 @@
         <v>205</v>
       </c>
       <c r="H42" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I42" s="26">
         <v>240</v>
       </c>
       <c r="J42" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="K42" s="26"/>
@@ -6832,14 +7341,14 @@
         <v>207</v>
       </c>
       <c r="H43" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I43" s="26">
         <v>240</v>
       </c>
       <c r="J43" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="K43" s="26"/>
@@ -6873,14 +7382,14 @@
         <v>209</v>
       </c>
       <c r="H44" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I44" s="26">
         <v>240</v>
       </c>
       <c r="J44" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="K44" s="26"/>
@@ -6914,14 +7423,14 @@
         <v>215</v>
       </c>
       <c r="H45" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I45" s="28">
         <v>180</v>
       </c>
       <c r="J45" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="K45" s="28"/>
@@ -6955,14 +7464,14 @@
         <v>217</v>
       </c>
       <c r="H46" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I46" s="28">
         <v>360</v>
       </c>
       <c r="J46" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="K46" s="28"/>
@@ -6996,14 +7505,14 @@
         <v>219</v>
       </c>
       <c r="H47" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I47" s="28">
         <v>180</v>
       </c>
       <c r="J47" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="K47" s="28"/>
@@ -7037,14 +7546,14 @@
         <v>221</v>
       </c>
       <c r="H48" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I48" s="28">
         <v>240</v>
       </c>
       <c r="J48" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="K48" s="28"/>
@@ -7078,14 +7587,14 @@
         <v>226</v>
       </c>
       <c r="H49" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="I49" s="30">
         <v>300</v>
       </c>
       <c r="J49" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="K49" s="30"/>
@@ -7119,14 +7628,14 @@
         <v>228</v>
       </c>
       <c r="H50" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I50" s="30">
         <v>300</v>
       </c>
       <c r="J50" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="K50" s="30"/>
@@ -7160,14 +7669,14 @@
         <v>230</v>
       </c>
       <c r="H51" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I51" s="30">
         <v>300</v>
       </c>
       <c r="J51" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="K51" s="30"/>
@@ -7201,14 +7710,14 @@
         <v>234</v>
       </c>
       <c r="H52" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="I52" s="18">
         <v>120</v>
       </c>
       <c r="J52" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="K52" s="18"/>
@@ -7242,14 +7751,14 @@
         <v>236</v>
       </c>
       <c r="H53" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I53" s="18">
         <v>240</v>
       </c>
       <c r="J53" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="K53" s="18"/>
@@ -7283,14 +7792,14 @@
         <v>238</v>
       </c>
       <c r="H54" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I54" s="18">
         <v>120</v>
       </c>
       <c r="J54" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="K54" s="18"/>
@@ -7324,14 +7833,14 @@
         <v>240</v>
       </c>
       <c r="H55" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I55" s="18">
         <v>315</v>
       </c>
       <c r="J55" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="K55" s="18"/>
@@ -7365,14 +7874,14 @@
         <v>242</v>
       </c>
       <c r="H56" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I56" s="18">
         <v>315</v>
       </c>
       <c r="J56" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="K56" s="18"/>
@@ -7406,14 +7915,14 @@
         <v>244</v>
       </c>
       <c r="H57" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I57" s="18">
         <v>240</v>
       </c>
       <c r="J57" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="K57" s="18"/>
@@ -7447,14 +7956,14 @@
         <v>246</v>
       </c>
       <c r="H58" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I58" s="18">
         <v>180</v>
       </c>
       <c r="J58" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="K58" s="18"/>
@@ -7488,14 +7997,14 @@
         <v>253</v>
       </c>
       <c r="H59" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="I59" s="20">
         <v>120</v>
       </c>
       <c r="J59" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="K59" s="20"/>
@@ -7529,14 +8038,14 @@
         <v>255</v>
       </c>
       <c r="H60" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="I60" s="20">
         <v>180</v>
       </c>
       <c r="J60" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="K60" s="20"/>
@@ -7570,14 +8079,14 @@
         <v>257</v>
       </c>
       <c r="H61" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="I61" s="20">
         <v>80</v>
       </c>
       <c r="J61" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="K61" s="20"/>
@@ -7611,14 +8120,14 @@
         <v>259</v>
       </c>
       <c r="H62" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I62" s="20">
         <v>180</v>
       </c>
       <c r="J62" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="K62" s="20"/>
@@ -7703,14 +8212,14 @@
         <v>263</v>
       </c>
       <c r="H64" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I64" s="24">
         <v>120</v>
       </c>
       <c r="J64" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="K64" s="24"/>
@@ -7744,14 +8253,14 @@
         <v>270</v>
       </c>
       <c r="H65" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I65" s="24">
         <v>240</v>
       </c>
       <c r="J65" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="K65" s="24"/>
@@ -7785,14 +8294,14 @@
         <v>265</v>
       </c>
       <c r="H66" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I66" s="24">
         <v>240</v>
       </c>
       <c r="J66" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="K66" s="24"/>
@@ -7826,14 +8335,14 @@
         <v>267</v>
       </c>
       <c r="H67" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I67" s="24">
         <v>120</v>
       </c>
       <c r="J67" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="K67" s="24"/>
@@ -7867,14 +8376,14 @@
         <v>269</v>
       </c>
       <c r="H68" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I68" s="24">
         <v>180</v>
       </c>
       <c r="J68" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="K68" s="24"/>
@@ -7908,14 +8417,14 @@
         <v>274</v>
       </c>
       <c r="H69" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I69" s="26">
         <v>240</v>
       </c>
       <c r="J69" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="K69" s="26"/>
@@ -7949,14 +8458,14 @@
         <v>276</v>
       </c>
       <c r="H70" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I70" s="26">
         <v>240</v>
       </c>
       <c r="J70" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="K70" s="26"/>
@@ -7990,14 +8499,14 @@
         <v>278</v>
       </c>
       <c r="H71" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="I71" s="26">
         <v>240</v>
       </c>
       <c r="J71" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="K71" s="26"/>
@@ -8027,7 +8536,7 @@
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K72" s="14"/>
@@ -8063,7 +8572,7 @@
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K73" s="14"/>
@@ -8099,7 +8608,7 @@
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
       <c r="J74" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K74" s="14"/>
@@ -8160,14 +8669,14 @@
         <v>285</v>
       </c>
       <c r="H76" s="18">
-        <f t="shared" ref="H76:H86" si="6">(RIGHT(G76,LEN(G76)-4)-RIGHT(F76,LEN(F76)-4)+1)/10</f>
+        <f t="shared" ref="H76:H86" si="8">(RIGHT(G76,LEN(G76)-4)-RIGHT(F76,LEN(F76)-4)+1)/10</f>
         <v>5</v>
       </c>
       <c r="I76" s="18">
         <v>300</v>
       </c>
       <c r="J76" s="18">
-        <f t="shared" ref="J76:J86" si="7">H76*I76/60</f>
+        <f t="shared" ref="J76:J86" si="9">H76*I76/60</f>
         <v>25</v>
       </c>
       <c r="K76" s="18"/>
@@ -8201,14 +8710,14 @@
         <v>287</v>
       </c>
       <c r="H77" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="I77" s="18">
         <v>480</v>
       </c>
       <c r="J77" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="K77" s="18"/>
@@ -8249,7 +8758,7 @@
         <v>360</v>
       </c>
       <c r="J78" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>84</v>
       </c>
       <c r="K78" s="18"/>
@@ -8283,14 +8792,14 @@
         <v>293</v>
       </c>
       <c r="H79" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I79" s="18">
         <v>180</v>
       </c>
       <c r="J79" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="K79" s="18"/>
@@ -8324,14 +8833,14 @@
         <v>291</v>
       </c>
       <c r="H80" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I80" s="18">
         <v>150</v>
       </c>
       <c r="J80" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.5</v>
       </c>
       <c r="K80" s="18"/>
@@ -8365,14 +8874,14 @@
         <v>295</v>
       </c>
       <c r="H81" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I81" s="18">
         <v>150</v>
       </c>
       <c r="J81" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.5</v>
       </c>
       <c r="K81" s="18"/>
@@ -8406,14 +8915,14 @@
         <v>297</v>
       </c>
       <c r="H82" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I82" s="18">
         <v>150</v>
       </c>
       <c r="J82" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.5</v>
       </c>
       <c r="K82" s="18"/>
@@ -8447,14 +8956,14 @@
         <v>299</v>
       </c>
       <c r="H83" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="I83" s="18">
         <v>240</v>
       </c>
       <c r="J83" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="K83" s="18"/>
@@ -8488,14 +8997,14 @@
         <v>301</v>
       </c>
       <c r="H84" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="I84" s="18">
         <v>450</v>
       </c>
       <c r="J84" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="K84" s="18"/>
@@ -8529,14 +9038,14 @@
         <v>303</v>
       </c>
       <c r="H85" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I85" s="18">
         <v>240</v>
       </c>
       <c r="J85" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="K85" s="18"/>
@@ -8570,14 +9079,14 @@
         <v>305</v>
       </c>
       <c r="H86" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I86" s="18">
         <v>250</v>
       </c>
       <c r="J86" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>37.5</v>
       </c>
       <c r="K86" s="18"/>
@@ -8640,7 +9149,7 @@
         <v>480</v>
       </c>
       <c r="J88" s="22">
-        <f>H88*I88/60</f>
+        <f t="shared" ref="J88:J94" si="10">H88*I88/60</f>
         <v>48</v>
       </c>
       <c r="K88" s="22" t="s">
@@ -8688,7 +9197,7 @@
         <v>180</v>
       </c>
       <c r="J89" s="22">
-        <f>H89*I89/60</f>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="K89" s="22" t="s">
@@ -8735,7 +9244,7 @@
         <v>240</v>
       </c>
       <c r="J90" s="22">
-        <f>H90*I90/60</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="K90" s="22" t="s">
@@ -8782,7 +9291,7 @@
         <v>360</v>
       </c>
       <c r="J91" s="22">
-        <f>H91*I91/60</f>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="K91" s="22" t="s">
@@ -8831,7 +9340,7 @@
         <v>150</v>
       </c>
       <c r="J92" s="22">
-        <f>H92*I92/60</f>
+        <f t="shared" si="10"/>
         <v>12.5</v>
       </c>
       <c r="K92" s="22" t="s">
@@ -8880,7 +9389,7 @@
         <v>180</v>
       </c>
       <c r="J93" s="22">
-        <f>H93*I93/60</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="K93" s="22" t="s">
@@ -8927,7 +9436,7 @@
         <v>180</v>
       </c>
       <c r="J94" s="24">
-        <f>H94*I94/60</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="K94" s="24"/>
@@ -8961,14 +9470,14 @@
         <v>325</v>
       </c>
       <c r="H95" s="24">
-        <f t="shared" ref="H95:H100" si="8">(RIGHT(G95,LEN(G95)-4)-RIGHT(F95,LEN(F95)-4)+1)/10</f>
+        <f t="shared" ref="H95:H100" si="11">(RIGHT(G95,LEN(G95)-4)-RIGHT(F95,LEN(F95)-4)+1)/10</f>
         <v>6</v>
       </c>
       <c r="I95" s="24">
         <v>240</v>
       </c>
       <c r="J95" s="24">
-        <f t="shared" ref="J95:J100" si="9">H95*I95/60</f>
+        <f t="shared" ref="J95:J100" si="12">H95*I95/60</f>
         <v>24</v>
       </c>
       <c r="K95" s="24"/>
@@ -9002,14 +9511,14 @@
         <v>327</v>
       </c>
       <c r="H96" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="I96" s="24">
         <v>360</v>
       </c>
       <c r="J96" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>48</v>
       </c>
       <c r="K96" s="24"/>
@@ -9043,14 +9552,14 @@
         <v>329</v>
       </c>
       <c r="H97" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="I97" s="24">
         <v>360</v>
       </c>
       <c r="J97" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>36</v>
       </c>
       <c r="K97" s="24"/>
@@ -9084,14 +9593,14 @@
         <v>331</v>
       </c>
       <c r="H98" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="I98" s="24">
         <v>360</v>
       </c>
       <c r="J98" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>36</v>
       </c>
       <c r="K98" s="24"/>
@@ -9125,14 +9634,14 @@
         <v>333</v>
       </c>
       <c r="H99" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="I99" s="24">
         <v>480</v>
       </c>
       <c r="J99" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="K99" s="24"/>
@@ -9166,14 +9675,14 @@
         <v>335</v>
       </c>
       <c r="H100" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="I100" s="24">
         <v>240</v>
       </c>
       <c r="J100" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="K100" s="24"/>
@@ -9230,14 +9739,14 @@
         <v>51</v>
       </c>
       <c r="H102" s="28">
-        <f>(RIGHT(G102,LEN(G102)-4)-RIGHT(F102,LEN(F102)-4)+1)/10</f>
+        <f t="shared" ref="H102:H110" si="13">(RIGHT(G102,LEN(G102)-4)-RIGHT(F102,LEN(F102)-4)+1)/10</f>
         <v>9</v>
       </c>
       <c r="I102" s="28">
         <v>240</v>
       </c>
       <c r="J102" s="28">
-        <f>H102*I102/60</f>
+        <f t="shared" ref="J102:J110" si="14">H102*I102/60</f>
         <v>36</v>
       </c>
       <c r="K102" s="28" t="s">
@@ -9277,14 +9786,14 @@
         <v>53</v>
       </c>
       <c r="H103" s="28">
-        <f>(RIGHT(G103,LEN(G103)-4)-RIGHT(F103,LEN(F103)-4)+1)/10</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="I103" s="28">
         <v>180</v>
       </c>
       <c r="J103" s="28">
-        <f>H103*I103/60</f>
+        <f t="shared" si="14"/>
         <v>27</v>
       </c>
       <c r="K103" s="28" t="s">
@@ -9324,14 +9833,14 @@
         <v>56</v>
       </c>
       <c r="H104" s="28">
-        <f>(RIGHT(G104,LEN(G104)-4)-RIGHT(F104,LEN(F104)-4)+1)/10</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="I104" s="28">
         <v>240</v>
       </c>
       <c r="J104" s="28">
-        <f>H104*I104/60</f>
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
       <c r="K104" s="28" t="s">
@@ -9371,14 +9880,14 @@
         <v>58</v>
       </c>
       <c r="H105" s="28">
-        <f>(RIGHT(G105,LEN(G105)-4)-RIGHT(F105,LEN(F105)-4)+1)/10</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="I105" s="28">
         <v>180</v>
       </c>
       <c r="J105" s="28">
-        <f>H105*I105/60</f>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="K105" s="28" t="s">
@@ -9418,14 +9927,14 @@
         <v>60</v>
       </c>
       <c r="H106" s="28">
-        <f>(RIGHT(G106,LEN(G106)-4)-RIGHT(F106,LEN(F106)-4)+1)/10</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I106" s="28">
         <v>3</v>
       </c>
       <c r="J106" s="28">
-        <f>H106*I106/60</f>
+        <f t="shared" si="14"/>
         <v>0.05</v>
       </c>
       <c r="K106" s="28"/>
@@ -9459,14 +9968,14 @@
         <v>62</v>
       </c>
       <c r="H107" s="28">
-        <f>(RIGHT(G107,LEN(G107)-4)-RIGHT(F107,LEN(F107)-4)+1)/10</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I107" s="28">
         <v>3</v>
       </c>
       <c r="J107" s="28">
-        <f>H107*I107/60</f>
+        <f t="shared" si="14"/>
         <v>0.05</v>
       </c>
       <c r="K107" s="28"/>
@@ -9500,14 +10009,14 @@
         <v>64</v>
       </c>
       <c r="H108" s="28">
-        <f>(RIGHT(G108,LEN(G108)-4)-RIGHT(F108,LEN(F108)-4)+1)/10</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I108" s="28">
         <v>3</v>
       </c>
       <c r="J108" s="28">
-        <f>H108*I108/60</f>
+        <f t="shared" si="14"/>
         <v>0.05</v>
       </c>
       <c r="K108" s="28"/>
@@ -9541,14 +10050,14 @@
         <v>66</v>
       </c>
       <c r="H109" s="28">
-        <f>(RIGHT(G109,LEN(G109)-4)-RIGHT(F109,LEN(F109)-4)+1)/10</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I109" s="28">
         <v>3</v>
       </c>
       <c r="J109" s="28">
-        <f>H109*I109/60</f>
+        <f t="shared" si="14"/>
         <v>0.05</v>
       </c>
       <c r="K109" s="28"/>
@@ -9582,14 +10091,14 @@
         <v>68</v>
       </c>
       <c r="H110" s="28">
-        <f>(RIGHT(G110,LEN(G110)-4)-RIGHT(F110,LEN(F110)-4)+1)/10</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="I110" s="28">
         <v>180</v>
       </c>
       <c r="J110" s="28">
-        <f>H110*I110/60</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="K110" s="28" t="s">
@@ -9732,4 +10241,4116 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+    <col min="18" max="18" width="46.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="9">
+        <v>39545</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" s="10">
+        <f t="shared" ref="I2:I4" si="0">(RIGHT(H2,LEN(H2)-4)-RIGHT(G2,LEN(G2)-4)+1)/10</f>
+        <v>15</v>
+      </c>
+      <c r="J2" s="10">
+        <v>300</v>
+      </c>
+      <c r="K2" s="10">
+        <f t="shared" ref="K2:K4" si="1">I2*J2/60</f>
+        <v>75</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="9">
+        <v>39933</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J3" s="10">
+        <v>300</v>
+      </c>
+      <c r="K3" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="56">
+        <v>39933</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J4" s="10">
+        <v>300</v>
+      </c>
+      <c r="K4" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" t="str">
+        <f>'Radio Relic Sample'!C72</f>
+        <v>2014a</v>
+      </c>
+      <c r="E5" t="str">
+        <f>'Radio Relic Sample'!D72</f>
+        <v>g</v>
+      </c>
+      <c r="F5">
+        <f>'Radio Relic Sample'!E72</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>'Radio Relic Sample'!F72</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>'Radio Relic Sample'!G72</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>'Radio Relic Sample'!H72</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>'Radio Relic Sample'!I72</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>'Radio Relic Sample'!J72</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>'Radio Relic Sample'!K72</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>'Radio Relic Sample'!L72</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>'Radio Relic Sample'!M72</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f>'Radio Relic Sample'!N72</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f>'Radio Relic Sample'!O72</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" t="str">
+        <f>'Radio Relic Sample'!P72</f>
+        <v>n</v>
+      </c>
+      <c r="R5" t="str">
+        <f>'Radio Relic Sample'!Q72</f>
+        <v>James has a reduction</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" t="str">
+        <f>'Radio Relic Sample'!C73</f>
+        <v>2014a</v>
+      </c>
+      <c r="E6" t="str">
+        <f>'Radio Relic Sample'!D73</f>
+        <v>r</v>
+      </c>
+      <c r="F6">
+        <f>'Radio Relic Sample'!E73</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>'Radio Relic Sample'!F73</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>'Radio Relic Sample'!G73</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>'Radio Relic Sample'!H73</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>'Radio Relic Sample'!I73</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>'Radio Relic Sample'!J73</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>'Radio Relic Sample'!K73</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f>'Radio Relic Sample'!L73</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>'Radio Relic Sample'!M73</f>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>'Radio Relic Sample'!N73</f>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>'Radio Relic Sample'!O73</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" t="str">
+        <f>'Radio Relic Sample'!P73</f>
+        <v>y</v>
+      </c>
+      <c r="R6">
+        <f>'Radio Relic Sample'!Q73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C7" s="56">
+        <v>37237</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>432</v>
+      </c>
+      <c r="H7" t="s">
+        <v>433</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I14" si="2">(RIGHT(H7,LEN(H7)-4)-RIGHT(G7,LEN(G7)-4)+1)/10</f>
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>240</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K14" si="3">I7*J7/60</f>
+        <v>24</v>
+      </c>
+      <c r="R7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C8" s="56">
+        <v>37237</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>434</v>
+      </c>
+      <c r="H8" t="s">
+        <v>435</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>240</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="R8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C9" s="56">
+        <v>38040</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>436</v>
+      </c>
+      <c r="H9" t="s">
+        <v>437</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>240</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C10" s="56">
+        <v>38041</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>438</v>
+      </c>
+      <c r="H10" t="s">
+        <v>439</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="J10">
+        <v>180</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="R10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>431</v>
+      </c>
+      <c r="C11" s="56">
+        <v>39836</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>440</v>
+      </c>
+      <c r="H11" t="s">
+        <v>441</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>180</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="R11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>429</v>
+      </c>
+      <c r="C12" s="56">
+        <v>38834</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>445</v>
+      </c>
+      <c r="H12" t="s">
+        <v>446</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>300</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="R12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>429</v>
+      </c>
+      <c r="C13" s="56">
+        <v>39126</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>447</v>
+      </c>
+      <c r="H13" t="s">
+        <v>448</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>240</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="R13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>429</v>
+      </c>
+      <c r="C14" s="56">
+        <v>39126</v>
+      </c>
+      <c r="E14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>449</v>
+      </c>
+      <c r="H14" t="s">
+        <v>450</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>300</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="57">
+        <v>5</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>453</v>
+      </c>
+      <c r="C15" s="58"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="57">
+        <v>6</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>400</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="59">
+        <v>7</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>401</v>
+      </c>
+      <c r="C17" s="60"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="57">
+        <v>8</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>402</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="57">
+        <v>9</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="57">
+        <v>10</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>456</v>
+      </c>
+      <c r="C21" s="56">
+        <v>36744</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>457</v>
+      </c>
+      <c r="H21" t="s">
+        <v>458</v>
+      </c>
+      <c r="I21" s="10">
+        <f>(RIGHT(H21,LEN(H21)-4)-RIGHT(G21,LEN(G21)-4)+3)/10</f>
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>420</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ref="K21:K28" si="4">I21*J21/60</f>
+        <v>70</v>
+      </c>
+      <c r="R21" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>456</v>
+      </c>
+      <c r="C22" s="56">
+        <v>36744</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>459</v>
+      </c>
+      <c r="H22" t="s">
+        <v>460</v>
+      </c>
+      <c r="I22" s="10">
+        <f>(RIGHT(H22,LEN(H22)-4)-RIGHT(G22,LEN(G22)-4)+3)/10</f>
+        <v>12</v>
+      </c>
+      <c r="J22">
+        <v>180</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="R22" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>456</v>
+      </c>
+      <c r="C23" s="56">
+        <v>37829</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>462</v>
+      </c>
+      <c r="H23" t="s">
+        <v>463</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ref="I23:I28" si="5">(RIGHT(H23,LEN(H23)-4)-RIGHT(G23,LEN(G23)-4)+1)/10</f>
+        <v>8</v>
+      </c>
+      <c r="J23">
+        <v>180</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="R23" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>456</v>
+      </c>
+      <c r="C24" s="56">
+        <v>37889</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>464</v>
+      </c>
+      <c r="H24" t="s">
+        <v>465</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>180</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="R24" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>456</v>
+      </c>
+      <c r="C25" s="56">
+        <v>38187</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>466</v>
+      </c>
+      <c r="H25" t="s">
+        <v>467</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="J25">
+        <v>90</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>22.5</v>
+      </c>
+      <c r="R25" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>456</v>
+      </c>
+      <c r="C26" s="56">
+        <v>39218</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>468</v>
+      </c>
+      <c r="H26" t="s">
+        <v>470</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>150</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>12.5</v>
+      </c>
+      <c r="R26" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>456</v>
+      </c>
+      <c r="C27" s="56">
+        <v>40075</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>471</v>
+      </c>
+      <c r="H27" t="s">
+        <v>472</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="J27">
+        <v>240</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="R27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>456</v>
+      </c>
+      <c r="C28" s="56">
+        <v>40076</v>
+      </c>
+      <c r="E28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>473</v>
+      </c>
+      <c r="H28" t="s">
+        <v>474</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="J28">
+        <v>240</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="R28" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="57">
+        <v>12</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="C29" s="58"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="59">
+        <v>13</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="C30" s="60"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>407</v>
+      </c>
+      <c r="C31" s="56">
+        <v>37593</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>490</v>
+      </c>
+      <c r="H31" t="s">
+        <v>491</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ref="I31:I50" si="6">(RIGHT(H31,LEN(H31)-4)-RIGHT(G31,LEN(G31)-4)+1)/10</f>
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>240</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ref="K31:K50" si="7">I31*J31/60</f>
+        <v>40</v>
+      </c>
+      <c r="R31" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>407</v>
+      </c>
+      <c r="C32" s="56">
+        <v>37593</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s">
+        <v>492</v>
+      </c>
+      <c r="H32" t="s">
+        <v>493</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <v>480</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="R32" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>407</v>
+      </c>
+      <c r="C33" s="56">
+        <v>37829</v>
+      </c>
+      <c r="E33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
+        <v>494</v>
+      </c>
+      <c r="H33" t="s">
+        <v>495</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="J33">
+        <v>180</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="R33" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>407</v>
+      </c>
+      <c r="C34" s="56">
+        <v>37889</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>496</v>
+      </c>
+      <c r="H34" t="s">
+        <v>497</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="J34">
+        <v>120</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="R34" s="63" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>407</v>
+      </c>
+      <c r="C35" s="56">
+        <v>37890</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
+        <v>498</v>
+      </c>
+      <c r="H35" t="s">
+        <v>499</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="J35">
+        <v>720</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+      <c r="R35" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>407</v>
+      </c>
+      <c r="C36" s="56">
+        <v>37890</v>
+      </c>
+      <c r="E36" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s">
+        <v>500</v>
+      </c>
+      <c r="H36" t="s">
+        <v>501</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="J36">
+        <v>300</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="R36" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>407</v>
+      </c>
+      <c r="C37" s="56">
+        <v>37891</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>502</v>
+      </c>
+      <c r="H37" t="s">
+        <v>503</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="J37">
+        <v>150</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="R37" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>407</v>
+      </c>
+      <c r="C38" s="56">
+        <v>37891</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" t="s">
+        <v>504</v>
+      </c>
+      <c r="H38" t="s">
+        <v>505</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="J38">
+        <v>480</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="R38" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>407</v>
+      </c>
+      <c r="C39" s="56">
+        <v>37891</v>
+      </c>
+      <c r="E39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s">
+        <v>506</v>
+      </c>
+      <c r="H39" t="s">
+        <v>507</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="J39">
+        <v>600</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="R39" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>407</v>
+      </c>
+      <c r="C40" s="56">
+        <v>39072</v>
+      </c>
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s">
+        <v>508</v>
+      </c>
+      <c r="H40" t="s">
+        <v>509</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="J40">
+        <v>180</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="R40" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>407</v>
+      </c>
+      <c r="C41" s="56">
+        <v>39278</v>
+      </c>
+      <c r="E41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s">
+        <v>510</v>
+      </c>
+      <c r="H41" t="s">
+        <v>511</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <v>360</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="R41" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>407</v>
+      </c>
+      <c r="C42" s="56">
+        <v>39307</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" t="s">
+        <v>512</v>
+      </c>
+      <c r="H42" t="s">
+        <v>513</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>360</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="R42" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>407</v>
+      </c>
+      <c r="C43" s="56">
+        <v>39307</v>
+      </c>
+      <c r="E43" t="s">
+        <v>123</v>
+      </c>
+      <c r="F43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" t="s">
+        <v>514</v>
+      </c>
+      <c r="H43" t="s">
+        <v>515</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="J43">
+        <v>120</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="R43" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>407</v>
+      </c>
+      <c r="C44" s="56">
+        <v>39395</v>
+      </c>
+      <c r="E44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
+        <v>516</v>
+      </c>
+      <c r="H44" t="s">
+        <v>517</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>360</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="R44" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>407</v>
+      </c>
+      <c r="C45" s="56">
+        <v>39455</v>
+      </c>
+      <c r="E45" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" t="s">
+        <v>518</v>
+      </c>
+      <c r="H45" t="s">
+        <v>519</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>120</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="R45" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>407</v>
+      </c>
+      <c r="C46" s="56">
+        <v>39694</v>
+      </c>
+      <c r="E46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" t="s">
+        <v>520</v>
+      </c>
+      <c r="H46" t="s">
+        <v>521</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J46">
+        <v>180</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="R46" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>407</v>
+      </c>
+      <c r="C47" s="56">
+        <v>39694</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" t="s">
+        <v>522</v>
+      </c>
+      <c r="H47" t="s">
+        <v>523</v>
+      </c>
+      <c r="I47">
+        <f>(RIGHT(H47,LEN(H47)-4)-RIGHT(G47,LEN(G47)-4)+1)/10-1</f>
+        <v>19</v>
+      </c>
+      <c r="J47">
+        <v>240</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="R47" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>407</v>
+      </c>
+      <c r="C48" s="56">
+        <v>39694</v>
+      </c>
+      <c r="E48" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" t="s">
+        <v>524</v>
+      </c>
+      <c r="H48" t="s">
+        <v>525</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J48">
+        <v>240</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="R48" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>407</v>
+      </c>
+      <c r="C49" s="56">
+        <v>39694</v>
+      </c>
+      <c r="E49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" t="s">
+        <v>526</v>
+      </c>
+      <c r="H49" t="s">
+        <v>527</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="J49">
+        <v>360</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="R49" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>407</v>
+      </c>
+      <c r="C50" s="56">
+        <v>39694</v>
+      </c>
+      <c r="E50" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" t="s">
+        <v>528</v>
+      </c>
+      <c r="H50" t="s">
+        <v>529</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="J50">
+        <v>120</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="R50" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="59">
+        <v>15</v>
+      </c>
+      <c r="B51" s="59" t="s">
+        <v>408</v>
+      </c>
+      <c r="C51" s="60"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
+      <c r="Q51" s="59"/>
+      <c r="R51" s="59" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="57">
+        <v>16</v>
+      </c>
+      <c r="B52" s="57" t="s">
+        <v>409</v>
+      </c>
+      <c r="C52" s="58"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="57" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="57">
+        <v>17</v>
+      </c>
+      <c r="B53" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="C53" s="58"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="57"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="57"/>
+      <c r="Q53" s="57"/>
+      <c r="R53" s="57" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>18</v>
+      </c>
+      <c r="B54" t="str">
+        <f>'Radio Relic Sample'!A27</f>
+        <v>A1300</v>
+      </c>
+      <c r="C54">
+        <f>'Radio Relic Sample'!B27</f>
+        <v>0</v>
+      </c>
+      <c r="D54" t="str">
+        <f>'Radio Relic Sample'!C27</f>
+        <v>2014a</v>
+      </c>
+      <c r="E54" t="str">
+        <f>'Radio Relic Sample'!D27</f>
+        <v>g</v>
+      </c>
+      <c r="F54">
+        <f>'Radio Relic Sample'!E27</f>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f>'Radio Relic Sample'!F27</f>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f>'Radio Relic Sample'!G27</f>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f>'Radio Relic Sample'!H27</f>
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <f>'Radio Relic Sample'!I27</f>
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <f>'Radio Relic Sample'!J27</f>
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <f>'Radio Relic Sample'!K27</f>
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <f>'Radio Relic Sample'!L27</f>
+        <v>0</v>
+      </c>
+      <c r="N54" t="str">
+        <f>'Radio Relic Sample'!M27</f>
+        <v>wd</v>
+      </c>
+      <c r="O54" t="str">
+        <f>'Radio Relic Sample'!N27</f>
+        <v>wd</v>
+      </c>
+      <c r="P54">
+        <f>'Radio Relic Sample'!O27</f>
+        <v>0</v>
+      </c>
+      <c r="Q54" t="str">
+        <f>'Radio Relic Sample'!P27</f>
+        <v>n</v>
+      </c>
+      <c r="R54">
+        <f>'Radio Relic Sample'!Q27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>18</v>
+      </c>
+      <c r="B55" t="str">
+        <f>'Radio Relic Sample'!A28</f>
+        <v>A1300</v>
+      </c>
+      <c r="C55">
+        <f>'Radio Relic Sample'!B28</f>
+        <v>0</v>
+      </c>
+      <c r="D55" t="str">
+        <f>'Radio Relic Sample'!C28</f>
+        <v>2014a</v>
+      </c>
+      <c r="E55" t="str">
+        <f>'Radio Relic Sample'!D28</f>
+        <v>r</v>
+      </c>
+      <c r="F55">
+        <f>'Radio Relic Sample'!E28</f>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f>'Radio Relic Sample'!F28</f>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f>'Radio Relic Sample'!G28</f>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f>'Radio Relic Sample'!H28</f>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f>'Radio Relic Sample'!I28</f>
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <f>'Radio Relic Sample'!J28</f>
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <f>'Radio Relic Sample'!K28</f>
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <f>'Radio Relic Sample'!L28</f>
+        <v>0</v>
+      </c>
+      <c r="N55" t="str">
+        <f>'Radio Relic Sample'!M28</f>
+        <v>wd</v>
+      </c>
+      <c r="O55" t="str">
+        <f>'Radio Relic Sample'!N28</f>
+        <v>wd</v>
+      </c>
+      <c r="P55">
+        <f>'Radio Relic Sample'!O28</f>
+        <v>0</v>
+      </c>
+      <c r="Q55" t="str">
+        <f>'Radio Relic Sample'!P28</f>
+        <v>y</v>
+      </c>
+      <c r="R55">
+        <f>'Radio Relic Sample'!Q28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="57">
+        <v>19</v>
+      </c>
+      <c r="B56" s="57" t="s">
+        <v>411</v>
+      </c>
+      <c r="C56" s="58"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="57"/>
+      <c r="P56" s="57"/>
+      <c r="Q56" s="57"/>
+      <c r="R56" s="57" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="57">
+        <v>20</v>
+      </c>
+      <c r="B57" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="58"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="57"/>
+      <c r="L57" s="57"/>
+      <c r="M57" s="57"/>
+      <c r="N57" s="57"/>
+      <c r="O57" s="57"/>
+      <c r="P57" s="57"/>
+      <c r="Q57" s="57"/>
+      <c r="R57" s="57" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>21</v>
+      </c>
+      <c r="B58" s="10" t="str">
+        <f>'MC3PO Sample'!A13</f>
+        <v>A0665</v>
+      </c>
+      <c r="C58" s="56">
+        <f>'MC3PO Sample'!B13</f>
+        <v>36852</v>
+      </c>
+      <c r="D58" s="10">
+        <f>'MC3PO Sample'!C13</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="10" t="str">
+        <f>'MC3PO Sample'!D13</f>
+        <v>W-C-RC</v>
+      </c>
+      <c r="F58" s="10" t="str">
+        <f>'MC3PO Sample'!E13</f>
+        <v>wd</v>
+      </c>
+      <c r="G58" s="10" t="str">
+        <f>'MC3PO Sample'!F13</f>
+        <v>SUPA00023842</v>
+      </c>
+      <c r="H58" s="10" t="str">
+        <f>'MC3PO Sample'!G13</f>
+        <v>SUPA00023931</v>
+      </c>
+      <c r="I58" s="10">
+        <f>'MC3PO Sample'!H13</f>
+        <v>9</v>
+      </c>
+      <c r="J58" s="10">
+        <f>'MC3PO Sample'!I13</f>
+        <v>360</v>
+      </c>
+      <c r="K58" s="10">
+        <f>'MC3PO Sample'!J13</f>
+        <v>54</v>
+      </c>
+      <c r="L58" s="10">
+        <f>'MC3PO Sample'!K13</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="10">
+        <f>'MC3PO Sample'!L13</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="10">
+        <f>'MC3PO Sample'!M13</f>
+        <v>0</v>
+      </c>
+      <c r="O58" s="10">
+        <f>'MC3PO Sample'!N13</f>
+        <v>0</v>
+      </c>
+      <c r="P58" s="10">
+        <f>'MC3PO Sample'!O13</f>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="10">
+        <f>'MC3PO Sample'!P13</f>
+        <v>0</v>
+      </c>
+      <c r="R58" s="10" t="str">
+        <f>'MC3PO Sample'!Q13</f>
+        <v>Perhaps discard. It seems like they were having issues. Just use the 2000-Nov-25 exposures?</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>21</v>
+      </c>
+      <c r="B59" s="10" t="str">
+        <f>'MC3PO Sample'!A14</f>
+        <v>A0665</v>
+      </c>
+      <c r="C59" s="56">
+        <f>'MC3PO Sample'!B14</f>
+        <v>36853</v>
+      </c>
+      <c r="D59" s="10">
+        <f>'MC3PO Sample'!C14</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="10" t="str">
+        <f>'MC3PO Sample'!D14</f>
+        <v>W-C-RC</v>
+      </c>
+      <c r="F59" s="10" t="str">
+        <f>'MC3PO Sample'!E14</f>
+        <v>wd</v>
+      </c>
+      <c r="G59" s="10" t="str">
+        <f>'MC3PO Sample'!F14</f>
+        <v>SUPA00024162</v>
+      </c>
+      <c r="H59" s="10" t="str">
+        <f>'MC3PO Sample'!G14</f>
+        <v>SUPA00024171</v>
+      </c>
+      <c r="I59" s="10">
+        <f>'MC3PO Sample'!H14</f>
+        <v>1</v>
+      </c>
+      <c r="J59" s="10">
+        <f>'MC3PO Sample'!I14</f>
+        <v>120</v>
+      </c>
+      <c r="K59" s="10">
+        <f>'MC3PO Sample'!J14</f>
+        <v>2</v>
+      </c>
+      <c r="L59" s="10">
+        <f>'MC3PO Sample'!K14</f>
+        <v>0</v>
+      </c>
+      <c r="M59" s="10">
+        <f>'MC3PO Sample'!L14</f>
+        <v>0</v>
+      </c>
+      <c r="N59" s="10">
+        <f>'MC3PO Sample'!M14</f>
+        <v>0</v>
+      </c>
+      <c r="O59" s="10">
+        <f>'MC3PO Sample'!N14</f>
+        <v>0</v>
+      </c>
+      <c r="P59" s="10">
+        <f>'MC3PO Sample'!O14</f>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="10">
+        <f>'MC3PO Sample'!P14</f>
+        <v>0</v>
+      </c>
+      <c r="R59" s="10" t="str">
+        <f>'MC3PO Sample'!Q14</f>
+        <v>Perhaps discard. It seems like they were having issues. Just use the 2000-Nov-25 exposures?</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>21</v>
+      </c>
+      <c r="B60" s="10" t="str">
+        <f>'MC3PO Sample'!A15</f>
+        <v>A0665</v>
+      </c>
+      <c r="C60" s="56">
+        <f>'MC3PO Sample'!B15</f>
+        <v>36853</v>
+      </c>
+      <c r="D60" s="10">
+        <f>'MC3PO Sample'!C15</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="10" t="str">
+        <f>'MC3PO Sample'!D15</f>
+        <v>W-C-RC</v>
+      </c>
+      <c r="F60" s="10" t="str">
+        <f>'MC3PO Sample'!E15</f>
+        <v>wd</v>
+      </c>
+      <c r="G60" s="10" t="str">
+        <f>'MC3PO Sample'!F15</f>
+        <v>SUPA00024182</v>
+      </c>
+      <c r="H60" s="10" t="str">
+        <f>'MC3PO Sample'!G15</f>
+        <v>SUPA00024191</v>
+      </c>
+      <c r="I60" s="10">
+        <f>'MC3PO Sample'!H15</f>
+        <v>1</v>
+      </c>
+      <c r="J60" s="10">
+        <f>'MC3PO Sample'!I15</f>
+        <v>120</v>
+      </c>
+      <c r="K60" s="10">
+        <f>'MC3PO Sample'!J15</f>
+        <v>2</v>
+      </c>
+      <c r="L60" s="10">
+        <f>'MC3PO Sample'!K15</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="10">
+        <f>'MC3PO Sample'!L15</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="10">
+        <f>'MC3PO Sample'!M15</f>
+        <v>0</v>
+      </c>
+      <c r="O60" s="10">
+        <f>'MC3PO Sample'!N15</f>
+        <v>0</v>
+      </c>
+      <c r="P60" s="10">
+        <f>'MC3PO Sample'!O15</f>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="10">
+        <f>'MC3PO Sample'!P15</f>
+        <v>0</v>
+      </c>
+      <c r="R60" s="10" t="str">
+        <f>'MC3PO Sample'!Q15</f>
+        <v>Perhaps discard. It seems like they were having issues. Just use the 2000-Nov-25 exposures?</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>21</v>
+      </c>
+      <c r="B61" s="10" t="str">
+        <f>'MC3PO Sample'!A16</f>
+        <v>A0665</v>
+      </c>
+      <c r="C61" s="56">
+        <f>'MC3PO Sample'!B16</f>
+        <v>36853</v>
+      </c>
+      <c r="D61" s="10">
+        <f>'MC3PO Sample'!C16</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="10" t="str">
+        <f>'MC3PO Sample'!D16</f>
+        <v>W-C-RC</v>
+      </c>
+      <c r="F61" s="10" t="str">
+        <f>'MC3PO Sample'!E16</f>
+        <v>wd</v>
+      </c>
+      <c r="G61" s="10" t="str">
+        <f>'MC3PO Sample'!F16</f>
+        <v>SUPA00024202</v>
+      </c>
+      <c r="H61" s="10" t="str">
+        <f>'MC3PO Sample'!G16</f>
+        <v>SUPA00024211</v>
+      </c>
+      <c r="I61" s="10">
+        <f>'MC3PO Sample'!H16</f>
+        <v>1</v>
+      </c>
+      <c r="J61" s="10">
+        <f>'MC3PO Sample'!I16</f>
+        <v>120</v>
+      </c>
+      <c r="K61" s="10">
+        <f>'MC3PO Sample'!J16</f>
+        <v>2</v>
+      </c>
+      <c r="L61" s="10">
+        <f>'MC3PO Sample'!K16</f>
+        <v>0</v>
+      </c>
+      <c r="M61" s="10">
+        <f>'MC3PO Sample'!L16</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="10">
+        <f>'MC3PO Sample'!M16</f>
+        <v>0</v>
+      </c>
+      <c r="O61" s="10">
+        <f>'MC3PO Sample'!N16</f>
+        <v>0</v>
+      </c>
+      <c r="P61" s="10">
+        <f>'MC3PO Sample'!O16</f>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="10">
+        <f>'MC3PO Sample'!P16</f>
+        <v>0</v>
+      </c>
+      <c r="R61" s="10" t="str">
+        <f>'MC3PO Sample'!Q16</f>
+        <v>Perhaps discard. It seems like they were having issues. Just use the 2000-Nov-25 exposures?</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>21</v>
+      </c>
+      <c r="B62" s="10" t="str">
+        <f>'MC3PO Sample'!A17</f>
+        <v>A0665</v>
+      </c>
+      <c r="C62" s="56">
+        <f>'MC3PO Sample'!B17</f>
+        <v>36855</v>
+      </c>
+      <c r="D62" s="10">
+        <f>'MC3PO Sample'!C17</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="10" t="str">
+        <f>'MC3PO Sample'!D17</f>
+        <v>W-C-RC</v>
+      </c>
+      <c r="F62" s="10" t="str">
+        <f>'MC3PO Sample'!E17</f>
+        <v>wd</v>
+      </c>
+      <c r="G62" s="10" t="str">
+        <f>'MC3PO Sample'!F17</f>
+        <v>SUPA00025130</v>
+      </c>
+      <c r="H62" s="10" t="str">
+        <f>'MC3PO Sample'!G17</f>
+        <v>SUPA00025179</v>
+      </c>
+      <c r="I62" s="10">
+        <f>'MC3PO Sample'!H17</f>
+        <v>5</v>
+      </c>
+      <c r="J62" s="10">
+        <f>'MC3PO Sample'!I17</f>
+        <v>360</v>
+      </c>
+      <c r="K62" s="10">
+        <f>'MC3PO Sample'!J17</f>
+        <v>30</v>
+      </c>
+      <c r="L62" s="10">
+        <f>'MC3PO Sample'!K17</f>
+        <v>0</v>
+      </c>
+      <c r="M62" s="10">
+        <f>'MC3PO Sample'!L17</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="10">
+        <f>'MC3PO Sample'!M17</f>
+        <v>0</v>
+      </c>
+      <c r="O62" s="10">
+        <f>'MC3PO Sample'!N17</f>
+        <v>0</v>
+      </c>
+      <c r="P62" s="10">
+        <f>'MC3PO Sample'!O17</f>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="10">
+        <f>'MC3PO Sample'!P17</f>
+        <v>0</v>
+      </c>
+      <c r="R62" s="10">
+        <f>'MC3PO Sample'!Q17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>21</v>
+      </c>
+      <c r="B63" s="10" t="str">
+        <f>'MC3PO Sample'!A18</f>
+        <v>A0665</v>
+      </c>
+      <c r="C63" s="56">
+        <f>'MC3PO Sample'!B18</f>
+        <v>36856</v>
+      </c>
+      <c r="D63" s="10">
+        <f>'MC3PO Sample'!C18</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="10" t="str">
+        <f>'MC3PO Sample'!D18</f>
+        <v>W-S-I+</v>
+      </c>
+      <c r="F63" s="10" t="str">
+        <f>'MC3PO Sample'!E18</f>
+        <v>wd</v>
+      </c>
+      <c r="G63" s="10" t="str">
+        <f>'MC3PO Sample'!F18</f>
+        <v>SUPA00025680</v>
+      </c>
+      <c r="H63" s="10" t="str">
+        <f>'MC3PO Sample'!G18</f>
+        <v>SUPA00025739</v>
+      </c>
+      <c r="I63" s="10">
+        <f>'MC3PO Sample'!H18</f>
+        <v>6</v>
+      </c>
+      <c r="J63" s="10">
+        <f>'MC3PO Sample'!I18</f>
+        <v>90</v>
+      </c>
+      <c r="K63" s="10">
+        <f>'MC3PO Sample'!J18</f>
+        <v>9</v>
+      </c>
+      <c r="L63" s="10">
+        <f>'MC3PO Sample'!K18</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="10">
+        <f>'MC3PO Sample'!L18</f>
+        <v>0</v>
+      </c>
+      <c r="N63" s="10">
+        <f>'MC3PO Sample'!M18</f>
+        <v>0</v>
+      </c>
+      <c r="O63" s="10">
+        <f>'MC3PO Sample'!N18</f>
+        <v>0</v>
+      </c>
+      <c r="P63" s="10">
+        <f>'MC3PO Sample'!O18</f>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="10">
+        <f>'MC3PO Sample'!P18</f>
+        <v>0</v>
+      </c>
+      <c r="R63" s="10">
+        <f>'MC3PO Sample'!Q18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>21</v>
+      </c>
+      <c r="B64" s="10" t="str">
+        <f>'MC3PO Sample'!A19</f>
+        <v>A0665</v>
+      </c>
+      <c r="C64" s="56">
+        <f>'MC3PO Sample'!B19</f>
+        <v>36858</v>
+      </c>
+      <c r="D64" s="10">
+        <f>'MC3PO Sample'!C19</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="10" t="str">
+        <f>'MC3PO Sample'!D19</f>
+        <v>W-J-V</v>
+      </c>
+      <c r="F64" s="10" t="str">
+        <f>'MC3PO Sample'!E19</f>
+        <v>wd</v>
+      </c>
+      <c r="G64" s="10" t="str">
+        <f>'MC3PO Sample'!F19</f>
+        <v>SUPA00026900</v>
+      </c>
+      <c r="H64" s="10" t="str">
+        <f>'MC3PO Sample'!G19</f>
+        <v>SUPA00026919</v>
+      </c>
+      <c r="I64" s="10">
+        <f>'MC3PO Sample'!H19</f>
+        <v>2</v>
+      </c>
+      <c r="J64" s="10">
+        <f>'MC3PO Sample'!I19</f>
+        <v>360</v>
+      </c>
+      <c r="K64" s="10">
+        <f>'MC3PO Sample'!J19</f>
+        <v>12</v>
+      </c>
+      <c r="L64" s="10">
+        <f>'MC3PO Sample'!K19</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="10">
+        <f>'MC3PO Sample'!L19</f>
+        <v>0</v>
+      </c>
+      <c r="N64" s="10">
+        <f>'MC3PO Sample'!M19</f>
+        <v>0</v>
+      </c>
+      <c r="O64" s="10">
+        <f>'MC3PO Sample'!N19</f>
+        <v>0</v>
+      </c>
+      <c r="P64" s="10">
+        <f>'MC3PO Sample'!O19</f>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="10">
+        <f>'MC3PO Sample'!P19</f>
+        <v>0</v>
+      </c>
+      <c r="R64" s="10">
+        <f>'MC3PO Sample'!Q19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>21</v>
+      </c>
+      <c r="B65" s="10" t="str">
+        <f>'MC3PO Sample'!A20</f>
+        <v>A0665</v>
+      </c>
+      <c r="C65" s="56">
+        <f>'MC3PO Sample'!B20</f>
+        <v>36974</v>
+      </c>
+      <c r="D65" s="10">
+        <f>'MC3PO Sample'!C20</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="10" t="str">
+        <f>'MC3PO Sample'!D20</f>
+        <v>W-S-I+</v>
+      </c>
+      <c r="F65" s="10" t="str">
+        <f>'MC3PO Sample'!E20</f>
+        <v>wd</v>
+      </c>
+      <c r="G65" s="10" t="str">
+        <f>'MC3PO Sample'!F20</f>
+        <v>SUPA00045790</v>
+      </c>
+      <c r="H65" s="10" t="str">
+        <f>'MC3PO Sample'!G20</f>
+        <v>SUPA00045809</v>
+      </c>
+      <c r="I65" s="10">
+        <f>'MC3PO Sample'!H20</f>
+        <v>2</v>
+      </c>
+      <c r="J65" s="10">
+        <f>'MC3PO Sample'!I20</f>
+        <v>240</v>
+      </c>
+      <c r="K65" s="10">
+        <f>'MC3PO Sample'!J20</f>
+        <v>8</v>
+      </c>
+      <c r="L65" s="10">
+        <f>'MC3PO Sample'!K20</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="10">
+        <f>'MC3PO Sample'!L20</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="10">
+        <f>'MC3PO Sample'!M20</f>
+        <v>0</v>
+      </c>
+      <c r="O65" s="10">
+        <f>'MC3PO Sample'!N20</f>
+        <v>0</v>
+      </c>
+      <c r="P65" s="10">
+        <f>'MC3PO Sample'!O20</f>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="10">
+        <f>'MC3PO Sample'!P20</f>
+        <v>0</v>
+      </c>
+      <c r="R65" s="10">
+        <f>'MC3PO Sample'!Q20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>21</v>
+      </c>
+      <c r="B66" s="10" t="str">
+        <f>'MC3PO Sample'!A21</f>
+        <v>A0665</v>
+      </c>
+      <c r="C66" s="56">
+        <f>'MC3PO Sample'!B21</f>
+        <v>36974</v>
+      </c>
+      <c r="D66" s="10">
+        <f>'MC3PO Sample'!C21</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="10" t="str">
+        <f>'MC3PO Sample'!D21</f>
+        <v>W-J-V</v>
+      </c>
+      <c r="F66" s="10" t="str">
+        <f>'MC3PO Sample'!E21</f>
+        <v>wd</v>
+      </c>
+      <c r="G66" s="10" t="str">
+        <f>'MC3PO Sample'!F21</f>
+        <v>SUPA00045890</v>
+      </c>
+      <c r="H66" s="10" t="str">
+        <f>'MC3PO Sample'!G21</f>
+        <v>SUPA00045919</v>
+      </c>
+      <c r="I66" s="10">
+        <f>'MC3PO Sample'!H21</f>
+        <v>3</v>
+      </c>
+      <c r="J66" s="10">
+        <f>'MC3PO Sample'!I21</f>
+        <v>360</v>
+      </c>
+      <c r="K66" s="10">
+        <f>'MC3PO Sample'!J21</f>
+        <v>18</v>
+      </c>
+      <c r="L66" s="10">
+        <f>'MC3PO Sample'!K21</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="10">
+        <f>'MC3PO Sample'!L21</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="10">
+        <f>'MC3PO Sample'!M21</f>
+        <v>0</v>
+      </c>
+      <c r="O66" s="10">
+        <f>'MC3PO Sample'!N21</f>
+        <v>0</v>
+      </c>
+      <c r="P66" s="10">
+        <f>'MC3PO Sample'!O21</f>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="10">
+        <f>'MC3PO Sample'!P21</f>
+        <v>0</v>
+      </c>
+      <c r="R66" s="10">
+        <f>'MC3PO Sample'!Q21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>21</v>
+      </c>
+      <c r="B67" s="10" t="str">
+        <f>'MC3PO Sample'!A22</f>
+        <v>A0665</v>
+      </c>
+      <c r="C67" s="56">
+        <f>'MC3PO Sample'!B22</f>
+        <v>39901</v>
+      </c>
+      <c r="D67" s="10">
+        <f>'MC3PO Sample'!C22</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="10" t="str">
+        <f>'MC3PO Sample'!D22</f>
+        <v>W-S-I+</v>
+      </c>
+      <c r="F67" s="10" t="str">
+        <f>'MC3PO Sample'!E22</f>
+        <v>wd</v>
+      </c>
+      <c r="G67" s="10" t="str">
+        <f>'MC3PO Sample'!F22</f>
+        <v>SUPA01084300</v>
+      </c>
+      <c r="H67" s="10" t="str">
+        <f>'MC3PO Sample'!G22</f>
+        <v>SUPA01084389</v>
+      </c>
+      <c r="I67" s="10">
+        <f>'MC3PO Sample'!H22</f>
+        <v>9</v>
+      </c>
+      <c r="J67" s="10">
+        <f>'MC3PO Sample'!I22</f>
+        <v>240</v>
+      </c>
+      <c r="K67" s="10">
+        <f>'MC3PO Sample'!J22</f>
+        <v>36</v>
+      </c>
+      <c r="L67" s="10">
+        <f>'MC3PO Sample'!K22</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="10">
+        <f>'MC3PO Sample'!L22</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="10">
+        <f>'MC3PO Sample'!M22</f>
+        <v>0</v>
+      </c>
+      <c r="O67" s="10">
+        <f>'MC3PO Sample'!N22</f>
+        <v>0</v>
+      </c>
+      <c r="P67" s="10">
+        <f>'MC3PO Sample'!O22</f>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="10">
+        <f>'MC3PO Sample'!P22</f>
+        <v>0</v>
+      </c>
+      <c r="R67" s="10">
+        <f>'MC3PO Sample'!Q22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>21</v>
+      </c>
+      <c r="B68" s="10" t="str">
+        <f>'MC3PO Sample'!A23</f>
+        <v>A0665</v>
+      </c>
+      <c r="C68" s="56">
+        <f>'MC3PO Sample'!B23</f>
+        <v>39901</v>
+      </c>
+      <c r="D68" s="10">
+        <f>'MC3PO Sample'!C23</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="10" t="str">
+        <f>'MC3PO Sample'!D23</f>
+        <v>W-J-V</v>
+      </c>
+      <c r="F68" s="10" t="str">
+        <f>'MC3PO Sample'!E23</f>
+        <v>wd</v>
+      </c>
+      <c r="G68" s="10" t="str">
+        <f>'MC3PO Sample'!F23</f>
+        <v>SUPA01084390</v>
+      </c>
+      <c r="H68" s="10" t="str">
+        <f>'MC3PO Sample'!G23</f>
+        <v>SUPA01084439</v>
+      </c>
+      <c r="I68" s="10">
+        <f>'MC3PO Sample'!H23</f>
+        <v>5</v>
+      </c>
+      <c r="J68" s="10">
+        <f>'MC3PO Sample'!I23</f>
+        <v>240</v>
+      </c>
+      <c r="K68" s="10">
+        <f>'MC3PO Sample'!J23</f>
+        <v>20</v>
+      </c>
+      <c r="L68" s="10">
+        <f>'MC3PO Sample'!K23</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="10">
+        <f>'MC3PO Sample'!L23</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="10">
+        <f>'MC3PO Sample'!M23</f>
+        <v>0</v>
+      </c>
+      <c r="O68" s="10">
+        <f>'MC3PO Sample'!N23</f>
+        <v>0</v>
+      </c>
+      <c r="P68" s="10">
+        <f>'MC3PO Sample'!O23</f>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="10">
+        <f>'MC3PO Sample'!P23</f>
+        <v>0</v>
+      </c>
+      <c r="R68" s="10">
+        <f>'MC3PO Sample'!Q23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A69" s="57">
+        <v>22</v>
+      </c>
+      <c r="B69" s="57" t="s">
+        <v>412</v>
+      </c>
+      <c r="C69" s="58"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="57"/>
+      <c r="K69" s="57"/>
+      <c r="L69" s="57"/>
+      <c r="M69" s="57"/>
+      <c r="N69" s="57"/>
+      <c r="O69" s="57"/>
+      <c r="P69" s="57"/>
+      <c r="Q69" s="57"/>
+      <c r="R69" s="57" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A70" s="59">
+        <v>23</v>
+      </c>
+      <c r="B70" s="59" t="s">
+        <v>413</v>
+      </c>
+      <c r="C70" s="60"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="59"/>
+      <c r="J70" s="59"/>
+      <c r="K70" s="59"/>
+      <c r="L70" s="59"/>
+      <c r="M70" s="59"/>
+      <c r="N70" s="59"/>
+      <c r="O70" s="59"/>
+      <c r="P70" s="59"/>
+      <c r="Q70" s="59"/>
+      <c r="R70" s="59" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>24</v>
+      </c>
+      <c r="B71" t="s">
+        <v>414</v>
+      </c>
+      <c r="C71" s="56"/>
+      <c r="R71">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>25</v>
+      </c>
+      <c r="B72" t="s">
+        <v>415</v>
+      </c>
+      <c r="C72" s="56"/>
+      <c r="R72">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>26</v>
+      </c>
+      <c r="B73" t="str">
+        <f>'MC3PO Sample'!A40</f>
+        <v>A1763</v>
+      </c>
+      <c r="C73" s="56">
+        <f>'MC3PO Sample'!B40</f>
+        <v>39900</v>
+      </c>
+      <c r="D73">
+        <f>'MC3PO Sample'!C40</f>
+        <v>0</v>
+      </c>
+      <c r="E73" t="str">
+        <f>'MC3PO Sample'!D40</f>
+        <v>W-S-I+</v>
+      </c>
+      <c r="F73" t="str">
+        <f>'MC3PO Sample'!E40</f>
+        <v>wd</v>
+      </c>
+      <c r="G73" t="str">
+        <f>'MC3PO Sample'!F40</f>
+        <v>SUPA01083190</v>
+      </c>
+      <c r="H73" t="str">
+        <f>'MC3PO Sample'!G40</f>
+        <v>SUPA01083209</v>
+      </c>
+      <c r="I73">
+        <f>'MC3PO Sample'!H40</f>
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <f>'MC3PO Sample'!I40</f>
+        <v>240</v>
+      </c>
+      <c r="K73">
+        <f>'MC3PO Sample'!J40</f>
+        <v>8</v>
+      </c>
+      <c r="L73">
+        <f>'MC3PO Sample'!K40</f>
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <f>'MC3PO Sample'!L40</f>
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <f>'MC3PO Sample'!M40</f>
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <f>'MC3PO Sample'!N40</f>
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <f>'MC3PO Sample'!O40</f>
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <f>'MC3PO Sample'!P40</f>
+        <v>0</v>
+      </c>
+      <c r="R73" t="str">
+        <f>'MC3PO Sample'!Q40</f>
+        <v>(Sky) Thick Cirrus | (Seeing) 0.52 - 0.74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>26</v>
+      </c>
+      <c r="B74" t="str">
+        <f>'MC3PO Sample'!A41</f>
+        <v>A1763</v>
+      </c>
+      <c r="C74" s="56">
+        <f>'MC3PO Sample'!B41</f>
+        <v>39900</v>
+      </c>
+      <c r="D74">
+        <f>'MC3PO Sample'!C41</f>
+        <v>0</v>
+      </c>
+      <c r="E74" t="str">
+        <f>'MC3PO Sample'!D41</f>
+        <v>W-J-V</v>
+      </c>
+      <c r="F74" t="str">
+        <f>'MC3PO Sample'!E41</f>
+        <v>wd</v>
+      </c>
+      <c r="G74" t="str">
+        <f>'MC3PO Sample'!F41</f>
+        <v>SUPA01083220</v>
+      </c>
+      <c r="H74" t="str">
+        <f>'MC3PO Sample'!G41</f>
+        <v>SUPA01083259</v>
+      </c>
+      <c r="I74">
+        <f>'MC3PO Sample'!H41</f>
+        <v>4</v>
+      </c>
+      <c r="J74">
+        <f>'MC3PO Sample'!I41</f>
+        <v>240</v>
+      </c>
+      <c r="K74">
+        <f>'MC3PO Sample'!J41</f>
+        <v>16</v>
+      </c>
+      <c r="L74">
+        <f>'MC3PO Sample'!K41</f>
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <f>'MC3PO Sample'!L41</f>
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <f>'MC3PO Sample'!M41</f>
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <f>'MC3PO Sample'!N41</f>
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <f>'MC3PO Sample'!O41</f>
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <f>'MC3PO Sample'!P41</f>
+        <v>0</v>
+      </c>
+      <c r="R74" t="str">
+        <f>'MC3PO Sample'!Q41</f>
+        <v>(Sky) Thick Cirrus | (Seeing) 0.52 - 0.75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>26</v>
+      </c>
+      <c r="B75" t="str">
+        <f>'MC3PO Sample'!A42</f>
+        <v>A1763</v>
+      </c>
+      <c r="C75" s="56">
+        <f>'MC3PO Sample'!B42</f>
+        <v>39901</v>
+      </c>
+      <c r="D75">
+        <f>'MC3PO Sample'!C42</f>
+        <v>0</v>
+      </c>
+      <c r="E75" t="str">
+        <f>'MC3PO Sample'!D42</f>
+        <v>W-S-I+</v>
+      </c>
+      <c r="F75" t="str">
+        <f>'MC3PO Sample'!E42</f>
+        <v>wd</v>
+      </c>
+      <c r="G75" t="str">
+        <f>'MC3PO Sample'!F42</f>
+        <v>SUPA01085020</v>
+      </c>
+      <c r="H75" t="str">
+        <f>'MC3PO Sample'!G42</f>
+        <v>SUPA01085089</v>
+      </c>
+      <c r="I75">
+        <f>'MC3PO Sample'!H42</f>
+        <v>7</v>
+      </c>
+      <c r="J75">
+        <f>'MC3PO Sample'!I42</f>
+        <v>240</v>
+      </c>
+      <c r="K75">
+        <f>'MC3PO Sample'!J42</f>
+        <v>28</v>
+      </c>
+      <c r="L75">
+        <f>'MC3PO Sample'!K42</f>
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <f>'MC3PO Sample'!L42</f>
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <f>'MC3PO Sample'!M42</f>
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <f>'MC3PO Sample'!N42</f>
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <f>'MC3PO Sample'!O42</f>
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <f>'MC3PO Sample'!P42</f>
+        <v>0</v>
+      </c>
+      <c r="R75" t="str">
+        <f>'MC3PO Sample'!Q42</f>
+        <v>(Sky) Clear/Cirrus | (Seeing) 1.34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>26</v>
+      </c>
+      <c r="B76" t="str">
+        <f>'MC3PO Sample'!A43</f>
+        <v>A1763</v>
+      </c>
+      <c r="C76" s="56">
+        <f>'MC3PO Sample'!B43</f>
+        <v>40251</v>
+      </c>
+      <c r="D76">
+        <f>'MC3PO Sample'!C43</f>
+        <v>0</v>
+      </c>
+      <c r="E76" t="str">
+        <f>'MC3PO Sample'!D43</f>
+        <v>W-J-V</v>
+      </c>
+      <c r="F76" t="str">
+        <f>'MC3PO Sample'!E43</f>
+        <v>wd</v>
+      </c>
+      <c r="G76" t="str">
+        <f>'MC3PO Sample'!F43</f>
+        <v>SUPA01196120</v>
+      </c>
+      <c r="H76" t="str">
+        <f>'MC3PO Sample'!G43</f>
+        <v>SUPA01196189</v>
+      </c>
+      <c r="I76">
+        <f>'MC3PO Sample'!H43</f>
+        <v>7</v>
+      </c>
+      <c r="J76">
+        <f>'MC3PO Sample'!I43</f>
+        <v>240</v>
+      </c>
+      <c r="K76">
+        <f>'MC3PO Sample'!J43</f>
+        <v>28</v>
+      </c>
+      <c r="L76">
+        <f>'MC3PO Sample'!K43</f>
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <f>'MC3PO Sample'!L43</f>
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <f>'MC3PO Sample'!M43</f>
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <f>'MC3PO Sample'!N43</f>
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <f>'MC3PO Sample'!O43</f>
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <f>'MC3PO Sample'!P43</f>
+        <v>0</v>
+      </c>
+      <c r="R76" t="str">
+        <f>'MC3PO Sample'!Q43</f>
+        <v>(Sky) Clear/Clouds | (Seeing) 1.06</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>26</v>
+      </c>
+      <c r="B77" t="str">
+        <f>'MC3PO Sample'!A44</f>
+        <v>A1763</v>
+      </c>
+      <c r="C77" s="56">
+        <f>'MC3PO Sample'!B44</f>
+        <v>40253</v>
+      </c>
+      <c r="D77">
+        <f>'MC3PO Sample'!C44</f>
+        <v>0</v>
+      </c>
+      <c r="E77" t="str">
+        <f>'MC3PO Sample'!D44</f>
+        <v>W-J-V</v>
+      </c>
+      <c r="F77" t="str">
+        <f>'MC3PO Sample'!E44</f>
+        <v>wd</v>
+      </c>
+      <c r="G77" t="str">
+        <f>'MC3PO Sample'!F44</f>
+        <v>SUPA01199350</v>
+      </c>
+      <c r="H77" t="str">
+        <f>'MC3PO Sample'!G44</f>
+        <v>SUPA01199419</v>
+      </c>
+      <c r="I77">
+        <f>'MC3PO Sample'!H44</f>
+        <v>7</v>
+      </c>
+      <c r="J77">
+        <f>'MC3PO Sample'!I44</f>
+        <v>240</v>
+      </c>
+      <c r="K77">
+        <f>'MC3PO Sample'!J44</f>
+        <v>28</v>
+      </c>
+      <c r="L77">
+        <f>'MC3PO Sample'!K44</f>
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <f>'MC3PO Sample'!L44</f>
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <f>'MC3PO Sample'!M44</f>
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <f>'MC3PO Sample'!N44</f>
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <f>'MC3PO Sample'!O44</f>
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <f>'MC3PO Sample'!P44</f>
+        <v>0</v>
+      </c>
+      <c r="R77" t="str">
+        <f>'MC3PO Sample'!Q44</f>
+        <v>(Sky) Clear | (Seeing) 0.64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>27</v>
+      </c>
+      <c r="B78" t="str">
+        <f>'MC3PO Sample'!A69</f>
+        <v>A2813</v>
+      </c>
+      <c r="C78" s="56">
+        <f>'MC3PO Sample'!B69</f>
+        <v>40075</v>
+      </c>
+      <c r="D78">
+        <f>'MC3PO Sample'!C69</f>
+        <v>0</v>
+      </c>
+      <c r="E78" t="str">
+        <f>'MC3PO Sample'!D69</f>
+        <v>W-J-V</v>
+      </c>
+      <c r="F78" t="str">
+        <f>'MC3PO Sample'!E69</f>
+        <v>wd</v>
+      </c>
+      <c r="G78" t="str">
+        <f>'MC3PO Sample'!F69</f>
+        <v>SUPA01125860</v>
+      </c>
+      <c r="H78" t="str">
+        <f>'MC3PO Sample'!G69</f>
+        <v>SUPA01125929</v>
+      </c>
+      <c r="I78">
+        <f>'MC3PO Sample'!H69</f>
+        <v>7</v>
+      </c>
+      <c r="J78">
+        <f>'MC3PO Sample'!I69</f>
+        <v>240</v>
+      </c>
+      <c r="K78">
+        <f>'MC3PO Sample'!J69</f>
+        <v>28</v>
+      </c>
+      <c r="L78">
+        <f>'MC3PO Sample'!K69</f>
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <f>'MC3PO Sample'!L69</f>
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <f>'MC3PO Sample'!M69</f>
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <f>'MC3PO Sample'!N69</f>
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <f>'MC3PO Sample'!O69</f>
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <f>'MC3PO Sample'!P69</f>
+        <v>0</v>
+      </c>
+      <c r="R78" t="str">
+        <f>'MC3PO Sample'!Q69</f>
+        <v>(Sky) Clear | (Seeing) 0.63 - 0.95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>27</v>
+      </c>
+      <c r="B79" t="str">
+        <f>'MC3PO Sample'!A70</f>
+        <v>A2813</v>
+      </c>
+      <c r="C79" s="56">
+        <f>'MC3PO Sample'!B70</f>
+        <v>40489</v>
+      </c>
+      <c r="D79">
+        <f>'MC3PO Sample'!C70</f>
+        <v>0</v>
+      </c>
+      <c r="E79" t="str">
+        <f>'MC3PO Sample'!D70</f>
+        <v>W-J-V</v>
+      </c>
+      <c r="F79" t="str">
+        <f>'MC3PO Sample'!E70</f>
+        <v>wd</v>
+      </c>
+      <c r="G79" t="str">
+        <f>'MC3PO Sample'!F70</f>
+        <v>SUPA01262770</v>
+      </c>
+      <c r="H79" t="str">
+        <f>'MC3PO Sample'!G70</f>
+        <v>SUPA01262839</v>
+      </c>
+      <c r="I79">
+        <f>'MC3PO Sample'!H70</f>
+        <v>7</v>
+      </c>
+      <c r="J79">
+        <f>'MC3PO Sample'!I70</f>
+        <v>240</v>
+      </c>
+      <c r="K79">
+        <f>'MC3PO Sample'!J70</f>
+        <v>28</v>
+      </c>
+      <c r="L79">
+        <f>'MC3PO Sample'!K70</f>
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <f>'MC3PO Sample'!L70</f>
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <f>'MC3PO Sample'!M70</f>
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <f>'MC3PO Sample'!N70</f>
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <f>'MC3PO Sample'!O70</f>
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <f>'MC3PO Sample'!P70</f>
+        <v>0</v>
+      </c>
+      <c r="R79" t="str">
+        <f>'MC3PO Sample'!Q70</f>
+        <v>(Sky) Clear | (Seeing) 0.39 - 0.60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>27</v>
+      </c>
+      <c r="B80" t="str">
+        <f>'MC3PO Sample'!A71</f>
+        <v>A2813</v>
+      </c>
+      <c r="C80" s="56">
+        <f>'MC3PO Sample'!B71</f>
+        <v>40489</v>
+      </c>
+      <c r="D80">
+        <f>'MC3PO Sample'!C71</f>
+        <v>0</v>
+      </c>
+      <c r="E80" t="str">
+        <f>'MC3PO Sample'!D71</f>
+        <v>W-S-I+</v>
+      </c>
+      <c r="F80" t="str">
+        <f>'MC3PO Sample'!E71</f>
+        <v>wd</v>
+      </c>
+      <c r="G80" t="str">
+        <f>'MC3PO Sample'!F71</f>
+        <v>SUPA01262850</v>
+      </c>
+      <c r="H80" t="str">
+        <f>'MC3PO Sample'!G71</f>
+        <v>SUPA01262939</v>
+      </c>
+      <c r="I80">
+        <f>'MC3PO Sample'!H71</f>
+        <v>9</v>
+      </c>
+      <c r="J80">
+        <f>'MC3PO Sample'!I71</f>
+        <v>240</v>
+      </c>
+      <c r="K80">
+        <f>'MC3PO Sample'!J71</f>
+        <v>36</v>
+      </c>
+      <c r="L80">
+        <f>'MC3PO Sample'!K71</f>
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <f>'MC3PO Sample'!L71</f>
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <f>'MC3PO Sample'!M71</f>
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <f>'MC3PO Sample'!N71</f>
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <f>'MC3PO Sample'!O71</f>
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <f>'MC3PO Sample'!P71</f>
+        <v>0</v>
+      </c>
+      <c r="R80" t="str">
+        <f>'MC3PO Sample'!Q71</f>
+        <v>(Sky) Clear | (Seeing) 0.39 - 0.60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>28</v>
+      </c>
+      <c r="B81" t="str">
+        <f>'MC3PO Sample'!A12</f>
+        <v>A0520</v>
+      </c>
+      <c r="C81">
+        <f>'MC3PO Sample'!B12</f>
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <f>'MC3PO Sample'!C12</f>
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <f>'MC3PO Sample'!D12</f>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f>'MC3PO Sample'!E12</f>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f>'MC3PO Sample'!F12</f>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f>'MC3PO Sample'!G12</f>
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f>'MC3PO Sample'!H12</f>
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <f>'MC3PO Sample'!I12</f>
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <f>'MC3PO Sample'!J12</f>
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <f>'MC3PO Sample'!K12</f>
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <f>'MC3PO Sample'!L12</f>
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <f>'MC3PO Sample'!M12</f>
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <f>'MC3PO Sample'!N12</f>
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <f>'MC3PO Sample'!O12</f>
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <f>'MC3PO Sample'!P12</f>
+        <v>0</v>
+      </c>
+      <c r="R81" t="str">
+        <f>'MC3PO Sample'!Q12</f>
+        <v>Ask James for his reduction.</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A82" s="57">
+        <v>29</v>
+      </c>
+      <c r="B82" s="57" t="s">
+        <v>416</v>
+      </c>
+      <c r="C82" s="58"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="57"/>
+      <c r="J82" s="57"/>
+      <c r="K82" s="57"/>
+      <c r="L82" s="57"/>
+      <c r="M82" s="57"/>
+      <c r="N82" s="57"/>
+      <c r="O82" s="57"/>
+      <c r="P82" s="57"/>
+      <c r="Q82" s="57"/>
+      <c r="R82" s="57" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A83" s="59">
+        <v>30</v>
+      </c>
+      <c r="B83" s="59" t="s">
+        <v>417</v>
+      </c>
+      <c r="C83" s="60"/>
+      <c r="D83" s="59"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="59"/>
+      <c r="H83" s="59"/>
+      <c r="I83" s="59"/>
+      <c r="J83" s="59"/>
+      <c r="K83" s="59"/>
+      <c r="L83" s="59"/>
+      <c r="M83" s="59"/>
+      <c r="N83" s="59"/>
+      <c r="O83" s="59"/>
+      <c r="P83" s="59"/>
+      <c r="Q83" s="59"/>
+      <c r="R83" s="59" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A84" s="57">
+        <v>31</v>
+      </c>
+      <c r="B84" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="C84" s="58"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="57"/>
+      <c r="K84" s="57"/>
+      <c r="L84" s="57"/>
+      <c r="M84" s="57"/>
+      <c r="N84" s="57"/>
+      <c r="O84" s="57"/>
+      <c r="P84" s="57"/>
+      <c r="Q84" s="57"/>
+      <c r="R84" s="57" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A85" s="61">
+        <v>32</v>
+      </c>
+      <c r="B85" s="61" t="s">
+        <v>419</v>
+      </c>
+      <c r="C85" s="62">
+        <v>38686</v>
+      </c>
+      <c r="D85" s="61"/>
+      <c r="E85" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="61" t="s">
+        <v>480</v>
+      </c>
+      <c r="H85" s="61" t="s">
+        <v>481</v>
+      </c>
+      <c r="I85" s="61">
+        <f>'MC3PO Sample'!H34</f>
+        <v>16</v>
+      </c>
+      <c r="J85" s="61">
+        <v>360</v>
+      </c>
+      <c r="K85" s="61">
+        <f>'MC3PO Sample'!J34</f>
+        <v>80</v>
+      </c>
+      <c r="L85" s="61"/>
+      <c r="M85" s="61"/>
+      <c r="N85" s="61"/>
+      <c r="O85" s="61"/>
+      <c r="P85" s="61"/>
+      <c r="Q85" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="R85" s="61" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A86" s="57">
+        <v>33</v>
+      </c>
+      <c r="B86" s="57" t="s">
+        <v>420</v>
+      </c>
+      <c r="C86" s="58"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="57"/>
+      <c r="K86" s="57"/>
+      <c r="L86" s="57"/>
+      <c r="M86" s="57"/>
+      <c r="N86" s="57"/>
+      <c r="O86" s="57"/>
+      <c r="P86" s="57"/>
+      <c r="Q86" s="57"/>
+      <c r="R86" s="57" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>34</v>
+      </c>
+      <c r="B87" t="s">
+        <v>421</v>
+      </c>
+      <c r="C87" s="56"/>
+      <c r="R87">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A88" s="59">
+        <v>35</v>
+      </c>
+      <c r="B88" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="C88" s="60"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="59"/>
+      <c r="I88" s="59"/>
+      <c r="J88" s="59"/>
+      <c r="K88" s="59"/>
+      <c r="L88" s="59"/>
+      <c r="M88" s="59"/>
+      <c r="N88" s="59"/>
+      <c r="O88" s="59"/>
+      <c r="P88" s="59"/>
+      <c r="Q88" s="59"/>
+      <c r="R88" s="59" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A89" s="59">
+        <v>36</v>
+      </c>
+      <c r="B89" s="59" t="s">
+        <v>423</v>
+      </c>
+      <c r="C89" s="60"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="59"/>
+      <c r="H89" s="59"/>
+      <c r="I89" s="59"/>
+      <c r="J89" s="59"/>
+      <c r="K89" s="59"/>
+      <c r="L89" s="59"/>
+      <c r="M89" s="59"/>
+      <c r="N89" s="59"/>
+      <c r="O89" s="59"/>
+      <c r="P89" s="59"/>
+      <c r="Q89" s="59"/>
+      <c r="R89" s="59" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>37</v>
+      </c>
+      <c r="B90" t="s">
+        <v>424</v>
+      </c>
+      <c r="C90" s="56"/>
+      <c r="R90">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>38</v>
+      </c>
+      <c r="B91" t="s">
+        <v>425</v>
+      </c>
+      <c r="C91" s="56">
+        <v>39399</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>483</v>
+      </c>
+      <c r="H91" t="s">
+        <v>484</v>
+      </c>
+      <c r="I91">
+        <f t="shared" ref="I91:I93" si="8">(RIGHT(H91,LEN(H91)-4)-RIGHT(G91,LEN(G91)-4)+1)/10</f>
+        <v>5</v>
+      </c>
+      <c r="J91">
+        <v>480</v>
+      </c>
+      <c r="K91">
+        <f t="shared" ref="K91:K93" si="9">I91*J91/60</f>
+        <v>40</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>14</v>
+      </c>
+      <c r="R91" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>38</v>
+      </c>
+      <c r="B92" t="s">
+        <v>425</v>
+      </c>
+      <c r="C92" s="56">
+        <v>40075</v>
+      </c>
+      <c r="E92" t="s">
+        <v>45</v>
+      </c>
+      <c r="F92" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>485</v>
+      </c>
+      <c r="H92" t="s">
+        <v>486</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="J92">
+        <v>240</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="R92" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>38</v>
+      </c>
+      <c r="B93" t="s">
+        <v>425</v>
+      </c>
+      <c r="C93" s="56">
+        <v>40076</v>
+      </c>
+      <c r="E93" t="s">
+        <v>123</v>
+      </c>
+      <c r="F93" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>487</v>
+      </c>
+      <c r="H93" t="s">
+        <v>488</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="J93">
+        <v>180</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="R93" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A94" s="57">
+        <v>39</v>
+      </c>
+      <c r="B94" s="57" t="s">
+        <v>426</v>
+      </c>
+      <c r="C94" s="58"/>
+      <c r="D94" s="57"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="57"/>
+      <c r="G94" s="57"/>
+      <c r="H94" s="57"/>
+      <c r="I94" s="57"/>
+      <c r="J94" s="57"/>
+      <c r="K94" s="57"/>
+      <c r="L94" s="57"/>
+      <c r="M94" s="57"/>
+      <c r="N94" s="57"/>
+      <c r="O94" s="57"/>
+      <c r="P94" s="57"/>
+      <c r="Q94" s="57"/>
+      <c r="R94" s="57" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>40</v>
+      </c>
+      <c r="B95" t="s">
+        <v>427</v>
+      </c>
+      <c r="C95" s="56"/>
+      <c r="R95">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>41</v>
+      </c>
+      <c r="B96" t="s">
+        <v>428</v>
+      </c>
+      <c r="C96" s="56"/>
+      <c r="R96">
+        <v>950</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Reduction Notes/Reduction_Status_List.xlsx
+++ b/Reduction Notes/Reduction_Status_List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="680" windowWidth="20280" windowHeight="22020" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="420" yWindow="560" windowWidth="14720" windowHeight="19900" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Radio Relic Sample" sheetId="1" r:id="rId1"/>
@@ -5698,7 +5698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q125"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -10247,8 +10247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10270,7 +10270,7 @@
     <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="13.33203125" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="11.6640625" customWidth="1"/>
-    <col min="18" max="18" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">

--- a/Reduction Notes/Reduction_Status_List.xlsx
+++ b/Reduction Notes/Reduction_Status_List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="420" yWindow="560" windowWidth="14720" windowHeight="19900" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="420" yWindow="560" windowWidth="31600" windowHeight="19900" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Radio Relic Sample" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="651">
   <si>
     <t>Semester</t>
   </si>
@@ -1637,6 +1637,348 @@
   </si>
   <si>
     <t>~0.4-0.7" seeing</t>
+  </si>
+  <si>
+    <t>SUPA00029470</t>
+  </si>
+  <si>
+    <t>SUPA00029529</t>
+  </si>
+  <si>
+    <t>SUPA00029530</t>
+  </si>
+  <si>
+    <t>SUPA00029569</t>
+  </si>
+  <si>
+    <t>SUPA00030140</t>
+  </si>
+  <si>
+    <t>SUPA00030189</t>
+  </si>
+  <si>
+    <t>SUPA00205160</t>
+  </si>
+  <si>
+    <t>SUPA00205249</t>
+  </si>
+  <si>
+    <t>SUPA00375630</t>
+  </si>
+  <si>
+    <t>SUPA00375659</t>
+  </si>
+  <si>
+    <t>SUPA00375660</t>
+  </si>
+  <si>
+    <t>SUPA00375689</t>
+  </si>
+  <si>
+    <t>SUPA00376850</t>
+  </si>
+  <si>
+    <t>SUPA00376879</t>
+  </si>
+  <si>
+    <t>SUPA00376880</t>
+  </si>
+  <si>
+    <t>SUPA00376909</t>
+  </si>
+  <si>
+    <t>SUPA00436670</t>
+  </si>
+  <si>
+    <t>SUPA00436729</t>
+  </si>
+  <si>
+    <t>SUPA00436740</t>
+  </si>
+  <si>
+    <t>SUPA00436799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Sky) clear | (Seeing) 0.41 - 1.11 </t>
+  </si>
+  <si>
+    <t>(Sky) Clear | (Seeing) 0.483, 0.53, 0.95</t>
+  </si>
+  <si>
+    <t>SUPA00394110</t>
+  </si>
+  <si>
+    <t>SUPA00394149</t>
+  </si>
+  <si>
+    <t>SUPA00394160</t>
+  </si>
+  <si>
+    <t>SUPA00394239</t>
+  </si>
+  <si>
+    <t>SUPA00535360</t>
+  </si>
+  <si>
+    <t>SUPA00535599</t>
+  </si>
+  <si>
+    <t>SUPA00550500</t>
+  </si>
+  <si>
+    <t>SUPA00550559</t>
+  </si>
+  <si>
+    <t>SUPA00550580</t>
+  </si>
+  <si>
+    <t>SUPA00550699</t>
+  </si>
+  <si>
+    <t>SUPA00553640</t>
+  </si>
+  <si>
+    <t>SUPA00553729</t>
+  </si>
+  <si>
+    <t>SUPA00553750</t>
+  </si>
+  <si>
+    <t>SUPA00553759</t>
+  </si>
+  <si>
+    <t>SUPA00554490</t>
+  </si>
+  <si>
+    <t>SUPA00554549</t>
+  </si>
+  <si>
+    <t>SUPA00555920</t>
+  </si>
+  <si>
+    <t>SUPA00555999</t>
+  </si>
+  <si>
+    <t>SUPA00608250</t>
+  </si>
+  <si>
+    <t>SUPA00608309</t>
+  </si>
+  <si>
+    <t>SUPA00608320</t>
+  </si>
+  <si>
+    <t>SUPA00608479</t>
+  </si>
+  <si>
+    <t>SUPA01353950</t>
+  </si>
+  <si>
+    <t>SUPA01354019</t>
+  </si>
+  <si>
+    <t>SUPA01397210</t>
+  </si>
+  <si>
+    <t>SUPA01397299</t>
+  </si>
+  <si>
+    <t>(Sky) cloudy | (Seeing) -, notes of poor image quality in log</t>
+  </si>
+  <si>
+    <t>(Sky) Clear | (Seeing) 0.54 to 0.61</t>
+  </si>
+  <si>
+    <t>(Sky) Clear | (Seeing) 0.51 - 1.23</t>
+  </si>
+  <si>
+    <t>(Sky) Clear | (Seeing) 0.5-0.85arcsec w/AG</t>
+  </si>
+  <si>
+    <t>(Sky) Low Level Clouds | (Seeing) 0.87, 0.62, 0.56</t>
+  </si>
+  <si>
+    <t>SUPA00198710</t>
+  </si>
+  <si>
+    <t>SUPA00198769</t>
+  </si>
+  <si>
+    <t>SUPA00198780</t>
+  </si>
+  <si>
+    <t>SUPA00198839</t>
+  </si>
+  <si>
+    <t>SUPA00200250</t>
+  </si>
+  <si>
+    <t>SUPA00200309</t>
+  </si>
+  <si>
+    <t>SUPA00205060</t>
+  </si>
+  <si>
+    <t>SUPA00205149</t>
+  </si>
+  <si>
+    <t>SUPA00375600</t>
+  </si>
+  <si>
+    <t>SUPA00375629</t>
+  </si>
+  <si>
+    <t>SUPA00376790</t>
+  </si>
+  <si>
+    <t>SUPA00376819</t>
+  </si>
+  <si>
+    <t>SUPA00376820</t>
+  </si>
+  <si>
+    <t>SUPA00376849</t>
+  </si>
+  <si>
+    <t>SUPA00436920</t>
+  </si>
+  <si>
+    <t>SUPA00437049</t>
+  </si>
+  <si>
+    <t>SUPA00029080</t>
+  </si>
+  <si>
+    <t>SUPA00029169</t>
+  </si>
+  <si>
+    <t>SUPA00029190</t>
+  </si>
+  <si>
+    <t>SUPA00029829</t>
+  </si>
+  <si>
+    <t>SUPA00029830</t>
+  </si>
+  <si>
+    <t>SUPA00029859</t>
+  </si>
+  <si>
+    <t>SUPA00170920</t>
+  </si>
+  <si>
+    <t>SUPA00170979</t>
+  </si>
+  <si>
+    <t>SUPA00171000</t>
+  </si>
+  <si>
+    <t>SUPA00171159</t>
+  </si>
+  <si>
+    <t>SUPA00243430</t>
+  </si>
+  <si>
+    <t>SUPA00243549</t>
+  </si>
+  <si>
+    <t>SUPA00582310</t>
+  </si>
+  <si>
+    <t>SUPA00582359</t>
+  </si>
+  <si>
+    <t>SUPA00583570</t>
+  </si>
+  <si>
+    <t>SUPA00583609</t>
+  </si>
+  <si>
+    <t>(Sky) Clear | (Seeing) 0.57 - 0.72, bad guiding</t>
+  </si>
+  <si>
+    <t>SUPA00079570</t>
+  </si>
+  <si>
+    <t>SUPA00079629</t>
+  </si>
+  <si>
+    <t>SUPA00079630</t>
+  </si>
+  <si>
+    <t>SUPA00079689</t>
+  </si>
+  <si>
+    <t>SUPA00079690</t>
+  </si>
+  <si>
+    <t>SUPA00079749</t>
+  </si>
+  <si>
+    <t>SUPA00170830</t>
+  </si>
+  <si>
+    <t>SUPA00170899</t>
+  </si>
+  <si>
+    <t>SUPA00243070</t>
+  </si>
+  <si>
+    <t>SUPA00243129</t>
+  </si>
+  <si>
+    <t>SUPA00436140</t>
+  </si>
+  <si>
+    <t>SUPA00436199</t>
+  </si>
+  <si>
+    <t>SUPA00507390</t>
+  </si>
+  <si>
+    <t>SUPA00507449</t>
+  </si>
+  <si>
+    <t>SUPA00507460</t>
+  </si>
+  <si>
+    <t>SUPA00507549</t>
+  </si>
+  <si>
+    <t>SUPA00244560</t>
+  </si>
+  <si>
+    <t>SUPA00244659</t>
+  </si>
+  <si>
+    <t>SUPA00244790</t>
+  </si>
+  <si>
+    <t>SUPA00244939</t>
+  </si>
+  <si>
+    <t>SUPA00245480</t>
+  </si>
+  <si>
+    <t>SUPA00245579</t>
+  </si>
+  <si>
+    <t>SUPA00245720</t>
+  </si>
+  <si>
+    <t>SUPA00246009</t>
+  </si>
+  <si>
+    <t>jj</t>
+  </si>
+  <si>
+    <t>Julian has this.</t>
+  </si>
+  <si>
+    <t>Lensing Band?</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -1646,7 +1988,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mmm\-dd;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1788,12 +2130,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1882,7 +2218,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1939,14 +2275,54 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1985,7 +2361,7 @@
   </cellStyles>
   <dxfs count="23">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2406,8 +2782,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:R96" totalsRowShown="0">
-  <autoFilter ref="A1:R96"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:R141" totalsRowShown="0">
+  <autoFilter ref="A1:R141"/>
   <tableColumns count="18">
     <tableColumn id="18" name="RELICS #"/>
     <tableColumn id="1" name="Cluster"/>
@@ -2425,7 +2801,7 @@
     <tableColumn id="13" name="Image"/>
     <tableColumn id="14" name="SExtractor Catalog"/>
     <tableColumn id="15" name="Shapes"/>
-    <tableColumn id="16" name="Deep Band?"/>
+    <tableColumn id="16" name="Lensing Band?"/>
     <tableColumn id="17" name="Comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2697,15 +3073,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:Q73"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.1640625" style="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" style="47" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="47" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" style="47" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" style="47" customWidth="1"/>
     <col min="6" max="6" width="17.1640625" style="47" customWidth="1"/>
@@ -2713,11 +3089,11 @@
     <col min="8" max="8" width="5.83203125" style="47" customWidth="1"/>
     <col min="9" max="9" width="13" style="47" customWidth="1"/>
     <col min="10" max="10" width="9" style="47" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="47" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" style="47" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" style="47" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" style="47" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="47" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="47" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" style="47" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="47" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" style="47" customWidth="1"/>
+    <col min="15" max="15" width="10" style="47" customWidth="1"/>
     <col min="16" max="16" width="4" style="47" customWidth="1"/>
     <col min="17" max="17" width="75.33203125" style="47" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="10.83203125" style="47"/>
@@ -2791,6 +3167,15 @@
         <f t="shared" ref="J2:J39" si="0">H2*I2/60</f>
         <v>0</v>
       </c>
+      <c r="L2" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>647</v>
+      </c>
       <c r="P2" s="4" t="s">
         <v>11</v>
       </c>
@@ -2813,6 +3198,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L3" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>647</v>
+      </c>
       <c r="P3" s="4" t="s">
         <v>14</v>
       </c>
@@ -2831,6 +3228,15 @@
       <c r="J4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>647</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>11</v>
@@ -2853,7 +3259,9 @@
         <v>0</v>
       </c>
       <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="M5" s="6" t="s">
         <v>12</v>
       </c>
@@ -3261,7 +3669,9 @@
         <v>0</v>
       </c>
       <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="L17" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="M17" s="10" t="s">
         <v>12</v>
       </c>
@@ -3295,7 +3705,9 @@
         <v>0</v>
       </c>
       <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="L18" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="M18" s="10" t="s">
         <v>12</v>
       </c>
@@ -3329,7 +3741,9 @@
         <v>0</v>
       </c>
       <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
+      <c r="L19" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="M19" s="12" t="s">
         <v>12</v>
       </c>
@@ -3363,7 +3777,9 @@
         <v>0</v>
       </c>
       <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
+      <c r="L20" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="M20" s="12" t="s">
         <v>12</v>
       </c>
@@ -3563,7 +3979,9 @@
         <v>0</v>
       </c>
       <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
+      <c r="L25" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="M25" s="16" t="s">
         <v>12</v>
       </c>
@@ -3597,7 +4015,9 @@
         <v>0</v>
       </c>
       <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
+      <c r="L26" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="M26" s="16" t="s">
         <v>12</v>
       </c>
@@ -3631,7 +4051,9 @@
         <v>0</v>
       </c>
       <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="L27" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="M27" s="4" t="s">
         <v>12</v>
       </c>
@@ -3665,7 +4087,9 @@
         <v>0</v>
       </c>
       <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="L28" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="M28" s="4" t="s">
         <v>12</v>
       </c>
@@ -4391,7 +4815,9 @@
       <c r="N48" s="16"/>
       <c r="O48" s="16"/>
       <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
+      <c r="Q48" s="16" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
@@ -4414,7 +4840,9 @@
         <v>0</v>
       </c>
       <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
+      <c r="L49" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="M49" s="4" t="s">
         <v>12</v>
       </c>
@@ -4448,7 +4876,9 @@
         <v>0</v>
       </c>
       <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
+      <c r="L50" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="M50" s="4" t="s">
         <v>12</v>
       </c>
@@ -4482,7 +4912,9 @@
         <v>0</v>
       </c>
       <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
+      <c r="L51" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="M51" s="4" t="s">
         <v>12</v>
       </c>
@@ -4516,7 +4948,9 @@
         <v>0</v>
       </c>
       <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
+      <c r="L52" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="M52" s="6" t="s">
         <v>12</v>
       </c>
@@ -4550,7 +4984,9 @@
         <v>0</v>
       </c>
       <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
+      <c r="L53" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="M53" s="6" t="s">
         <v>12</v>
       </c>
@@ -4586,7 +5022,9 @@
         <v>0</v>
       </c>
       <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
+      <c r="L54" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="M54" s="6" t="s">
         <v>12</v>
       </c>
@@ -4620,9 +5058,15 @@
         <v>0</v>
       </c>
       <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
+      <c r="L55" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>647</v>
+      </c>
       <c r="O55" s="8"/>
       <c r="P55" s="8" t="s">
         <v>11</v>
@@ -4652,10 +5096,18 @@
         <v>0</v>
       </c>
       <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
+      <c r="L56" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>647</v>
+      </c>
       <c r="P56" s="8" t="s">
         <v>14</v>
       </c>
@@ -5133,9 +5585,15 @@
         <v>0</v>
       </c>
       <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
+      <c r="L68" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="M68" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="N68" s="12" t="s">
+        <v>647</v>
+      </c>
       <c r="O68" s="12"/>
       <c r="P68" s="12" t="s">
         <v>11</v>
@@ -5165,10 +5623,18 @@
         <v>0</v>
       </c>
       <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
+      <c r="L69" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="M69" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="N69" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="O69" s="12" t="s">
+        <v>647</v>
+      </c>
       <c r="P69" s="12" t="s">
         <v>14</v>
       </c>
@@ -5195,9 +5661,15 @@
         <v>0</v>
       </c>
       <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
+      <c r="L70" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="M70" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="N70" s="12" t="s">
+        <v>647</v>
+      </c>
       <c r="O70" s="12"/>
       <c r="P70" s="12" t="s">
         <v>11</v>
@@ -5225,9 +5697,15 @@
         <v>0</v>
       </c>
       <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
+      <c r="L71" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="M71" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="N71" s="12" t="s">
+        <v>647</v>
+      </c>
       <c r="O71" s="12"/>
       <c r="P71" s="12" t="s">
         <v>11</v>
@@ -5255,9 +5733,15 @@
         <v>0</v>
       </c>
       <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
+      <c r="L72" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="M72" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="N72" s="14" t="s">
+        <v>647</v>
+      </c>
       <c r="O72" s="14"/>
       <c r="P72" s="14" t="s">
         <v>11</v>
@@ -5287,9 +5771,15 @@
         <v>0</v>
       </c>
       <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
+      <c r="L73" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="M73" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="N73" s="14" t="s">
+        <v>647</v>
+      </c>
       <c r="O73" s="14"/>
       <c r="P73" s="14" t="s">
         <v>14</v>
@@ -5317,9 +5807,15 @@
         <v>0</v>
       </c>
       <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
+      <c r="L74" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="M74" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="N74" s="16" t="s">
+        <v>647</v>
+      </c>
       <c r="O74" s="16"/>
       <c r="P74" s="16" t="s">
         <v>11</v>
@@ -5349,9 +5845,15 @@
         <v>0</v>
       </c>
       <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
+      <c r="L75" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="M75" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="N75" s="16" t="s">
+        <v>647</v>
+      </c>
       <c r="O75" s="16"/>
       <c r="P75" s="16" t="s">
         <v>14</v>
@@ -5379,7 +5881,9 @@
         <v>0</v>
       </c>
       <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
+      <c r="L76" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="M76" s="4" t="s">
         <v>12</v>
       </c>
@@ -5413,7 +5917,9 @@
         <v>0</v>
       </c>
       <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
+      <c r="L77" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="M77" s="4" t="s">
         <v>12</v>
       </c>
@@ -5447,7 +5953,9 @@
         <v>0</v>
       </c>
       <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
+      <c r="L78" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="M78" s="4" t="s">
         <v>12</v>
       </c>
@@ -5481,9 +5989,15 @@
         <v>0</v>
       </c>
       <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
+      <c r="L79" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>647</v>
+      </c>
       <c r="O79" s="6"/>
       <c r="P79" s="6" t="s">
         <v>11</v>
@@ -5513,10 +6027,18 @@
         <v>0</v>
       </c>
       <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
+      <c r="L80" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="M80" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="O80" s="6" t="s">
+        <v>647</v>
+      </c>
       <c r="P80" s="6" t="s">
         <v>14</v>
       </c>
@@ -5543,7 +6065,9 @@
         <v>0</v>
       </c>
       <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
+      <c r="L81" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="M81" s="8" t="s">
         <v>12</v>
       </c>
@@ -5577,7 +6101,9 @@
         <v>0</v>
       </c>
       <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
+      <c r="L82" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="M82" s="8" t="s">
         <v>12</v>
       </c>
@@ -5611,7 +6137,9 @@
         <v>0</v>
       </c>
       <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
+      <c r="L83" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="M83" s="8" t="s">
         <v>12</v>
       </c>
@@ -5645,9 +6173,15 @@
         <v>0</v>
       </c>
       <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
+      <c r="L84" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="M84" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="N84" s="10" t="s">
+        <v>647</v>
+      </c>
       <c r="O84" s="10"/>
       <c r="P84" s="10" t="s">
         <v>11</v>
@@ -5677,10 +6211,18 @@
         <v>0</v>
       </c>
       <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
-      <c r="O85" s="10"/>
+      <c r="L85" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="M85" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="N85" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="O85" s="10" t="s">
+        <v>647</v>
+      </c>
       <c r="P85" s="10" t="s">
         <v>14</v>
       </c>
@@ -5698,8 +6240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5709,7 +6251,7 @@
     <col min="3" max="3" width="13.33203125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
     <col min="7" max="7" width="19.1640625" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" customWidth="1"/>
@@ -10245,10 +10787,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R96"/>
+  <dimension ref="A1:R141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="Q141" sqref="Q141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10264,12 +10806,11 @@
     <col min="9" max="9" width="5" customWidth="1"/>
     <col min="10" max="10" width="8.1640625" customWidth="1"/>
     <col min="11" max="11" width="6.83203125" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+    <col min="12" max="13" width="10.83203125" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" customWidth="1"/>
+    <col min="17" max="17" width="5.33203125" customWidth="1"/>
     <col min="18" max="18" width="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10323,4028 +10864,6435 @@
         <v>6</v>
       </c>
       <c r="Q1" t="s">
-        <v>3</v>
+        <v>649</v>
       </c>
       <c r="R1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="3">
         <v>39545</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="4">
         <f t="shared" ref="I2:I4" si="0">(RIGHT(H2,LEN(H2)-4)-RIGHT(G2,LEN(G2)-4)+1)/10</f>
         <v>15</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="4">
         <v>300</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="64">
         <f t="shared" ref="K2:K4" si="1">I2*J2/60</f>
         <v>75</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="3">
         <v>39933</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="4">
         <v>300</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="64">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="3">
         <v>39933</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="4">
         <v>300</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="64">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10" t="s">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" t="str">
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="str">
         <f>'Radio Relic Sample'!C72</f>
         <v>2014a</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" s="6" t="str">
         <f>'Radio Relic Sample'!D72</f>
         <v>g</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <f>'Radio Relic Sample'!E72</f>
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <f>'Radio Relic Sample'!F72</f>
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <f>'Radio Relic Sample'!G72</f>
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <f>'Radio Relic Sample'!H72</f>
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <f>'Radio Relic Sample'!I72</f>
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="65">
         <f>'Radio Relic Sample'!J72</f>
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="6">
         <f>'Radio Relic Sample'!K72</f>
         <v>0</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="6" t="str">
         <f>'Radio Relic Sample'!L72</f>
-        <v>0</v>
-      </c>
-      <c r="N5">
+        <v>jj</v>
+      </c>
+      <c r="N5" s="6" t="str">
         <f>'Radio Relic Sample'!M72</f>
-        <v>0</v>
-      </c>
-      <c r="O5">
+        <v>jj</v>
+      </c>
+      <c r="O5" s="6" t="str">
         <f>'Radio Relic Sample'!N72</f>
-        <v>0</v>
-      </c>
-      <c r="P5">
+        <v>jj</v>
+      </c>
+      <c r="P5" s="6">
         <f>'Radio Relic Sample'!O72</f>
         <v>0</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="Q5" s="6" t="str">
         <f>'Radio Relic Sample'!P72</f>
         <v>n</v>
       </c>
-      <c r="R5" t="str">
+      <c r="R5" s="6" t="str">
         <f>'Radio Relic Sample'!Q72</f>
         <v>James has a reduction</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" t="str">
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="str">
         <f>'Radio Relic Sample'!C73</f>
         <v>2014a</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" s="6" t="str">
         <f>'Radio Relic Sample'!D73</f>
         <v>r</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <f>'Radio Relic Sample'!E73</f>
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="6">
         <f>'Radio Relic Sample'!F73</f>
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="6">
         <f>'Radio Relic Sample'!G73</f>
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="6">
         <f>'Radio Relic Sample'!H73</f>
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="6">
         <f>'Radio Relic Sample'!I73</f>
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="65">
         <f>'Radio Relic Sample'!J73</f>
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="6">
         <f>'Radio Relic Sample'!K73</f>
         <v>0</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="6" t="str">
         <f>'Radio Relic Sample'!L73</f>
-        <v>0</v>
-      </c>
-      <c r="N6">
+        <v>jj</v>
+      </c>
+      <c r="N6" s="6" t="str">
         <f>'Radio Relic Sample'!M73</f>
-        <v>0</v>
-      </c>
-      <c r="O6">
+        <v>jj</v>
+      </c>
+      <c r="O6" s="6" t="str">
         <f>'Radio Relic Sample'!N73</f>
-        <v>0</v>
-      </c>
-      <c r="P6">
+        <v>jj</v>
+      </c>
+      <c r="P6" s="6">
         <f>'Radio Relic Sample'!O73</f>
         <v>0</v>
       </c>
-      <c r="Q6" t="str">
+      <c r="Q6" s="6" t="str">
         <f>'Radio Relic Sample'!P73</f>
         <v>y</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="6">
         <f>'Radio Relic Sample'!Q73</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="7">
         <v>37237</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="8">
         <f t="shared" ref="I7:I14" si="2">(RIGHT(H7,LEN(H7)-4)-RIGHT(G7,LEN(G7)-4)+1)/10</f>
         <v>6</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="8">
         <v>240</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="66">
         <f t="shared" ref="K7:K14" si="3">I7*J7/60</f>
         <v>24</v>
       </c>
-      <c r="R7" t="s">
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="8">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="7">
         <v>37237</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="8">
         <v>240</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="66">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="R8" t="s">
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="8">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="7">
         <v>38040</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="8">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="8">
         <v>240</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="66">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="8" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="8">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="7">
         <v>38041</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="8">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="8">
         <v>180</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="66">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="R10" t="s">
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="8">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="7">
         <v>39836</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="8">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="8">
         <v>180</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="66">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="R11" t="s">
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="10">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="9">
         <v>38834</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="10">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="10">
         <v>300</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="60">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="R12" t="s">
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="10">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="9">
         <v>39126</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="10">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="10">
         <v>240</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="60">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="R13" t="s">
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="10">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="9">
         <v>39126</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="10">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="10">
         <v>300</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="60">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="10" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="57">
+      <c r="A15" s="67">
         <v>5</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="67" t="s">
         <v>453</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57" t="s">
+      <c r="C15" s="68"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="57">
+      <c r="A16" s="70">
         <v>6</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="70" t="s">
         <v>400</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57" t="s">
+      <c r="C16" s="71"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="59">
+      <c r="A17" s="73">
         <v>7</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="73" t="s">
         <v>401</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59" t="s">
+      <c r="C17" s="74"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="57">
+      <c r="A18" s="76">
         <v>8</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="76" t="s">
         <v>402</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57" t="s">
+      <c r="C18" s="77"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="57">
+      <c r="A19" s="79">
         <v>9</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="79" t="s">
         <v>403</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57" t="s">
+      <c r="C19" s="80"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="57">
+      <c r="A20" s="82">
         <v>10</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="82" t="s">
         <v>404</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57" t="s">
+      <c r="C20" s="83"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="10">
         <v>11</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="C21" s="56">
+      <c r="C21" s="9">
         <v>36744</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="F21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="10" t="s">
         <v>458</v>
       </c>
       <c r="I21" s="10">
         <f>(RIGHT(H21,LEN(H21)-4)-RIGHT(G21,LEN(G21)-4)+3)/10</f>
         <v>10</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="10">
         <v>420</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="60">
         <f t="shared" ref="K21:K28" si="4">I21*J21/60</f>
         <v>70</v>
       </c>
-      <c r="R21" t="s">
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="10">
         <v>11</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="C22" s="56">
+      <c r="C22" s="9">
         <v>36744</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="F22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="10" t="s">
         <v>460</v>
       </c>
       <c r="I22" s="10">
         <f>(RIGHT(H22,LEN(H22)-4)-RIGHT(G22,LEN(G22)-4)+3)/10</f>
         <v>12</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="10">
         <v>180</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="60">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="R22" t="s">
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="10">
         <v>11</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="C23" s="56">
+      <c r="C23" s="9">
         <v>37829</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="10">
         <f t="shared" ref="I23:I28" si="5">(RIGHT(H23,LEN(H23)-4)-RIGHT(G23,LEN(G23)-4)+1)/10</f>
         <v>8</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="10">
         <v>180</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="60">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="R23" t="s">
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="10">
         <v>11</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="C24" s="56">
+      <c r="C24" s="9">
         <v>37889</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="10">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="10">
         <v>180</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="60">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="R24" t="s">
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="10">
         <v>11</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="C25" s="56">
+      <c r="C25" s="9">
         <v>38187</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="10">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="10">
         <v>90</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="60">
         <f t="shared" si="4"/>
         <v>22.5</v>
       </c>
-      <c r="R25" t="s">
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="10">
         <v>11</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="C26" s="56">
+      <c r="C26" s="9">
         <v>39218</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="F26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="10">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="10">
         <v>150</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="60">
         <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
-      <c r="R26" t="s">
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="10">
         <v>11</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="C27" s="56">
+      <c r="C27" s="9">
         <v>40075</v>
       </c>
-      <c r="E27" t="s">
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="10">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="10">
         <v>240</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="60">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="R27" t="s">
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="10">
         <v>11</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="C28" s="56">
+      <c r="C28" s="9">
         <v>40076</v>
       </c>
-      <c r="E28" t="s">
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="10">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="10">
         <v>240</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="60">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="R28" t="s">
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R28" s="10" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="57">
-        <v>12</v>
-      </c>
-      <c r="B29" s="57" t="s">
+      <c r="A29" s="67">
+        <v>12</v>
+      </c>
+      <c r="B29" s="67" t="s">
         <v>405</v>
       </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57" t="s">
+      <c r="C29" s="68"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="67"/>
+      <c r="R29" s="67" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="59">
+      <c r="A30" s="92">
         <v>13</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="92" t="s">
         <v>406</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59" t="s">
+      <c r="C30" s="93"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="92"/>
+      <c r="Q30" s="92"/>
+      <c r="R30" s="92" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="16">
         <v>14</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="15">
         <v>37593</v>
       </c>
-      <c r="E31" t="s">
+      <c r="D31" s="16"/>
+      <c r="E31" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="16">
         <f t="shared" ref="I31:I50" si="6">(RIGHT(H31,LEN(H31)-4)-RIGHT(G31,LEN(G31)-4)+1)/10</f>
         <v>10</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="16">
         <v>240</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="96">
         <f t="shared" ref="K31:K50" si="7">I31*J31/60</f>
         <v>40</v>
       </c>
-      <c r="R31" t="s">
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="16">
         <v>14</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C32" s="56">
+      <c r="C32" s="15">
         <v>37593</v>
       </c>
-      <c r="E32" t="s">
+      <c r="D32" s="16"/>
+      <c r="E32" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="16" t="s">
         <v>492</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="16">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="16">
         <v>480</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="96">
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
-      <c r="R32" t="s">
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="16">
         <v>14</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C33" s="56">
+      <c r="C33" s="15">
         <v>37829</v>
       </c>
-      <c r="E33" t="s">
+      <c r="D33" s="16"/>
+      <c r="E33" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="16" t="s">
         <v>495</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="16">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="16">
         <v>180</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="96">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="R33" t="s">
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="16">
         <v>14</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C34" s="56">
+      <c r="C34" s="15">
         <v>37889</v>
       </c>
-      <c r="E34" t="s">
+      <c r="D34" s="16"/>
+      <c r="E34" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="16">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="16">
         <v>120</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="96">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="R34" s="63" t="s">
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="97" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="16">
         <v>14</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C35" s="56">
+      <c r="C35" s="15">
         <v>37890</v>
       </c>
-      <c r="E35" t="s">
+      <c r="D35" s="16"/>
+      <c r="E35" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="16" t="s">
         <v>499</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="16">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="16">
         <v>720</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="96">
         <f t="shared" si="7"/>
         <v>96</v>
       </c>
-      <c r="R35" t="s">
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="16">
         <v>14</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C36" s="56">
+      <c r="C36" s="15">
         <v>37890</v>
       </c>
-      <c r="E36" t="s">
+      <c r="D36" s="16"/>
+      <c r="E36" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="16" t="s">
         <v>500</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="16">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="16">
         <v>300</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="96">
         <f t="shared" si="7"/>
         <v>60</v>
       </c>
-      <c r="R36" t="s">
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="16">
         <v>14</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C37" s="56">
+      <c r="C37" s="15">
         <v>37891</v>
       </c>
-      <c r="E37" t="s">
+      <c r="D37" s="16"/>
+      <c r="E37" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="16" t="s">
         <v>503</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="16">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="16">
         <v>150</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="96">
         <f t="shared" si="7"/>
         <v>55</v>
       </c>
-      <c r="R37" t="s">
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="16">
         <v>14</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C38" s="56">
+      <c r="C38" s="15">
         <v>37891</v>
       </c>
-      <c r="E38" t="s">
+      <c r="D38" s="16"/>
+      <c r="E38" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="16">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="16">
         <v>480</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="96">
         <f t="shared" si="7"/>
         <v>64</v>
       </c>
-      <c r="R38" t="s">
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="16">
         <v>14</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C39" s="56">
+      <c r="C39" s="15">
         <v>37891</v>
       </c>
-      <c r="E39" t="s">
+      <c r="D39" s="16"/>
+      <c r="E39" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="16" t="s">
         <v>506</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="16">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="16">
         <v>600</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="96">
         <f t="shared" si="7"/>
         <v>90</v>
       </c>
-      <c r="R39" t="s">
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="16">
         <v>14</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C40" s="56">
+      <c r="C40" s="15">
         <v>39072</v>
       </c>
-      <c r="E40" t="s">
+      <c r="D40" s="16"/>
+      <c r="E40" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="16" t="s">
         <v>508</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="16">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="16">
         <v>180</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="96">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="R40" t="s">
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="16">
         <v>14</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C41" s="56">
+      <c r="C41" s="15">
         <v>39278</v>
       </c>
-      <c r="E41" t="s">
+      <c r="D41" s="16"/>
+      <c r="E41" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="16">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="16">
         <v>360</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="96">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="R41" t="s">
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="16">
         <v>14</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C42" s="56">
+      <c r="C42" s="15">
         <v>39307</v>
       </c>
-      <c r="E42" t="s">
+      <c r="D42" s="16"/>
+      <c r="E42" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="16">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="16">
         <v>360</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="96">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="R42" t="s">
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="16">
         <v>14</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C43" s="56">
+      <c r="C43" s="15">
         <v>39307</v>
       </c>
-      <c r="E43" t="s">
+      <c r="D43" s="16"/>
+      <c r="E43" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="16">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="16">
         <v>120</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="96">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="R43" t="s">
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="16">
         <v>14</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C44" s="56">
+      <c r="C44" s="15">
         <v>39395</v>
       </c>
-      <c r="E44" t="s">
+      <c r="D44" s="16"/>
+      <c r="E44" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="16">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="16">
         <v>360</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="96">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="R44" t="s">
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="16">
         <v>14</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C45" s="56">
+      <c r="C45" s="15">
         <v>39455</v>
       </c>
-      <c r="E45" t="s">
+      <c r="D45" s="16"/>
+      <c r="E45" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="16">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="16">
         <v>120</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="96">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="R45" t="s">
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="16">
         <v>14</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C46" s="56">
+      <c r="C46" s="15">
         <v>39694</v>
       </c>
-      <c r="E46" t="s">
+      <c r="D46" s="16"/>
+      <c r="E46" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="16">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="16">
         <v>180</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="96">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="R46" t="s">
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="16">
         <v>14</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C47" s="56">
+      <c r="C47" s="15">
         <v>39694</v>
       </c>
-      <c r="E47" t="s">
+      <c r="D47" s="16"/>
+      <c r="E47" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="16" t="s">
         <v>523</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="16">
         <f>(RIGHT(H47,LEN(H47)-4)-RIGHT(G47,LEN(G47)-4)+1)/10-1</f>
         <v>19</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="16">
         <v>240</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="96">
         <f t="shared" si="7"/>
         <v>76</v>
       </c>
-      <c r="R47" t="s">
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="16">
         <v>14</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C48" s="56">
+      <c r="C48" s="15">
         <v>39694</v>
       </c>
-      <c r="E48" t="s">
+      <c r="D48" s="16"/>
+      <c r="E48" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="16">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="16">
         <v>240</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="96">
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="R48" t="s">
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="16">
         <v>14</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C49" s="56">
+      <c r="C49" s="15">
         <v>39694</v>
       </c>
-      <c r="E49" t="s">
+      <c r="D49" s="16"/>
+      <c r="E49" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="16">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="16">
         <v>360</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="96">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="R49" t="s">
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="16">
         <v>14</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C50" s="56">
+      <c r="C50" s="15">
         <v>39694</v>
       </c>
-      <c r="E50" t="s">
+      <c r="D50" s="16"/>
+      <c r="E50" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="16">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="16">
         <v>120</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="96">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="R50" t="s">
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="59">
+      <c r="A51" s="58">
         <v>15</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="58" t="s">
         <v>408</v>
       </c>
-      <c r="C51" s="60"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="59"/>
-      <c r="O51" s="59"/>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="59" t="s">
+      <c r="C51" s="59"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="58"/>
+      <c r="M51" s="58"/>
+      <c r="N51" s="58"/>
+      <c r="O51" s="58"/>
+      <c r="P51" s="58"/>
+      <c r="Q51" s="58"/>
+      <c r="R51" s="58" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="57">
+      <c r="A52" s="56">
         <v>16</v>
       </c>
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="56" t="s">
         <v>409</v>
       </c>
-      <c r="C52" s="58"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="57"/>
-      <c r="R52" s="57" t="s">
+      <c r="C52" s="57"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="56" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="57">
+      <c r="A53" s="82">
         <v>17</v>
       </c>
-      <c r="B53" s="57" t="s">
+      <c r="B53" s="82" t="s">
         <v>410</v>
       </c>
-      <c r="C53" s="58"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="57"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="57"/>
-      <c r="R53" s="57" t="s">
+      <c r="C53" s="83"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="82"/>
+      <c r="J53" s="82"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="82"/>
+      <c r="M53" s="82"/>
+      <c r="N53" s="82"/>
+      <c r="O53" s="82"/>
+      <c r="P53" s="82"/>
+      <c r="Q53" s="82"/>
+      <c r="R53" s="82" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="A54" s="10">
         <v>18</v>
       </c>
-      <c r="B54" t="str">
+      <c r="B54" s="10" t="str">
         <f>'Radio Relic Sample'!A27</f>
         <v>A1300</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="10">
         <f>'Radio Relic Sample'!B27</f>
         <v>0</v>
       </c>
-      <c r="D54" t="str">
+      <c r="D54" s="10" t="str">
         <f>'Radio Relic Sample'!C27</f>
         <v>2014a</v>
       </c>
-      <c r="E54" t="str">
+      <c r="E54" s="10" t="str">
         <f>'Radio Relic Sample'!D27</f>
         <v>g</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="10">
         <f>'Radio Relic Sample'!E27</f>
         <v>0</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="10">
         <f>'Radio Relic Sample'!F27</f>
         <v>0</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="10">
         <f>'Radio Relic Sample'!G27</f>
         <v>0</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="10">
         <f>'Radio Relic Sample'!H27</f>
         <v>0</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="10">
         <f>'Radio Relic Sample'!I27</f>
         <v>0</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="60">
         <f>'Radio Relic Sample'!J27</f>
         <v>0</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="10">
         <f>'Radio Relic Sample'!K27</f>
         <v>0</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="10" t="str">
         <f>'Radio Relic Sample'!L27</f>
-        <v>0</v>
-      </c>
-      <c r="N54" t="str">
+        <v>wd</v>
+      </c>
+      <c r="N54" s="10" t="str">
         <f>'Radio Relic Sample'!M27</f>
         <v>wd</v>
       </c>
-      <c r="O54" t="str">
+      <c r="O54" s="10" t="str">
         <f>'Radio Relic Sample'!N27</f>
         <v>wd</v>
       </c>
-      <c r="P54">
+      <c r="P54" s="10">
         <f>'Radio Relic Sample'!O27</f>
         <v>0</v>
       </c>
-      <c r="Q54" t="str">
+      <c r="Q54" s="10" t="str">
         <f>'Radio Relic Sample'!P27</f>
         <v>n</v>
       </c>
-      <c r="R54">
+      <c r="R54" s="10">
         <f>'Radio Relic Sample'!Q27</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="A55" s="10">
         <v>18</v>
       </c>
-      <c r="B55" t="str">
+      <c r="B55" s="10" t="str">
         <f>'Radio Relic Sample'!A28</f>
         <v>A1300</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="10">
         <f>'Radio Relic Sample'!B28</f>
         <v>0</v>
       </c>
-      <c r="D55" t="str">
+      <c r="D55" s="10" t="str">
         <f>'Radio Relic Sample'!C28</f>
         <v>2014a</v>
       </c>
-      <c r="E55" t="str">
+      <c r="E55" s="10" t="str">
         <f>'Radio Relic Sample'!D28</f>
         <v>r</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="10">
         <f>'Radio Relic Sample'!E28</f>
         <v>0</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="10">
         <f>'Radio Relic Sample'!F28</f>
         <v>0</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="10">
         <f>'Radio Relic Sample'!G28</f>
         <v>0</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="10">
         <f>'Radio Relic Sample'!H28</f>
         <v>0</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="10">
         <f>'Radio Relic Sample'!I28</f>
         <v>0</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="60">
         <f>'Radio Relic Sample'!J28</f>
         <v>0</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="10">
         <f>'Radio Relic Sample'!K28</f>
         <v>0</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="10" t="str">
         <f>'Radio Relic Sample'!L28</f>
-        <v>0</v>
-      </c>
-      <c r="N55" t="str">
+        <v>wd</v>
+      </c>
+      <c r="N55" s="10" t="str">
         <f>'Radio Relic Sample'!M28</f>
         <v>wd</v>
       </c>
-      <c r="O55" t="str">
+      <c r="O55" s="10" t="str">
         <f>'Radio Relic Sample'!N28</f>
         <v>wd</v>
       </c>
-      <c r="P55">
+      <c r="P55" s="10">
         <f>'Radio Relic Sample'!O28</f>
         <v>0</v>
       </c>
-      <c r="Q55" t="str">
+      <c r="Q55" s="10" t="str">
         <f>'Radio Relic Sample'!P28</f>
         <v>y</v>
       </c>
-      <c r="R55">
+      <c r="R55" s="10">
         <f>'Radio Relic Sample'!Q28</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="57">
+      <c r="A56" s="67">
         <v>19</v>
       </c>
-      <c r="B56" s="57" t="s">
+      <c r="B56" s="67" t="s">
         <v>411</v>
       </c>
-      <c r="C56" s="58"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="57"/>
-      <c r="L56" s="57"/>
-      <c r="M56" s="57"/>
-      <c r="N56" s="57"/>
-      <c r="O56" s="57"/>
-      <c r="P56" s="57"/>
-      <c r="Q56" s="57"/>
-      <c r="R56" s="57" t="s">
+      <c r="C56" s="68"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="67"/>
+      <c r="M56" s="67"/>
+      <c r="N56" s="67"/>
+      <c r="O56" s="67"/>
+      <c r="P56" s="67"/>
+      <c r="Q56" s="67"/>
+      <c r="R56" s="67" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="57">
+      <c r="A57" s="70">
         <v>20</v>
       </c>
-      <c r="B57" s="57" t="s">
+      <c r="B57" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="58"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="57"/>
-      <c r="K57" s="57"/>
-      <c r="L57" s="57"/>
-      <c r="M57" s="57"/>
-      <c r="N57" s="57"/>
-      <c r="O57" s="57"/>
-      <c r="P57" s="57"/>
-      <c r="Q57" s="57"/>
-      <c r="R57" s="57" t="s">
+      <c r="C57" s="71"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="72"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="70"/>
+      <c r="N57" s="70"/>
+      <c r="O57" s="70"/>
+      <c r="P57" s="70"/>
+      <c r="Q57" s="70"/>
+      <c r="R57" s="70" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="16">
         <v>21</v>
       </c>
-      <c r="B58" s="10" t="str">
+      <c r="B58" s="16" t="str">
         <f>'MC3PO Sample'!A13</f>
         <v>A0665</v>
       </c>
-      <c r="C58" s="56">
+      <c r="C58" s="15">
         <f>'MC3PO Sample'!B13</f>
         <v>36852</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="16">
         <f>'MC3PO Sample'!C13</f>
         <v>0</v>
       </c>
-      <c r="E58" s="10" t="str">
+      <c r="E58" s="16" t="str">
         <f>'MC3PO Sample'!D13</f>
         <v>W-C-RC</v>
       </c>
-      <c r="F58" s="10" t="str">
+      <c r="F58" s="16" t="str">
         <f>'MC3PO Sample'!E13</f>
         <v>wd</v>
       </c>
-      <c r="G58" s="10" t="str">
+      <c r="G58" s="16" t="str">
         <f>'MC3PO Sample'!F13</f>
         <v>SUPA00023842</v>
       </c>
-      <c r="H58" s="10" t="str">
+      <c r="H58" s="16" t="str">
         <f>'MC3PO Sample'!G13</f>
         <v>SUPA00023931</v>
       </c>
-      <c r="I58" s="10">
+      <c r="I58" s="16">
         <f>'MC3PO Sample'!H13</f>
         <v>9</v>
       </c>
-      <c r="J58" s="10">
+      <c r="J58" s="16">
         <f>'MC3PO Sample'!I13</f>
         <v>360</v>
       </c>
-      <c r="K58" s="10">
+      <c r="K58" s="96">
         <f>'MC3PO Sample'!J13</f>
         <v>54</v>
       </c>
-      <c r="L58" s="10">
+      <c r="L58" s="16">
         <f>'MC3PO Sample'!K13</f>
         <v>0</v>
       </c>
-      <c r="M58" s="10">
+      <c r="M58" s="16">
         <f>'MC3PO Sample'!L13</f>
         <v>0</v>
       </c>
-      <c r="N58" s="10">
+      <c r="N58" s="16">
         <f>'MC3PO Sample'!M13</f>
         <v>0</v>
       </c>
-      <c r="O58" s="10">
+      <c r="O58" s="16">
         <f>'MC3PO Sample'!N13</f>
         <v>0</v>
       </c>
-      <c r="P58" s="10">
+      <c r="P58" s="16">
         <f>'MC3PO Sample'!O13</f>
         <v>0</v>
       </c>
-      <c r="Q58" s="10">
+      <c r="Q58" s="16">
         <f>'MC3PO Sample'!P13</f>
         <v>0</v>
       </c>
-      <c r="R58" s="10" t="str">
+      <c r="R58" s="16" t="str">
         <f>'MC3PO Sample'!Q13</f>
         <v>Perhaps discard. It seems like they were having issues. Just use the 2000-Nov-25 exposures?</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="16">
         <v>21</v>
       </c>
-      <c r="B59" s="10" t="str">
+      <c r="B59" s="16" t="str">
         <f>'MC3PO Sample'!A14</f>
         <v>A0665</v>
       </c>
-      <c r="C59" s="56">
+      <c r="C59" s="15">
         <f>'MC3PO Sample'!B14</f>
         <v>36853</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="16">
         <f>'MC3PO Sample'!C14</f>
         <v>0</v>
       </c>
-      <c r="E59" s="10" t="str">
+      <c r="E59" s="16" t="str">
         <f>'MC3PO Sample'!D14</f>
         <v>W-C-RC</v>
       </c>
-      <c r="F59" s="10" t="str">
+      <c r="F59" s="16" t="str">
         <f>'MC3PO Sample'!E14</f>
         <v>wd</v>
       </c>
-      <c r="G59" s="10" t="str">
+      <c r="G59" s="16" t="str">
         <f>'MC3PO Sample'!F14</f>
         <v>SUPA00024162</v>
       </c>
-      <c r="H59" s="10" t="str">
+      <c r="H59" s="16" t="str">
         <f>'MC3PO Sample'!G14</f>
         <v>SUPA00024171</v>
       </c>
-      <c r="I59" s="10">
+      <c r="I59" s="16">
         <f>'MC3PO Sample'!H14</f>
         <v>1</v>
       </c>
-      <c r="J59" s="10">
+      <c r="J59" s="16">
         <f>'MC3PO Sample'!I14</f>
         <v>120</v>
       </c>
-      <c r="K59" s="10">
+      <c r="K59" s="96">
         <f>'MC3PO Sample'!J14</f>
         <v>2</v>
       </c>
-      <c r="L59" s="10">
+      <c r="L59" s="16">
         <f>'MC3PO Sample'!K14</f>
         <v>0</v>
       </c>
-      <c r="M59" s="10">
+      <c r="M59" s="16">
         <f>'MC3PO Sample'!L14</f>
         <v>0</v>
       </c>
-      <c r="N59" s="10">
+      <c r="N59" s="16">
         <f>'MC3PO Sample'!M14</f>
         <v>0</v>
       </c>
-      <c r="O59" s="10">
+      <c r="O59" s="16">
         <f>'MC3PO Sample'!N14</f>
         <v>0</v>
       </c>
-      <c r="P59" s="10">
+      <c r="P59" s="16">
         <f>'MC3PO Sample'!O14</f>
         <v>0</v>
       </c>
-      <c r="Q59" s="10">
+      <c r="Q59" s="16">
         <f>'MC3PO Sample'!P14</f>
         <v>0</v>
       </c>
-      <c r="R59" s="10" t="str">
+      <c r="R59" s="16" t="str">
         <f>'MC3PO Sample'!Q14</f>
         <v>Perhaps discard. It seems like they were having issues. Just use the 2000-Nov-25 exposures?</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="16">
         <v>21</v>
       </c>
-      <c r="B60" s="10" t="str">
+      <c r="B60" s="16" t="str">
         <f>'MC3PO Sample'!A15</f>
         <v>A0665</v>
       </c>
-      <c r="C60" s="56">
+      <c r="C60" s="15">
         <f>'MC3PO Sample'!B15</f>
         <v>36853</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="16">
         <f>'MC3PO Sample'!C15</f>
         <v>0</v>
       </c>
-      <c r="E60" s="10" t="str">
+      <c r="E60" s="16" t="str">
         <f>'MC3PO Sample'!D15</f>
         <v>W-C-RC</v>
       </c>
-      <c r="F60" s="10" t="str">
+      <c r="F60" s="16" t="str">
         <f>'MC3PO Sample'!E15</f>
         <v>wd</v>
       </c>
-      <c r="G60" s="10" t="str">
+      <c r="G60" s="16" t="str">
         <f>'MC3PO Sample'!F15</f>
         <v>SUPA00024182</v>
       </c>
-      <c r="H60" s="10" t="str">
+      <c r="H60" s="16" t="str">
         <f>'MC3PO Sample'!G15</f>
         <v>SUPA00024191</v>
       </c>
-      <c r="I60" s="10">
+      <c r="I60" s="16">
         <f>'MC3PO Sample'!H15</f>
         <v>1</v>
       </c>
-      <c r="J60" s="10">
+      <c r="J60" s="16">
         <f>'MC3PO Sample'!I15</f>
         <v>120</v>
       </c>
-      <c r="K60" s="10">
+      <c r="K60" s="96">
         <f>'MC3PO Sample'!J15</f>
         <v>2</v>
       </c>
-      <c r="L60" s="10">
+      <c r="L60" s="16">
         <f>'MC3PO Sample'!K15</f>
         <v>0</v>
       </c>
-      <c r="M60" s="10">
+      <c r="M60" s="16">
         <f>'MC3PO Sample'!L15</f>
         <v>0</v>
       </c>
-      <c r="N60" s="10">
+      <c r="N60" s="16">
         <f>'MC3PO Sample'!M15</f>
         <v>0</v>
       </c>
-      <c r="O60" s="10">
+      <c r="O60" s="16">
         <f>'MC3PO Sample'!N15</f>
         <v>0</v>
       </c>
-      <c r="P60" s="10">
+      <c r="P60" s="16">
         <f>'MC3PO Sample'!O15</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="10">
+      <c r="Q60" s="16">
         <f>'MC3PO Sample'!P15</f>
         <v>0</v>
       </c>
-      <c r="R60" s="10" t="str">
+      <c r="R60" s="16" t="str">
         <f>'MC3PO Sample'!Q15</f>
         <v>Perhaps discard. It seems like they were having issues. Just use the 2000-Nov-25 exposures?</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="16">
         <v>21</v>
       </c>
-      <c r="B61" s="10" t="str">
+      <c r="B61" s="16" t="str">
         <f>'MC3PO Sample'!A16</f>
         <v>A0665</v>
       </c>
-      <c r="C61" s="56">
+      <c r="C61" s="15">
         <f>'MC3PO Sample'!B16</f>
         <v>36853</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="16">
         <f>'MC3PO Sample'!C16</f>
         <v>0</v>
       </c>
-      <c r="E61" s="10" t="str">
+      <c r="E61" s="16" t="str">
         <f>'MC3PO Sample'!D16</f>
         <v>W-C-RC</v>
       </c>
-      <c r="F61" s="10" t="str">
+      <c r="F61" s="16" t="str">
         <f>'MC3PO Sample'!E16</f>
         <v>wd</v>
       </c>
-      <c r="G61" s="10" t="str">
+      <c r="G61" s="16" t="str">
         <f>'MC3PO Sample'!F16</f>
         <v>SUPA00024202</v>
       </c>
-      <c r="H61" s="10" t="str">
+      <c r="H61" s="16" t="str">
         <f>'MC3PO Sample'!G16</f>
         <v>SUPA00024211</v>
       </c>
-      <c r="I61" s="10">
+      <c r="I61" s="16">
         <f>'MC3PO Sample'!H16</f>
         <v>1</v>
       </c>
-      <c r="J61" s="10">
+      <c r="J61" s="16">
         <f>'MC3PO Sample'!I16</f>
         <v>120</v>
       </c>
-      <c r="K61" s="10">
+      <c r="K61" s="96">
         <f>'MC3PO Sample'!J16</f>
         <v>2</v>
       </c>
-      <c r="L61" s="10">
+      <c r="L61" s="16">
         <f>'MC3PO Sample'!K16</f>
         <v>0</v>
       </c>
-      <c r="M61" s="10">
+      <c r="M61" s="16">
         <f>'MC3PO Sample'!L16</f>
         <v>0</v>
       </c>
-      <c r="N61" s="10">
+      <c r="N61" s="16">
         <f>'MC3PO Sample'!M16</f>
         <v>0</v>
       </c>
-      <c r="O61" s="10">
+      <c r="O61" s="16">
         <f>'MC3PO Sample'!N16</f>
         <v>0</v>
       </c>
-      <c r="P61" s="10">
+      <c r="P61" s="16">
         <f>'MC3PO Sample'!O16</f>
         <v>0</v>
       </c>
-      <c r="Q61" s="10">
+      <c r="Q61" s="16">
         <f>'MC3PO Sample'!P16</f>
         <v>0</v>
       </c>
-      <c r="R61" s="10" t="str">
+      <c r="R61" s="16" t="str">
         <f>'MC3PO Sample'!Q16</f>
         <v>Perhaps discard. It seems like they were having issues. Just use the 2000-Nov-25 exposures?</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="16">
         <v>21</v>
       </c>
-      <c r="B62" s="10" t="str">
+      <c r="B62" s="16" t="str">
         <f>'MC3PO Sample'!A17</f>
         <v>A0665</v>
       </c>
-      <c r="C62" s="56">
+      <c r="C62" s="15">
         <f>'MC3PO Sample'!B17</f>
         <v>36855</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="16">
         <f>'MC3PO Sample'!C17</f>
         <v>0</v>
       </c>
-      <c r="E62" s="10" t="str">
+      <c r="E62" s="16" t="str">
         <f>'MC3PO Sample'!D17</f>
         <v>W-C-RC</v>
       </c>
-      <c r="F62" s="10" t="str">
+      <c r="F62" s="16" t="str">
         <f>'MC3PO Sample'!E17</f>
         <v>wd</v>
       </c>
-      <c r="G62" s="10" t="str">
+      <c r="G62" s="16" t="str">
         <f>'MC3PO Sample'!F17</f>
         <v>SUPA00025130</v>
       </c>
-      <c r="H62" s="10" t="str">
+      <c r="H62" s="16" t="str">
         <f>'MC3PO Sample'!G17</f>
         <v>SUPA00025179</v>
       </c>
-      <c r="I62" s="10">
+      <c r="I62" s="16">
         <f>'MC3PO Sample'!H17</f>
         <v>5</v>
       </c>
-      <c r="J62" s="10">
+      <c r="J62" s="16">
         <f>'MC3PO Sample'!I17</f>
         <v>360</v>
       </c>
-      <c r="K62" s="10">
+      <c r="K62" s="96">
         <f>'MC3PO Sample'!J17</f>
         <v>30</v>
       </c>
-      <c r="L62" s="10">
+      <c r="L62" s="16">
         <f>'MC3PO Sample'!K17</f>
         <v>0</v>
       </c>
-      <c r="M62" s="10">
+      <c r="M62" s="16">
         <f>'MC3PO Sample'!L17</f>
         <v>0</v>
       </c>
-      <c r="N62" s="10">
+      <c r="N62" s="16">
         <f>'MC3PO Sample'!M17</f>
         <v>0</v>
       </c>
-      <c r="O62" s="10">
+      <c r="O62" s="16">
         <f>'MC3PO Sample'!N17</f>
         <v>0</v>
       </c>
-      <c r="P62" s="10">
+      <c r="P62" s="16">
         <f>'MC3PO Sample'!O17</f>
         <v>0</v>
       </c>
-      <c r="Q62" s="10">
+      <c r="Q62" s="16">
         <f>'MC3PO Sample'!P17</f>
         <v>0</v>
       </c>
-      <c r="R62" s="10">
+      <c r="R62" s="16">
         <f>'MC3PO Sample'!Q17</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" s="16">
         <v>21</v>
       </c>
-      <c r="B63" s="10" t="str">
+      <c r="B63" s="16" t="str">
         <f>'MC3PO Sample'!A18</f>
         <v>A0665</v>
       </c>
-      <c r="C63" s="56">
+      <c r="C63" s="15">
         <f>'MC3PO Sample'!B18</f>
         <v>36856</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="16">
         <f>'MC3PO Sample'!C18</f>
         <v>0</v>
       </c>
-      <c r="E63" s="10" t="str">
+      <c r="E63" s="16" t="str">
         <f>'MC3PO Sample'!D18</f>
         <v>W-S-I+</v>
       </c>
-      <c r="F63" s="10" t="str">
+      <c r="F63" s="16" t="str">
         <f>'MC3PO Sample'!E18</f>
         <v>wd</v>
       </c>
-      <c r="G63" s="10" t="str">
+      <c r="G63" s="16" t="str">
         <f>'MC3PO Sample'!F18</f>
         <v>SUPA00025680</v>
       </c>
-      <c r="H63" s="10" t="str">
+      <c r="H63" s="16" t="str">
         <f>'MC3PO Sample'!G18</f>
         <v>SUPA00025739</v>
       </c>
-      <c r="I63" s="10">
+      <c r="I63" s="16">
         <f>'MC3PO Sample'!H18</f>
         <v>6</v>
       </c>
-      <c r="J63" s="10">
+      <c r="J63" s="16">
         <f>'MC3PO Sample'!I18</f>
         <v>90</v>
       </c>
-      <c r="K63" s="10">
+      <c r="K63" s="96">
         <f>'MC3PO Sample'!J18</f>
         <v>9</v>
       </c>
-      <c r="L63" s="10">
+      <c r="L63" s="16">
         <f>'MC3PO Sample'!K18</f>
         <v>0</v>
       </c>
-      <c r="M63" s="10">
+      <c r="M63" s="16">
         <f>'MC3PO Sample'!L18</f>
         <v>0</v>
       </c>
-      <c r="N63" s="10">
+      <c r="N63" s="16">
         <f>'MC3PO Sample'!M18</f>
         <v>0</v>
       </c>
-      <c r="O63" s="10">
+      <c r="O63" s="16">
         <f>'MC3PO Sample'!N18</f>
         <v>0</v>
       </c>
-      <c r="P63" s="10">
+      <c r="P63" s="16">
         <f>'MC3PO Sample'!O18</f>
         <v>0</v>
       </c>
-      <c r="Q63" s="10">
+      <c r="Q63" s="16">
         <f>'MC3PO Sample'!P18</f>
         <v>0</v>
       </c>
-      <c r="R63" s="10">
+      <c r="R63" s="16">
         <f>'MC3PO Sample'!Q18</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="A64" s="16">
         <v>21</v>
       </c>
-      <c r="B64" s="10" t="str">
+      <c r="B64" s="16" t="str">
         <f>'MC3PO Sample'!A19</f>
         <v>A0665</v>
       </c>
-      <c r="C64" s="56">
+      <c r="C64" s="15">
         <f>'MC3PO Sample'!B19</f>
         <v>36858</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="16">
         <f>'MC3PO Sample'!C19</f>
         <v>0</v>
       </c>
-      <c r="E64" s="10" t="str">
+      <c r="E64" s="16" t="str">
         <f>'MC3PO Sample'!D19</f>
         <v>W-J-V</v>
       </c>
-      <c r="F64" s="10" t="str">
+      <c r="F64" s="16" t="str">
         <f>'MC3PO Sample'!E19</f>
         <v>wd</v>
       </c>
-      <c r="G64" s="10" t="str">
+      <c r="G64" s="16" t="str">
         <f>'MC3PO Sample'!F19</f>
         <v>SUPA00026900</v>
       </c>
-      <c r="H64" s="10" t="str">
+      <c r="H64" s="16" t="str">
         <f>'MC3PO Sample'!G19</f>
         <v>SUPA00026919</v>
       </c>
-      <c r="I64" s="10">
+      <c r="I64" s="16">
         <f>'MC3PO Sample'!H19</f>
         <v>2</v>
       </c>
-      <c r="J64" s="10">
+      <c r="J64" s="16">
         <f>'MC3PO Sample'!I19</f>
         <v>360</v>
       </c>
-      <c r="K64" s="10">
+      <c r="K64" s="96">
         <f>'MC3PO Sample'!J19</f>
         <v>12</v>
       </c>
-      <c r="L64" s="10">
+      <c r="L64" s="16">
         <f>'MC3PO Sample'!K19</f>
         <v>0</v>
       </c>
-      <c r="M64" s="10">
+      <c r="M64" s="16">
         <f>'MC3PO Sample'!L19</f>
         <v>0</v>
       </c>
-      <c r="N64" s="10">
+      <c r="N64" s="16">
         <f>'MC3PO Sample'!M19</f>
         <v>0</v>
       </c>
-      <c r="O64" s="10">
+      <c r="O64" s="16">
         <f>'MC3PO Sample'!N19</f>
         <v>0</v>
       </c>
-      <c r="P64" s="10">
+      <c r="P64" s="16">
         <f>'MC3PO Sample'!O19</f>
         <v>0</v>
       </c>
-      <c r="Q64" s="10">
+      <c r="Q64" s="16">
         <f>'MC3PO Sample'!P19</f>
         <v>0</v>
       </c>
-      <c r="R64" s="10">
+      <c r="R64" s="16">
         <f>'MC3PO Sample'!Q19</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="A65" s="16">
         <v>21</v>
       </c>
-      <c r="B65" s="10" t="str">
+      <c r="B65" s="16" t="str">
         <f>'MC3PO Sample'!A20</f>
         <v>A0665</v>
       </c>
-      <c r="C65" s="56">
+      <c r="C65" s="15">
         <f>'MC3PO Sample'!B20</f>
         <v>36974</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="16">
         <f>'MC3PO Sample'!C20</f>
         <v>0</v>
       </c>
-      <c r="E65" s="10" t="str">
+      <c r="E65" s="16" t="str">
         <f>'MC3PO Sample'!D20</f>
         <v>W-S-I+</v>
       </c>
-      <c r="F65" s="10" t="str">
+      <c r="F65" s="16" t="str">
         <f>'MC3PO Sample'!E20</f>
         <v>wd</v>
       </c>
-      <c r="G65" s="10" t="str">
+      <c r="G65" s="16" t="str">
         <f>'MC3PO Sample'!F20</f>
         <v>SUPA00045790</v>
       </c>
-      <c r="H65" s="10" t="str">
+      <c r="H65" s="16" t="str">
         <f>'MC3PO Sample'!G20</f>
         <v>SUPA00045809</v>
       </c>
-      <c r="I65" s="10">
+      <c r="I65" s="16">
         <f>'MC3PO Sample'!H20</f>
         <v>2</v>
       </c>
-      <c r="J65" s="10">
+      <c r="J65" s="16">
         <f>'MC3PO Sample'!I20</f>
         <v>240</v>
       </c>
-      <c r="K65" s="10">
+      <c r="K65" s="96">
         <f>'MC3PO Sample'!J20</f>
         <v>8</v>
       </c>
-      <c r="L65" s="10">
+      <c r="L65" s="16">
         <f>'MC3PO Sample'!K20</f>
         <v>0</v>
       </c>
-      <c r="M65" s="10">
+      <c r="M65" s="16">
         <f>'MC3PO Sample'!L20</f>
         <v>0</v>
       </c>
-      <c r="N65" s="10">
+      <c r="N65" s="16">
         <f>'MC3PO Sample'!M20</f>
         <v>0</v>
       </c>
-      <c r="O65" s="10">
+      <c r="O65" s="16">
         <f>'MC3PO Sample'!N20</f>
         <v>0</v>
       </c>
-      <c r="P65" s="10">
+      <c r="P65" s="16">
         <f>'MC3PO Sample'!O20</f>
         <v>0</v>
       </c>
-      <c r="Q65" s="10">
+      <c r="Q65" s="16">
         <f>'MC3PO Sample'!P20</f>
         <v>0</v>
       </c>
-      <c r="R65" s="10">
+      <c r="R65" s="16">
         <f>'MC3PO Sample'!Q20</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="A66" s="16">
         <v>21</v>
       </c>
-      <c r="B66" s="10" t="str">
+      <c r="B66" s="16" t="str">
         <f>'MC3PO Sample'!A21</f>
         <v>A0665</v>
       </c>
-      <c r="C66" s="56">
+      <c r="C66" s="15">
         <f>'MC3PO Sample'!B21</f>
         <v>36974</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="16">
         <f>'MC3PO Sample'!C21</f>
         <v>0</v>
       </c>
-      <c r="E66" s="10" t="str">
+      <c r="E66" s="16" t="str">
         <f>'MC3PO Sample'!D21</f>
         <v>W-J-V</v>
       </c>
-      <c r="F66" s="10" t="str">
+      <c r="F66" s="16" t="str">
         <f>'MC3PO Sample'!E21</f>
         <v>wd</v>
       </c>
-      <c r="G66" s="10" t="str">
+      <c r="G66" s="16" t="str">
         <f>'MC3PO Sample'!F21</f>
         <v>SUPA00045890</v>
       </c>
-      <c r="H66" s="10" t="str">
+      <c r="H66" s="16" t="str">
         <f>'MC3PO Sample'!G21</f>
         <v>SUPA00045919</v>
       </c>
-      <c r="I66" s="10">
+      <c r="I66" s="16">
         <f>'MC3PO Sample'!H21</f>
         <v>3</v>
       </c>
-      <c r="J66" s="10">
+      <c r="J66" s="16">
         <f>'MC3PO Sample'!I21</f>
         <v>360</v>
       </c>
-      <c r="K66" s="10">
+      <c r="K66" s="96">
         <f>'MC3PO Sample'!J21</f>
         <v>18</v>
       </c>
-      <c r="L66" s="10">
+      <c r="L66" s="16">
         <f>'MC3PO Sample'!K21</f>
         <v>0</v>
       </c>
-      <c r="M66" s="10">
+      <c r="M66" s="16">
         <f>'MC3PO Sample'!L21</f>
         <v>0</v>
       </c>
-      <c r="N66" s="10">
+      <c r="N66" s="16">
         <f>'MC3PO Sample'!M21</f>
         <v>0</v>
       </c>
-      <c r="O66" s="10">
+      <c r="O66" s="16">
         <f>'MC3PO Sample'!N21</f>
         <v>0</v>
       </c>
-      <c r="P66" s="10">
+      <c r="P66" s="16">
         <f>'MC3PO Sample'!O21</f>
         <v>0</v>
       </c>
-      <c r="Q66" s="10">
+      <c r="Q66" s="16">
         <f>'MC3PO Sample'!P21</f>
         <v>0</v>
       </c>
-      <c r="R66" s="10">
+      <c r="R66" s="16">
         <f>'MC3PO Sample'!Q21</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="A67" s="16">
         <v>21</v>
       </c>
-      <c r="B67" s="10" t="str">
+      <c r="B67" s="16" t="str">
         <f>'MC3PO Sample'!A22</f>
         <v>A0665</v>
       </c>
-      <c r="C67" s="56">
+      <c r="C67" s="15">
         <f>'MC3PO Sample'!B22</f>
         <v>39901</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="16">
         <f>'MC3PO Sample'!C22</f>
         <v>0</v>
       </c>
-      <c r="E67" s="10" t="str">
+      <c r="E67" s="16" t="str">
         <f>'MC3PO Sample'!D22</f>
         <v>W-S-I+</v>
       </c>
-      <c r="F67" s="10" t="str">
+      <c r="F67" s="16" t="str">
         <f>'MC3PO Sample'!E22</f>
         <v>wd</v>
       </c>
-      <c r="G67" s="10" t="str">
+      <c r="G67" s="16" t="str">
         <f>'MC3PO Sample'!F22</f>
         <v>SUPA01084300</v>
       </c>
-      <c r="H67" s="10" t="str">
+      <c r="H67" s="16" t="str">
         <f>'MC3PO Sample'!G22</f>
         <v>SUPA01084389</v>
       </c>
-      <c r="I67" s="10">
+      <c r="I67" s="16">
         <f>'MC3PO Sample'!H22</f>
         <v>9</v>
       </c>
-      <c r="J67" s="10">
+      <c r="J67" s="16">
         <f>'MC3PO Sample'!I22</f>
         <v>240</v>
       </c>
-      <c r="K67" s="10">
+      <c r="K67" s="96">
         <f>'MC3PO Sample'!J22</f>
         <v>36</v>
       </c>
-      <c r="L67" s="10">
+      <c r="L67" s="16">
         <f>'MC3PO Sample'!K22</f>
         <v>0</v>
       </c>
-      <c r="M67" s="10">
+      <c r="M67" s="16">
         <f>'MC3PO Sample'!L22</f>
         <v>0</v>
       </c>
-      <c r="N67" s="10">
+      <c r="N67" s="16">
         <f>'MC3PO Sample'!M22</f>
         <v>0</v>
       </c>
-      <c r="O67" s="10">
+      <c r="O67" s="16">
         <f>'MC3PO Sample'!N22</f>
         <v>0</v>
       </c>
-      <c r="P67" s="10">
+      <c r="P67" s="16">
         <f>'MC3PO Sample'!O22</f>
         <v>0</v>
       </c>
-      <c r="Q67" s="10">
+      <c r="Q67" s="16">
         <f>'MC3PO Sample'!P22</f>
         <v>0</v>
       </c>
-      <c r="R67" s="10">
+      <c r="R67" s="16">
         <f>'MC3PO Sample'!Q22</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="A68" s="16">
         <v>21</v>
       </c>
-      <c r="B68" s="10" t="str">
+      <c r="B68" s="16" t="str">
         <f>'MC3PO Sample'!A23</f>
         <v>A0665</v>
       </c>
-      <c r="C68" s="56">
+      <c r="C68" s="15">
         <f>'MC3PO Sample'!B23</f>
         <v>39901</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="16">
         <f>'MC3PO Sample'!C23</f>
         <v>0</v>
       </c>
-      <c r="E68" s="10" t="str">
+      <c r="E68" s="16" t="str">
         <f>'MC3PO Sample'!D23</f>
         <v>W-J-V</v>
       </c>
-      <c r="F68" s="10" t="str">
+      <c r="F68" s="16" t="str">
         <f>'MC3PO Sample'!E23</f>
         <v>wd</v>
       </c>
-      <c r="G68" s="10" t="str">
+      <c r="G68" s="16" t="str">
         <f>'MC3PO Sample'!F23</f>
         <v>SUPA01084390</v>
       </c>
-      <c r="H68" s="10" t="str">
+      <c r="H68" s="16" t="str">
         <f>'MC3PO Sample'!G23</f>
         <v>SUPA01084439</v>
       </c>
-      <c r="I68" s="10">
+      <c r="I68" s="16">
         <f>'MC3PO Sample'!H23</f>
         <v>5</v>
       </c>
-      <c r="J68" s="10">
+      <c r="J68" s="16">
         <f>'MC3PO Sample'!I23</f>
         <v>240</v>
       </c>
-      <c r="K68" s="10">
+      <c r="K68" s="96">
         <f>'MC3PO Sample'!J23</f>
         <v>20</v>
       </c>
-      <c r="L68" s="10">
+      <c r="L68" s="16">
         <f>'MC3PO Sample'!K23</f>
         <v>0</v>
       </c>
-      <c r="M68" s="10">
+      <c r="M68" s="16">
         <f>'MC3PO Sample'!L23</f>
         <v>0</v>
       </c>
-      <c r="N68" s="10">
+      <c r="N68" s="16">
         <f>'MC3PO Sample'!M23</f>
         <v>0</v>
       </c>
-      <c r="O68" s="10">
+      <c r="O68" s="16">
         <f>'MC3PO Sample'!N23</f>
         <v>0</v>
       </c>
-      <c r="P68" s="10">
+      <c r="P68" s="16">
         <f>'MC3PO Sample'!O23</f>
         <v>0</v>
       </c>
-      <c r="Q68" s="10">
+      <c r="Q68" s="16">
         <f>'MC3PO Sample'!P23</f>
         <v>0</v>
       </c>
-      <c r="R68" s="10">
+      <c r="R68" s="16">
         <f>'MC3PO Sample'!Q23</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A69" s="57">
+      <c r="A69" s="76">
         <v>22</v>
       </c>
-      <c r="B69" s="57" t="s">
+      <c r="B69" s="76" t="s">
         <v>412</v>
       </c>
-      <c r="C69" s="58"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="57"/>
-      <c r="F69" s="57"/>
-      <c r="G69" s="57"/>
-      <c r="H69" s="57"/>
-      <c r="I69" s="57"/>
-      <c r="J69" s="57"/>
-      <c r="K69" s="57"/>
-      <c r="L69" s="57"/>
-      <c r="M69" s="57"/>
-      <c r="N69" s="57"/>
-      <c r="O69" s="57"/>
-      <c r="P69" s="57"/>
-      <c r="Q69" s="57"/>
-      <c r="R69" s="57" t="s">
+      <c r="C69" s="77"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="76"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="76"/>
+      <c r="I69" s="76"/>
+      <c r="J69" s="76"/>
+      <c r="K69" s="78"/>
+      <c r="L69" s="76"/>
+      <c r="M69" s="76"/>
+      <c r="N69" s="76"/>
+      <c r="O69" s="76"/>
+      <c r="P69" s="76"/>
+      <c r="Q69" s="76"/>
+      <c r="R69" s="76" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A70" s="59">
+      <c r="A70" s="101">
         <v>23</v>
       </c>
-      <c r="B70" s="59" t="s">
+      <c r="B70" s="101" t="s">
         <v>413</v>
       </c>
-      <c r="C70" s="60"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="59"/>
-      <c r="G70" s="59"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="59"/>
-      <c r="J70" s="59"/>
-      <c r="K70" s="59"/>
-      <c r="L70" s="59"/>
-      <c r="M70" s="59"/>
-      <c r="N70" s="59"/>
-      <c r="O70" s="59"/>
-      <c r="P70" s="59"/>
-      <c r="Q70" s="59"/>
-      <c r="R70" s="59" t="s">
+      <c r="C70" s="102"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="101"/>
+      <c r="F70" s="101"/>
+      <c r="G70" s="101"/>
+      <c r="H70" s="101"/>
+      <c r="I70" s="101"/>
+      <c r="J70" s="101"/>
+      <c r="K70" s="103"/>
+      <c r="L70" s="101"/>
+      <c r="M70" s="101"/>
+      <c r="N70" s="101"/>
+      <c r="O70" s="101"/>
+      <c r="P70" s="101"/>
+      <c r="Q70" s="101"/>
+      <c r="R70" s="101" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="A71" s="8">
         <v>24</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="C71" s="56"/>
-      <c r="R71">
+      <c r="C71" s="7">
+        <v>36886</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="I71" s="8">
+        <f>(RIGHT(H71,LEN(H71)-4)-RIGHT(G71,LEN(G71)-4)+1)/10</f>
+        <v>6</v>
+      </c>
+      <c r="J71" s="8">
+        <v>240</v>
+      </c>
+      <c r="K71" s="66">
+        <f t="shared" ref="K71:K93" si="8">I71*J71/60</f>
+        <v>24</v>
+      </c>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A72" s="8">
+        <v>24</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C72" s="7">
+        <v>36886</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="I72" s="8">
+        <f t="shared" ref="I72:I93" si="9">(RIGHT(H72,LEN(H72)-4)-RIGHT(G72,LEN(G72)-4)+1)/10</f>
+        <v>4</v>
+      </c>
+      <c r="J72" s="8">
+        <v>480</v>
+      </c>
+      <c r="K72" s="66">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A73" s="8">
+        <v>24</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C73" s="7">
+        <v>36887</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="I73" s="8">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="J73" s="8">
+        <v>480</v>
+      </c>
+      <c r="K73" s="66">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="R73" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A74" s="8">
+        <v>24</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C74" s="7">
+        <v>37738</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="I74" s="8">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="J74" s="8">
+        <v>180</v>
+      </c>
+      <c r="K74" s="66">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A75" s="8">
+        <v>24</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C75" s="7">
+        <v>38416</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="I75" s="8">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="J75" s="8">
+        <v>150</v>
+      </c>
+      <c r="K75" s="66">
+        <f t="shared" si="8"/>
+        <v>7.5</v>
+      </c>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A76" s="8">
+        <v>24</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C76" s="7">
+        <v>38416</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="I76" s="8">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="J76" s="8">
+        <v>150</v>
+      </c>
+      <c r="K76" s="66">
+        <f t="shared" si="8"/>
+        <v>7.5</v>
+      </c>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A77" s="8">
+        <v>24</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C77" s="7">
+        <v>38417</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="I77" s="8">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="J77" s="8">
+        <v>150</v>
+      </c>
+      <c r="K77" s="66">
+        <f t="shared" si="8"/>
+        <v>7.5</v>
+      </c>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A78" s="8">
+        <v>24</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C78" s="7">
+        <v>38417</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="I78" s="8">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="J78" s="8">
+        <v>150</v>
+      </c>
+      <c r="K78" s="66">
+        <f t="shared" si="8"/>
+        <v>7.5</v>
+      </c>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A79" s="8">
+        <v>24</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C79" s="7">
+        <v>38686</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="I79" s="8">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="J79" s="8">
+        <v>360</v>
+      </c>
+      <c r="K79" s="66">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A80" s="8">
+        <v>24</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C80" s="7">
+        <v>38686</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="I80" s="8">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="J80" s="8">
+        <v>240</v>
+      </c>
+      <c r="K80" s="66">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A81" s="10">
+        <v>25</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C81" s="9">
+        <v>38453</v>
+      </c>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="I81" s="10">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="J81" s="10">
+        <v>180</v>
+      </c>
+      <c r="K81" s="60">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A82" s="10">
+        <v>25</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C82" s="9">
+        <v>38453</v>
+      </c>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="I82" s="10">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="J82" s="10">
+        <v>360</v>
+      </c>
+      <c r="K82" s="60">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10"/>
+      <c r="R82" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A83" s="10">
+        <v>25</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C83" s="9">
+        <v>39195</v>
+      </c>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="I83" s="10">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="J83" s="10">
+        <v>150</v>
+      </c>
+      <c r="K83" s="60">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="10" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A84" s="10">
+        <v>25</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C84" s="9">
+        <v>39251</v>
+      </c>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="I84" s="10">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="J84" s="10">
+        <v>600</v>
+      </c>
+      <c r="K84" s="60">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A85" s="10">
+        <v>25</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C85" s="9">
+        <v>39251</v>
+      </c>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="I85" s="10">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J85" s="10">
         <v>500</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="K85" s="60">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R85" s="10" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A86" s="10">
         <v>25</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B86" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="C72" s="56"/>
-      <c r="R72">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="C86" s="9">
+        <v>39277</v>
+      </c>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="I86" s="10">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="J86" s="10">
+        <v>600</v>
+      </c>
+      <c r="K86" s="60">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="10"/>
+      <c r="R86" s="10" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A87" s="10">
+        <v>25</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C87" s="9">
+        <v>39277</v>
+      </c>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="I87" s="10">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J87" s="10">
+        <v>500</v>
+      </c>
+      <c r="K87" s="60">
+        <f t="shared" si="8"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="10" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A88" s="10">
+        <v>25</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C88" s="9">
+        <v>39278</v>
+      </c>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="I88" s="10">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="J88" s="10">
+        <v>600</v>
+      </c>
+      <c r="K88" s="60">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="10"/>
+      <c r="R88" s="10" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A89" s="10">
+        <v>25</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C89" s="9">
+        <v>39280</v>
+      </c>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="I89" s="10">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="J89" s="10">
+        <v>120</v>
+      </c>
+      <c r="K89" s="60">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10"/>
+      <c r="R89" s="10" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A90" s="10">
+        <v>25</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C90" s="9">
+        <v>39545</v>
+      </c>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="I90" s="10">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="J90" s="10">
+        <v>300</v>
+      </c>
+      <c r="K90" s="60">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="10"/>
+      <c r="R90" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A91" s="10">
+        <v>25</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C91" s="9">
+        <v>39545</v>
+      </c>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="I91" s="10">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="J91" s="10">
+        <v>300</v>
+      </c>
+      <c r="K91" s="60">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="10"/>
+      <c r="R91" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A92" s="10">
+        <v>25</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C92" s="9">
+        <v>41115</v>
+      </c>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="I92" s="10">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="J92" s="10">
+        <v>180</v>
+      </c>
+      <c r="K92" s="60">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="10"/>
+      <c r="Q92" s="10"/>
+      <c r="R92" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A93" s="10">
+        <v>25</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C93" s="9">
+        <v>41434</v>
+      </c>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="I93" s="10">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="J93" s="10">
+        <v>240</v>
+      </c>
+      <c r="K93" s="60">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
+      <c r="P93" s="10"/>
+      <c r="Q93" s="10"/>
+      <c r="R93" s="10" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A94" s="12">
         <v>26</v>
       </c>
-      <c r="B73" t="str">
+      <c r="B94" s="12" t="str">
         <f>'MC3PO Sample'!A40</f>
         <v>A1763</v>
       </c>
-      <c r="C73" s="56">
+      <c r="C94" s="11">
         <f>'MC3PO Sample'!B40</f>
         <v>39900</v>
       </c>
-      <c r="D73">
+      <c r="D94" s="12">
         <f>'MC3PO Sample'!C40</f>
         <v>0</v>
       </c>
-      <c r="E73" t="str">
+      <c r="E94" s="12" t="str">
         <f>'MC3PO Sample'!D40</f>
         <v>W-S-I+</v>
       </c>
-      <c r="F73" t="str">
+      <c r="F94" s="12" t="str">
         <f>'MC3PO Sample'!E40</f>
         <v>wd</v>
       </c>
-      <c r="G73" t="str">
+      <c r="G94" s="12" t="str">
         <f>'MC3PO Sample'!F40</f>
         <v>SUPA01083190</v>
       </c>
-      <c r="H73" t="str">
+      <c r="H94" s="12" t="str">
         <f>'MC3PO Sample'!G40</f>
         <v>SUPA01083209</v>
       </c>
-      <c r="I73">
+      <c r="I94" s="12">
         <f>'MC3PO Sample'!H40</f>
         <v>2</v>
       </c>
-      <c r="J73">
+      <c r="J94" s="12">
         <f>'MC3PO Sample'!I40</f>
         <v>240</v>
       </c>
-      <c r="K73">
+      <c r="K94" s="91">
         <f>'MC3PO Sample'!J40</f>
         <v>8</v>
       </c>
-      <c r="L73">
+      <c r="L94" s="12">
         <f>'MC3PO Sample'!K40</f>
         <v>0</v>
       </c>
-      <c r="M73">
+      <c r="M94" s="12">
         <f>'MC3PO Sample'!L40</f>
         <v>0</v>
       </c>
-      <c r="N73">
+      <c r="N94" s="12">
         <f>'MC3PO Sample'!M40</f>
         <v>0</v>
       </c>
-      <c r="O73">
+      <c r="O94" s="12">
         <f>'MC3PO Sample'!N40</f>
         <v>0</v>
       </c>
-      <c r="P73">
+      <c r="P94" s="12">
         <f>'MC3PO Sample'!O40</f>
         <v>0</v>
       </c>
-      <c r="Q73">
+      <c r="Q94" s="12">
         <f>'MC3PO Sample'!P40</f>
         <v>0</v>
       </c>
-      <c r="R73" t="str">
+      <c r="R94" s="12" t="str">
         <f>'MC3PO Sample'!Q40</f>
         <v>(Sky) Thick Cirrus | (Seeing) 0.52 - 0.74</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A74">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A95" s="12">
         <v>26</v>
       </c>
-      <c r="B74" t="str">
+      <c r="B95" s="12" t="str">
         <f>'MC3PO Sample'!A41</f>
         <v>A1763</v>
       </c>
-      <c r="C74" s="56">
+      <c r="C95" s="11">
         <f>'MC3PO Sample'!B41</f>
         <v>39900</v>
       </c>
-      <c r="D74">
+      <c r="D95" s="12">
         <f>'MC3PO Sample'!C41</f>
         <v>0</v>
       </c>
-      <c r="E74" t="str">
+      <c r="E95" s="12" t="str">
         <f>'MC3PO Sample'!D41</f>
         <v>W-J-V</v>
       </c>
-      <c r="F74" t="str">
+      <c r="F95" s="12" t="str">
         <f>'MC3PO Sample'!E41</f>
         <v>wd</v>
       </c>
-      <c r="G74" t="str">
+      <c r="G95" s="12" t="str">
         <f>'MC3PO Sample'!F41</f>
         <v>SUPA01083220</v>
       </c>
-      <c r="H74" t="str">
+      <c r="H95" s="12" t="str">
         <f>'MC3PO Sample'!G41</f>
         <v>SUPA01083259</v>
       </c>
-      <c r="I74">
+      <c r="I95" s="12">
         <f>'MC3PO Sample'!H41</f>
         <v>4</v>
       </c>
-      <c r="J74">
+      <c r="J95" s="12">
         <f>'MC3PO Sample'!I41</f>
         <v>240</v>
       </c>
-      <c r="K74">
+      <c r="K95" s="91">
         <f>'MC3PO Sample'!J41</f>
         <v>16</v>
       </c>
-      <c r="L74">
+      <c r="L95" s="12">
         <f>'MC3PO Sample'!K41</f>
         <v>0</v>
       </c>
-      <c r="M74">
+      <c r="M95" s="12">
         <f>'MC3PO Sample'!L41</f>
         <v>0</v>
       </c>
-      <c r="N74">
+      <c r="N95" s="12">
         <f>'MC3PO Sample'!M41</f>
         <v>0</v>
       </c>
-      <c r="O74">
+      <c r="O95" s="12">
         <f>'MC3PO Sample'!N41</f>
         <v>0</v>
       </c>
-      <c r="P74">
+      <c r="P95" s="12">
         <f>'MC3PO Sample'!O41</f>
         <v>0</v>
       </c>
-      <c r="Q74">
+      <c r="Q95" s="12">
         <f>'MC3PO Sample'!P41</f>
         <v>0</v>
       </c>
-      <c r="R74" t="str">
+      <c r="R95" s="12" t="str">
         <f>'MC3PO Sample'!Q41</f>
         <v>(Sky) Thick Cirrus | (Seeing) 0.52 - 0.75</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A75">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A96" s="12">
         <v>26</v>
       </c>
-      <c r="B75" t="str">
+      <c r="B96" s="12" t="str">
         <f>'MC3PO Sample'!A42</f>
         <v>A1763</v>
       </c>
-      <c r="C75" s="56">
+      <c r="C96" s="11">
         <f>'MC3PO Sample'!B42</f>
         <v>39901</v>
       </c>
-      <c r="D75">
+      <c r="D96" s="12">
         <f>'MC3PO Sample'!C42</f>
         <v>0</v>
       </c>
-      <c r="E75" t="str">
+      <c r="E96" s="12" t="str">
         <f>'MC3PO Sample'!D42</f>
         <v>W-S-I+</v>
       </c>
-      <c r="F75" t="str">
+      <c r="F96" s="12" t="str">
         <f>'MC3PO Sample'!E42</f>
         <v>wd</v>
       </c>
-      <c r="G75" t="str">
+      <c r="G96" s="12" t="str">
         <f>'MC3PO Sample'!F42</f>
         <v>SUPA01085020</v>
       </c>
-      <c r="H75" t="str">
+      <c r="H96" s="12" t="str">
         <f>'MC3PO Sample'!G42</f>
         <v>SUPA01085089</v>
       </c>
-      <c r="I75">
+      <c r="I96" s="12">
         <f>'MC3PO Sample'!H42</f>
         <v>7</v>
       </c>
-      <c r="J75">
+      <c r="J96" s="12">
         <f>'MC3PO Sample'!I42</f>
         <v>240</v>
       </c>
-      <c r="K75">
+      <c r="K96" s="91">
         <f>'MC3PO Sample'!J42</f>
         <v>28</v>
       </c>
-      <c r="L75">
+      <c r="L96" s="12">
         <f>'MC3PO Sample'!K42</f>
         <v>0</v>
       </c>
-      <c r="M75">
+      <c r="M96" s="12">
         <f>'MC3PO Sample'!L42</f>
         <v>0</v>
       </c>
-      <c r="N75">
+      <c r="N96" s="12">
         <f>'MC3PO Sample'!M42</f>
         <v>0</v>
       </c>
-      <c r="O75">
+      <c r="O96" s="12">
         <f>'MC3PO Sample'!N42</f>
         <v>0</v>
       </c>
-      <c r="P75">
+      <c r="P96" s="12">
         <f>'MC3PO Sample'!O42</f>
         <v>0</v>
       </c>
-      <c r="Q75">
+      <c r="Q96" s="12">
         <f>'MC3PO Sample'!P42</f>
         <v>0</v>
       </c>
-      <c r="R75" t="str">
+      <c r="R96" s="12" t="str">
         <f>'MC3PO Sample'!Q42</f>
         <v>(Sky) Clear/Cirrus | (Seeing) 1.34</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A76">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A97" s="12">
         <v>26</v>
       </c>
-      <c r="B76" t="str">
+      <c r="B97" s="12" t="str">
         <f>'MC3PO Sample'!A43</f>
         <v>A1763</v>
       </c>
-      <c r="C76" s="56">
+      <c r="C97" s="11">
         <f>'MC3PO Sample'!B43</f>
         <v>40251</v>
       </c>
-      <c r="D76">
+      <c r="D97" s="12">
         <f>'MC3PO Sample'!C43</f>
         <v>0</v>
       </c>
-      <c r="E76" t="str">
+      <c r="E97" s="12" t="str">
         <f>'MC3PO Sample'!D43</f>
         <v>W-J-V</v>
       </c>
-      <c r="F76" t="str">
+      <c r="F97" s="12" t="str">
         <f>'MC3PO Sample'!E43</f>
         <v>wd</v>
       </c>
-      <c r="G76" t="str">
+      <c r="G97" s="12" t="str">
         <f>'MC3PO Sample'!F43</f>
         <v>SUPA01196120</v>
       </c>
-      <c r="H76" t="str">
+      <c r="H97" s="12" t="str">
         <f>'MC3PO Sample'!G43</f>
         <v>SUPA01196189</v>
       </c>
-      <c r="I76">
+      <c r="I97" s="12">
         <f>'MC3PO Sample'!H43</f>
         <v>7</v>
       </c>
-      <c r="J76">
+      <c r="J97" s="12">
         <f>'MC3PO Sample'!I43</f>
         <v>240</v>
       </c>
-      <c r="K76">
+      <c r="K97" s="91">
         <f>'MC3PO Sample'!J43</f>
         <v>28</v>
       </c>
-      <c r="L76">
+      <c r="L97" s="12">
         <f>'MC3PO Sample'!K43</f>
         <v>0</v>
       </c>
-      <c r="M76">
+      <c r="M97" s="12">
         <f>'MC3PO Sample'!L43</f>
         <v>0</v>
       </c>
-      <c r="N76">
+      <c r="N97" s="12">
         <f>'MC3PO Sample'!M43</f>
         <v>0</v>
       </c>
-      <c r="O76">
+      <c r="O97" s="12">
         <f>'MC3PO Sample'!N43</f>
         <v>0</v>
       </c>
-      <c r="P76">
+      <c r="P97" s="12">
         <f>'MC3PO Sample'!O43</f>
         <v>0</v>
       </c>
-      <c r="Q76">
+      <c r="Q97" s="12">
         <f>'MC3PO Sample'!P43</f>
         <v>0</v>
       </c>
-      <c r="R76" t="str">
+      <c r="R97" s="12" t="str">
         <f>'MC3PO Sample'!Q43</f>
         <v>(Sky) Clear/Clouds | (Seeing) 1.06</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A77">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A98" s="12">
         <v>26</v>
       </c>
-      <c r="B77" t="str">
+      <c r="B98" s="12" t="str">
         <f>'MC3PO Sample'!A44</f>
         <v>A1763</v>
       </c>
-      <c r="C77" s="56">
+      <c r="C98" s="11">
         <f>'MC3PO Sample'!B44</f>
         <v>40253</v>
       </c>
-      <c r="D77">
+      <c r="D98" s="12">
         <f>'MC3PO Sample'!C44</f>
         <v>0</v>
       </c>
-      <c r="E77" t="str">
+      <c r="E98" s="12" t="str">
         <f>'MC3PO Sample'!D44</f>
         <v>W-J-V</v>
       </c>
-      <c r="F77" t="str">
+      <c r="F98" s="12" t="str">
         <f>'MC3PO Sample'!E44</f>
         <v>wd</v>
       </c>
-      <c r="G77" t="str">
+      <c r="G98" s="12" t="str">
         <f>'MC3PO Sample'!F44</f>
         <v>SUPA01199350</v>
       </c>
-      <c r="H77" t="str">
+      <c r="H98" s="12" t="str">
         <f>'MC3PO Sample'!G44</f>
         <v>SUPA01199419</v>
       </c>
-      <c r="I77">
+      <c r="I98" s="12">
         <f>'MC3PO Sample'!H44</f>
         <v>7</v>
       </c>
-      <c r="J77">
+      <c r="J98" s="12">
         <f>'MC3PO Sample'!I44</f>
         <v>240</v>
       </c>
-      <c r="K77">
+      <c r="K98" s="91">
         <f>'MC3PO Sample'!J44</f>
         <v>28</v>
       </c>
-      <c r="L77">
+      <c r="L98" s="12">
         <f>'MC3PO Sample'!K44</f>
         <v>0</v>
       </c>
-      <c r="M77">
+      <c r="M98" s="12">
         <f>'MC3PO Sample'!L44</f>
         <v>0</v>
       </c>
-      <c r="N77">
+      <c r="N98" s="12">
         <f>'MC3PO Sample'!M44</f>
         <v>0</v>
       </c>
-      <c r="O77">
+      <c r="O98" s="12">
         <f>'MC3PO Sample'!N44</f>
         <v>0</v>
       </c>
-      <c r="P77">
+      <c r="P98" s="12">
         <f>'MC3PO Sample'!O44</f>
         <v>0</v>
       </c>
-      <c r="Q77">
+      <c r="Q98" s="12">
         <f>'MC3PO Sample'!P44</f>
         <v>0</v>
       </c>
-      <c r="R77" t="str">
+      <c r="R98" s="12" t="str">
         <f>'MC3PO Sample'!Q44</f>
         <v>(Sky) Clear | (Seeing) 0.64</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A78">
+    <row r="99" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="14">
         <v>27</v>
       </c>
-      <c r="B78" t="str">
+      <c r="B99" s="14" t="str">
         <f>'MC3PO Sample'!A69</f>
         <v>A2813</v>
       </c>
-      <c r="C78" s="56">
+      <c r="C99" s="13">
         <f>'MC3PO Sample'!B69</f>
         <v>40075</v>
       </c>
-      <c r="D78">
+      <c r="D99" s="14">
         <f>'MC3PO Sample'!C69</f>
         <v>0</v>
       </c>
-      <c r="E78" t="str">
+      <c r="E99" s="14" t="str">
         <f>'MC3PO Sample'!D69</f>
         <v>W-J-V</v>
       </c>
-      <c r="F78" t="str">
+      <c r="F99" s="14" t="str">
         <f>'MC3PO Sample'!E69</f>
         <v>wd</v>
       </c>
-      <c r="G78" t="str">
+      <c r="G99" s="14" t="str">
         <f>'MC3PO Sample'!F69</f>
         <v>SUPA01125860</v>
       </c>
-      <c r="H78" t="str">
+      <c r="H99" s="14" t="str">
         <f>'MC3PO Sample'!G69</f>
         <v>SUPA01125929</v>
       </c>
-      <c r="I78">
+      <c r="I99" s="14">
         <f>'MC3PO Sample'!H69</f>
         <v>7</v>
       </c>
-      <c r="J78">
+      <c r="J99" s="14">
         <f>'MC3PO Sample'!I69</f>
         <v>240</v>
       </c>
-      <c r="K78">
+      <c r="K99" s="95">
         <f>'MC3PO Sample'!J69</f>
         <v>28</v>
       </c>
-      <c r="L78">
+      <c r="L99" s="14">
         <f>'MC3PO Sample'!K69</f>
         <v>0</v>
       </c>
-      <c r="M78">
+      <c r="M99" s="14">
         <f>'MC3PO Sample'!L69</f>
         <v>0</v>
       </c>
-      <c r="N78">
+      <c r="N99" s="14">
         <f>'MC3PO Sample'!M69</f>
         <v>0</v>
       </c>
-      <c r="O78">
+      <c r="O99" s="14">
         <f>'MC3PO Sample'!N69</f>
         <v>0</v>
       </c>
-      <c r="P78">
+      <c r="P99" s="14">
         <f>'MC3PO Sample'!O69</f>
         <v>0</v>
       </c>
-      <c r="Q78">
+      <c r="Q99" s="14">
         <f>'MC3PO Sample'!P69</f>
         <v>0</v>
       </c>
-      <c r="R78" t="str">
+      <c r="R99" s="14" t="str">
         <f>'MC3PO Sample'!Q69</f>
         <v>(Sky) Clear | (Seeing) 0.63 - 0.95</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A79">
+    <row r="100" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="14">
         <v>27</v>
       </c>
-      <c r="B79" t="str">
+      <c r="B100" s="14" t="str">
         <f>'MC3PO Sample'!A70</f>
         <v>A2813</v>
       </c>
-      <c r="C79" s="56">
+      <c r="C100" s="13">
         <f>'MC3PO Sample'!B70</f>
         <v>40489</v>
       </c>
-      <c r="D79">
+      <c r="D100" s="14">
         <f>'MC3PO Sample'!C70</f>
         <v>0</v>
       </c>
-      <c r="E79" t="str">
+      <c r="E100" s="14" t="str">
         <f>'MC3PO Sample'!D70</f>
         <v>W-J-V</v>
       </c>
-      <c r="F79" t="str">
+      <c r="F100" s="14" t="str">
         <f>'MC3PO Sample'!E70</f>
         <v>wd</v>
       </c>
-      <c r="G79" t="str">
+      <c r="G100" s="14" t="str">
         <f>'MC3PO Sample'!F70</f>
         <v>SUPA01262770</v>
       </c>
-      <c r="H79" t="str">
+      <c r="H100" s="14" t="str">
         <f>'MC3PO Sample'!G70</f>
         <v>SUPA01262839</v>
       </c>
-      <c r="I79">
+      <c r="I100" s="14">
         <f>'MC3PO Sample'!H70</f>
         <v>7</v>
       </c>
-      <c r="J79">
+      <c r="J100" s="14">
         <f>'MC3PO Sample'!I70</f>
         <v>240</v>
       </c>
-      <c r="K79">
+      <c r="K100" s="95">
         <f>'MC3PO Sample'!J70</f>
         <v>28</v>
       </c>
-      <c r="L79">
+      <c r="L100" s="14">
         <f>'MC3PO Sample'!K70</f>
         <v>0</v>
       </c>
-      <c r="M79">
+      <c r="M100" s="14">
         <f>'MC3PO Sample'!L70</f>
         <v>0</v>
       </c>
-      <c r="N79">
+      <c r="N100" s="14">
         <f>'MC3PO Sample'!M70</f>
         <v>0</v>
       </c>
-      <c r="O79">
+      <c r="O100" s="14">
         <f>'MC3PO Sample'!N70</f>
         <v>0</v>
       </c>
-      <c r="P79">
+      <c r="P100" s="14">
         <f>'MC3PO Sample'!O70</f>
         <v>0</v>
       </c>
-      <c r="Q79">
+      <c r="Q100" s="14">
         <f>'MC3PO Sample'!P70</f>
         <v>0</v>
       </c>
-      <c r="R79" t="str">
+      <c r="R100" s="14" t="str">
         <f>'MC3PO Sample'!Q70</f>
         <v>(Sky) Clear | (Seeing) 0.39 - 0.60</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A80">
+    <row r="101" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="14">
         <v>27</v>
       </c>
-      <c r="B80" t="str">
+      <c r="B101" s="14" t="str">
         <f>'MC3PO Sample'!A71</f>
         <v>A2813</v>
       </c>
-      <c r="C80" s="56">
+      <c r="C101" s="13">
         <f>'MC3PO Sample'!B71</f>
         <v>40489</v>
       </c>
-      <c r="D80">
+      <c r="D101" s="14">
         <f>'MC3PO Sample'!C71</f>
         <v>0</v>
       </c>
-      <c r="E80" t="str">
+      <c r="E101" s="14" t="str">
         <f>'MC3PO Sample'!D71</f>
         <v>W-S-I+</v>
       </c>
-      <c r="F80" t="str">
+      <c r="F101" s="14" t="str">
         <f>'MC3PO Sample'!E71</f>
         <v>wd</v>
       </c>
-      <c r="G80" t="str">
+      <c r="G101" s="14" t="str">
         <f>'MC3PO Sample'!F71</f>
         <v>SUPA01262850</v>
       </c>
-      <c r="H80" t="str">
+      <c r="H101" s="14" t="str">
         <f>'MC3PO Sample'!G71</f>
         <v>SUPA01262939</v>
       </c>
-      <c r="I80">
+      <c r="I101" s="14">
         <f>'MC3PO Sample'!H71</f>
         <v>9</v>
       </c>
-      <c r="J80">
+      <c r="J101" s="14">
         <f>'MC3PO Sample'!I71</f>
         <v>240</v>
       </c>
-      <c r="K80">
+      <c r="K101" s="95">
         <f>'MC3PO Sample'!J71</f>
         <v>36</v>
       </c>
-      <c r="L80">
+      <c r="L101" s="14">
         <f>'MC3PO Sample'!K71</f>
         <v>0</v>
       </c>
-      <c r="M80">
+      <c r="M101" s="14">
         <f>'MC3PO Sample'!L71</f>
         <v>0</v>
       </c>
-      <c r="N80">
+      <c r="N101" s="14">
         <f>'MC3PO Sample'!M71</f>
         <v>0</v>
       </c>
-      <c r="O80">
+      <c r="O101" s="14">
         <f>'MC3PO Sample'!N71</f>
         <v>0</v>
       </c>
-      <c r="P80">
+      <c r="P101" s="14">
         <f>'MC3PO Sample'!O71</f>
         <v>0</v>
       </c>
-      <c r="Q80">
+      <c r="Q101" s="14">
         <f>'MC3PO Sample'!P71</f>
         <v>0</v>
       </c>
-      <c r="R80" t="str">
+      <c r="R101" s="14" t="str">
         <f>'MC3PO Sample'!Q71</f>
         <v>(Sky) Clear | (Seeing) 0.39 - 0.60</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A81">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A102">
         <v>28</v>
       </c>
-      <c r="B81" t="str">
+      <c r="B102" t="str">
         <f>'MC3PO Sample'!A12</f>
         <v>A0520</v>
       </c>
-      <c r="C81">
+      <c r="C102">
         <f>'MC3PO Sample'!B12</f>
         <v>0</v>
       </c>
-      <c r="D81">
+      <c r="D102">
         <f>'MC3PO Sample'!C12</f>
         <v>0</v>
       </c>
-      <c r="E81">
+      <c r="E102">
         <f>'MC3PO Sample'!D12</f>
         <v>0</v>
       </c>
-      <c r="F81">
+      <c r="F102">
         <f>'MC3PO Sample'!E12</f>
         <v>0</v>
       </c>
-      <c r="G81">
+      <c r="G102">
         <f>'MC3PO Sample'!F12</f>
         <v>0</v>
       </c>
-      <c r="H81">
+      <c r="H102">
         <f>'MC3PO Sample'!G12</f>
         <v>0</v>
       </c>
-      <c r="I81">
+      <c r="I102">
         <f>'MC3PO Sample'!H12</f>
         <v>0</v>
       </c>
-      <c r="J81">
+      <c r="J102">
         <f>'MC3PO Sample'!I12</f>
         <v>0</v>
       </c>
-      <c r="K81">
+      <c r="K102" s="61">
         <f>'MC3PO Sample'!J12</f>
         <v>0</v>
       </c>
-      <c r="L81">
+      <c r="L102">
         <f>'MC3PO Sample'!K12</f>
         <v>0</v>
       </c>
-      <c r="M81">
+      <c r="M102">
         <f>'MC3PO Sample'!L12</f>
         <v>0</v>
       </c>
-      <c r="N81">
+      <c r="N102">
         <f>'MC3PO Sample'!M12</f>
         <v>0</v>
       </c>
-      <c r="O81">
+      <c r="O102">
         <f>'MC3PO Sample'!N12</f>
         <v>0</v>
       </c>
-      <c r="P81">
+      <c r="P102">
         <f>'MC3PO Sample'!O12</f>
         <v>0</v>
       </c>
-      <c r="Q81">
+      <c r="Q102">
         <f>'MC3PO Sample'!P12</f>
         <v>0</v>
       </c>
-      <c r="R81" t="str">
+      <c r="R102" t="str">
         <f>'MC3PO Sample'!Q12</f>
         <v>Ask James for his reduction.</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A82" s="57">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A103" s="76">
         <v>29</v>
       </c>
-      <c r="B82" s="57" t="s">
+      <c r="B103" s="76" t="s">
         <v>416</v>
       </c>
-      <c r="C82" s="58"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="57"/>
-      <c r="F82" s="57"/>
-      <c r="G82" s="57"/>
-      <c r="H82" s="57"/>
-      <c r="I82" s="57"/>
-      <c r="J82" s="57"/>
-      <c r="K82" s="57"/>
-      <c r="L82" s="57"/>
-      <c r="M82" s="57"/>
-      <c r="N82" s="57"/>
-      <c r="O82" s="57"/>
-      <c r="P82" s="57"/>
-      <c r="Q82" s="57"/>
-      <c r="R82" s="57" t="s">
+      <c r="C103" s="77"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="76"/>
+      <c r="I103" s="76"/>
+      <c r="J103" s="76"/>
+      <c r="K103" s="78"/>
+      <c r="L103" s="76"/>
+      <c r="M103" s="76"/>
+      <c r="N103" s="76"/>
+      <c r="O103" s="76"/>
+      <c r="P103" s="76"/>
+      <c r="Q103" s="76"/>
+      <c r="R103" s="76" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A83" s="59">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A104" s="101">
         <v>30</v>
       </c>
-      <c r="B83" s="59" t="s">
+      <c r="B104" s="101" t="s">
         <v>417</v>
       </c>
-      <c r="C83" s="60"/>
-      <c r="D83" s="59"/>
-      <c r="E83" s="59"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="59"/>
-      <c r="H83" s="59"/>
-      <c r="I83" s="59"/>
-      <c r="J83" s="59"/>
-      <c r="K83" s="59"/>
-      <c r="L83" s="59"/>
-      <c r="M83" s="59"/>
-      <c r="N83" s="59"/>
-      <c r="O83" s="59"/>
-      <c r="P83" s="59"/>
-      <c r="Q83" s="59"/>
-      <c r="R83" s="59" t="s">
+      <c r="C104" s="102"/>
+      <c r="D104" s="101"/>
+      <c r="E104" s="101"/>
+      <c r="F104" s="101"/>
+      <c r="G104" s="101"/>
+      <c r="H104" s="101"/>
+      <c r="I104" s="101"/>
+      <c r="J104" s="101"/>
+      <c r="K104" s="103"/>
+      <c r="L104" s="101"/>
+      <c r="M104" s="101"/>
+      <c r="N104" s="101"/>
+      <c r="O104" s="101"/>
+      <c r="P104" s="101"/>
+      <c r="Q104" s="101"/>
+      <c r="R104" s="101" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A84" s="57">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A105" s="82">
         <v>31</v>
       </c>
-      <c r="B84" s="57" t="s">
+      <c r="B105" s="82" t="s">
         <v>418</v>
       </c>
-      <c r="C84" s="58"/>
-      <c r="D84" s="57"/>
-      <c r="E84" s="57"/>
-      <c r="F84" s="57"/>
-      <c r="G84" s="57"/>
-      <c r="H84" s="57"/>
-      <c r="I84" s="57"/>
-      <c r="J84" s="57"/>
-      <c r="K84" s="57"/>
-      <c r="L84" s="57"/>
-      <c r="M84" s="57"/>
-      <c r="N84" s="57"/>
-      <c r="O84" s="57"/>
-      <c r="P84" s="57"/>
-      <c r="Q84" s="57"/>
-      <c r="R84" s="57" t="s">
+      <c r="C105" s="83"/>
+      <c r="D105" s="82"/>
+      <c r="E105" s="82"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="82"/>
+      <c r="H105" s="82"/>
+      <c r="I105" s="82"/>
+      <c r="J105" s="82"/>
+      <c r="K105" s="84"/>
+      <c r="L105" s="82"/>
+      <c r="M105" s="82"/>
+      <c r="N105" s="82"/>
+      <c r="O105" s="82"/>
+      <c r="P105" s="82"/>
+      <c r="Q105" s="82"/>
+      <c r="R105" s="82" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A85" s="61">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A106" s="85">
         <v>32</v>
       </c>
-      <c r="B85" s="61" t="s">
+      <c r="B106" s="85" t="s">
         <v>419</v>
       </c>
-      <c r="C85" s="62">
+      <c r="C106" s="86">
         <v>38686</v>
       </c>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61" t="s">
+      <c r="D106" s="85"/>
+      <c r="E106" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="F85" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="61" t="s">
+      <c r="F106" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="85" t="s">
         <v>480</v>
       </c>
-      <c r="H85" s="61" t="s">
+      <c r="H106" s="85" t="s">
         <v>481</v>
       </c>
-      <c r="I85" s="61">
+      <c r="I106" s="85">
         <f>'MC3PO Sample'!H34</f>
         <v>16</v>
       </c>
-      <c r="J85" s="61">
+      <c r="J106" s="85">
         <v>360</v>
       </c>
-      <c r="K85" s="61">
+      <c r="K106" s="87">
         <f>'MC3PO Sample'!J34</f>
         <v>80</v>
       </c>
-      <c r="L85" s="61"/>
-      <c r="M85" s="61"/>
-      <c r="N85" s="61"/>
-      <c r="O85" s="61"/>
-      <c r="P85" s="61"/>
-      <c r="Q85" s="61" t="s">
+      <c r="L106" s="85"/>
+      <c r="M106" s="85"/>
+      <c r="N106" s="85"/>
+      <c r="O106" s="85"/>
+      <c r="P106" s="85"/>
+      <c r="Q106" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="R85" s="61" t="s">
+      <c r="R106" s="85" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A86" s="57">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A107" s="67">
         <v>33</v>
       </c>
-      <c r="B86" s="57" t="s">
+      <c r="B107" s="67" t="s">
         <v>420</v>
       </c>
-      <c r="C86" s="58"/>
-      <c r="D86" s="57"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="57"/>
-      <c r="G86" s="57"/>
-      <c r="H86" s="57"/>
-      <c r="I86" s="57"/>
-      <c r="J86" s="57"/>
-      <c r="K86" s="57"/>
-      <c r="L86" s="57"/>
-      <c r="M86" s="57"/>
-      <c r="N86" s="57"/>
-      <c r="O86" s="57"/>
-      <c r="P86" s="57"/>
-      <c r="Q86" s="57"/>
-      <c r="R86" s="57" t="s">
+      <c r="C107" s="68"/>
+      <c r="D107" s="67"/>
+      <c r="E107" s="67"/>
+      <c r="F107" s="67"/>
+      <c r="G107" s="67"/>
+      <c r="H107" s="67"/>
+      <c r="I107" s="67"/>
+      <c r="J107" s="67"/>
+      <c r="K107" s="69"/>
+      <c r="L107" s="67"/>
+      <c r="M107" s="67"/>
+      <c r="N107" s="67"/>
+      <c r="O107" s="67"/>
+      <c r="P107" s="67"/>
+      <c r="Q107" s="67"/>
+      <c r="R107" s="67" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A87">
+    <row r="108" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="14">
         <v>34</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B108" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="C87" s="56"/>
-      <c r="R87">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A88" s="59">
+      <c r="C108" s="13">
+        <v>37715</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="H108" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="I108" s="14">
+        <f>'MC3PO Sample'!H78</f>
+        <v>14</v>
+      </c>
+      <c r="J108" s="14">
+        <v>240</v>
+      </c>
+      <c r="K108" s="95">
+        <f>'MC3PO Sample'!J78</f>
+        <v>84</v>
+      </c>
+      <c r="Q108" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R108" s="14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="14">
+        <v>34</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="C109" s="13">
+        <v>37715</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="H109" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="I109" s="14">
+        <f>'MC3PO Sample'!H79</f>
+        <v>9</v>
+      </c>
+      <c r="J109" s="14">
+        <v>480</v>
+      </c>
+      <c r="K109" s="95">
+        <f>'MC3PO Sample'!J79</f>
+        <v>27</v>
+      </c>
+      <c r="R109" s="14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="14">
+        <v>34</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="C110" s="13">
+        <v>37716</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="H110" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="I110" s="14">
+        <f>'MC3PO Sample'!H80</f>
+        <v>3</v>
+      </c>
+      <c r="J110" s="14">
+        <v>360</v>
+      </c>
+      <c r="K110" s="95">
+        <f>'MC3PO Sample'!J80</f>
+        <v>7.5</v>
+      </c>
+      <c r="R110" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="14">
+        <v>34</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="C111" s="13">
+        <v>37738</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="H111" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="I111" s="14">
+        <f>'MC3PO Sample'!H81</f>
+        <v>3</v>
+      </c>
+      <c r="J111" s="14">
+        <v>180</v>
+      </c>
+      <c r="K111" s="95">
+        <f>'MC3PO Sample'!J81</f>
+        <v>7.5</v>
+      </c>
+      <c r="R111" s="14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="14">
+        <v>34</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="C112" s="13">
+        <v>38416</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="H112" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="I112" s="14">
+        <f>'MC3PO Sample'!H82</f>
+        <v>3</v>
+      </c>
+      <c r="J112" s="14">
+        <v>150</v>
+      </c>
+      <c r="K112" s="95">
+        <f>'MC3PO Sample'!J82</f>
+        <v>7.5</v>
+      </c>
+      <c r="R112" s="14" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="14">
+        <v>34</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="C113" s="13">
+        <v>38417</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="H113" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="I113" s="14">
+        <f>'MC3PO Sample'!H83</f>
+        <v>6</v>
+      </c>
+      <c r="J113" s="14">
+        <v>150</v>
+      </c>
+      <c r="K113" s="95">
+        <f>'MC3PO Sample'!J83</f>
+        <v>24</v>
+      </c>
+      <c r="R113" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="14">
+        <v>34</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="C114" s="13">
+        <v>38417</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="H114" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="I114" s="14">
+        <f>'MC3PO Sample'!H84</f>
+        <v>4</v>
+      </c>
+      <c r="J114" s="14">
+        <v>150</v>
+      </c>
+      <c r="K114" s="95">
+        <f>'MC3PO Sample'!J84</f>
+        <v>30</v>
+      </c>
+      <c r="R114" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="14">
+        <v>34</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="C115" s="13">
+        <v>38686</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="H115" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="I115" s="14">
+        <f>'MC3PO Sample'!H85</f>
+        <v>9</v>
+      </c>
+      <c r="J115" s="14">
+        <v>240</v>
+      </c>
+      <c r="K115" s="95">
+        <f>'MC3PO Sample'!J85</f>
+        <v>36</v>
+      </c>
+      <c r="R115" s="14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A116" s="73">
         <v>35</v>
       </c>
-      <c r="B88" s="59" t="s">
+      <c r="B116" s="73" t="s">
         <v>422</v>
       </c>
-      <c r="C88" s="60"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="59"/>
-      <c r="F88" s="59"/>
-      <c r="G88" s="59"/>
-      <c r="H88" s="59"/>
-      <c r="I88" s="59"/>
-      <c r="J88" s="59"/>
-      <c r="K88" s="59"/>
-      <c r="L88" s="59"/>
-      <c r="M88" s="59"/>
-      <c r="N88" s="59"/>
-      <c r="O88" s="59"/>
-      <c r="P88" s="59"/>
-      <c r="Q88" s="59"/>
-      <c r="R88" s="59" t="s">
+      <c r="C116" s="74"/>
+      <c r="D116" s="73"/>
+      <c r="E116" s="73"/>
+      <c r="F116" s="73"/>
+      <c r="G116" s="73"/>
+      <c r="H116" s="73"/>
+      <c r="I116" s="73"/>
+      <c r="J116" s="73"/>
+      <c r="K116" s="75"/>
+      <c r="L116" s="73"/>
+      <c r="M116" s="73"/>
+      <c r="N116" s="73"/>
+      <c r="O116" s="73"/>
+      <c r="P116" s="73"/>
+      <c r="Q116" s="73"/>
+      <c r="R116" s="73" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A89" s="59">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A117" s="98">
         <v>36</v>
       </c>
-      <c r="B89" s="59" t="s">
+      <c r="B117" s="98" t="s">
         <v>423</v>
       </c>
-      <c r="C89" s="60"/>
-      <c r="D89" s="59"/>
-      <c r="E89" s="59"/>
-      <c r="F89" s="59"/>
-      <c r="G89" s="59"/>
-      <c r="H89" s="59"/>
-      <c r="I89" s="59"/>
-      <c r="J89" s="59"/>
-      <c r="K89" s="59"/>
-      <c r="L89" s="59"/>
-      <c r="M89" s="59"/>
-      <c r="N89" s="59"/>
-      <c r="O89" s="59"/>
-      <c r="P89" s="59"/>
-      <c r="Q89" s="59"/>
-      <c r="R89" s="59" t="s">
+      <c r="C117" s="99"/>
+      <c r="D117" s="98"/>
+      <c r="E117" s="98"/>
+      <c r="F117" s="98"/>
+      <c r="G117" s="98"/>
+      <c r="H117" s="98"/>
+      <c r="I117" s="98"/>
+      <c r="J117" s="98"/>
+      <c r="K117" s="100"/>
+      <c r="L117" s="98"/>
+      <c r="M117" s="98"/>
+      <c r="N117" s="98"/>
+      <c r="O117" s="98"/>
+      <c r="P117" s="98"/>
+      <c r="Q117" s="98"/>
+      <c r="R117" s="98" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A90">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A118" s="6">
         <v>37</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B118" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C90" s="56"/>
-      <c r="R90">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="C118" s="5">
+        <v>36886</v>
+      </c>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="I118" s="6">
+        <f>'MC3PO Sample'!H88</f>
+        <v>6</v>
+      </c>
+      <c r="J118" s="6">
+        <v>480</v>
+      </c>
+      <c r="K118" s="65">
+        <f>'MC3PO Sample'!J88</f>
+        <v>48</v>
+      </c>
+      <c r="L118" s="6"/>
+      <c r="M118" s="6"/>
+      <c r="N118" s="6"/>
+      <c r="O118" s="6"/>
+      <c r="P118" s="6"/>
+      <c r="Q118" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="R118" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A119" s="6">
+        <v>37</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C119" s="5">
+        <v>36886</v>
+      </c>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="I119" s="6">
+        <f>'MC3PO Sample'!H89</f>
+        <v>6</v>
+      </c>
+      <c r="J119" s="6">
+        <v>240</v>
+      </c>
+      <c r="K119" s="65">
+        <f>'MC3PO Sample'!J89</f>
+        <v>18</v>
+      </c>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
+      <c r="O119" s="6"/>
+      <c r="P119" s="6"/>
+      <c r="Q119" s="6"/>
+      <c r="R119" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A120" s="6">
+        <v>37</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C120" s="5">
+        <v>36887</v>
+      </c>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="I120" s="6">
+        <f>'MC3PO Sample'!H90</f>
+        <v>2</v>
+      </c>
+      <c r="J120" s="6">
+        <v>480</v>
+      </c>
+      <c r="K120" s="65">
+        <f>'MC3PO Sample'!J90</f>
+        <v>8</v>
+      </c>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="6"/>
+      <c r="O120" s="6"/>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="6"/>
+      <c r="R120" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A121" s="6">
+        <v>37</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C121" s="5">
+        <v>37593</v>
+      </c>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="I121" s="6">
+        <f>'MC3PO Sample'!H91</f>
+        <v>6</v>
+      </c>
+      <c r="J121" s="6">
+        <v>360</v>
+      </c>
+      <c r="K121" s="65">
+        <f>'MC3PO Sample'!J91</f>
+        <v>36</v>
+      </c>
+      <c r="L121" s="6"/>
+      <c r="M121" s="6"/>
+      <c r="N121" s="6"/>
+      <c r="O121" s="6"/>
+      <c r="P121" s="6"/>
+      <c r="Q121" s="6"/>
+      <c r="R121" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A122" s="6">
+        <v>37</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C122" s="5">
+        <v>37593</v>
+      </c>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="I122" s="6">
+        <f>'MC3PO Sample'!H92</f>
+        <v>5</v>
+      </c>
+      <c r="J122" s="6">
+        <v>180</v>
+      </c>
+      <c r="K122" s="65">
+        <f>'MC3PO Sample'!J92</f>
+        <v>12.5</v>
+      </c>
+      <c r="L122" s="6"/>
+      <c r="M122" s="6"/>
+      <c r="N122" s="6"/>
+      <c r="O122" s="6"/>
+      <c r="P122" s="6"/>
+      <c r="Q122" s="6"/>
+      <c r="R122" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A123" s="6">
+        <v>37</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C123" s="5">
+        <v>37889</v>
+      </c>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="I123" s="6">
+        <f>'MC3PO Sample'!H93</f>
+        <v>9</v>
+      </c>
+      <c r="J123" s="6">
+        <v>120</v>
+      </c>
+      <c r="K123" s="65">
+        <f>'MC3PO Sample'!J93</f>
+        <v>27</v>
+      </c>
+      <c r="L123" s="6"/>
+      <c r="M123" s="6"/>
+      <c r="N123" s="6"/>
+      <c r="O123" s="6"/>
+      <c r="P123" s="6"/>
+      <c r="Q123" s="6"/>
+      <c r="R123" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A124" s="6">
+        <v>37</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C124" s="5">
+        <v>39399</v>
+      </c>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="I124" s="6">
+        <f>'MC3PO Sample'!H94</f>
+        <v>9</v>
+      </c>
+      <c r="J124" s="6">
+        <v>480</v>
+      </c>
+      <c r="K124" s="65">
+        <f>'MC3PO Sample'!J94</f>
+        <v>27</v>
+      </c>
+      <c r="L124" s="6"/>
+      <c r="M124" s="6"/>
+      <c r="N124" s="6"/>
+      <c r="O124" s="6"/>
+      <c r="P124" s="6"/>
+      <c r="Q124" s="6"/>
+      <c r="R124" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A125" s="6">
+        <v>37</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C125" s="5">
+        <v>39400</v>
+      </c>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="I125" s="6">
+        <f>'MC3PO Sample'!H95</f>
+        <v>6</v>
+      </c>
+      <c r="J125" s="6">
+        <v>300</v>
+      </c>
+      <c r="K125" s="65">
+        <f>'MC3PO Sample'!J95</f>
+        <v>24</v>
+      </c>
+      <c r="L125" s="6"/>
+      <c r="M125" s="6"/>
+      <c r="N125" s="6"/>
+      <c r="O125" s="6"/>
+      <c r="P125" s="6"/>
+      <c r="Q125" s="6"/>
+      <c r="R125" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A126" s="8">
         <v>38</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B126" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="C91" s="56">
+      <c r="C126" s="7">
         <v>39399</v>
       </c>
-      <c r="E91" t="s">
+      <c r="D126" s="8"/>
+      <c r="E126" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="F126" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H126" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="I91">
-        <f t="shared" ref="I91:I93" si="8">(RIGHT(H91,LEN(H91)-4)-RIGHT(G91,LEN(G91)-4)+1)/10</f>
+      <c r="I126" s="8">
+        <f t="shared" ref="I126:I141" si="10">(RIGHT(H126,LEN(H126)-4)-RIGHT(G126,LEN(G126)-4)+1)/10</f>
         <v>5</v>
       </c>
-      <c r="J91">
+      <c r="J126" s="8">
         <v>480</v>
       </c>
-      <c r="K91">
-        <f t="shared" ref="K91:K93" si="9">I91*J91/60</f>
+      <c r="K126" s="66">
+        <f t="shared" ref="K126:K141" si="11">I126*J126/60</f>
         <v>40</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="L126" s="8"/>
+      <c r="M126" s="8"/>
+      <c r="N126" s="8"/>
+      <c r="O126" s="8"/>
+      <c r="P126" s="8"/>
+      <c r="Q126" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R91" t="s">
+      <c r="R126" s="8" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A92">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A127" s="8">
         <v>38</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B127" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="C92" s="56">
+      <c r="C127" s="7">
         <v>40075</v>
       </c>
-      <c r="E92" t="s">
+      <c r="D127" s="8"/>
+      <c r="E127" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="F127" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H127" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="I92">
-        <f t="shared" si="8"/>
+      <c r="I127" s="8">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="J92">
+      <c r="J127" s="8">
         <v>240</v>
       </c>
-      <c r="K92">
-        <f t="shared" si="9"/>
+      <c r="K127" s="66">
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="R92" t="s">
+      <c r="L127" s="8"/>
+      <c r="M127" s="8"/>
+      <c r="N127" s="8"/>
+      <c r="O127" s="8"/>
+      <c r="P127" s="8"/>
+      <c r="Q127" s="8"/>
+      <c r="R127" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A93">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A128" s="8">
         <v>38</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B128" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="C93" s="56">
+      <c r="C128" s="7">
         <v>40076</v>
       </c>
-      <c r="E93" t="s">
+      <c r="D128" s="8"/>
+      <c r="E128" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F93" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="F128" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H128" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="I93">
-        <f t="shared" si="8"/>
+      <c r="I128" s="8">
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="J93">
+      <c r="J128" s="8">
         <v>180</v>
       </c>
-      <c r="K93">
-        <f t="shared" si="9"/>
+      <c r="K128" s="66">
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
-      <c r="R93" t="s">
+      <c r="L128" s="8"/>
+      <c r="M128" s="8"/>
+      <c r="N128" s="8"/>
+      <c r="O128" s="8"/>
+      <c r="P128" s="8"/>
+      <c r="Q128" s="8"/>
+      <c r="R128" s="8" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A94" s="57">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A129" s="88">
         <v>39</v>
       </c>
-      <c r="B94" s="57" t="s">
+      <c r="B129" s="88" t="s">
         <v>426</v>
       </c>
-      <c r="C94" s="58"/>
-      <c r="D94" s="57"/>
-      <c r="E94" s="57"/>
-      <c r="F94" s="57"/>
-      <c r="G94" s="57"/>
-      <c r="H94" s="57"/>
-      <c r="I94" s="57"/>
-      <c r="J94" s="57"/>
-      <c r="K94" s="57"/>
-      <c r="L94" s="57"/>
-      <c r="M94" s="57"/>
-      <c r="N94" s="57"/>
-      <c r="O94" s="57"/>
-      <c r="P94" s="57"/>
-      <c r="Q94" s="57"/>
-      <c r="R94" s="57" t="s">
+      <c r="C129" s="89"/>
+      <c r="D129" s="88"/>
+      <c r="E129" s="88"/>
+      <c r="F129" s="88"/>
+      <c r="G129" s="88"/>
+      <c r="H129" s="88"/>
+      <c r="I129" s="88"/>
+      <c r="J129" s="88"/>
+      <c r="K129" s="90"/>
+      <c r="L129" s="88"/>
+      <c r="M129" s="88"/>
+      <c r="N129" s="88"/>
+      <c r="O129" s="88"/>
+      <c r="P129" s="88"/>
+      <c r="Q129" s="88"/>
+      <c r="R129" s="88" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A95">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A130" s="12">
         <v>40</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B130" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="C95" s="56"/>
-      <c r="R95">
+      <c r="C130" s="11">
+        <v>37236</v>
+      </c>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="H130" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="I130" s="12">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="J130" s="12">
+        <v>480</v>
+      </c>
+      <c r="K130" s="91">
+        <f t="shared" si="11"/>
+        <v>48</v>
+      </c>
+      <c r="L130" s="12"/>
+      <c r="M130" s="12"/>
+      <c r="N130" s="12"/>
+      <c r="O130" s="12"/>
+      <c r="P130" s="12"/>
+      <c r="Q130" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="R130" s="12" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A131" s="12">
+        <v>40</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C131" s="11">
+        <v>37236</v>
+      </c>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="H131" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="I131" s="12">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="J131" s="12">
+        <v>240</v>
+      </c>
+      <c r="K131" s="91">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="L131" s="12"/>
+      <c r="M131" s="12"/>
+      <c r="N131" s="12"/>
+      <c r="O131" s="12"/>
+      <c r="P131" s="12"/>
+      <c r="Q131" s="12"/>
+      <c r="R131" s="12" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A132" s="12">
+        <v>40</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C132" s="11">
+        <v>37236</v>
+      </c>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="H132" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="I132" s="12">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="J132" s="12">
+        <v>240</v>
+      </c>
+      <c r="K132" s="91">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="L132" s="12"/>
+      <c r="M132" s="12"/>
+      <c r="N132" s="12"/>
+      <c r="O132" s="12"/>
+      <c r="P132" s="12"/>
+      <c r="Q132" s="12"/>
+      <c r="R132" s="12" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A133" s="12">
+        <v>40</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C133" s="11">
+        <v>37593</v>
+      </c>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="I133" s="12">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="J133" s="12">
+        <v>480</v>
+      </c>
+      <c r="K133" s="91">
+        <f t="shared" si="11"/>
+        <v>56</v>
+      </c>
+      <c r="L133" s="12"/>
+      <c r="M133" s="12"/>
+      <c r="N133" s="12"/>
+      <c r="O133" s="12"/>
+      <c r="P133" s="12"/>
+      <c r="Q133" s="12"/>
+      <c r="R133" s="12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A134" s="12">
+        <v>40</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C134" s="11">
+        <v>37889</v>
+      </c>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="H134" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="I134" s="12">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="J134" s="12">
+        <v>360</v>
+      </c>
+      <c r="K134" s="91">
+        <f t="shared" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="L134" s="12"/>
+      <c r="M134" s="12"/>
+      <c r="N134" s="12"/>
+      <c r="O134" s="12"/>
+      <c r="P134" s="12"/>
+      <c r="Q134" s="12"/>
+      <c r="R134" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A135" s="12">
+        <v>40</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C135" s="11">
+        <v>38686</v>
+      </c>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="H135" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="I135" s="12">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="J135" s="12">
+        <v>240</v>
+      </c>
+      <c r="K135" s="91">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="L135" s="12"/>
+      <c r="M135" s="12"/>
+      <c r="N135" s="12"/>
+      <c r="O135" s="12"/>
+      <c r="P135" s="12"/>
+      <c r="Q135" s="12"/>
+      <c r="R135" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A136" s="12">
+        <v>40</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C136" s="11">
+        <v>39072</v>
+      </c>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="H136" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="I136" s="12">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="J136" s="12">
+        <v>300</v>
+      </c>
+      <c r="K136" s="91">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="L136" s="12"/>
+      <c r="M136" s="12"/>
+      <c r="N136" s="12"/>
+      <c r="O136" s="12"/>
+      <c r="P136" s="12"/>
+      <c r="Q136" s="12"/>
+      <c r="R136" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A137" s="12">
+        <v>40</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C137" s="11">
+        <v>39072</v>
+      </c>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="H137" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="I137" s="12">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="J137" s="12">
+        <v>180</v>
+      </c>
+      <c r="K137" s="91">
+        <f t="shared" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="L137" s="12"/>
+      <c r="M137" s="12"/>
+      <c r="N137" s="12"/>
+      <c r="O137" s="12"/>
+      <c r="P137" s="12"/>
+      <c r="Q137" s="12"/>
+      <c r="R137" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A138" s="14">
+        <v>41</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="C138" s="13">
+        <v>37890</v>
+      </c>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G138" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="H138" s="14" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A96">
+      <c r="I138" s="14">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J138" s="14">
+        <v>720</v>
+      </c>
+      <c r="K138" s="95">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="L138" s="14"/>
+      <c r="M138" s="14"/>
+      <c r="N138" s="14"/>
+      <c r="O138" s="14"/>
+      <c r="P138" s="14"/>
+      <c r="Q138" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="R138" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A139" s="14">
         <v>41</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B139" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="C96" s="56"/>
-      <c r="R96">
-        <v>950</v>
+      <c r="C139" s="13">
+        <v>37890</v>
+      </c>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G139" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="H139" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="I139" s="14">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="J139" s="14">
+        <v>300</v>
+      </c>
+      <c r="K139" s="95">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="L139" s="14"/>
+      <c r="M139" s="14"/>
+      <c r="N139" s="14"/>
+      <c r="O139" s="14"/>
+      <c r="P139" s="14"/>
+      <c r="Q139" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="R139" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A140" s="14">
+        <v>41</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="C140" s="13">
+        <v>37891</v>
+      </c>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G140" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="H140" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="I140" s="14">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J140" s="14">
+        <v>480</v>
+      </c>
+      <c r="K140" s="95">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="L140" s="14"/>
+      <c r="M140" s="14"/>
+      <c r="N140" s="14"/>
+      <c r="O140" s="14"/>
+      <c r="P140" s="14"/>
+      <c r="Q140" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="R140" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A141" s="14">
+        <v>41</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="C141" s="13">
+        <v>37891</v>
+      </c>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G141" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="H141" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="I141" s="14">
+        <f t="shared" si="10"/>
+        <v>29</v>
+      </c>
+      <c r="J141" s="14">
+        <v>180</v>
+      </c>
+      <c r="K141" s="95">
+        <f t="shared" si="11"/>
+        <v>87</v>
+      </c>
+      <c r="L141" s="14"/>
+      <c r="M141" s="14"/>
+      <c r="N141" s="14"/>
+      <c r="O141" s="14"/>
+      <c r="P141" s="14"/>
+      <c r="Q141" s="14"/>
+      <c r="R141" s="14" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/Reduction Notes/Reduction_Status_List.xlsx
+++ b/Reduction Notes/Reduction_Status_List.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="651">
   <si>
     <t>Semester</t>
   </si>
@@ -2218,7 +2218,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2323,6 +2323,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2782,8 +2785,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:R141" totalsRowShown="0">
-  <autoFilter ref="A1:R141"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:R143" totalsRowShown="0">
+  <autoFilter ref="A1:R143"/>
   <tableColumns count="18">
     <tableColumn id="18" name="RELICS #"/>
     <tableColumn id="1" name="Cluster"/>
@@ -3073,7 +3076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
@@ -10787,10 +10790,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R141"/>
+  <dimension ref="A1:R143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="Q141" sqref="Q141"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10803,7 +10806,7 @@
     <col min="6" max="6" width="4.1640625" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" customWidth="1"/>
     <col min="10" max="10" width="8.1640625" customWidth="1"/>
     <col min="11" max="11" width="6.83203125" customWidth="1"/>
     <col min="12" max="13" width="10.83203125" customWidth="1"/>
@@ -11499,247 +11502,349 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="67">
+      <c r="A15" s="104">
         <v>5</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="104" t="s">
         <v>453</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67" t="s">
+      <c r="C15" s="105">
+        <f>'Radio Relic Sample'!B2</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="105" t="str">
+        <f>'Radio Relic Sample'!C2</f>
+        <v>2014a</v>
+      </c>
+      <c r="E15" s="105" t="str">
+        <f>'Radio Relic Sample'!D2</f>
+        <v>g</v>
+      </c>
+      <c r="F15" s="106">
+        <f>'Radio Relic Sample'!E2</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="106">
+        <f>'Radio Relic Sample'!F2</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="106">
+        <f>'Radio Relic Sample'!G2</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="106">
+        <f>'Radio Relic Sample'!H2</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="106">
+        <f>'Radio Relic Sample'!I2</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="106">
+        <f>'Radio Relic Sample'!J2</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="106">
+        <f>'Radio Relic Sample'!K2</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="105" t="str">
+        <f>'Radio Relic Sample'!L2</f>
+        <v>jj</v>
+      </c>
+      <c r="N15" s="105" t="str">
+        <f>'Radio Relic Sample'!M2</f>
+        <v>jj</v>
+      </c>
+      <c r="O15" s="105" t="str">
+        <f>'Radio Relic Sample'!N2</f>
+        <v>jj</v>
+      </c>
+      <c r="P15" s="106">
+        <f>'Radio Relic Sample'!O2</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="105" t="str">
+        <f>'Radio Relic Sample'!P2</f>
+        <v>n</v>
+      </c>
+      <c r="R15" s="106" t="str">
+        <f>'Radio Relic Sample'!Q2</f>
+        <v>James has a reduction</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="104">
+        <v>5</v>
+      </c>
+      <c r="B16" s="104" t="s">
+        <v>453</v>
+      </c>
+      <c r="C16" s="105">
+        <f>'Radio Relic Sample'!B3</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="105" t="str">
+        <f>'Radio Relic Sample'!C3</f>
+        <v>2014a</v>
+      </c>
+      <c r="E16" s="105" t="str">
+        <f>'Radio Relic Sample'!D3</f>
+        <v>r</v>
+      </c>
+      <c r="F16" s="106">
+        <f>'Radio Relic Sample'!E3</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="106">
+        <f>'Radio Relic Sample'!F3</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="106">
+        <f>'Radio Relic Sample'!G3</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="106">
+        <f>'Radio Relic Sample'!H3</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="106">
+        <f>'Radio Relic Sample'!I3</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="106">
+        <f>'Radio Relic Sample'!J3</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="106">
+        <f>'Radio Relic Sample'!K3</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="105" t="str">
+        <f>'Radio Relic Sample'!L3</f>
+        <v>jj</v>
+      </c>
+      <c r="N16" s="105" t="str">
+        <f>'Radio Relic Sample'!M3</f>
+        <v>jj</v>
+      </c>
+      <c r="O16" s="105" t="str">
+        <f>'Radio Relic Sample'!N3</f>
+        <v>jj</v>
+      </c>
+      <c r="P16" s="105" t="str">
+        <f>'Radio Relic Sample'!O3</f>
+        <v>jj</v>
+      </c>
+      <c r="Q16" s="105" t="str">
+        <f>'Radio Relic Sample'!P3</f>
+        <v>y</v>
+      </c>
+      <c r="R16" s="106">
+        <f>'Radio Relic Sample'!Q3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="104">
+        <v>5</v>
+      </c>
+      <c r="B17" s="104" t="s">
+        <v>453</v>
+      </c>
+      <c r="C17" s="105">
+        <f>'Radio Relic Sample'!B4</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="105" t="str">
+        <f>'Radio Relic Sample'!C4</f>
+        <v>2014a</v>
+      </c>
+      <c r="E17" s="105" t="str">
+        <f>'Radio Relic Sample'!D4</f>
+        <v>i</v>
+      </c>
+      <c r="F17" s="106">
+        <f>'Radio Relic Sample'!E4</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="106">
+        <f>'Radio Relic Sample'!F4</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="106">
+        <f>'Radio Relic Sample'!G4</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="106">
+        <f>'Radio Relic Sample'!H4</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="106">
+        <f>'Radio Relic Sample'!I4</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="106">
+        <f>'Radio Relic Sample'!J4</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="106">
+        <f>'Radio Relic Sample'!K4</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="105" t="str">
+        <f>'Radio Relic Sample'!L4</f>
+        <v>jj</v>
+      </c>
+      <c r="N17" s="105" t="str">
+        <f>'Radio Relic Sample'!M4</f>
+        <v>jj</v>
+      </c>
+      <c r="O17" s="105" t="str">
+        <f>'Radio Relic Sample'!N4</f>
+        <v>jj</v>
+      </c>
+      <c r="P17" s="106">
+        <f>'Radio Relic Sample'!O4</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="105" t="str">
+        <f>'Radio Relic Sample'!P4</f>
+        <v>n</v>
+      </c>
+      <c r="R17" s="106">
+        <f>'Radio Relic Sample'!Q4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="70">
+        <v>6</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>400</v>
+      </c>
+      <c r="C18" s="71"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="70">
-        <v>6</v>
-      </c>
-      <c r="B16" s="70" t="s">
-        <v>400</v>
-      </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="73">
+        <v>7</v>
+      </c>
+      <c r="B19" s="73" t="s">
+        <v>401</v>
+      </c>
+      <c r="C19" s="74"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="76">
+        <v>8</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>402</v>
+      </c>
+      <c r="C20" s="77"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="76" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="73">
-        <v>7</v>
-      </c>
-      <c r="B17" s="73" t="s">
-        <v>401</v>
-      </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="76">
-        <v>8</v>
-      </c>
-      <c r="B18" s="76" t="s">
-        <v>402</v>
-      </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="76" t="s">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="79">
+        <v>9</v>
+      </c>
+      <c r="B21" s="79" t="s">
+        <v>403</v>
+      </c>
+      <c r="C21" s="80"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="79">
-        <v>9</v>
-      </c>
-      <c r="B19" s="79" t="s">
-        <v>403</v>
-      </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="79" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="82">
+        <v>10</v>
+      </c>
+      <c r="B22" s="82" t="s">
+        <v>404</v>
+      </c>
+      <c r="C22" s="83"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82" t="s">
         <v>455</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="82">
-        <v>10</v>
-      </c>
-      <c r="B20" s="82" t="s">
-        <v>404</v>
-      </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
-        <v>11</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="C21" s="9">
-        <v>36744</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="I21" s="10">
-        <f>(RIGHT(H21,LEN(H21)-4)-RIGHT(G21,LEN(G21)-4)+3)/10</f>
-        <v>10</v>
-      </c>
-      <c r="J21" s="10">
-        <v>420</v>
-      </c>
-      <c r="K21" s="60">
-        <f t="shared" ref="K21:K28" si="4">I21*J21/60</f>
-        <v>70</v>
-      </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
-        <v>11</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="C22" s="9">
-        <v>36744</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="I22" s="10">
-        <f>(RIGHT(H22,LEN(H22)-4)-RIGHT(G22,LEN(G22)-4)+3)/10</f>
-        <v>12</v>
-      </c>
-      <c r="J22" s="10">
-        <v>180</v>
-      </c>
-      <c r="K22" s="60">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -11750,31 +11855,31 @@
         <v>456</v>
       </c>
       <c r="C23" s="9">
-        <v>37829</v>
+        <v>36744</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="I23" s="10">
-        <f t="shared" ref="I23:I28" si="5">(RIGHT(H23,LEN(H23)-4)-RIGHT(G23,LEN(G23)-4)+1)/10</f>
-        <v>8</v>
+        <f>(RIGHT(H23,LEN(H23)-4)-RIGHT(G23,LEN(G23)-4)+3)/10</f>
+        <v>10</v>
       </c>
       <c r="J23" s="10">
-        <v>180</v>
+        <v>420</v>
       </c>
       <c r="K23" s="60">
-        <f t="shared" si="4"/>
-        <v>24</v>
+        <f t="shared" ref="K23:K30" si="4">I23*J23/60</f>
+        <v>70</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
@@ -11783,7 +11888,7 @@
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -11794,23 +11899,23 @@
         <v>456</v>
       </c>
       <c r="C24" s="9">
-        <v>37889</v>
+        <v>36744</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I24" s="10">
-        <f t="shared" si="5"/>
+        <f>(RIGHT(H24,LEN(H24)-4)-RIGHT(G24,LEN(G24)-4)+3)/10</f>
         <v>12</v>
       </c>
       <c r="J24" s="10">
@@ -11827,7 +11932,7 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="10" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -11838,31 +11943,31 @@
         <v>456</v>
       </c>
       <c r="C25" s="9">
-        <v>38187</v>
+        <v>37829</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="I25" s="10">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f t="shared" ref="I25:I30" si="5">(RIGHT(H25,LEN(H25)-4)-RIGHT(G25,LEN(G25)-4)+1)/10</f>
+        <v>8</v>
       </c>
       <c r="J25" s="10">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="K25" s="60">
         <f t="shared" si="4"/>
-        <v>22.5</v>
+        <v>24</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
@@ -11871,7 +11976,7 @@
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="10" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -11882,31 +11987,31 @@
         <v>456</v>
       </c>
       <c r="C26" s="9">
-        <v>39218</v>
+        <v>37889</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J26" s="10">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K26" s="60">
         <f t="shared" si="4"/>
-        <v>12.5</v>
+        <v>36</v>
       </c>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
@@ -11915,7 +12020,7 @@
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="10" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -11926,31 +12031,31 @@
         <v>456</v>
       </c>
       <c r="C27" s="9">
-        <v>40075</v>
+        <v>38187</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="I27" s="10">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J27" s="10">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="K27" s="60">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>22.5</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
@@ -11959,7 +12064,7 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10" t="s">
-        <v>280</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -11970,182 +12075,182 @@
         <v>456</v>
       </c>
       <c r="C28" s="9">
-        <v>40076</v>
+        <v>39218</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="I28" s="10">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J28" s="10">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="K28" s="60">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>12.5</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
-      <c r="Q28" s="10" t="s">
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>11</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C29" s="9">
+        <v>40075</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="J29" s="10">
+        <v>240</v>
+      </c>
+      <c r="K29" s="60">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>11</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C30" s="9">
+        <v>40076</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="J30" s="10">
+        <v>240</v>
+      </c>
+      <c r="K30" s="60">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="R28" s="10" t="s">
+      <c r="R30" s="10" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="67">
-        <v>12</v>
-      </c>
-      <c r="B29" s="67" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="67">
+        <v>12</v>
+      </c>
+      <c r="B31" s="67" t="s">
         <v>405</v>
       </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="67"/>
-      <c r="R29" s="67" t="s">
+      <c r="C31" s="68"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="67"/>
+      <c r="R31" s="67" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="92">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="92">
         <v>13</v>
       </c>
-      <c r="B30" s="92" t="s">
+      <c r="B32" s="92" t="s">
         <v>406</v>
       </c>
-      <c r="C30" s="93"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="92"/>
-      <c r="Q30" s="92"/>
-      <c r="R30" s="92" t="s">
+      <c r="C32" s="93"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="92"/>
+      <c r="Q32" s="92"/>
+      <c r="R32" s="92" t="s">
         <v>454</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="16">
-        <v>14</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="C31" s="15">
-        <v>37593</v>
-      </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>491</v>
-      </c>
-      <c r="I31" s="16">
-        <f t="shared" ref="I31:I50" si="6">(RIGHT(H31,LEN(H31)-4)-RIGHT(G31,LEN(G31)-4)+1)/10</f>
-        <v>10</v>
-      </c>
-      <c r="J31" s="16">
-        <v>240</v>
-      </c>
-      <c r="K31" s="96">
-        <f t="shared" ref="K31:K50" si="7">I31*J31/60</f>
-        <v>40</v>
-      </c>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="16">
-        <v>14</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="C32" s="15">
-        <v>37593</v>
-      </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="I32" s="16">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="J32" s="16">
-        <v>480</v>
-      </c>
-      <c r="K32" s="96">
-        <f t="shared" si="7"/>
-        <v>48</v>
-      </c>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -12156,31 +12261,31 @@
         <v>407</v>
       </c>
       <c r="C33" s="15">
-        <v>37829</v>
+        <v>37593</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="I33" s="16">
-        <f t="shared" si="6"/>
-        <v>8</v>
+        <f t="shared" ref="I33:I52" si="6">(RIGHT(H33,LEN(H33)-4)-RIGHT(G33,LEN(G33)-4)+1)/10</f>
+        <v>10</v>
       </c>
       <c r="J33" s="16">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="K33" s="96">
-        <f t="shared" si="7"/>
-        <v>24</v>
+        <f t="shared" ref="K33:K52" si="7">I33*J33/60</f>
+        <v>40</v>
       </c>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
@@ -12189,7 +12294,7 @@
       <c r="P33" s="16"/>
       <c r="Q33" s="16"/>
       <c r="R33" s="16" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -12200,31 +12305,31 @@
         <v>407</v>
       </c>
       <c r="C34" s="15">
-        <v>37889</v>
+        <v>37593</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="I34" s="16">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J34" s="16">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="K34" s="96">
         <f t="shared" si="7"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
@@ -12232,8 +12337,8 @@
       <c r="O34" s="16"/>
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
-      <c r="R34" s="97" t="s">
-        <v>536</v>
+      <c r="R34" s="16" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -12244,31 +12349,31 @@
         <v>407</v>
       </c>
       <c r="C35" s="15">
-        <v>37890</v>
+        <v>37829</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="I35" s="16">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="J35" s="16">
-        <v>720</v>
+        <v>180</v>
       </c>
       <c r="K35" s="96">
         <f t="shared" si="7"/>
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
@@ -12277,7 +12382,7 @@
       <c r="P35" s="16"/>
       <c r="Q35" s="16"/>
       <c r="R35" s="16" t="s">
-        <v>535</v>
+        <v>479</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -12288,31 +12393,31 @@
         <v>407</v>
       </c>
       <c r="C36" s="15">
-        <v>37890</v>
+        <v>37889</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="I36" s="16">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J36" s="16">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K36" s="96">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
@@ -12320,8 +12425,8 @@
       <c r="O36" s="16"/>
       <c r="P36" s="16"/>
       <c r="Q36" s="16"/>
-      <c r="R36" s="16" t="s">
-        <v>535</v>
+      <c r="R36" s="97" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
@@ -12332,31 +12437,31 @@
         <v>407</v>
       </c>
       <c r="C37" s="15">
-        <v>37891</v>
+        <v>37890</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="I37" s="16">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="J37" s="16">
-        <v>150</v>
+        <v>720</v>
       </c>
       <c r="K37" s="96">
         <f t="shared" si="7"/>
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
@@ -12376,31 +12481,31 @@
         <v>407</v>
       </c>
       <c r="C38" s="15">
-        <v>37891</v>
+        <v>37890</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="I38" s="16">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J38" s="16">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="K38" s="96">
         <f t="shared" si="7"/>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
@@ -12424,27 +12529,27 @@
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F39" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J39" s="16">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="K39" s="96">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
@@ -12464,31 +12569,31 @@
         <v>407</v>
       </c>
       <c r="C40" s="15">
-        <v>39072</v>
+        <v>37891</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="I40" s="16">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J40" s="16">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="K40" s="96">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
@@ -12497,7 +12602,7 @@
       <c r="P40" s="16"/>
       <c r="Q40" s="16"/>
       <c r="R40" s="16" t="s">
-        <v>317</v>
+        <v>535</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
@@ -12508,31 +12613,31 @@
         <v>407</v>
       </c>
       <c r="C41" s="15">
-        <v>39278</v>
+        <v>37891</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F41" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="I41" s="16">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J41" s="16">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="K41" s="96">
         <f t="shared" si="7"/>
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
@@ -12541,7 +12646,7 @@
       <c r="P41" s="16"/>
       <c r="Q41" s="16"/>
       <c r="R41" s="16" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
@@ -12552,31 +12657,31 @@
         <v>407</v>
       </c>
       <c r="C42" s="15">
-        <v>39307</v>
+        <v>39072</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F42" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="I42" s="16">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J42" s="16">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="K42" s="96">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
@@ -12585,7 +12690,7 @@
       <c r="P42" s="16"/>
       <c r="Q42" s="16"/>
       <c r="R42" s="16" t="s">
-        <v>533</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
@@ -12596,27 +12701,27 @@
         <v>407</v>
       </c>
       <c r="C43" s="15">
-        <v>39307</v>
+        <v>39278</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="16" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="I43" s="16">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J43" s="16">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="K43" s="96">
         <f t="shared" si="7"/>
@@ -12629,7 +12734,7 @@
       <c r="P43" s="16"/>
       <c r="Q43" s="16"/>
       <c r="R43" s="16" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
@@ -12640,7 +12745,7 @@
         <v>407</v>
       </c>
       <c r="C44" s="15">
-        <v>39395</v>
+        <v>39307</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="16" t="s">
@@ -12650,21 +12755,21 @@
         <v>19</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="I44" s="16">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J44" s="16">
         <v>360</v>
       </c>
       <c r="K44" s="96">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L44" s="16"/>
       <c r="M44" s="16"/>
@@ -12673,7 +12778,7 @@
       <c r="P44" s="16"/>
       <c r="Q44" s="16"/>
       <c r="R44" s="16" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
@@ -12684,7 +12789,7 @@
         <v>407</v>
       </c>
       <c r="C45" s="15">
-        <v>39455</v>
+        <v>39307</v>
       </c>
       <c r="D45" s="16"/>
       <c r="E45" s="16" t="s">
@@ -12694,21 +12799,21 @@
         <v>19</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I45" s="16">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J45" s="16">
         <v>120</v>
       </c>
       <c r="K45" s="96">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
@@ -12717,7 +12822,7 @@
       <c r="P45" s="16"/>
       <c r="Q45" s="16"/>
       <c r="R45" s="16" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
@@ -12728,31 +12833,31 @@
         <v>407</v>
       </c>
       <c r="C46" s="15">
-        <v>39694</v>
+        <v>39395</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F46" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="I46" s="16">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J46" s="16">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="K46" s="96">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
@@ -12761,7 +12866,7 @@
       <c r="P46" s="16"/>
       <c r="Q46" s="16"/>
       <c r="R46" s="16" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
@@ -12772,31 +12877,31 @@
         <v>407</v>
       </c>
       <c r="C47" s="15">
-        <v>39694</v>
+        <v>39455</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="16" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="F47" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="I47" s="16">
-        <f>(RIGHT(H47,LEN(H47)-4)-RIGHT(G47,LEN(G47)-4)+1)/10-1</f>
-        <v>19</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="J47" s="16">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="K47" s="96">
         <f t="shared" si="7"/>
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="L47" s="16"/>
       <c r="M47" s="16"/>
@@ -12805,7 +12910,7 @@
       <c r="P47" s="16"/>
       <c r="Q47" s="16"/>
       <c r="R47" s="16" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
@@ -12820,27 +12925,27 @@
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F48" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="I48" s="16">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J48" s="16">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="K48" s="96">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L48" s="16"/>
       <c r="M48" s="16"/>
@@ -12864,27 +12969,27 @@
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F49" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="I49" s="16">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f>(RIGHT(H49,LEN(H49)-4)-RIGHT(G49,LEN(G49)-4)+1)/10-1</f>
+        <v>19</v>
       </c>
       <c r="J49" s="16">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K49" s="96">
         <f t="shared" si="7"/>
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
@@ -12908,27 +13013,27 @@
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="F50" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="I50" s="16">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J50" s="16">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K50" s="96">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
@@ -12941,425 +13046,367 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="58">
+      <c r="A51" s="16">
+        <v>14</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C51" s="15">
+        <v>39694</v>
+      </c>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="I51" s="16">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="J51" s="16">
+        <v>360</v>
+      </c>
+      <c r="K51" s="96">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="16">
+        <v>14</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C52" s="15">
+        <v>39694</v>
+      </c>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="I52" s="16">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="J52" s="16">
+        <v>120</v>
+      </c>
+      <c r="K52" s="96">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="58">
         <v>15</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B53" s="58" t="s">
         <v>408</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="58"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="58"/>
-      <c r="O51" s="58"/>
-      <c r="P51" s="58"/>
-      <c r="Q51" s="58"/>
-      <c r="R51" s="58" t="s">
+      <c r="C53" s="59"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="58"/>
+      <c r="N53" s="58"/>
+      <c r="O53" s="58"/>
+      <c r="P53" s="58"/>
+      <c r="Q53" s="58"/>
+      <c r="R53" s="58" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="56">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="56">
         <v>16</v>
       </c>
-      <c r="B52" s="56" t="s">
+      <c r="B54" s="56" t="s">
         <v>409</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="56"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="56"/>
-      <c r="Q52" s="56"/>
-      <c r="R52" s="56" t="s">
+      <c r="C54" s="57"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="56"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="56" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="82">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="82">
         <v>17</v>
       </c>
-      <c r="B53" s="82" t="s">
+      <c r="B55" s="82" t="s">
         <v>410</v>
       </c>
-      <c r="C53" s="83"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="82"/>
-      <c r="I53" s="82"/>
-      <c r="J53" s="82"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="82"/>
-      <c r="M53" s="82"/>
-      <c r="N53" s="82"/>
-      <c r="O53" s="82"/>
-      <c r="P53" s="82"/>
-      <c r="Q53" s="82"/>
-      <c r="R53" s="82" t="s">
+      <c r="C55" s="83"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="82"/>
+      <c r="I55" s="82"/>
+      <c r="J55" s="82"/>
+      <c r="K55" s="84"/>
+      <c r="L55" s="82"/>
+      <c r="M55" s="82"/>
+      <c r="N55" s="82"/>
+      <c r="O55" s="82"/>
+      <c r="P55" s="82"/>
+      <c r="Q55" s="82"/>
+      <c r="R55" s="82" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="10">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="10">
         <v>18</v>
       </c>
-      <c r="B54" s="10" t="str">
+      <c r="B56" s="10" t="str">
         <f>'Radio Relic Sample'!A27</f>
         <v>A1300</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C56" s="10">
         <f>'Radio Relic Sample'!B27</f>
         <v>0</v>
       </c>
-      <c r="D54" s="10" t="str">
+      <c r="D56" s="10" t="str">
         <f>'Radio Relic Sample'!C27</f>
         <v>2014a</v>
       </c>
-      <c r="E54" s="10" t="str">
+      <c r="E56" s="10" t="str">
         <f>'Radio Relic Sample'!D27</f>
         <v>g</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F56" s="10">
         <f>'Radio Relic Sample'!E27</f>
         <v>0</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G56" s="10">
         <f>'Radio Relic Sample'!F27</f>
         <v>0</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H56" s="10">
         <f>'Radio Relic Sample'!G27</f>
         <v>0</v>
       </c>
-      <c r="I54" s="10">
+      <c r="I56" s="10">
         <f>'Radio Relic Sample'!H27</f>
         <v>0</v>
       </c>
-      <c r="J54" s="10">
+      <c r="J56" s="10">
         <f>'Radio Relic Sample'!I27</f>
         <v>0</v>
       </c>
-      <c r="K54" s="60">
+      <c r="K56" s="60">
         <f>'Radio Relic Sample'!J27</f>
         <v>0</v>
       </c>
-      <c r="L54" s="10">
+      <c r="L56" s="10">
         <f>'Radio Relic Sample'!K27</f>
         <v>0</v>
       </c>
-      <c r="M54" s="10" t="str">
+      <c r="M56" s="10" t="str">
         <f>'Radio Relic Sample'!L27</f>
         <v>wd</v>
       </c>
-      <c r="N54" s="10" t="str">
+      <c r="N56" s="10" t="str">
         <f>'Radio Relic Sample'!M27</f>
         <v>wd</v>
       </c>
-      <c r="O54" s="10" t="str">
+      <c r="O56" s="10" t="str">
         <f>'Radio Relic Sample'!N27</f>
         <v>wd</v>
       </c>
-      <c r="P54" s="10">
+      <c r="P56" s="10">
         <f>'Radio Relic Sample'!O27</f>
         <v>0</v>
       </c>
-      <c r="Q54" s="10" t="str">
+      <c r="Q56" s="10" t="str">
         <f>'Radio Relic Sample'!P27</f>
         <v>n</v>
       </c>
-      <c r="R54" s="10">
+      <c r="R56" s="10">
         <f>'Radio Relic Sample'!Q27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="10">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="10">
         <v>18</v>
       </c>
-      <c r="B55" s="10" t="str">
+      <c r="B57" s="10" t="str">
         <f>'Radio Relic Sample'!A28</f>
         <v>A1300</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C57" s="10">
         <f>'Radio Relic Sample'!B28</f>
         <v>0</v>
       </c>
-      <c r="D55" s="10" t="str">
+      <c r="D57" s="10" t="str">
         <f>'Radio Relic Sample'!C28</f>
         <v>2014a</v>
       </c>
-      <c r="E55" s="10" t="str">
+      <c r="E57" s="10" t="str">
         <f>'Radio Relic Sample'!D28</f>
         <v>r</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F57" s="10">
         <f>'Radio Relic Sample'!E28</f>
         <v>0</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G57" s="10">
         <f>'Radio Relic Sample'!F28</f>
         <v>0</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H57" s="10">
         <f>'Radio Relic Sample'!G28</f>
         <v>0</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I57" s="10">
         <f>'Radio Relic Sample'!H28</f>
         <v>0</v>
       </c>
-      <c r="J55" s="10">
+      <c r="J57" s="10">
         <f>'Radio Relic Sample'!I28</f>
         <v>0</v>
       </c>
-      <c r="K55" s="60">
+      <c r="K57" s="60">
         <f>'Radio Relic Sample'!J28</f>
         <v>0</v>
       </c>
-      <c r="L55" s="10">
+      <c r="L57" s="10">
         <f>'Radio Relic Sample'!K28</f>
         <v>0</v>
       </c>
-      <c r="M55" s="10" t="str">
+      <c r="M57" s="10" t="str">
         <f>'Radio Relic Sample'!L28</f>
         <v>wd</v>
       </c>
-      <c r="N55" s="10" t="str">
+      <c r="N57" s="10" t="str">
         <f>'Radio Relic Sample'!M28</f>
         <v>wd</v>
       </c>
-      <c r="O55" s="10" t="str">
+      <c r="O57" s="10" t="str">
         <f>'Radio Relic Sample'!N28</f>
         <v>wd</v>
       </c>
-      <c r="P55" s="10">
+      <c r="P57" s="10">
         <f>'Radio Relic Sample'!O28</f>
         <v>0</v>
       </c>
-      <c r="Q55" s="10" t="str">
+      <c r="Q57" s="10" t="str">
         <f>'Radio Relic Sample'!P28</f>
         <v>y</v>
       </c>
-      <c r="R55" s="10">
+      <c r="R57" s="10">
         <f>'Radio Relic Sample'!Q28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="67">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="67">
         <v>19</v>
       </c>
-      <c r="B56" s="67" t="s">
+      <c r="B58" s="67" t="s">
         <v>411</v>
       </c>
-      <c r="C56" s="68"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
-      <c r="K56" s="69"/>
-      <c r="L56" s="67"/>
-      <c r="M56" s="67"/>
-      <c r="N56" s="67"/>
-      <c r="O56" s="67"/>
-      <c r="P56" s="67"/>
-      <c r="Q56" s="67"/>
-      <c r="R56" s="67" t="s">
+      <c r="C58" s="68"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="67"/>
+      <c r="O58" s="67"/>
+      <c r="P58" s="67"/>
+      <c r="Q58" s="67"/>
+      <c r="R58" s="67" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="70">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="70">
         <v>20</v>
       </c>
-      <c r="B57" s="70" t="s">
+      <c r="B59" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="71"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="72"/>
-      <c r="L57" s="70"/>
-      <c r="M57" s="70"/>
-      <c r="N57" s="70"/>
-      <c r="O57" s="70"/>
-      <c r="P57" s="70"/>
-      <c r="Q57" s="70"/>
-      <c r="R57" s="70" t="s">
+      <c r="C59" s="71"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="72"/>
+      <c r="L59" s="70"/>
+      <c r="M59" s="70"/>
+      <c r="N59" s="70"/>
+      <c r="O59" s="70"/>
+      <c r="P59" s="70"/>
+      <c r="Q59" s="70"/>
+      <c r="R59" s="70" t="s">
         <v>455</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58" s="16">
-        <v>21</v>
-      </c>
-      <c r="B58" s="16" t="str">
-        <f>'MC3PO Sample'!A13</f>
-        <v>A0665</v>
-      </c>
-      <c r="C58" s="15">
-        <f>'MC3PO Sample'!B13</f>
-        <v>36852</v>
-      </c>
-      <c r="D58" s="16">
-        <f>'MC3PO Sample'!C13</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="16" t="str">
-        <f>'MC3PO Sample'!D13</f>
-        <v>W-C-RC</v>
-      </c>
-      <c r="F58" s="16" t="str">
-        <f>'MC3PO Sample'!E13</f>
-        <v>wd</v>
-      </c>
-      <c r="G58" s="16" t="str">
-        <f>'MC3PO Sample'!F13</f>
-        <v>SUPA00023842</v>
-      </c>
-      <c r="H58" s="16" t="str">
-        <f>'MC3PO Sample'!G13</f>
-        <v>SUPA00023931</v>
-      </c>
-      <c r="I58" s="16">
-        <f>'MC3PO Sample'!H13</f>
-        <v>9</v>
-      </c>
-      <c r="J58" s="16">
-        <f>'MC3PO Sample'!I13</f>
-        <v>360</v>
-      </c>
-      <c r="K58" s="96">
-        <f>'MC3PO Sample'!J13</f>
-        <v>54</v>
-      </c>
-      <c r="L58" s="16">
-        <f>'MC3PO Sample'!K13</f>
-        <v>0</v>
-      </c>
-      <c r="M58" s="16">
-        <f>'MC3PO Sample'!L13</f>
-        <v>0</v>
-      </c>
-      <c r="N58" s="16">
-        <f>'MC3PO Sample'!M13</f>
-        <v>0</v>
-      </c>
-      <c r="O58" s="16">
-        <f>'MC3PO Sample'!N13</f>
-        <v>0</v>
-      </c>
-      <c r="P58" s="16">
-        <f>'MC3PO Sample'!O13</f>
-        <v>0</v>
-      </c>
-      <c r="Q58" s="16">
-        <f>'MC3PO Sample'!P13</f>
-        <v>0</v>
-      </c>
-      <c r="R58" s="16" t="str">
-        <f>'MC3PO Sample'!Q13</f>
-        <v>Perhaps discard. It seems like they were having issues. Just use the 2000-Nov-25 exposures?</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A59" s="16">
-        <v>21</v>
-      </c>
-      <c r="B59" s="16" t="str">
-        <f>'MC3PO Sample'!A14</f>
-        <v>A0665</v>
-      </c>
-      <c r="C59" s="15">
-        <f>'MC3PO Sample'!B14</f>
-        <v>36853</v>
-      </c>
-      <c r="D59" s="16">
-        <f>'MC3PO Sample'!C14</f>
-        <v>0</v>
-      </c>
-      <c r="E59" s="16" t="str">
-        <f>'MC3PO Sample'!D14</f>
-        <v>W-C-RC</v>
-      </c>
-      <c r="F59" s="16" t="str">
-        <f>'MC3PO Sample'!E14</f>
-        <v>wd</v>
-      </c>
-      <c r="G59" s="16" t="str">
-        <f>'MC3PO Sample'!F14</f>
-        <v>SUPA00024162</v>
-      </c>
-      <c r="H59" s="16" t="str">
-        <f>'MC3PO Sample'!G14</f>
-        <v>SUPA00024171</v>
-      </c>
-      <c r="I59" s="16">
-        <f>'MC3PO Sample'!H14</f>
-        <v>1</v>
-      </c>
-      <c r="J59" s="16">
-        <f>'MC3PO Sample'!I14</f>
-        <v>120</v>
-      </c>
-      <c r="K59" s="96">
-        <f>'MC3PO Sample'!J14</f>
-        <v>2</v>
-      </c>
-      <c r="L59" s="16">
-        <f>'MC3PO Sample'!K14</f>
-        <v>0</v>
-      </c>
-      <c r="M59" s="16">
-        <f>'MC3PO Sample'!L14</f>
-        <v>0</v>
-      </c>
-      <c r="N59" s="16">
-        <f>'MC3PO Sample'!M14</f>
-        <v>0</v>
-      </c>
-      <c r="O59" s="16">
-        <f>'MC3PO Sample'!N14</f>
-        <v>0</v>
-      </c>
-      <c r="P59" s="16">
-        <f>'MC3PO Sample'!O14</f>
-        <v>0</v>
-      </c>
-      <c r="Q59" s="16">
-        <f>'MC3PO Sample'!P14</f>
-        <v>0</v>
-      </c>
-      <c r="R59" s="16" t="str">
-        <f>'MC3PO Sample'!Q14</f>
-        <v>Perhaps discard. It seems like they were having issues. Just use the 2000-Nov-25 exposures?</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
@@ -13367,71 +13414,71 @@
         <v>21</v>
       </c>
       <c r="B60" s="16" t="str">
-        <f>'MC3PO Sample'!A15</f>
+        <f>'MC3PO Sample'!A13</f>
         <v>A0665</v>
       </c>
       <c r="C60" s="15">
-        <f>'MC3PO Sample'!B15</f>
-        <v>36853</v>
+        <f>'MC3PO Sample'!B13</f>
+        <v>36852</v>
       </c>
       <c r="D60" s="16">
-        <f>'MC3PO Sample'!C15</f>
+        <f>'MC3PO Sample'!C13</f>
         <v>0</v>
       </c>
       <c r="E60" s="16" t="str">
-        <f>'MC3PO Sample'!D15</f>
+        <f>'MC3PO Sample'!D13</f>
         <v>W-C-RC</v>
       </c>
       <c r="F60" s="16" t="str">
-        <f>'MC3PO Sample'!E15</f>
+        <f>'MC3PO Sample'!E13</f>
         <v>wd</v>
       </c>
       <c r="G60" s="16" t="str">
-        <f>'MC3PO Sample'!F15</f>
-        <v>SUPA00024182</v>
+        <f>'MC3PO Sample'!F13</f>
+        <v>SUPA00023842</v>
       </c>
       <c r="H60" s="16" t="str">
-        <f>'MC3PO Sample'!G15</f>
-        <v>SUPA00024191</v>
+        <f>'MC3PO Sample'!G13</f>
+        <v>SUPA00023931</v>
       </c>
       <c r="I60" s="16">
-        <f>'MC3PO Sample'!H15</f>
-        <v>1</v>
+        <f>'MC3PO Sample'!H13</f>
+        <v>9</v>
       </c>
       <c r="J60" s="16">
-        <f>'MC3PO Sample'!I15</f>
-        <v>120</v>
+        <f>'MC3PO Sample'!I13</f>
+        <v>360</v>
       </c>
       <c r="K60" s="96">
-        <f>'MC3PO Sample'!J15</f>
-        <v>2</v>
+        <f>'MC3PO Sample'!J13</f>
+        <v>54</v>
       </c>
       <c r="L60" s="16">
-        <f>'MC3PO Sample'!K15</f>
+        <f>'MC3PO Sample'!K13</f>
         <v>0</v>
       </c>
       <c r="M60" s="16">
-        <f>'MC3PO Sample'!L15</f>
+        <f>'MC3PO Sample'!L13</f>
         <v>0</v>
       </c>
       <c r="N60" s="16">
-        <f>'MC3PO Sample'!M15</f>
+        <f>'MC3PO Sample'!M13</f>
         <v>0</v>
       </c>
       <c r="O60" s="16">
-        <f>'MC3PO Sample'!N15</f>
+        <f>'MC3PO Sample'!N13</f>
         <v>0</v>
       </c>
       <c r="P60" s="16">
-        <f>'MC3PO Sample'!O15</f>
+        <f>'MC3PO Sample'!O13</f>
         <v>0</v>
       </c>
       <c r="Q60" s="16">
-        <f>'MC3PO Sample'!P15</f>
+        <f>'MC3PO Sample'!P13</f>
         <v>0</v>
       </c>
       <c r="R60" s="16" t="str">
-        <f>'MC3PO Sample'!Q15</f>
+        <f>'MC3PO Sample'!Q13</f>
         <v>Perhaps discard. It seems like they were having issues. Just use the 2000-Nov-25 exposures?</v>
       </c>
     </row>
@@ -13440,71 +13487,71 @@
         <v>21</v>
       </c>
       <c r="B61" s="16" t="str">
-        <f>'MC3PO Sample'!A16</f>
+        <f>'MC3PO Sample'!A14</f>
         <v>A0665</v>
       </c>
       <c r="C61" s="15">
-        <f>'MC3PO Sample'!B16</f>
+        <f>'MC3PO Sample'!B14</f>
         <v>36853</v>
       </c>
       <c r="D61" s="16">
-        <f>'MC3PO Sample'!C16</f>
+        <f>'MC3PO Sample'!C14</f>
         <v>0</v>
       </c>
       <c r="E61" s="16" t="str">
-        <f>'MC3PO Sample'!D16</f>
+        <f>'MC3PO Sample'!D14</f>
         <v>W-C-RC</v>
       </c>
       <c r="F61" s="16" t="str">
-        <f>'MC3PO Sample'!E16</f>
+        <f>'MC3PO Sample'!E14</f>
         <v>wd</v>
       </c>
       <c r="G61" s="16" t="str">
-        <f>'MC3PO Sample'!F16</f>
-        <v>SUPA00024202</v>
+        <f>'MC3PO Sample'!F14</f>
+        <v>SUPA00024162</v>
       </c>
       <c r="H61" s="16" t="str">
-        <f>'MC3PO Sample'!G16</f>
-        <v>SUPA00024211</v>
+        <f>'MC3PO Sample'!G14</f>
+        <v>SUPA00024171</v>
       </c>
       <c r="I61" s="16">
-        <f>'MC3PO Sample'!H16</f>
+        <f>'MC3PO Sample'!H14</f>
         <v>1</v>
       </c>
       <c r="J61" s="16">
-        <f>'MC3PO Sample'!I16</f>
+        <f>'MC3PO Sample'!I14</f>
         <v>120</v>
       </c>
       <c r="K61" s="96">
-        <f>'MC3PO Sample'!J16</f>
+        <f>'MC3PO Sample'!J14</f>
         <v>2</v>
       </c>
       <c r="L61" s="16">
-        <f>'MC3PO Sample'!K16</f>
+        <f>'MC3PO Sample'!K14</f>
         <v>0</v>
       </c>
       <c r="M61" s="16">
-        <f>'MC3PO Sample'!L16</f>
+        <f>'MC3PO Sample'!L14</f>
         <v>0</v>
       </c>
       <c r="N61" s="16">
-        <f>'MC3PO Sample'!M16</f>
+        <f>'MC3PO Sample'!M14</f>
         <v>0</v>
       </c>
       <c r="O61" s="16">
-        <f>'MC3PO Sample'!N16</f>
+        <f>'MC3PO Sample'!N14</f>
         <v>0</v>
       </c>
       <c r="P61" s="16">
-        <f>'MC3PO Sample'!O16</f>
+        <f>'MC3PO Sample'!O14</f>
         <v>0</v>
       </c>
       <c r="Q61" s="16">
-        <f>'MC3PO Sample'!P16</f>
+        <f>'MC3PO Sample'!P14</f>
         <v>0</v>
       </c>
       <c r="R61" s="16" t="str">
-        <f>'MC3PO Sample'!Q16</f>
+        <f>'MC3PO Sample'!Q14</f>
         <v>Perhaps discard. It seems like they were having issues. Just use the 2000-Nov-25 exposures?</v>
       </c>
     </row>
@@ -13513,72 +13560,72 @@
         <v>21</v>
       </c>
       <c r="B62" s="16" t="str">
-        <f>'MC3PO Sample'!A17</f>
+        <f>'MC3PO Sample'!A15</f>
         <v>A0665</v>
       </c>
       <c r="C62" s="15">
-        <f>'MC3PO Sample'!B17</f>
-        <v>36855</v>
+        <f>'MC3PO Sample'!B15</f>
+        <v>36853</v>
       </c>
       <c r="D62" s="16">
-        <f>'MC3PO Sample'!C17</f>
+        <f>'MC3PO Sample'!C15</f>
         <v>0</v>
       </c>
       <c r="E62" s="16" t="str">
-        <f>'MC3PO Sample'!D17</f>
+        <f>'MC3PO Sample'!D15</f>
         <v>W-C-RC</v>
       </c>
       <c r="F62" s="16" t="str">
-        <f>'MC3PO Sample'!E17</f>
+        <f>'MC3PO Sample'!E15</f>
         <v>wd</v>
       </c>
       <c r="G62" s="16" t="str">
-        <f>'MC3PO Sample'!F17</f>
-        <v>SUPA00025130</v>
+        <f>'MC3PO Sample'!F15</f>
+        <v>SUPA00024182</v>
       </c>
       <c r="H62" s="16" t="str">
-        <f>'MC3PO Sample'!G17</f>
-        <v>SUPA00025179</v>
+        <f>'MC3PO Sample'!G15</f>
+        <v>SUPA00024191</v>
       </c>
       <c r="I62" s="16">
-        <f>'MC3PO Sample'!H17</f>
-        <v>5</v>
+        <f>'MC3PO Sample'!H15</f>
+        <v>1</v>
       </c>
       <c r="J62" s="16">
-        <f>'MC3PO Sample'!I17</f>
-        <v>360</v>
+        <f>'MC3PO Sample'!I15</f>
+        <v>120</v>
       </c>
       <c r="K62" s="96">
-        <f>'MC3PO Sample'!J17</f>
-        <v>30</v>
+        <f>'MC3PO Sample'!J15</f>
+        <v>2</v>
       </c>
       <c r="L62" s="16">
-        <f>'MC3PO Sample'!K17</f>
+        <f>'MC3PO Sample'!K15</f>
         <v>0</v>
       </c>
       <c r="M62" s="16">
-        <f>'MC3PO Sample'!L17</f>
+        <f>'MC3PO Sample'!L15</f>
         <v>0</v>
       </c>
       <c r="N62" s="16">
-        <f>'MC3PO Sample'!M17</f>
+        <f>'MC3PO Sample'!M15</f>
         <v>0</v>
       </c>
       <c r="O62" s="16">
-        <f>'MC3PO Sample'!N17</f>
+        <f>'MC3PO Sample'!N15</f>
         <v>0</v>
       </c>
       <c r="P62" s="16">
-        <f>'MC3PO Sample'!O17</f>
+        <f>'MC3PO Sample'!O15</f>
         <v>0</v>
       </c>
       <c r="Q62" s="16">
-        <f>'MC3PO Sample'!P17</f>
-        <v>0</v>
-      </c>
-      <c r="R62" s="16">
-        <f>'MC3PO Sample'!Q17</f>
-        <v>0</v>
+        <f>'MC3PO Sample'!P15</f>
+        <v>0</v>
+      </c>
+      <c r="R62" s="16" t="str">
+        <f>'MC3PO Sample'!Q15</f>
+        <v>Perhaps discard. It seems like they were having issues. Just use the 2000-Nov-25 exposures?</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
@@ -13586,72 +13633,72 @@
         <v>21</v>
       </c>
       <c r="B63" s="16" t="str">
-        <f>'MC3PO Sample'!A18</f>
+        <f>'MC3PO Sample'!A16</f>
         <v>A0665</v>
       </c>
       <c r="C63" s="15">
-        <f>'MC3PO Sample'!B18</f>
-        <v>36856</v>
+        <f>'MC3PO Sample'!B16</f>
+        <v>36853</v>
       </c>
       <c r="D63" s="16">
-        <f>'MC3PO Sample'!C18</f>
+        <f>'MC3PO Sample'!C16</f>
         <v>0</v>
       </c>
       <c r="E63" s="16" t="str">
-        <f>'MC3PO Sample'!D18</f>
-        <v>W-S-I+</v>
+        <f>'MC3PO Sample'!D16</f>
+        <v>W-C-RC</v>
       </c>
       <c r="F63" s="16" t="str">
-        <f>'MC3PO Sample'!E18</f>
+        <f>'MC3PO Sample'!E16</f>
         <v>wd</v>
       </c>
       <c r="G63" s="16" t="str">
-        <f>'MC3PO Sample'!F18</f>
-        <v>SUPA00025680</v>
+        <f>'MC3PO Sample'!F16</f>
+        <v>SUPA00024202</v>
       </c>
       <c r="H63" s="16" t="str">
-        <f>'MC3PO Sample'!G18</f>
-        <v>SUPA00025739</v>
+        <f>'MC3PO Sample'!G16</f>
+        <v>SUPA00024211</v>
       </c>
       <c r="I63" s="16">
-        <f>'MC3PO Sample'!H18</f>
-        <v>6</v>
+        <f>'MC3PO Sample'!H16</f>
+        <v>1</v>
       </c>
       <c r="J63" s="16">
-        <f>'MC3PO Sample'!I18</f>
-        <v>90</v>
+        <f>'MC3PO Sample'!I16</f>
+        <v>120</v>
       </c>
       <c r="K63" s="96">
-        <f>'MC3PO Sample'!J18</f>
-        <v>9</v>
+        <f>'MC3PO Sample'!J16</f>
+        <v>2</v>
       </c>
       <c r="L63" s="16">
-        <f>'MC3PO Sample'!K18</f>
+        <f>'MC3PO Sample'!K16</f>
         <v>0</v>
       </c>
       <c r="M63" s="16">
-        <f>'MC3PO Sample'!L18</f>
+        <f>'MC3PO Sample'!L16</f>
         <v>0</v>
       </c>
       <c r="N63" s="16">
-        <f>'MC3PO Sample'!M18</f>
+        <f>'MC3PO Sample'!M16</f>
         <v>0</v>
       </c>
       <c r="O63" s="16">
-        <f>'MC3PO Sample'!N18</f>
+        <f>'MC3PO Sample'!N16</f>
         <v>0</v>
       </c>
       <c r="P63" s="16">
-        <f>'MC3PO Sample'!O18</f>
+        <f>'MC3PO Sample'!O16</f>
         <v>0</v>
       </c>
       <c r="Q63" s="16">
-        <f>'MC3PO Sample'!P18</f>
-        <v>0</v>
-      </c>
-      <c r="R63" s="16">
-        <f>'MC3PO Sample'!Q18</f>
-        <v>0</v>
+        <f>'MC3PO Sample'!P16</f>
+        <v>0</v>
+      </c>
+      <c r="R63" s="16" t="str">
+        <f>'MC3PO Sample'!Q16</f>
+        <v>Perhaps discard. It seems like they were having issues. Just use the 2000-Nov-25 exposures?</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
@@ -13659,71 +13706,71 @@
         <v>21</v>
       </c>
       <c r="B64" s="16" t="str">
-        <f>'MC3PO Sample'!A19</f>
+        <f>'MC3PO Sample'!A17</f>
         <v>A0665</v>
       </c>
       <c r="C64" s="15">
-        <f>'MC3PO Sample'!B19</f>
-        <v>36858</v>
+        <f>'MC3PO Sample'!B17</f>
+        <v>36855</v>
       </c>
       <c r="D64" s="16">
-        <f>'MC3PO Sample'!C19</f>
+        <f>'MC3PO Sample'!C17</f>
         <v>0</v>
       </c>
       <c r="E64" s="16" t="str">
-        <f>'MC3PO Sample'!D19</f>
-        <v>W-J-V</v>
+        <f>'MC3PO Sample'!D17</f>
+        <v>W-C-RC</v>
       </c>
       <c r="F64" s="16" t="str">
-        <f>'MC3PO Sample'!E19</f>
+        <f>'MC3PO Sample'!E17</f>
         <v>wd</v>
       </c>
       <c r="G64" s="16" t="str">
-        <f>'MC3PO Sample'!F19</f>
-        <v>SUPA00026900</v>
+        <f>'MC3PO Sample'!F17</f>
+        <v>SUPA00025130</v>
       </c>
       <c r="H64" s="16" t="str">
-        <f>'MC3PO Sample'!G19</f>
-        <v>SUPA00026919</v>
+        <f>'MC3PO Sample'!G17</f>
+        <v>SUPA00025179</v>
       </c>
       <c r="I64" s="16">
-        <f>'MC3PO Sample'!H19</f>
-        <v>2</v>
+        <f>'MC3PO Sample'!H17</f>
+        <v>5</v>
       </c>
       <c r="J64" s="16">
-        <f>'MC3PO Sample'!I19</f>
+        <f>'MC3PO Sample'!I17</f>
         <v>360</v>
       </c>
       <c r="K64" s="96">
-        <f>'MC3PO Sample'!J19</f>
-        <v>12</v>
+        <f>'MC3PO Sample'!J17</f>
+        <v>30</v>
       </c>
       <c r="L64" s="16">
-        <f>'MC3PO Sample'!K19</f>
+        <f>'MC3PO Sample'!K17</f>
         <v>0</v>
       </c>
       <c r="M64" s="16">
-        <f>'MC3PO Sample'!L19</f>
+        <f>'MC3PO Sample'!L17</f>
         <v>0</v>
       </c>
       <c r="N64" s="16">
-        <f>'MC3PO Sample'!M19</f>
+        <f>'MC3PO Sample'!M17</f>
         <v>0</v>
       </c>
       <c r="O64" s="16">
-        <f>'MC3PO Sample'!N19</f>
+        <f>'MC3PO Sample'!N17</f>
         <v>0</v>
       </c>
       <c r="P64" s="16">
-        <f>'MC3PO Sample'!O19</f>
+        <f>'MC3PO Sample'!O17</f>
         <v>0</v>
       </c>
       <c r="Q64" s="16">
-        <f>'MC3PO Sample'!P19</f>
+        <f>'MC3PO Sample'!P17</f>
         <v>0</v>
       </c>
       <c r="R64" s="16">
-        <f>'MC3PO Sample'!Q19</f>
+        <f>'MC3PO Sample'!Q17</f>
         <v>0</v>
       </c>
     </row>
@@ -13732,71 +13779,71 @@
         <v>21</v>
       </c>
       <c r="B65" s="16" t="str">
-        <f>'MC3PO Sample'!A20</f>
+        <f>'MC3PO Sample'!A18</f>
         <v>A0665</v>
       </c>
       <c r="C65" s="15">
-        <f>'MC3PO Sample'!B20</f>
-        <v>36974</v>
+        <f>'MC3PO Sample'!B18</f>
+        <v>36856</v>
       </c>
       <c r="D65" s="16">
-        <f>'MC3PO Sample'!C20</f>
+        <f>'MC3PO Sample'!C18</f>
         <v>0</v>
       </c>
       <c r="E65" s="16" t="str">
-        <f>'MC3PO Sample'!D20</f>
+        <f>'MC3PO Sample'!D18</f>
         <v>W-S-I+</v>
       </c>
       <c r="F65" s="16" t="str">
-        <f>'MC3PO Sample'!E20</f>
+        <f>'MC3PO Sample'!E18</f>
         <v>wd</v>
       </c>
       <c r="G65" s="16" t="str">
-        <f>'MC3PO Sample'!F20</f>
-        <v>SUPA00045790</v>
+        <f>'MC3PO Sample'!F18</f>
+        <v>SUPA00025680</v>
       </c>
       <c r="H65" s="16" t="str">
-        <f>'MC3PO Sample'!G20</f>
-        <v>SUPA00045809</v>
+        <f>'MC3PO Sample'!G18</f>
+        <v>SUPA00025739</v>
       </c>
       <c r="I65" s="16">
-        <f>'MC3PO Sample'!H20</f>
-        <v>2</v>
+        <f>'MC3PO Sample'!H18</f>
+        <v>6</v>
       </c>
       <c r="J65" s="16">
-        <f>'MC3PO Sample'!I20</f>
-        <v>240</v>
+        <f>'MC3PO Sample'!I18</f>
+        <v>90</v>
       </c>
       <c r="K65" s="96">
-        <f>'MC3PO Sample'!J20</f>
-        <v>8</v>
+        <f>'MC3PO Sample'!J18</f>
+        <v>9</v>
       </c>
       <c r="L65" s="16">
-        <f>'MC3PO Sample'!K20</f>
+        <f>'MC3PO Sample'!K18</f>
         <v>0</v>
       </c>
       <c r="M65" s="16">
-        <f>'MC3PO Sample'!L20</f>
+        <f>'MC3PO Sample'!L18</f>
         <v>0</v>
       </c>
       <c r="N65" s="16">
-        <f>'MC3PO Sample'!M20</f>
+        <f>'MC3PO Sample'!M18</f>
         <v>0</v>
       </c>
       <c r="O65" s="16">
-        <f>'MC3PO Sample'!N20</f>
+        <f>'MC3PO Sample'!N18</f>
         <v>0</v>
       </c>
       <c r="P65" s="16">
-        <f>'MC3PO Sample'!O20</f>
+        <f>'MC3PO Sample'!O18</f>
         <v>0</v>
       </c>
       <c r="Q65" s="16">
-        <f>'MC3PO Sample'!P20</f>
+        <f>'MC3PO Sample'!P18</f>
         <v>0</v>
       </c>
       <c r="R65" s="16">
-        <f>'MC3PO Sample'!Q20</f>
+        <f>'MC3PO Sample'!Q18</f>
         <v>0</v>
       </c>
     </row>
@@ -13805,71 +13852,71 @@
         <v>21</v>
       </c>
       <c r="B66" s="16" t="str">
-        <f>'MC3PO Sample'!A21</f>
+        <f>'MC3PO Sample'!A19</f>
         <v>A0665</v>
       </c>
       <c r="C66" s="15">
-        <f>'MC3PO Sample'!B21</f>
-        <v>36974</v>
+        <f>'MC3PO Sample'!B19</f>
+        <v>36858</v>
       </c>
       <c r="D66" s="16">
-        <f>'MC3PO Sample'!C21</f>
+        <f>'MC3PO Sample'!C19</f>
         <v>0</v>
       </c>
       <c r="E66" s="16" t="str">
-        <f>'MC3PO Sample'!D21</f>
+        <f>'MC3PO Sample'!D19</f>
         <v>W-J-V</v>
       </c>
       <c r="F66" s="16" t="str">
-        <f>'MC3PO Sample'!E21</f>
+        <f>'MC3PO Sample'!E19</f>
         <v>wd</v>
       </c>
       <c r="G66" s="16" t="str">
-        <f>'MC3PO Sample'!F21</f>
-        <v>SUPA00045890</v>
+        <f>'MC3PO Sample'!F19</f>
+        <v>SUPA00026900</v>
       </c>
       <c r="H66" s="16" t="str">
-        <f>'MC3PO Sample'!G21</f>
-        <v>SUPA00045919</v>
+        <f>'MC3PO Sample'!G19</f>
+        <v>SUPA00026919</v>
       </c>
       <c r="I66" s="16">
-        <f>'MC3PO Sample'!H21</f>
-        <v>3</v>
+        <f>'MC3PO Sample'!H19</f>
+        <v>2</v>
       </c>
       <c r="J66" s="16">
-        <f>'MC3PO Sample'!I21</f>
+        <f>'MC3PO Sample'!I19</f>
         <v>360</v>
       </c>
       <c r="K66" s="96">
-        <f>'MC3PO Sample'!J21</f>
-        <v>18</v>
+        <f>'MC3PO Sample'!J19</f>
+        <v>12</v>
       </c>
       <c r="L66" s="16">
-        <f>'MC3PO Sample'!K21</f>
+        <f>'MC3PO Sample'!K19</f>
         <v>0</v>
       </c>
       <c r="M66" s="16">
-        <f>'MC3PO Sample'!L21</f>
+        <f>'MC3PO Sample'!L19</f>
         <v>0</v>
       </c>
       <c r="N66" s="16">
-        <f>'MC3PO Sample'!M21</f>
+        <f>'MC3PO Sample'!M19</f>
         <v>0</v>
       </c>
       <c r="O66" s="16">
-        <f>'MC3PO Sample'!N21</f>
+        <f>'MC3PO Sample'!N19</f>
         <v>0</v>
       </c>
       <c r="P66" s="16">
-        <f>'MC3PO Sample'!O21</f>
+        <f>'MC3PO Sample'!O19</f>
         <v>0</v>
       </c>
       <c r="Q66" s="16">
-        <f>'MC3PO Sample'!P21</f>
+        <f>'MC3PO Sample'!P19</f>
         <v>0</v>
       </c>
       <c r="R66" s="16">
-        <f>'MC3PO Sample'!Q21</f>
+        <f>'MC3PO Sample'!Q19</f>
         <v>0</v>
       </c>
     </row>
@@ -13878,71 +13925,71 @@
         <v>21</v>
       </c>
       <c r="B67" s="16" t="str">
-        <f>'MC3PO Sample'!A22</f>
+        <f>'MC3PO Sample'!A20</f>
         <v>A0665</v>
       </c>
       <c r="C67" s="15">
-        <f>'MC3PO Sample'!B22</f>
-        <v>39901</v>
+        <f>'MC3PO Sample'!B20</f>
+        <v>36974</v>
       </c>
       <c r="D67" s="16">
-        <f>'MC3PO Sample'!C22</f>
+        <f>'MC3PO Sample'!C20</f>
         <v>0</v>
       </c>
       <c r="E67" s="16" t="str">
-        <f>'MC3PO Sample'!D22</f>
+        <f>'MC3PO Sample'!D20</f>
         <v>W-S-I+</v>
       </c>
       <c r="F67" s="16" t="str">
-        <f>'MC3PO Sample'!E22</f>
+        <f>'MC3PO Sample'!E20</f>
         <v>wd</v>
       </c>
       <c r="G67" s="16" t="str">
-        <f>'MC3PO Sample'!F22</f>
-        <v>SUPA01084300</v>
+        <f>'MC3PO Sample'!F20</f>
+        <v>SUPA00045790</v>
       </c>
       <c r="H67" s="16" t="str">
-        <f>'MC3PO Sample'!G22</f>
-        <v>SUPA01084389</v>
+        <f>'MC3PO Sample'!G20</f>
+        <v>SUPA00045809</v>
       </c>
       <c r="I67" s="16">
-        <f>'MC3PO Sample'!H22</f>
-        <v>9</v>
+        <f>'MC3PO Sample'!H20</f>
+        <v>2</v>
       </c>
       <c r="J67" s="16">
-        <f>'MC3PO Sample'!I22</f>
+        <f>'MC3PO Sample'!I20</f>
         <v>240</v>
       </c>
       <c r="K67" s="96">
-        <f>'MC3PO Sample'!J22</f>
-        <v>36</v>
+        <f>'MC3PO Sample'!J20</f>
+        <v>8</v>
       </c>
       <c r="L67" s="16">
-        <f>'MC3PO Sample'!K22</f>
+        <f>'MC3PO Sample'!K20</f>
         <v>0</v>
       </c>
       <c r="M67" s="16">
-        <f>'MC3PO Sample'!L22</f>
+        <f>'MC3PO Sample'!L20</f>
         <v>0</v>
       </c>
       <c r="N67" s="16">
-        <f>'MC3PO Sample'!M22</f>
+        <f>'MC3PO Sample'!M20</f>
         <v>0</v>
       </c>
       <c r="O67" s="16">
-        <f>'MC3PO Sample'!N22</f>
+        <f>'MC3PO Sample'!N20</f>
         <v>0</v>
       </c>
       <c r="P67" s="16">
-        <f>'MC3PO Sample'!O22</f>
+        <f>'MC3PO Sample'!O20</f>
         <v>0</v>
       </c>
       <c r="Q67" s="16">
-        <f>'MC3PO Sample'!P22</f>
+        <f>'MC3PO Sample'!P20</f>
         <v>0</v>
       </c>
       <c r="R67" s="16">
-        <f>'MC3PO Sample'!Q22</f>
+        <f>'MC3PO Sample'!Q20</f>
         <v>0</v>
       </c>
     </row>
@@ -13951,212 +13998,270 @@
         <v>21</v>
       </c>
       <c r="B68" s="16" t="str">
+        <f>'MC3PO Sample'!A21</f>
+        <v>A0665</v>
+      </c>
+      <c r="C68" s="15">
+        <f>'MC3PO Sample'!B21</f>
+        <v>36974</v>
+      </c>
+      <c r="D68" s="16">
+        <f>'MC3PO Sample'!C21</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="16" t="str">
+        <f>'MC3PO Sample'!D21</f>
+        <v>W-J-V</v>
+      </c>
+      <c r="F68" s="16" t="str">
+        <f>'MC3PO Sample'!E21</f>
+        <v>wd</v>
+      </c>
+      <c r="G68" s="16" t="str">
+        <f>'MC3PO Sample'!F21</f>
+        <v>SUPA00045890</v>
+      </c>
+      <c r="H68" s="16" t="str">
+        <f>'MC3PO Sample'!G21</f>
+        <v>SUPA00045919</v>
+      </c>
+      <c r="I68" s="16">
+        <f>'MC3PO Sample'!H21</f>
+        <v>3</v>
+      </c>
+      <c r="J68" s="16">
+        <f>'MC3PO Sample'!I21</f>
+        <v>360</v>
+      </c>
+      <c r="K68" s="96">
+        <f>'MC3PO Sample'!J21</f>
+        <v>18</v>
+      </c>
+      <c r="L68" s="16">
+        <f>'MC3PO Sample'!K21</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="16">
+        <f>'MC3PO Sample'!L21</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="16">
+        <f>'MC3PO Sample'!M21</f>
+        <v>0</v>
+      </c>
+      <c r="O68" s="16">
+        <f>'MC3PO Sample'!N21</f>
+        <v>0</v>
+      </c>
+      <c r="P68" s="16">
+        <f>'MC3PO Sample'!O21</f>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="16">
+        <f>'MC3PO Sample'!P21</f>
+        <v>0</v>
+      </c>
+      <c r="R68" s="16">
+        <f>'MC3PO Sample'!Q21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A69" s="16">
+        <v>21</v>
+      </c>
+      <c r="B69" s="16" t="str">
+        <f>'MC3PO Sample'!A22</f>
+        <v>A0665</v>
+      </c>
+      <c r="C69" s="15">
+        <f>'MC3PO Sample'!B22</f>
+        <v>39901</v>
+      </c>
+      <c r="D69" s="16">
+        <f>'MC3PO Sample'!C22</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="16" t="str">
+        <f>'MC3PO Sample'!D22</f>
+        <v>W-S-I+</v>
+      </c>
+      <c r="F69" s="16" t="str">
+        <f>'MC3PO Sample'!E22</f>
+        <v>wd</v>
+      </c>
+      <c r="G69" s="16" t="str">
+        <f>'MC3PO Sample'!F22</f>
+        <v>SUPA01084300</v>
+      </c>
+      <c r="H69" s="16" t="str">
+        <f>'MC3PO Sample'!G22</f>
+        <v>SUPA01084389</v>
+      </c>
+      <c r="I69" s="16">
+        <f>'MC3PO Sample'!H22</f>
+        <v>9</v>
+      </c>
+      <c r="J69" s="16">
+        <f>'MC3PO Sample'!I22</f>
+        <v>240</v>
+      </c>
+      <c r="K69" s="96">
+        <f>'MC3PO Sample'!J22</f>
+        <v>36</v>
+      </c>
+      <c r="L69" s="16">
+        <f>'MC3PO Sample'!K22</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="16">
+        <f>'MC3PO Sample'!L22</f>
+        <v>0</v>
+      </c>
+      <c r="N69" s="16">
+        <f>'MC3PO Sample'!M22</f>
+        <v>0</v>
+      </c>
+      <c r="O69" s="16">
+        <f>'MC3PO Sample'!N22</f>
+        <v>0</v>
+      </c>
+      <c r="P69" s="16">
+        <f>'MC3PO Sample'!O22</f>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="16">
+        <f>'MC3PO Sample'!P22</f>
+        <v>0</v>
+      </c>
+      <c r="R69" s="16">
+        <f>'MC3PO Sample'!Q22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A70" s="16">
+        <v>21</v>
+      </c>
+      <c r="B70" s="16" t="str">
         <f>'MC3PO Sample'!A23</f>
         <v>A0665</v>
       </c>
-      <c r="C68" s="15">
+      <c r="C70" s="15">
         <f>'MC3PO Sample'!B23</f>
         <v>39901</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D70" s="16">
         <f>'MC3PO Sample'!C23</f>
         <v>0</v>
       </c>
-      <c r="E68" s="16" t="str">
+      <c r="E70" s="16" t="str">
         <f>'MC3PO Sample'!D23</f>
         <v>W-J-V</v>
       </c>
-      <c r="F68" s="16" t="str">
+      <c r="F70" s="16" t="str">
         <f>'MC3PO Sample'!E23</f>
         <v>wd</v>
       </c>
-      <c r="G68" s="16" t="str">
+      <c r="G70" s="16" t="str">
         <f>'MC3PO Sample'!F23</f>
         <v>SUPA01084390</v>
       </c>
-      <c r="H68" s="16" t="str">
+      <c r="H70" s="16" t="str">
         <f>'MC3PO Sample'!G23</f>
         <v>SUPA01084439</v>
       </c>
-      <c r="I68" s="16">
+      <c r="I70" s="16">
         <f>'MC3PO Sample'!H23</f>
         <v>5</v>
       </c>
-      <c r="J68" s="16">
+      <c r="J70" s="16">
         <f>'MC3PO Sample'!I23</f>
         <v>240</v>
       </c>
-      <c r="K68" s="96">
+      <c r="K70" s="96">
         <f>'MC3PO Sample'!J23</f>
         <v>20</v>
       </c>
-      <c r="L68" s="16">
+      <c r="L70" s="16">
         <f>'MC3PO Sample'!K23</f>
         <v>0</v>
       </c>
-      <c r="M68" s="16">
+      <c r="M70" s="16">
         <f>'MC3PO Sample'!L23</f>
         <v>0</v>
       </c>
-      <c r="N68" s="16">
+      <c r="N70" s="16">
         <f>'MC3PO Sample'!M23</f>
         <v>0</v>
       </c>
-      <c r="O68" s="16">
+      <c r="O70" s="16">
         <f>'MC3PO Sample'!N23</f>
         <v>0</v>
       </c>
-      <c r="P68" s="16">
+      <c r="P70" s="16">
         <f>'MC3PO Sample'!O23</f>
         <v>0</v>
       </c>
-      <c r="Q68" s="16">
+      <c r="Q70" s="16">
         <f>'MC3PO Sample'!P23</f>
         <v>0</v>
       </c>
-      <c r="R68" s="16">
+      <c r="R70" s="16">
         <f>'MC3PO Sample'!Q23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A69" s="76">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71" s="76">
         <v>22</v>
       </c>
-      <c r="B69" s="76" t="s">
+      <c r="B71" s="76" t="s">
         <v>412</v>
       </c>
-      <c r="C69" s="77"/>
-      <c r="D69" s="76"/>
-      <c r="E69" s="76"/>
-      <c r="F69" s="76"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="76"/>
-      <c r="I69" s="76"/>
-      <c r="J69" s="76"/>
-      <c r="K69" s="78"/>
-      <c r="L69" s="76"/>
-      <c r="M69" s="76"/>
-      <c r="N69" s="76"/>
-      <c r="O69" s="76"/>
-      <c r="P69" s="76"/>
-      <c r="Q69" s="76"/>
-      <c r="R69" s="76" t="s">
+      <c r="C71" s="77"/>
+      <c r="D71" s="76"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="76"/>
+      <c r="G71" s="76"/>
+      <c r="H71" s="76"/>
+      <c r="I71" s="76"/>
+      <c r="J71" s="76"/>
+      <c r="K71" s="78"/>
+      <c r="L71" s="76"/>
+      <c r="M71" s="76"/>
+      <c r="N71" s="76"/>
+      <c r="O71" s="76"/>
+      <c r="P71" s="76"/>
+      <c r="Q71" s="76"/>
+      <c r="R71" s="76" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A70" s="101">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A72" s="101">
         <v>23</v>
       </c>
-      <c r="B70" s="101" t="s">
+      <c r="B72" s="101" t="s">
         <v>413</v>
       </c>
-      <c r="C70" s="102"/>
-      <c r="D70" s="101"/>
-      <c r="E70" s="101"/>
-      <c r="F70" s="101"/>
-      <c r="G70" s="101"/>
-      <c r="H70" s="101"/>
-      <c r="I70" s="101"/>
-      <c r="J70" s="101"/>
-      <c r="K70" s="103"/>
-      <c r="L70" s="101"/>
-      <c r="M70" s="101"/>
-      <c r="N70" s="101"/>
-      <c r="O70" s="101"/>
-      <c r="P70" s="101"/>
-      <c r="Q70" s="101"/>
-      <c r="R70" s="101" t="s">
+      <c r="C72" s="102"/>
+      <c r="D72" s="101"/>
+      <c r="E72" s="101"/>
+      <c r="F72" s="101"/>
+      <c r="G72" s="101"/>
+      <c r="H72" s="101"/>
+      <c r="I72" s="101"/>
+      <c r="J72" s="101"/>
+      <c r="K72" s="103"/>
+      <c r="L72" s="101"/>
+      <c r="M72" s="101"/>
+      <c r="N72" s="101"/>
+      <c r="O72" s="101"/>
+      <c r="P72" s="101"/>
+      <c r="Q72" s="101"/>
+      <c r="R72" s="101" t="s">
         <v>454</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A71" s="8">
-        <v>24</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="C71" s="7">
-        <v>36886</v>
-      </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="I71" s="8">
-        <f>(RIGHT(H71,LEN(H71)-4)-RIGHT(G71,LEN(G71)-4)+1)/10</f>
-        <v>6</v>
-      </c>
-      <c r="J71" s="8">
-        <v>240</v>
-      </c>
-      <c r="K71" s="66">
-        <f t="shared" ref="K71:K93" si="8">I71*J71/60</f>
-        <v>24</v>
-      </c>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A72" s="8">
-        <v>24</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="C72" s="7">
-        <v>36886</v>
-      </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="I72" s="8">
-        <f t="shared" ref="I72:I93" si="9">(RIGHT(H72,LEN(H72)-4)-RIGHT(G72,LEN(G72)-4)+1)/10</f>
-        <v>4</v>
-      </c>
-      <c r="J72" s="8">
-        <v>480</v>
-      </c>
-      <c r="K72" s="66">
-        <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
@@ -14167,40 +14272,38 @@
         <v>414</v>
       </c>
       <c r="C73" s="7">
-        <v>36887</v>
+        <v>36886</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="I73" s="8">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f>(RIGHT(H73,LEN(H73)-4)-RIGHT(G73,LEN(G73)-4)+1)/10</f>
+        <v>6</v>
       </c>
       <c r="J73" s="8">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="K73" s="66">
-        <f t="shared" si="8"/>
-        <v>40</v>
+        <f t="shared" ref="K73:K95" si="8">I73*J73/60</f>
+        <v>24</v>
       </c>
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
       <c r="P73" s="8"/>
-      <c r="Q73" s="8" t="s">
-        <v>650</v>
-      </c>
+      <c r="Q73" s="8"/>
       <c r="R73" s="8" t="s">
         <v>373</v>
       </c>
@@ -14213,31 +14316,31 @@
         <v>414</v>
       </c>
       <c r="C74" s="7">
-        <v>37738</v>
+        <v>36886</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F74" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="I74" s="8">
-        <f t="shared" si="9"/>
-        <v>9</v>
+        <f t="shared" ref="I74:I95" si="9">(RIGHT(H74,LEN(H74)-4)-RIGHT(G74,LEN(G74)-4)+1)/10</f>
+        <v>4</v>
       </c>
       <c r="J74" s="8">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="K74" s="66">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
@@ -14246,7 +14349,7 @@
       <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
       <c r="R74" s="8" t="s">
-        <v>320</v>
+        <v>373</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
@@ -14257,7 +14360,7 @@
         <v>414</v>
       </c>
       <c r="C75" s="7">
-        <v>38416</v>
+        <v>36887</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8" t="s">
@@ -14267,30 +14370,32 @@
         <v>12</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="I75" s="8">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J75" s="8">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="K75" s="66">
         <f t="shared" si="8"/>
-        <v>7.5</v>
+        <v>40</v>
       </c>
       <c r="L75" s="8"/>
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
       <c r="O75" s="8"/>
       <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
+      <c r="Q75" s="8" t="s">
+        <v>650</v>
+      </c>
       <c r="R75" s="8" t="s">
-        <v>558</v>
+        <v>373</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
@@ -14301,7 +14406,7 @@
         <v>414</v>
       </c>
       <c r="C76" s="7">
-        <v>38416</v>
+        <v>37738</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8" t="s">
@@ -14311,21 +14416,21 @@
         <v>12</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="I76" s="8">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J76" s="8">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K76" s="66">
         <f t="shared" si="8"/>
-        <v>7.5</v>
+        <v>27</v>
       </c>
       <c r="L76" s="8"/>
       <c r="M76" s="8"/>
@@ -14334,7 +14439,7 @@
       <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
       <c r="R76" s="8" t="s">
-        <v>558</v>
+        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
@@ -14345,20 +14450,20 @@
         <v>414</v>
       </c>
       <c r="C77" s="7">
-        <v>38417</v>
+        <v>38416</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="I77" s="8">
         <f t="shared" si="9"/>
@@ -14378,7 +14483,7 @@
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
       <c r="R77" s="8" t="s">
-        <v>318</v>
+        <v>558</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
@@ -14389,20 +14494,20 @@
         <v>414</v>
       </c>
       <c r="C78" s="7">
-        <v>38417</v>
+        <v>38416</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I78" s="8">
         <f t="shared" si="9"/>
@@ -14422,7 +14527,7 @@
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
       <c r="R78" s="8" t="s">
-        <v>318</v>
+        <v>558</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
@@ -14433,31 +14538,31 @@
         <v>414</v>
       </c>
       <c r="C79" s="7">
-        <v>38686</v>
+        <v>38417</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F79" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="I79" s="8">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J79" s="8">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="K79" s="66">
         <f t="shared" si="8"/>
-        <v>36</v>
+        <v>7.5</v>
       </c>
       <c r="L79" s="8"/>
       <c r="M79" s="8"/>
@@ -14466,7 +14571,7 @@
       <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
       <c r="R79" s="8" t="s">
-        <v>557</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
@@ -14477,31 +14582,31 @@
         <v>414</v>
       </c>
       <c r="C80" s="7">
-        <v>38686</v>
+        <v>38417</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="F80" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="I80" s="8">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J80" s="8">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="K80" s="66">
         <f t="shared" si="8"/>
-        <v>24</v>
+        <v>7.5</v>
       </c>
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
@@ -14510,95 +14615,95 @@
       <c r="P80" s="8"/>
       <c r="Q80" s="8"/>
       <c r="R80" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A81" s="8">
+        <v>24</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C81" s="7">
+        <v>38686</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="I81" s="8">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="J81" s="8">
+        <v>360</v>
+      </c>
+      <c r="K81" s="66">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="8"/>
+      <c r="R81" s="8" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A81" s="10">
-        <v>25</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="C81" s="9">
-        <v>38453</v>
-      </c>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="H81" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="I81" s="10">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A82" s="8">
+        <v>24</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C82" s="7">
+        <v>38686</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="I82" s="8">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="J81" s="10">
-        <v>180</v>
-      </c>
-      <c r="K81" s="60">
+        <v>6</v>
+      </c>
+      <c r="J82" s="8">
+        <v>240</v>
+      </c>
+      <c r="K82" s="66">
         <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="L81" s="10"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="10"/>
-      <c r="O81" s="10"/>
-      <c r="P81" s="10"/>
-      <c r="Q81" s="10"/>
-      <c r="R81" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A82" s="10">
-        <v>25</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="C82" s="9">
-        <v>38453</v>
-      </c>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="H82" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="I82" s="10">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="J82" s="10">
-        <v>360</v>
-      </c>
-      <c r="K82" s="60">
-        <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
-      <c r="O82" s="10"/>
-      <c r="P82" s="10"/>
-      <c r="Q82" s="10"/>
-      <c r="R82" s="10" t="s">
-        <v>224</v>
+        <v>24</v>
+      </c>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="8"/>
+      <c r="R82" s="8" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
@@ -14609,31 +14714,31 @@
         <v>415</v>
       </c>
       <c r="C83" s="9">
-        <v>39195</v>
+        <v>38453</v>
       </c>
       <c r="D83" s="10"/>
       <c r="E83" s="10" t="s">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="I83" s="10">
         <f t="shared" si="9"/>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J83" s="10">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K83" s="60">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="L83" s="10"/>
       <c r="M83" s="10"/>
@@ -14642,7 +14747,7 @@
       <c r="P83" s="10"/>
       <c r="Q83" s="10"/>
       <c r="R83" s="10" t="s">
-        <v>586</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
@@ -14653,31 +14758,31 @@
         <v>415</v>
       </c>
       <c r="C84" s="9">
-        <v>39251</v>
+        <v>38453</v>
       </c>
       <c r="D84" s="10"/>
       <c r="E84" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="I84" s="10">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J84" s="10">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K84" s="60">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="L84" s="10"/>
       <c r="M84" s="10"/>
@@ -14686,7 +14791,7 @@
       <c r="P84" s="10"/>
       <c r="Q84" s="10"/>
       <c r="R84" s="10" t="s">
-        <v>587</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
@@ -14697,42 +14802,40 @@
         <v>415</v>
       </c>
       <c r="C85" s="9">
-        <v>39251</v>
+        <v>39195</v>
       </c>
       <c r="D85" s="10"/>
       <c r="E85" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="I85" s="10">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J85" s="10">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K85" s="60">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L85" s="10"/>
       <c r="M85" s="10"/>
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
-      <c r="Q85" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q85" s="10"/>
       <c r="R85" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
@@ -14743,7 +14846,7 @@
         <v>415</v>
       </c>
       <c r="C86" s="9">
-        <v>39277</v>
+        <v>39251</v>
       </c>
       <c r="D86" s="10"/>
       <c r="E86" s="10" t="s">
@@ -14753,21 +14856,21 @@
         <v>12</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="I86" s="10">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J86" s="10">
         <v>600</v>
       </c>
       <c r="K86" s="60">
         <f t="shared" si="8"/>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="L86" s="10"/>
       <c r="M86" s="10"/>
@@ -14776,7 +14879,7 @@
       <c r="P86" s="10"/>
       <c r="Q86" s="10"/>
       <c r="R86" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
@@ -14787,7 +14890,7 @@
         <v>415</v>
       </c>
       <c r="C87" s="9">
-        <v>39277</v>
+        <v>39251</v>
       </c>
       <c r="D87" s="10"/>
       <c r="E87" s="10" t="s">
@@ -14797,30 +14900,32 @@
         <v>12</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="I87" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J87" s="10">
         <v>500</v>
       </c>
       <c r="K87" s="60">
         <f t="shared" si="8"/>
-        <v>8.3333333333333339</v>
+        <v>100</v>
       </c>
       <c r="L87" s="10"/>
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
-      <c r="Q87" s="10"/>
+      <c r="Q87" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="R87" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
@@ -14831,7 +14936,7 @@
         <v>415</v>
       </c>
       <c r="C88" s="9">
-        <v>39278</v>
+        <v>39277</v>
       </c>
       <c r="D88" s="10"/>
       <c r="E88" s="10" t="s">
@@ -14841,21 +14946,21 @@
         <v>12</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="I88" s="10">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J88" s="10">
         <v>600</v>
       </c>
       <c r="K88" s="60">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="L88" s="10"/>
       <c r="M88" s="10"/>
@@ -14864,7 +14969,7 @@
       <c r="P88" s="10"/>
       <c r="Q88" s="10"/>
       <c r="R88" s="10" t="s">
-        <v>534</v>
+        <v>588</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
@@ -14875,7 +14980,7 @@
         <v>415</v>
       </c>
       <c r="C89" s="9">
-        <v>39280</v>
+        <v>39277</v>
       </c>
       <c r="D89" s="10"/>
       <c r="E89" s="10" t="s">
@@ -14885,21 +14990,21 @@
         <v>12</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="I89" s="10">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J89" s="10">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="K89" s="60">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="L89" s="10"/>
       <c r="M89" s="10"/>
@@ -14908,7 +15013,7 @@
       <c r="P89" s="10"/>
       <c r="Q89" s="10"/>
       <c r="R89" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
@@ -14919,7 +15024,7 @@
         <v>415</v>
       </c>
       <c r="C90" s="9">
-        <v>39545</v>
+        <v>39278</v>
       </c>
       <c r="D90" s="10"/>
       <c r="E90" s="10" t="s">
@@ -14929,21 +15034,21 @@
         <v>12</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="I90" s="10">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="J90" s="10">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K90" s="60">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L90" s="10"/>
       <c r="M90" s="10"/>
@@ -14952,7 +15057,7 @@
       <c r="P90" s="10"/>
       <c r="Q90" s="10"/>
       <c r="R90" s="10" t="s">
-        <v>198</v>
+        <v>534</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
@@ -14963,31 +15068,31 @@
         <v>415</v>
       </c>
       <c r="C91" s="9">
-        <v>39545</v>
+        <v>39280</v>
       </c>
       <c r="D91" s="10"/>
       <c r="E91" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="I91" s="10">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J91" s="10">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K91" s="60">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="L91" s="10"/>
       <c r="M91" s="10"/>
@@ -14996,7 +15101,7 @@
       <c r="P91" s="10"/>
       <c r="Q91" s="10"/>
       <c r="R91" s="10" t="s">
-        <v>198</v>
+        <v>589</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
@@ -15007,31 +15112,31 @@
         <v>415</v>
       </c>
       <c r="C92" s="9">
-        <v>41115</v>
+        <v>39545</v>
       </c>
       <c r="D92" s="10"/>
       <c r="E92" s="10" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="I92" s="10">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J92" s="10">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="K92" s="60">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L92" s="10"/>
       <c r="M92" s="10"/>
@@ -15040,7 +15145,7 @@
       <c r="P92" s="10"/>
       <c r="Q92" s="10"/>
       <c r="R92" s="10" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
@@ -15051,7 +15156,7 @@
         <v>415</v>
       </c>
       <c r="C93" s="9">
-        <v>41434</v>
+        <v>39545</v>
       </c>
       <c r="D93" s="10"/>
       <c r="E93" s="10" t="s">
@@ -15061,21 +15166,21 @@
         <v>12</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="I93" s="10">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J93" s="10">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K93" s="60">
         <f t="shared" si="8"/>
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="L93" s="10"/>
       <c r="M93" s="10"/>
@@ -15084,153 +15189,95 @@
       <c r="P93" s="10"/>
       <c r="Q93" s="10"/>
       <c r="R93" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A94" s="10">
+        <v>25</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C94" s="9">
+        <v>41115</v>
+      </c>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="I94" s="10">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="J94" s="10">
+        <v>180</v>
+      </c>
+      <c r="K94" s="60">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="10"/>
+      <c r="Q94" s="10"/>
+      <c r="R94" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A95" s="10">
+        <v>25</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C95" s="9">
+        <v>41434</v>
+      </c>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="I95" s="10">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="J95" s="10">
+        <v>240</v>
+      </c>
+      <c r="K95" s="60">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="10"/>
+      <c r="P95" s="10"/>
+      <c r="Q95" s="10"/>
+      <c r="R95" s="10" t="s">
         <v>585</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A94" s="12">
-        <v>26</v>
-      </c>
-      <c r="B94" s="12" t="str">
-        <f>'MC3PO Sample'!A40</f>
-        <v>A1763</v>
-      </c>
-      <c r="C94" s="11">
-        <f>'MC3PO Sample'!B40</f>
-        <v>39900</v>
-      </c>
-      <c r="D94" s="12">
-        <f>'MC3PO Sample'!C40</f>
-        <v>0</v>
-      </c>
-      <c r="E94" s="12" t="str">
-        <f>'MC3PO Sample'!D40</f>
-        <v>W-S-I+</v>
-      </c>
-      <c r="F94" s="12" t="str">
-        <f>'MC3PO Sample'!E40</f>
-        <v>wd</v>
-      </c>
-      <c r="G94" s="12" t="str">
-        <f>'MC3PO Sample'!F40</f>
-        <v>SUPA01083190</v>
-      </c>
-      <c r="H94" s="12" t="str">
-        <f>'MC3PO Sample'!G40</f>
-        <v>SUPA01083209</v>
-      </c>
-      <c r="I94" s="12">
-        <f>'MC3PO Sample'!H40</f>
-        <v>2</v>
-      </c>
-      <c r="J94" s="12">
-        <f>'MC3PO Sample'!I40</f>
-        <v>240</v>
-      </c>
-      <c r="K94" s="91">
-        <f>'MC3PO Sample'!J40</f>
-        <v>8</v>
-      </c>
-      <c r="L94" s="12">
-        <f>'MC3PO Sample'!K40</f>
-        <v>0</v>
-      </c>
-      <c r="M94" s="12">
-        <f>'MC3PO Sample'!L40</f>
-        <v>0</v>
-      </c>
-      <c r="N94" s="12">
-        <f>'MC3PO Sample'!M40</f>
-        <v>0</v>
-      </c>
-      <c r="O94" s="12">
-        <f>'MC3PO Sample'!N40</f>
-        <v>0</v>
-      </c>
-      <c r="P94" s="12">
-        <f>'MC3PO Sample'!O40</f>
-        <v>0</v>
-      </c>
-      <c r="Q94" s="12">
-        <f>'MC3PO Sample'!P40</f>
-        <v>0</v>
-      </c>
-      <c r="R94" s="12" t="str">
-        <f>'MC3PO Sample'!Q40</f>
-        <v>(Sky) Thick Cirrus | (Seeing) 0.52 - 0.74</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A95" s="12">
-        <v>26</v>
-      </c>
-      <c r="B95" s="12" t="str">
-        <f>'MC3PO Sample'!A41</f>
-        <v>A1763</v>
-      </c>
-      <c r="C95" s="11">
-        <f>'MC3PO Sample'!B41</f>
-        <v>39900</v>
-      </c>
-      <c r="D95" s="12">
-        <f>'MC3PO Sample'!C41</f>
-        <v>0</v>
-      </c>
-      <c r="E95" s="12" t="str">
-        <f>'MC3PO Sample'!D41</f>
-        <v>W-J-V</v>
-      </c>
-      <c r="F95" s="12" t="str">
-        <f>'MC3PO Sample'!E41</f>
-        <v>wd</v>
-      </c>
-      <c r="G95" s="12" t="str">
-        <f>'MC3PO Sample'!F41</f>
-        <v>SUPA01083220</v>
-      </c>
-      <c r="H95" s="12" t="str">
-        <f>'MC3PO Sample'!G41</f>
-        <v>SUPA01083259</v>
-      </c>
-      <c r="I95" s="12">
-        <f>'MC3PO Sample'!H41</f>
-        <v>4</v>
-      </c>
-      <c r="J95" s="12">
-        <f>'MC3PO Sample'!I41</f>
-        <v>240</v>
-      </c>
-      <c r="K95" s="91">
-        <f>'MC3PO Sample'!J41</f>
-        <v>16</v>
-      </c>
-      <c r="L95" s="12">
-        <f>'MC3PO Sample'!K41</f>
-        <v>0</v>
-      </c>
-      <c r="M95" s="12">
-        <f>'MC3PO Sample'!L41</f>
-        <v>0</v>
-      </c>
-      <c r="N95" s="12">
-        <f>'MC3PO Sample'!M41</f>
-        <v>0</v>
-      </c>
-      <c r="O95" s="12">
-        <f>'MC3PO Sample'!N41</f>
-        <v>0</v>
-      </c>
-      <c r="P95" s="12">
-        <f>'MC3PO Sample'!O41</f>
-        <v>0</v>
-      </c>
-      <c r="Q95" s="12">
-        <f>'MC3PO Sample'!P41</f>
-        <v>0</v>
-      </c>
-      <c r="R95" s="12" t="str">
-        <f>'MC3PO Sample'!Q41</f>
-        <v>(Sky) Thick Cirrus | (Seeing) 0.52 - 0.75</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
@@ -15238,72 +15285,72 @@
         <v>26</v>
       </c>
       <c r="B96" s="12" t="str">
-        <f>'MC3PO Sample'!A42</f>
+        <f>'MC3PO Sample'!A40</f>
         <v>A1763</v>
       </c>
       <c r="C96" s="11">
-        <f>'MC3PO Sample'!B42</f>
-        <v>39901</v>
+        <f>'MC3PO Sample'!B40</f>
+        <v>39900</v>
       </c>
       <c r="D96" s="12">
-        <f>'MC3PO Sample'!C42</f>
+        <f>'MC3PO Sample'!C40</f>
         <v>0</v>
       </c>
       <c r="E96" s="12" t="str">
-        <f>'MC3PO Sample'!D42</f>
+        <f>'MC3PO Sample'!D40</f>
         <v>W-S-I+</v>
       </c>
       <c r="F96" s="12" t="str">
-        <f>'MC3PO Sample'!E42</f>
+        <f>'MC3PO Sample'!E40</f>
         <v>wd</v>
       </c>
       <c r="G96" s="12" t="str">
-        <f>'MC3PO Sample'!F42</f>
-        <v>SUPA01085020</v>
+        <f>'MC3PO Sample'!F40</f>
+        <v>SUPA01083190</v>
       </c>
       <c r="H96" s="12" t="str">
-        <f>'MC3PO Sample'!G42</f>
-        <v>SUPA01085089</v>
+        <f>'MC3PO Sample'!G40</f>
+        <v>SUPA01083209</v>
       </c>
       <c r="I96" s="12">
-        <f>'MC3PO Sample'!H42</f>
-        <v>7</v>
+        <f>'MC3PO Sample'!H40</f>
+        <v>2</v>
       </c>
       <c r="J96" s="12">
-        <f>'MC3PO Sample'!I42</f>
+        <f>'MC3PO Sample'!I40</f>
         <v>240</v>
       </c>
       <c r="K96" s="91">
-        <f>'MC3PO Sample'!J42</f>
-        <v>28</v>
+        <f>'MC3PO Sample'!J40</f>
+        <v>8</v>
       </c>
       <c r="L96" s="12">
-        <f>'MC3PO Sample'!K42</f>
+        <f>'MC3PO Sample'!K40</f>
         <v>0</v>
       </c>
       <c r="M96" s="12">
-        <f>'MC3PO Sample'!L42</f>
+        <f>'MC3PO Sample'!L40</f>
         <v>0</v>
       </c>
       <c r="N96" s="12">
-        <f>'MC3PO Sample'!M42</f>
+        <f>'MC3PO Sample'!M40</f>
         <v>0</v>
       </c>
       <c r="O96" s="12">
-        <f>'MC3PO Sample'!N42</f>
+        <f>'MC3PO Sample'!N40</f>
         <v>0</v>
       </c>
       <c r="P96" s="12">
-        <f>'MC3PO Sample'!O42</f>
+        <f>'MC3PO Sample'!O40</f>
         <v>0</v>
       </c>
       <c r="Q96" s="12">
-        <f>'MC3PO Sample'!P42</f>
+        <f>'MC3PO Sample'!P40</f>
         <v>0</v>
       </c>
       <c r="R96" s="12" t="str">
-        <f>'MC3PO Sample'!Q42</f>
-        <v>(Sky) Clear/Cirrus | (Seeing) 1.34</v>
+        <f>'MC3PO Sample'!Q40</f>
+        <v>(Sky) Thick Cirrus | (Seeing) 0.52 - 0.74</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.2">
@@ -15311,72 +15358,72 @@
         <v>26</v>
       </c>
       <c r="B97" s="12" t="str">
-        <f>'MC3PO Sample'!A43</f>
+        <f>'MC3PO Sample'!A41</f>
         <v>A1763</v>
       </c>
       <c r="C97" s="11">
-        <f>'MC3PO Sample'!B43</f>
-        <v>40251</v>
+        <f>'MC3PO Sample'!B41</f>
+        <v>39900</v>
       </c>
       <c r="D97" s="12">
-        <f>'MC3PO Sample'!C43</f>
+        <f>'MC3PO Sample'!C41</f>
         <v>0</v>
       </c>
       <c r="E97" s="12" t="str">
-        <f>'MC3PO Sample'!D43</f>
+        <f>'MC3PO Sample'!D41</f>
         <v>W-J-V</v>
       </c>
       <c r="F97" s="12" t="str">
-        <f>'MC3PO Sample'!E43</f>
+        <f>'MC3PO Sample'!E41</f>
         <v>wd</v>
       </c>
       <c r="G97" s="12" t="str">
-        <f>'MC3PO Sample'!F43</f>
-        <v>SUPA01196120</v>
+        <f>'MC3PO Sample'!F41</f>
+        <v>SUPA01083220</v>
       </c>
       <c r="H97" s="12" t="str">
-        <f>'MC3PO Sample'!G43</f>
-        <v>SUPA01196189</v>
+        <f>'MC3PO Sample'!G41</f>
+        <v>SUPA01083259</v>
       </c>
       <c r="I97" s="12">
-        <f>'MC3PO Sample'!H43</f>
-        <v>7</v>
+        <f>'MC3PO Sample'!H41</f>
+        <v>4</v>
       </c>
       <c r="J97" s="12">
-        <f>'MC3PO Sample'!I43</f>
+        <f>'MC3PO Sample'!I41</f>
         <v>240</v>
       </c>
       <c r="K97" s="91">
-        <f>'MC3PO Sample'!J43</f>
-        <v>28</v>
+        <f>'MC3PO Sample'!J41</f>
+        <v>16</v>
       </c>
       <c r="L97" s="12">
-        <f>'MC3PO Sample'!K43</f>
+        <f>'MC3PO Sample'!K41</f>
         <v>0</v>
       </c>
       <c r="M97" s="12">
-        <f>'MC3PO Sample'!L43</f>
+        <f>'MC3PO Sample'!L41</f>
         <v>0</v>
       </c>
       <c r="N97" s="12">
-        <f>'MC3PO Sample'!M43</f>
+        <f>'MC3PO Sample'!M41</f>
         <v>0</v>
       </c>
       <c r="O97" s="12">
-        <f>'MC3PO Sample'!N43</f>
+        <f>'MC3PO Sample'!N41</f>
         <v>0</v>
       </c>
       <c r="P97" s="12">
-        <f>'MC3PO Sample'!O43</f>
+        <f>'MC3PO Sample'!O41</f>
         <v>0</v>
       </c>
       <c r="Q97" s="12">
-        <f>'MC3PO Sample'!P43</f>
+        <f>'MC3PO Sample'!P41</f>
         <v>0</v>
       </c>
       <c r="R97" s="12" t="str">
-        <f>'MC3PO Sample'!Q43</f>
-        <v>(Sky) Clear/Clouds | (Seeing) 1.06</v>
+        <f>'MC3PO Sample'!Q41</f>
+        <v>(Sky) Thick Cirrus | (Seeing) 0.52 - 0.75</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
@@ -15384,218 +15431,218 @@
         <v>26</v>
       </c>
       <c r="B98" s="12" t="str">
+        <f>'MC3PO Sample'!A42</f>
+        <v>A1763</v>
+      </c>
+      <c r="C98" s="11">
+        <f>'MC3PO Sample'!B42</f>
+        <v>39901</v>
+      </c>
+      <c r="D98" s="12">
+        <f>'MC3PO Sample'!C42</f>
+        <v>0</v>
+      </c>
+      <c r="E98" s="12" t="str">
+        <f>'MC3PO Sample'!D42</f>
+        <v>W-S-I+</v>
+      </c>
+      <c r="F98" s="12" t="str">
+        <f>'MC3PO Sample'!E42</f>
+        <v>wd</v>
+      </c>
+      <c r="G98" s="12" t="str">
+        <f>'MC3PO Sample'!F42</f>
+        <v>SUPA01085020</v>
+      </c>
+      <c r="H98" s="12" t="str">
+        <f>'MC3PO Sample'!G42</f>
+        <v>SUPA01085089</v>
+      </c>
+      <c r="I98" s="12">
+        <f>'MC3PO Sample'!H42</f>
+        <v>7</v>
+      </c>
+      <c r="J98" s="12">
+        <f>'MC3PO Sample'!I42</f>
+        <v>240</v>
+      </c>
+      <c r="K98" s="91">
+        <f>'MC3PO Sample'!J42</f>
+        <v>28</v>
+      </c>
+      <c r="L98" s="12">
+        <f>'MC3PO Sample'!K42</f>
+        <v>0</v>
+      </c>
+      <c r="M98" s="12">
+        <f>'MC3PO Sample'!L42</f>
+        <v>0</v>
+      </c>
+      <c r="N98" s="12">
+        <f>'MC3PO Sample'!M42</f>
+        <v>0</v>
+      </c>
+      <c r="O98" s="12">
+        <f>'MC3PO Sample'!N42</f>
+        <v>0</v>
+      </c>
+      <c r="P98" s="12">
+        <f>'MC3PO Sample'!O42</f>
+        <v>0</v>
+      </c>
+      <c r="Q98" s="12">
+        <f>'MC3PO Sample'!P42</f>
+        <v>0</v>
+      </c>
+      <c r="R98" s="12" t="str">
+        <f>'MC3PO Sample'!Q42</f>
+        <v>(Sky) Clear/Cirrus | (Seeing) 1.34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A99" s="12">
+        <v>26</v>
+      </c>
+      <c r="B99" s="12" t="str">
+        <f>'MC3PO Sample'!A43</f>
+        <v>A1763</v>
+      </c>
+      <c r="C99" s="11">
+        <f>'MC3PO Sample'!B43</f>
+        <v>40251</v>
+      </c>
+      <c r="D99" s="12">
+        <f>'MC3PO Sample'!C43</f>
+        <v>0</v>
+      </c>
+      <c r="E99" s="12" t="str">
+        <f>'MC3PO Sample'!D43</f>
+        <v>W-J-V</v>
+      </c>
+      <c r="F99" s="12" t="str">
+        <f>'MC3PO Sample'!E43</f>
+        <v>wd</v>
+      </c>
+      <c r="G99" s="12" t="str">
+        <f>'MC3PO Sample'!F43</f>
+        <v>SUPA01196120</v>
+      </c>
+      <c r="H99" s="12" t="str">
+        <f>'MC3PO Sample'!G43</f>
+        <v>SUPA01196189</v>
+      </c>
+      <c r="I99" s="12">
+        <f>'MC3PO Sample'!H43</f>
+        <v>7</v>
+      </c>
+      <c r="J99" s="12">
+        <f>'MC3PO Sample'!I43</f>
+        <v>240</v>
+      </c>
+      <c r="K99" s="91">
+        <f>'MC3PO Sample'!J43</f>
+        <v>28</v>
+      </c>
+      <c r="L99" s="12">
+        <f>'MC3PO Sample'!K43</f>
+        <v>0</v>
+      </c>
+      <c r="M99" s="12">
+        <f>'MC3PO Sample'!L43</f>
+        <v>0</v>
+      </c>
+      <c r="N99" s="12">
+        <f>'MC3PO Sample'!M43</f>
+        <v>0</v>
+      </c>
+      <c r="O99" s="12">
+        <f>'MC3PO Sample'!N43</f>
+        <v>0</v>
+      </c>
+      <c r="P99" s="12">
+        <f>'MC3PO Sample'!O43</f>
+        <v>0</v>
+      </c>
+      <c r="Q99" s="12">
+        <f>'MC3PO Sample'!P43</f>
+        <v>0</v>
+      </c>
+      <c r="R99" s="12" t="str">
+        <f>'MC3PO Sample'!Q43</f>
+        <v>(Sky) Clear/Clouds | (Seeing) 1.06</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A100" s="12">
+        <v>26</v>
+      </c>
+      <c r="B100" s="12" t="str">
         <f>'MC3PO Sample'!A44</f>
         <v>A1763</v>
       </c>
-      <c r="C98" s="11">
+      <c r="C100" s="11">
         <f>'MC3PO Sample'!B44</f>
         <v>40253</v>
       </c>
-      <c r="D98" s="12">
+      <c r="D100" s="12">
         <f>'MC3PO Sample'!C44</f>
         <v>0</v>
       </c>
-      <c r="E98" s="12" t="str">
+      <c r="E100" s="12" t="str">
         <f>'MC3PO Sample'!D44</f>
         <v>W-J-V</v>
       </c>
-      <c r="F98" s="12" t="str">
+      <c r="F100" s="12" t="str">
         <f>'MC3PO Sample'!E44</f>
         <v>wd</v>
       </c>
-      <c r="G98" s="12" t="str">
+      <c r="G100" s="12" t="str">
         <f>'MC3PO Sample'!F44</f>
         <v>SUPA01199350</v>
       </c>
-      <c r="H98" s="12" t="str">
+      <c r="H100" s="12" t="str">
         <f>'MC3PO Sample'!G44</f>
         <v>SUPA01199419</v>
       </c>
-      <c r="I98" s="12">
+      <c r="I100" s="12">
         <f>'MC3PO Sample'!H44</f>
         <v>7</v>
       </c>
-      <c r="J98" s="12">
+      <c r="J100" s="12">
         <f>'MC3PO Sample'!I44</f>
         <v>240</v>
       </c>
-      <c r="K98" s="91">
+      <c r="K100" s="91">
         <f>'MC3PO Sample'!J44</f>
         <v>28</v>
       </c>
-      <c r="L98" s="12">
+      <c r="L100" s="12">
         <f>'MC3PO Sample'!K44</f>
         <v>0</v>
       </c>
-      <c r="M98" s="12">
+      <c r="M100" s="12">
         <f>'MC3PO Sample'!L44</f>
         <v>0</v>
       </c>
-      <c r="N98" s="12">
+      <c r="N100" s="12">
         <f>'MC3PO Sample'!M44</f>
         <v>0</v>
       </c>
-      <c r="O98" s="12">
+      <c r="O100" s="12">
         <f>'MC3PO Sample'!N44</f>
         <v>0</v>
       </c>
-      <c r="P98" s="12">
+      <c r="P100" s="12">
         <f>'MC3PO Sample'!O44</f>
         <v>0</v>
       </c>
-      <c r="Q98" s="12">
+      <c r="Q100" s="12">
         <f>'MC3PO Sample'!P44</f>
         <v>0</v>
       </c>
-      <c r="R98" s="12" t="str">
+      <c r="R100" s="12" t="str">
         <f>'MC3PO Sample'!Q44</f>
         <v>(Sky) Clear | (Seeing) 0.64</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="14">
-        <v>27</v>
-      </c>
-      <c r="B99" s="14" t="str">
-        <f>'MC3PO Sample'!A69</f>
-        <v>A2813</v>
-      </c>
-      <c r="C99" s="13">
-        <f>'MC3PO Sample'!B69</f>
-        <v>40075</v>
-      </c>
-      <c r="D99" s="14">
-        <f>'MC3PO Sample'!C69</f>
-        <v>0</v>
-      </c>
-      <c r="E99" s="14" t="str">
-        <f>'MC3PO Sample'!D69</f>
-        <v>W-J-V</v>
-      </c>
-      <c r="F99" s="14" t="str">
-        <f>'MC3PO Sample'!E69</f>
-        <v>wd</v>
-      </c>
-      <c r="G99" s="14" t="str">
-        <f>'MC3PO Sample'!F69</f>
-        <v>SUPA01125860</v>
-      </c>
-      <c r="H99" s="14" t="str">
-        <f>'MC3PO Sample'!G69</f>
-        <v>SUPA01125929</v>
-      </c>
-      <c r="I99" s="14">
-        <f>'MC3PO Sample'!H69</f>
-        <v>7</v>
-      </c>
-      <c r="J99" s="14">
-        <f>'MC3PO Sample'!I69</f>
-        <v>240</v>
-      </c>
-      <c r="K99" s="95">
-        <f>'MC3PO Sample'!J69</f>
-        <v>28</v>
-      </c>
-      <c r="L99" s="14">
-        <f>'MC3PO Sample'!K69</f>
-        <v>0</v>
-      </c>
-      <c r="M99" s="14">
-        <f>'MC3PO Sample'!L69</f>
-        <v>0</v>
-      </c>
-      <c r="N99" s="14">
-        <f>'MC3PO Sample'!M69</f>
-        <v>0</v>
-      </c>
-      <c r="O99" s="14">
-        <f>'MC3PO Sample'!N69</f>
-        <v>0</v>
-      </c>
-      <c r="P99" s="14">
-        <f>'MC3PO Sample'!O69</f>
-        <v>0</v>
-      </c>
-      <c r="Q99" s="14">
-        <f>'MC3PO Sample'!P69</f>
-        <v>0</v>
-      </c>
-      <c r="R99" s="14" t="str">
-        <f>'MC3PO Sample'!Q69</f>
-        <v>(Sky) Clear | (Seeing) 0.63 - 0.95</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="14">
-        <v>27</v>
-      </c>
-      <c r="B100" s="14" t="str">
-        <f>'MC3PO Sample'!A70</f>
-        <v>A2813</v>
-      </c>
-      <c r="C100" s="13">
-        <f>'MC3PO Sample'!B70</f>
-        <v>40489</v>
-      </c>
-      <c r="D100" s="14">
-        <f>'MC3PO Sample'!C70</f>
-        <v>0</v>
-      </c>
-      <c r="E100" s="14" t="str">
-        <f>'MC3PO Sample'!D70</f>
-        <v>W-J-V</v>
-      </c>
-      <c r="F100" s="14" t="str">
-        <f>'MC3PO Sample'!E70</f>
-        <v>wd</v>
-      </c>
-      <c r="G100" s="14" t="str">
-        <f>'MC3PO Sample'!F70</f>
-        <v>SUPA01262770</v>
-      </c>
-      <c r="H100" s="14" t="str">
-        <f>'MC3PO Sample'!G70</f>
-        <v>SUPA01262839</v>
-      </c>
-      <c r="I100" s="14">
-        <f>'MC3PO Sample'!H70</f>
-        <v>7</v>
-      </c>
-      <c r="J100" s="14">
-        <f>'MC3PO Sample'!I70</f>
-        <v>240</v>
-      </c>
-      <c r="K100" s="95">
-        <f>'MC3PO Sample'!J70</f>
-        <v>28</v>
-      </c>
-      <c r="L100" s="14">
-        <f>'MC3PO Sample'!K70</f>
-        <v>0</v>
-      </c>
-      <c r="M100" s="14">
-        <f>'MC3PO Sample'!L70</f>
-        <v>0</v>
-      </c>
-      <c r="N100" s="14">
-        <f>'MC3PO Sample'!M70</f>
-        <v>0</v>
-      </c>
-      <c r="O100" s="14">
-        <f>'MC3PO Sample'!N70</f>
-        <v>0</v>
-      </c>
-      <c r="P100" s="14">
-        <f>'MC3PO Sample'!O70</f>
-        <v>0</v>
-      </c>
-      <c r="Q100" s="14">
-        <f>'MC3PO Sample'!P70</f>
-        <v>0</v>
-      </c>
-      <c r="R100" s="14" t="str">
-        <f>'MC3PO Sample'!Q70</f>
-        <v>(Sky) Clear | (Seeing) 0.39 - 0.60</v>
       </c>
     </row>
     <row r="101" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -15603,372 +15650,441 @@
         <v>27</v>
       </c>
       <c r="B101" s="14" t="str">
+        <f>'MC3PO Sample'!A69</f>
+        <v>A2813</v>
+      </c>
+      <c r="C101" s="13">
+        <f>'MC3PO Sample'!B69</f>
+        <v>40075</v>
+      </c>
+      <c r="D101" s="14">
+        <f>'MC3PO Sample'!C69</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="14" t="str">
+        <f>'MC3PO Sample'!D69</f>
+        <v>W-J-V</v>
+      </c>
+      <c r="F101" s="14" t="str">
+        <f>'MC3PO Sample'!E69</f>
+        <v>wd</v>
+      </c>
+      <c r="G101" s="14" t="str">
+        <f>'MC3PO Sample'!F69</f>
+        <v>SUPA01125860</v>
+      </c>
+      <c r="H101" s="14" t="str">
+        <f>'MC3PO Sample'!G69</f>
+        <v>SUPA01125929</v>
+      </c>
+      <c r="I101" s="14">
+        <f>'MC3PO Sample'!H69</f>
+        <v>7</v>
+      </c>
+      <c r="J101" s="14">
+        <f>'MC3PO Sample'!I69</f>
+        <v>240</v>
+      </c>
+      <c r="K101" s="95">
+        <f>'MC3PO Sample'!J69</f>
+        <v>28</v>
+      </c>
+      <c r="L101" s="14">
+        <f>'MC3PO Sample'!K69</f>
+        <v>0</v>
+      </c>
+      <c r="M101" s="14">
+        <f>'MC3PO Sample'!L69</f>
+        <v>0</v>
+      </c>
+      <c r="N101" s="14">
+        <f>'MC3PO Sample'!M69</f>
+        <v>0</v>
+      </c>
+      <c r="O101" s="14">
+        <f>'MC3PO Sample'!N69</f>
+        <v>0</v>
+      </c>
+      <c r="P101" s="14">
+        <f>'MC3PO Sample'!O69</f>
+        <v>0</v>
+      </c>
+      <c r="Q101" s="14">
+        <f>'MC3PO Sample'!P69</f>
+        <v>0</v>
+      </c>
+      <c r="R101" s="14" t="str">
+        <f>'MC3PO Sample'!Q69</f>
+        <v>(Sky) Clear | (Seeing) 0.63 - 0.95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="14">
+        <v>27</v>
+      </c>
+      <c r="B102" s="14" t="str">
+        <f>'MC3PO Sample'!A70</f>
+        <v>A2813</v>
+      </c>
+      <c r="C102" s="13">
+        <f>'MC3PO Sample'!B70</f>
+        <v>40489</v>
+      </c>
+      <c r="D102" s="14">
+        <f>'MC3PO Sample'!C70</f>
+        <v>0</v>
+      </c>
+      <c r="E102" s="14" t="str">
+        <f>'MC3PO Sample'!D70</f>
+        <v>W-J-V</v>
+      </c>
+      <c r="F102" s="14" t="str">
+        <f>'MC3PO Sample'!E70</f>
+        <v>wd</v>
+      </c>
+      <c r="G102" s="14" t="str">
+        <f>'MC3PO Sample'!F70</f>
+        <v>SUPA01262770</v>
+      </c>
+      <c r="H102" s="14" t="str">
+        <f>'MC3PO Sample'!G70</f>
+        <v>SUPA01262839</v>
+      </c>
+      <c r="I102" s="14">
+        <f>'MC3PO Sample'!H70</f>
+        <v>7</v>
+      </c>
+      <c r="J102" s="14">
+        <f>'MC3PO Sample'!I70</f>
+        <v>240</v>
+      </c>
+      <c r="K102" s="95">
+        <f>'MC3PO Sample'!J70</f>
+        <v>28</v>
+      </c>
+      <c r="L102" s="14">
+        <f>'MC3PO Sample'!K70</f>
+        <v>0</v>
+      </c>
+      <c r="M102" s="14">
+        <f>'MC3PO Sample'!L70</f>
+        <v>0</v>
+      </c>
+      <c r="N102" s="14">
+        <f>'MC3PO Sample'!M70</f>
+        <v>0</v>
+      </c>
+      <c r="O102" s="14">
+        <f>'MC3PO Sample'!N70</f>
+        <v>0</v>
+      </c>
+      <c r="P102" s="14">
+        <f>'MC3PO Sample'!O70</f>
+        <v>0</v>
+      </c>
+      <c r="Q102" s="14">
+        <f>'MC3PO Sample'!P70</f>
+        <v>0</v>
+      </c>
+      <c r="R102" s="14" t="str">
+        <f>'MC3PO Sample'!Q70</f>
+        <v>(Sky) Clear | (Seeing) 0.39 - 0.60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="14">
+        <v>27</v>
+      </c>
+      <c r="B103" s="14" t="str">
         <f>'MC3PO Sample'!A71</f>
         <v>A2813</v>
       </c>
-      <c r="C101" s="13">
+      <c r="C103" s="13">
         <f>'MC3PO Sample'!B71</f>
         <v>40489</v>
       </c>
-      <c r="D101" s="14">
+      <c r="D103" s="14">
         <f>'MC3PO Sample'!C71</f>
         <v>0</v>
       </c>
-      <c r="E101" s="14" t="str">
+      <c r="E103" s="14" t="str">
         <f>'MC3PO Sample'!D71</f>
         <v>W-S-I+</v>
       </c>
-      <c r="F101" s="14" t="str">
+      <c r="F103" s="14" t="str">
         <f>'MC3PO Sample'!E71</f>
         <v>wd</v>
       </c>
-      <c r="G101" s="14" t="str">
+      <c r="G103" s="14" t="str">
         <f>'MC3PO Sample'!F71</f>
         <v>SUPA01262850</v>
       </c>
-      <c r="H101" s="14" t="str">
+      <c r="H103" s="14" t="str">
         <f>'MC3PO Sample'!G71</f>
         <v>SUPA01262939</v>
       </c>
-      <c r="I101" s="14">
+      <c r="I103" s="14">
         <f>'MC3PO Sample'!H71</f>
         <v>9</v>
       </c>
-      <c r="J101" s="14">
+      <c r="J103" s="14">
         <f>'MC3PO Sample'!I71</f>
         <v>240</v>
       </c>
-      <c r="K101" s="95">
+      <c r="K103" s="95">
         <f>'MC3PO Sample'!J71</f>
         <v>36</v>
       </c>
-      <c r="L101" s="14">
+      <c r="L103" s="14">
         <f>'MC3PO Sample'!K71</f>
         <v>0</v>
       </c>
-      <c r="M101" s="14">
+      <c r="M103" s="14">
         <f>'MC3PO Sample'!L71</f>
         <v>0</v>
       </c>
-      <c r="N101" s="14">
+      <c r="N103" s="14">
         <f>'MC3PO Sample'!M71</f>
         <v>0</v>
       </c>
-      <c r="O101" s="14">
+      <c r="O103" s="14">
         <f>'MC3PO Sample'!N71</f>
         <v>0</v>
       </c>
-      <c r="P101" s="14">
+      <c r="P103" s="14">
         <f>'MC3PO Sample'!O71</f>
         <v>0</v>
       </c>
-      <c r="Q101" s="14">
+      <c r="Q103" s="14">
         <f>'MC3PO Sample'!P71</f>
         <v>0</v>
       </c>
-      <c r="R101" s="14" t="str">
+      <c r="R103" s="14" t="str">
         <f>'MC3PO Sample'!Q71</f>
         <v>(Sky) Clear | (Seeing) 0.39 - 0.60</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A102">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A104">
         <v>28</v>
       </c>
-      <c r="B102" t="str">
+      <c r="B104" t="str">
         <f>'MC3PO Sample'!A12</f>
         <v>A0520</v>
       </c>
-      <c r="C102">
+      <c r="C104">
         <f>'MC3PO Sample'!B12</f>
         <v>0</v>
       </c>
-      <c r="D102">
+      <c r="D104">
         <f>'MC3PO Sample'!C12</f>
         <v>0</v>
       </c>
-      <c r="E102">
+      <c r="E104">
         <f>'MC3PO Sample'!D12</f>
         <v>0</v>
       </c>
-      <c r="F102">
+      <c r="F104">
         <f>'MC3PO Sample'!E12</f>
         <v>0</v>
       </c>
-      <c r="G102">
+      <c r="G104">
         <f>'MC3PO Sample'!F12</f>
         <v>0</v>
       </c>
-      <c r="H102">
+      <c r="H104">
         <f>'MC3PO Sample'!G12</f>
         <v>0</v>
       </c>
-      <c r="I102">
+      <c r="I104">
         <f>'MC3PO Sample'!H12</f>
         <v>0</v>
       </c>
-      <c r="J102">
+      <c r="J104">
         <f>'MC3PO Sample'!I12</f>
         <v>0</v>
       </c>
-      <c r="K102" s="61">
+      <c r="K104" s="61">
         <f>'MC3PO Sample'!J12</f>
         <v>0</v>
       </c>
-      <c r="L102">
+      <c r="L104">
         <f>'MC3PO Sample'!K12</f>
         <v>0</v>
       </c>
-      <c r="M102">
+      <c r="M104">
         <f>'MC3PO Sample'!L12</f>
         <v>0</v>
       </c>
-      <c r="N102">
+      <c r="N104">
         <f>'MC3PO Sample'!M12</f>
         <v>0</v>
       </c>
-      <c r="O102">
+      <c r="O104">
         <f>'MC3PO Sample'!N12</f>
         <v>0</v>
       </c>
-      <c r="P102">
+      <c r="P104">
         <f>'MC3PO Sample'!O12</f>
         <v>0</v>
       </c>
-      <c r="Q102">
+      <c r="Q104">
         <f>'MC3PO Sample'!P12</f>
         <v>0</v>
       </c>
-      <c r="R102" t="str">
+      <c r="R104" t="str">
         <f>'MC3PO Sample'!Q12</f>
         <v>Ask James for his reduction.</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A103" s="76">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A105" s="76">
         <v>29</v>
       </c>
-      <c r="B103" s="76" t="s">
+      <c r="B105" s="76" t="s">
         <v>416</v>
       </c>
-      <c r="C103" s="77"/>
-      <c r="D103" s="76"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="76"/>
-      <c r="G103" s="76"/>
-      <c r="H103" s="76"/>
-      <c r="I103" s="76"/>
-      <c r="J103" s="76"/>
-      <c r="K103" s="78"/>
-      <c r="L103" s="76"/>
-      <c r="M103" s="76"/>
-      <c r="N103" s="76"/>
-      <c r="O103" s="76"/>
-      <c r="P103" s="76"/>
-      <c r="Q103" s="76"/>
-      <c r="R103" s="76" t="s">
+      <c r="C105" s="77"/>
+      <c r="D105" s="76"/>
+      <c r="E105" s="76"/>
+      <c r="F105" s="76"/>
+      <c r="G105" s="76"/>
+      <c r="H105" s="76"/>
+      <c r="I105" s="76"/>
+      <c r="J105" s="76"/>
+      <c r="K105" s="78"/>
+      <c r="L105" s="76"/>
+      <c r="M105" s="76"/>
+      <c r="N105" s="76"/>
+      <c r="O105" s="76"/>
+      <c r="P105" s="76"/>
+      <c r="Q105" s="76"/>
+      <c r="R105" s="76" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A104" s="101">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A106" s="101">
         <v>30</v>
       </c>
-      <c r="B104" s="101" t="s">
+      <c r="B106" s="101" t="s">
         <v>417</v>
       </c>
-      <c r="C104" s="102"/>
-      <c r="D104" s="101"/>
-      <c r="E104" s="101"/>
-      <c r="F104" s="101"/>
-      <c r="G104" s="101"/>
-      <c r="H104" s="101"/>
-      <c r="I104" s="101"/>
-      <c r="J104" s="101"/>
-      <c r="K104" s="103"/>
-      <c r="L104" s="101"/>
-      <c r="M104" s="101"/>
-      <c r="N104" s="101"/>
-      <c r="O104" s="101"/>
-      <c r="P104" s="101"/>
-      <c r="Q104" s="101"/>
-      <c r="R104" s="101" t="s">
+      <c r="C106" s="102"/>
+      <c r="D106" s="101"/>
+      <c r="E106" s="101"/>
+      <c r="F106" s="101"/>
+      <c r="G106" s="101"/>
+      <c r="H106" s="101"/>
+      <c r="I106" s="101"/>
+      <c r="J106" s="101"/>
+      <c r="K106" s="103"/>
+      <c r="L106" s="101"/>
+      <c r="M106" s="101"/>
+      <c r="N106" s="101"/>
+      <c r="O106" s="101"/>
+      <c r="P106" s="101"/>
+      <c r="Q106" s="101"/>
+      <c r="R106" s="101" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A105" s="82">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A107" s="82">
         <v>31</v>
       </c>
-      <c r="B105" s="82" t="s">
+      <c r="B107" s="82" t="s">
         <v>418</v>
       </c>
-      <c r="C105" s="83"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="82"/>
-      <c r="F105" s="82"/>
-      <c r="G105" s="82"/>
-      <c r="H105" s="82"/>
-      <c r="I105" s="82"/>
-      <c r="J105" s="82"/>
-      <c r="K105" s="84"/>
-      <c r="L105" s="82"/>
-      <c r="M105" s="82"/>
-      <c r="N105" s="82"/>
-      <c r="O105" s="82"/>
-      <c r="P105" s="82"/>
-      <c r="Q105" s="82"/>
-      <c r="R105" s="82" t="s">
+      <c r="C107" s="83"/>
+      <c r="D107" s="82"/>
+      <c r="E107" s="82"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="82"/>
+      <c r="H107" s="82"/>
+      <c r="I107" s="82"/>
+      <c r="J107" s="82"/>
+      <c r="K107" s="84"/>
+      <c r="L107" s="82"/>
+      <c r="M107" s="82"/>
+      <c r="N107" s="82"/>
+      <c r="O107" s="82"/>
+      <c r="P107" s="82"/>
+      <c r="Q107" s="82"/>
+      <c r="R107" s="82" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A106" s="85">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A108" s="85">
         <v>32</v>
       </c>
-      <c r="B106" s="85" t="s">
+      <c r="B108" s="85" t="s">
         <v>419</v>
       </c>
-      <c r="C106" s="86">
+      <c r="C108" s="86">
         <v>38686</v>
       </c>
-      <c r="D106" s="85"/>
-      <c r="E106" s="85" t="s">
+      <c r="D108" s="85"/>
+      <c r="E108" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="F106" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" s="85" t="s">
+      <c r="F108" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="85" t="s">
         <v>480</v>
       </c>
-      <c r="H106" s="85" t="s">
+      <c r="H108" s="85" t="s">
         <v>481</v>
       </c>
-      <c r="I106" s="85">
+      <c r="I108" s="85">
         <f>'MC3PO Sample'!H34</f>
         <v>16</v>
       </c>
-      <c r="J106" s="85">
+      <c r="J108" s="85">
         <v>360</v>
       </c>
-      <c r="K106" s="87">
+      <c r="K108" s="87">
         <f>'MC3PO Sample'!J34</f>
         <v>80</v>
       </c>
-      <c r="L106" s="85"/>
-      <c r="M106" s="85"/>
-      <c r="N106" s="85"/>
-      <c r="O106" s="85"/>
-      <c r="P106" s="85"/>
-      <c r="Q106" s="85" t="s">
+      <c r="L108" s="85"/>
+      <c r="M108" s="85"/>
+      <c r="N108" s="85"/>
+      <c r="O108" s="85"/>
+      <c r="P108" s="85"/>
+      <c r="Q108" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="R106" s="85" t="s">
+      <c r="R108" s="85" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A107" s="67">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A109" s="67">
         <v>33</v>
       </c>
-      <c r="B107" s="67" t="s">
+      <c r="B109" s="67" t="s">
         <v>420</v>
       </c>
-      <c r="C107" s="68"/>
-      <c r="D107" s="67"/>
-      <c r="E107" s="67"/>
-      <c r="F107" s="67"/>
-      <c r="G107" s="67"/>
-      <c r="H107" s="67"/>
-      <c r="I107" s="67"/>
-      <c r="J107" s="67"/>
-      <c r="K107" s="69"/>
-      <c r="L107" s="67"/>
-      <c r="M107" s="67"/>
-      <c r="N107" s="67"/>
-      <c r="O107" s="67"/>
-      <c r="P107" s="67"/>
-      <c r="Q107" s="67"/>
-      <c r="R107" s="67" t="s">
+      <c r="C109" s="68"/>
+      <c r="D109" s="67"/>
+      <c r="E109" s="67"/>
+      <c r="F109" s="67"/>
+      <c r="G109" s="67"/>
+      <c r="H109" s="67"/>
+      <c r="I109" s="67"/>
+      <c r="J109" s="67"/>
+      <c r="K109" s="69"/>
+      <c r="L109" s="67"/>
+      <c r="M109" s="67"/>
+      <c r="N109" s="67"/>
+      <c r="O109" s="67"/>
+      <c r="P109" s="67"/>
+      <c r="Q109" s="67"/>
+      <c r="R109" s="67" t="s">
         <v>455</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="14">
-        <v>34</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="C108" s="13">
-        <v>37715</v>
-      </c>
-      <c r="E108" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F108" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="14" t="s">
-        <v>590</v>
-      </c>
-      <c r="H108" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="I108" s="14">
-        <f>'MC3PO Sample'!H78</f>
-        <v>14</v>
-      </c>
-      <c r="J108" s="14">
-        <v>240</v>
-      </c>
-      <c r="K108" s="95">
-        <f>'MC3PO Sample'!J78</f>
-        <v>84</v>
-      </c>
-      <c r="Q108" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="R108" s="14" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="14">
-        <v>34</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="C109" s="13">
-        <v>37715</v>
-      </c>
-      <c r="E109" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F109" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="H109" s="14" t="s">
-        <v>593</v>
-      </c>
-      <c r="I109" s="14">
-        <f>'MC3PO Sample'!H79</f>
-        <v>9</v>
-      </c>
-      <c r="J109" s="14">
-        <v>480</v>
-      </c>
-      <c r="K109" s="95">
-        <f>'MC3PO Sample'!J79</f>
-        <v>27</v>
-      </c>
-      <c r="R109" s="14" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -15979,33 +16095,36 @@
         <v>421</v>
       </c>
       <c r="C110" s="13">
-        <v>37716</v>
+        <v>37715</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F110" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="H110" s="14" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="I110" s="14">
-        <f>'MC3PO Sample'!H80</f>
-        <v>3</v>
+        <f>'MC3PO Sample'!H78</f>
+        <v>14</v>
       </c>
       <c r="J110" s="14">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K110" s="95">
-        <f>'MC3PO Sample'!J80</f>
-        <v>7.5</v>
+        <f>'MC3PO Sample'!J78</f>
+        <v>84</v>
+      </c>
+      <c r="Q110" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="R110" s="14" t="s">
-        <v>320</v>
+        <v>374</v>
       </c>
     </row>
     <row r="111" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -16016,30 +16135,30 @@
         <v>421</v>
       </c>
       <c r="C111" s="13">
-        <v>37738</v>
+        <v>37715</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F111" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="H111" s="14" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="I111" s="14">
-        <f>'MC3PO Sample'!H81</f>
-        <v>3</v>
+        <f>'MC3PO Sample'!H79</f>
+        <v>9</v>
       </c>
       <c r="J111" s="14">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="K111" s="95">
-        <f>'MC3PO Sample'!J81</f>
-        <v>7.5</v>
+        <f>'MC3PO Sample'!J79</f>
+        <v>27</v>
       </c>
       <c r="R111" s="14" t="s">
         <v>374</v>
@@ -16053,33 +16172,33 @@
         <v>421</v>
       </c>
       <c r="C112" s="13">
-        <v>38416</v>
+        <v>37716</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F112" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="H112" s="14" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="I112" s="14">
-        <f>'MC3PO Sample'!H82</f>
+        <f>'MC3PO Sample'!H80</f>
         <v>3</v>
       </c>
       <c r="J112" s="14">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="K112" s="95">
-        <f>'MC3PO Sample'!J82</f>
+        <f>'MC3PO Sample'!J80</f>
         <v>7.5</v>
       </c>
       <c r="R112" s="14" t="s">
-        <v>558</v>
+        <v>320</v>
       </c>
     </row>
     <row r="113" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -16090,33 +16209,33 @@
         <v>421</v>
       </c>
       <c r="C113" s="13">
-        <v>38417</v>
+        <v>37738</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="F113" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H113" s="14" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="I113" s="14">
-        <f>'MC3PO Sample'!H83</f>
-        <v>6</v>
+        <f>'MC3PO Sample'!H81</f>
+        <v>3</v>
       </c>
       <c r="J113" s="14">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K113" s="95">
-        <f>'MC3PO Sample'!J83</f>
-        <v>24</v>
+        <f>'MC3PO Sample'!J81</f>
+        <v>7.5</v>
       </c>
       <c r="R113" s="14" t="s">
-        <v>318</v>
+        <v>374</v>
       </c>
     </row>
     <row r="114" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -16127,33 +16246,33 @@
         <v>421</v>
       </c>
       <c r="C114" s="13">
-        <v>38417</v>
+        <v>38416</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F114" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="I114" s="14">
-        <f>'MC3PO Sample'!H84</f>
-        <v>4</v>
+        <f>'MC3PO Sample'!H82</f>
+        <v>3</v>
       </c>
       <c r="J114" s="14">
         <v>150</v>
       </c>
       <c r="K114" s="95">
-        <f>'MC3PO Sample'!J84</f>
-        <v>30</v>
+        <f>'MC3PO Sample'!J82</f>
+        <v>7.5</v>
       </c>
       <c r="R114" s="14" t="s">
-        <v>318</v>
+        <v>558</v>
       </c>
     </row>
     <row r="115" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -16164,175 +16283,159 @@
         <v>421</v>
       </c>
       <c r="C115" s="13">
+        <v>38417</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="H115" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="I115" s="14">
+        <f>'MC3PO Sample'!H83</f>
+        <v>6</v>
+      </c>
+      <c r="J115" s="14">
+        <v>150</v>
+      </c>
+      <c r="K115" s="95">
+        <f>'MC3PO Sample'!J83</f>
+        <v>24</v>
+      </c>
+      <c r="R115" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="14">
+        <v>34</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="C116" s="13">
+        <v>38417</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="H116" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="I116" s="14">
+        <f>'MC3PO Sample'!H84</f>
+        <v>4</v>
+      </c>
+      <c r="J116" s="14">
+        <v>150</v>
+      </c>
+      <c r="K116" s="95">
+        <f>'MC3PO Sample'!J84</f>
+        <v>30</v>
+      </c>
+      <c r="R116" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="14">
+        <v>34</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="C117" s="13">
         <v>38686</v>
       </c>
-      <c r="E115" s="14" t="s">
+      <c r="E117" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F115" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" s="14" t="s">
+      <c r="F117" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="H115" s="14" t="s">
+      <c r="H117" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="I115" s="14">
+      <c r="I117" s="14">
         <f>'MC3PO Sample'!H85</f>
         <v>9</v>
       </c>
-      <c r="J115" s="14">
+      <c r="J117" s="14">
         <v>240</v>
       </c>
-      <c r="K115" s="95">
+      <c r="K117" s="95">
         <f>'MC3PO Sample'!J85</f>
         <v>36</v>
       </c>
-      <c r="R115" s="14" t="s">
+      <c r="R117" s="14" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A116" s="73">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A118" s="73">
         <v>35</v>
       </c>
-      <c r="B116" s="73" t="s">
+      <c r="B118" s="73" t="s">
         <v>422</v>
       </c>
-      <c r="C116" s="74"/>
-      <c r="D116" s="73"/>
-      <c r="E116" s="73"/>
-      <c r="F116" s="73"/>
-      <c r="G116" s="73"/>
-      <c r="H116" s="73"/>
-      <c r="I116" s="73"/>
-      <c r="J116" s="73"/>
-      <c r="K116" s="75"/>
-      <c r="L116" s="73"/>
-      <c r="M116" s="73"/>
-      <c r="N116" s="73"/>
-      <c r="O116" s="73"/>
-      <c r="P116" s="73"/>
-      <c r="Q116" s="73"/>
-      <c r="R116" s="73" t="s">
+      <c r="C118" s="74"/>
+      <c r="D118" s="73"/>
+      <c r="E118" s="73"/>
+      <c r="F118" s="73"/>
+      <c r="G118" s="73"/>
+      <c r="H118" s="73"/>
+      <c r="I118" s="73"/>
+      <c r="J118" s="73"/>
+      <c r="K118" s="75"/>
+      <c r="L118" s="73"/>
+      <c r="M118" s="73"/>
+      <c r="N118" s="73"/>
+      <c r="O118" s="73"/>
+      <c r="P118" s="73"/>
+      <c r="Q118" s="73"/>
+      <c r="R118" s="73" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A117" s="98">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A119" s="98">
         <v>36</v>
       </c>
-      <c r="B117" s="98" t="s">
+      <c r="B119" s="98" t="s">
         <v>423</v>
       </c>
-      <c r="C117" s="99"/>
-      <c r="D117" s="98"/>
-      <c r="E117" s="98"/>
-      <c r="F117" s="98"/>
-      <c r="G117" s="98"/>
-      <c r="H117" s="98"/>
-      <c r="I117" s="98"/>
-      <c r="J117" s="98"/>
-      <c r="K117" s="100"/>
-      <c r="L117" s="98"/>
-      <c r="M117" s="98"/>
-      <c r="N117" s="98"/>
-      <c r="O117" s="98"/>
-      <c r="P117" s="98"/>
-      <c r="Q117" s="98"/>
-      <c r="R117" s="98" t="s">
+      <c r="C119" s="99"/>
+      <c r="D119" s="98"/>
+      <c r="E119" s="98"/>
+      <c r="F119" s="98"/>
+      <c r="G119" s="98"/>
+      <c r="H119" s="98"/>
+      <c r="I119" s="98"/>
+      <c r="J119" s="98"/>
+      <c r="K119" s="100"/>
+      <c r="L119" s="98"/>
+      <c r="M119" s="98"/>
+      <c r="N119" s="98"/>
+      <c r="O119" s="98"/>
+      <c r="P119" s="98"/>
+      <c r="Q119" s="98"/>
+      <c r="R119" s="98" t="s">
         <v>454</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A118" s="6">
-        <v>37</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="C118" s="5">
-        <v>36886</v>
-      </c>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="H118" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="I118" s="6">
-        <f>'MC3PO Sample'!H88</f>
-        <v>6</v>
-      </c>
-      <c r="J118" s="6">
-        <v>480</v>
-      </c>
-      <c r="K118" s="65">
-        <f>'MC3PO Sample'!J88</f>
-        <v>48</v>
-      </c>
-      <c r="L118" s="6"/>
-      <c r="M118" s="6"/>
-      <c r="N118" s="6"/>
-      <c r="O118" s="6"/>
-      <c r="P118" s="6"/>
-      <c r="Q118" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="R118" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A119" s="6">
-        <v>37</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="C119" s="5">
-        <v>36886</v>
-      </c>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F119" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="H119" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="I119" s="6">
-        <f>'MC3PO Sample'!H89</f>
-        <v>6</v>
-      </c>
-      <c r="J119" s="6">
-        <v>240</v>
-      </c>
-      <c r="K119" s="65">
-        <f>'MC3PO Sample'!J89</f>
-        <v>18</v>
-      </c>
-      <c r="L119" s="6"/>
-      <c r="M119" s="6"/>
-      <c r="N119" s="6"/>
-      <c r="O119" s="6"/>
-      <c r="P119" s="6"/>
-      <c r="Q119" s="6"/>
-      <c r="R119" s="6" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.2">
@@ -16343,7 +16446,7 @@
         <v>424</v>
       </c>
       <c r="C120" s="5">
-        <v>36887</v>
+        <v>36886</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="6" t="s">
@@ -16353,28 +16456,30 @@
         <v>12</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="I120" s="6">
-        <f>'MC3PO Sample'!H90</f>
-        <v>2</v>
+        <f>'MC3PO Sample'!H88</f>
+        <v>6</v>
       </c>
       <c r="J120" s="6">
         <v>480</v>
       </c>
       <c r="K120" s="65">
-        <f>'MC3PO Sample'!J90</f>
-        <v>8</v>
+        <f>'MC3PO Sample'!J88</f>
+        <v>48</v>
       </c>
       <c r="L120" s="6"/>
       <c r="M120" s="6"/>
       <c r="N120" s="6"/>
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
-      <c r="Q120" s="6"/>
+      <c r="Q120" s="6" t="s">
+        <v>650</v>
+      </c>
       <c r="R120" s="6" t="s">
         <v>373</v>
       </c>
@@ -16387,31 +16492,31 @@
         <v>424</v>
       </c>
       <c r="C121" s="5">
-        <v>37593</v>
+        <v>36886</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="I121" s="6">
-        <f>'MC3PO Sample'!H91</f>
+        <f>'MC3PO Sample'!H89</f>
         <v>6</v>
       </c>
       <c r="J121" s="6">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K121" s="65">
-        <f>'MC3PO Sample'!J91</f>
-        <v>36</v>
+        <f>'MC3PO Sample'!J89</f>
+        <v>18</v>
       </c>
       <c r="L121" s="6"/>
       <c r="M121" s="6"/>
@@ -16420,7 +16525,7 @@
       <c r="P121" s="6"/>
       <c r="Q121" s="6"/>
       <c r="R121" s="6" t="s">
-        <v>320</v>
+        <v>373</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.2">
@@ -16431,31 +16536,31 @@
         <v>424</v>
       </c>
       <c r="C122" s="5">
-        <v>37593</v>
+        <v>36887</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="I122" s="6">
-        <f>'MC3PO Sample'!H92</f>
-        <v>5</v>
+        <f>'MC3PO Sample'!H90</f>
+        <v>2</v>
       </c>
       <c r="J122" s="6">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="K122" s="65">
-        <f>'MC3PO Sample'!J92</f>
-        <v>12.5</v>
+        <f>'MC3PO Sample'!J90</f>
+        <v>8</v>
       </c>
       <c r="L122" s="6"/>
       <c r="M122" s="6"/>
@@ -16464,7 +16569,7 @@
       <c r="P122" s="6"/>
       <c r="Q122" s="6"/>
       <c r="R122" s="6" t="s">
-        <v>320</v>
+        <v>373</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
@@ -16475,31 +16580,31 @@
         <v>424</v>
       </c>
       <c r="C123" s="5">
-        <v>37889</v>
+        <v>37593</v>
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="I123" s="6">
-        <f>'MC3PO Sample'!H93</f>
-        <v>9</v>
+        <f>'MC3PO Sample'!H91</f>
+        <v>6</v>
       </c>
       <c r="J123" s="6">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="K123" s="65">
-        <f>'MC3PO Sample'!J93</f>
-        <v>27</v>
+        <f>'MC3PO Sample'!J91</f>
+        <v>36</v>
       </c>
       <c r="L123" s="6"/>
       <c r="M123" s="6"/>
@@ -16508,7 +16613,7 @@
       <c r="P123" s="6"/>
       <c r="Q123" s="6"/>
       <c r="R123" s="6" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.2">
@@ -16519,31 +16624,31 @@
         <v>424</v>
       </c>
       <c r="C124" s="5">
-        <v>39399</v>
+        <v>37593</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="I124" s="6">
-        <f>'MC3PO Sample'!H94</f>
-        <v>9</v>
+        <f>'MC3PO Sample'!H92</f>
+        <v>5</v>
       </c>
       <c r="J124" s="6">
-        <v>480</v>
+        <v>180</v>
       </c>
       <c r="K124" s="65">
-        <f>'MC3PO Sample'!J94</f>
-        <v>27</v>
+        <f>'MC3PO Sample'!J92</f>
+        <v>12.5</v>
       </c>
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
@@ -16552,7 +16657,7 @@
       <c r="P124" s="6"/>
       <c r="Q124" s="6"/>
       <c r="R124" s="6" t="s">
-        <v>489</v>
+        <v>320</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
@@ -16563,31 +16668,31 @@
         <v>424</v>
       </c>
       <c r="C125" s="5">
-        <v>39400</v>
+        <v>37889</v>
       </c>
       <c r="D125" s="6"/>
       <c r="E125" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="I125" s="6">
-        <f>'MC3PO Sample'!H95</f>
-        <v>6</v>
+        <f>'MC3PO Sample'!H93</f>
+        <v>9</v>
       </c>
       <c r="J125" s="6">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K125" s="65">
-        <f>'MC3PO Sample'!J95</f>
-        <v>24</v>
+        <f>'MC3PO Sample'!J93</f>
+        <v>27</v>
       </c>
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
@@ -16596,97 +16701,95 @@
       <c r="P125" s="6"/>
       <c r="Q125" s="6"/>
       <c r="R125" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A126" s="6">
+        <v>37</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C126" s="5">
+        <v>39399</v>
+      </c>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="I126" s="6">
+        <f>'MC3PO Sample'!H94</f>
+        <v>9</v>
+      </c>
+      <c r="J126" s="6">
+        <v>480</v>
+      </c>
+      <c r="K126" s="65">
+        <f>'MC3PO Sample'!J94</f>
+        <v>27</v>
+      </c>
+      <c r="L126" s="6"/>
+      <c r="M126" s="6"/>
+      <c r="N126" s="6"/>
+      <c r="O126" s="6"/>
+      <c r="P126" s="6"/>
+      <c r="Q126" s="6"/>
+      <c r="R126" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A127" s="6">
+        <v>37</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C127" s="5">
+        <v>39400</v>
+      </c>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="I127" s="6">
+        <f>'MC3PO Sample'!H95</f>
+        <v>6</v>
+      </c>
+      <c r="J127" s="6">
+        <v>300</v>
+      </c>
+      <c r="K127" s="65">
+        <f>'MC3PO Sample'!J95</f>
+        <v>24</v>
+      </c>
+      <c r="L127" s="6"/>
+      <c r="M127" s="6"/>
+      <c r="N127" s="6"/>
+      <c r="O127" s="6"/>
+      <c r="P127" s="6"/>
+      <c r="Q127" s="6"/>
+      <c r="R127" s="6" t="s">
         <v>622</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A126" s="8">
-        <v>38</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="C126" s="7">
-        <v>39399</v>
-      </c>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="H126" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="I126" s="8">
-        <f t="shared" ref="I126:I141" si="10">(RIGHT(H126,LEN(H126)-4)-RIGHT(G126,LEN(G126)-4)+1)/10</f>
-        <v>5</v>
-      </c>
-      <c r="J126" s="8">
-        <v>480</v>
-      </c>
-      <c r="K126" s="66">
-        <f t="shared" ref="K126:K141" si="11">I126*J126/60</f>
-        <v>40</v>
-      </c>
-      <c r="L126" s="8"/>
-      <c r="M126" s="8"/>
-      <c r="N126" s="8"/>
-      <c r="O126" s="8"/>
-      <c r="P126" s="8"/>
-      <c r="Q126" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="R126" s="8" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A127" s="8">
-        <v>38</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="C127" s="7">
-        <v>40075</v>
-      </c>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="H127" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="I127" s="8">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="J127" s="8">
-        <v>240</v>
-      </c>
-      <c r="K127" s="66">
-        <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
-      <c r="L127" s="8"/>
-      <c r="M127" s="8"/>
-      <c r="N127" s="8"/>
-      <c r="O127" s="8"/>
-      <c r="P127" s="8"/>
-      <c r="Q127" s="8"/>
-      <c r="R127" s="8" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
@@ -16697,156 +16800,156 @@
         <v>425</v>
       </c>
       <c r="C128" s="7">
-        <v>40076</v>
+        <v>39399</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="F128" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="I128" s="8">
-        <f t="shared" si="10"/>
-        <v>9</v>
+        <f t="shared" ref="I128:I143" si="10">(RIGHT(H128,LEN(H128)-4)-RIGHT(G128,LEN(G128)-4)+1)/10</f>
+        <v>5</v>
       </c>
       <c r="J128" s="8">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="K128" s="66">
-        <f t="shared" si="11"/>
-        <v>27</v>
+        <f t="shared" ref="K128:K143" si="11">I128*J128/60</f>
+        <v>40</v>
       </c>
       <c r="L128" s="8"/>
       <c r="M128" s="8"/>
       <c r="N128" s="8"/>
       <c r="O128" s="8"/>
       <c r="P128" s="8"/>
-      <c r="Q128" s="8"/>
+      <c r="Q128" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="R128" s="8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A129" s="8">
+        <v>38</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C129" s="7">
+        <v>40075</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="I129" s="8">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="J129" s="8">
+        <v>240</v>
+      </c>
+      <c r="K129" s="66">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="L129" s="8"/>
+      <c r="M129" s="8"/>
+      <c r="N129" s="8"/>
+      <c r="O129" s="8"/>
+      <c r="P129" s="8"/>
+      <c r="Q129" s="8"/>
+      <c r="R129" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A130" s="8">
+        <v>38</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C130" s="7">
+        <v>40076</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="I130" s="8">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="J130" s="8">
+        <v>180</v>
+      </c>
+      <c r="K130" s="66">
+        <f t="shared" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="L130" s="8"/>
+      <c r="M130" s="8"/>
+      <c r="N130" s="8"/>
+      <c r="O130" s="8"/>
+      <c r="P130" s="8"/>
+      <c r="Q130" s="8"/>
+      <c r="R130" s="8" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A129" s="88">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A131" s="88">
         <v>39</v>
       </c>
-      <c r="B129" s="88" t="s">
+      <c r="B131" s="88" t="s">
         <v>426</v>
       </c>
-      <c r="C129" s="89"/>
-      <c r="D129" s="88"/>
-      <c r="E129" s="88"/>
-      <c r="F129" s="88"/>
-      <c r="G129" s="88"/>
-      <c r="H129" s="88"/>
-      <c r="I129" s="88"/>
-      <c r="J129" s="88"/>
-      <c r="K129" s="90"/>
-      <c r="L129" s="88"/>
-      <c r="M129" s="88"/>
-      <c r="N129" s="88"/>
-      <c r="O129" s="88"/>
-      <c r="P129" s="88"/>
-      <c r="Q129" s="88"/>
-      <c r="R129" s="88" t="s">
+      <c r="C131" s="89"/>
+      <c r="D131" s="88"/>
+      <c r="E131" s="88"/>
+      <c r="F131" s="88"/>
+      <c r="G131" s="88"/>
+      <c r="H131" s="88"/>
+      <c r="I131" s="88"/>
+      <c r="J131" s="88"/>
+      <c r="K131" s="90"/>
+      <c r="L131" s="88"/>
+      <c r="M131" s="88"/>
+      <c r="N131" s="88"/>
+      <c r="O131" s="88"/>
+      <c r="P131" s="88"/>
+      <c r="Q131" s="88"/>
+      <c r="R131" s="88" t="s">
         <v>455</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A130" s="12">
-        <v>40</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="C130" s="11">
-        <v>37236</v>
-      </c>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F130" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="H130" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="I130" s="12">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="J130" s="12">
-        <v>480</v>
-      </c>
-      <c r="K130" s="91">
-        <f t="shared" si="11"/>
-        <v>48</v>
-      </c>
-      <c r="L130" s="12"/>
-      <c r="M130" s="12"/>
-      <c r="N130" s="12"/>
-      <c r="O130" s="12"/>
-      <c r="P130" s="12"/>
-      <c r="Q130" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="R130" s="12" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A131" s="12">
-        <v>40</v>
-      </c>
-      <c r="B131" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="C131" s="11">
-        <v>37236</v>
-      </c>
-      <c r="D131" s="12"/>
-      <c r="E131" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F131" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131" s="12" t="s">
-        <v>625</v>
-      </c>
-      <c r="H131" s="12" t="s">
-        <v>626</v>
-      </c>
-      <c r="I131" s="12">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="J131" s="12">
-        <v>240</v>
-      </c>
-      <c r="K131" s="91">
-        <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
-      <c r="L131" s="12"/>
-      <c r="M131" s="12"/>
-      <c r="N131" s="12"/>
-      <c r="O131" s="12"/>
-      <c r="P131" s="12"/>
-      <c r="Q131" s="12"/>
-      <c r="R131" s="12" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.2">
@@ -16861,34 +16964,36 @@
       </c>
       <c r="D132" s="12"/>
       <c r="E132" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F132" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G132" s="12" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="I132" s="12">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="J132" s="12">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="K132" s="91">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="L132" s="12"/>
       <c r="M132" s="12"/>
       <c r="N132" s="12"/>
       <c r="O132" s="12"/>
       <c r="P132" s="12"/>
-      <c r="Q132" s="12"/>
+      <c r="Q132" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="R132" s="12" t="s">
         <v>374</v>
       </c>
@@ -16901,31 +17006,31 @@
         <v>427</v>
       </c>
       <c r="C133" s="11">
-        <v>37593</v>
+        <v>37236</v>
       </c>
       <c r="D133" s="12"/>
       <c r="E133" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F133" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="I133" s="12">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J133" s="12">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="K133" s="91">
         <f t="shared" si="11"/>
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="L133" s="12"/>
       <c r="M133" s="12"/>
@@ -16934,7 +17039,7 @@
       <c r="P133" s="12"/>
       <c r="Q133" s="12"/>
       <c r="R133" s="12" t="s">
-        <v>320</v>
+        <v>374</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.2">
@@ -16945,7 +17050,7 @@
         <v>427</v>
       </c>
       <c r="C134" s="11">
-        <v>37889</v>
+        <v>37236</v>
       </c>
       <c r="D134" s="12"/>
       <c r="E134" s="12" t="s">
@@ -16955,21 +17060,21 @@
         <v>12</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="H134" s="12" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="I134" s="12">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="J134" s="12">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="K134" s="91">
         <f t="shared" si="11"/>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L134" s="12"/>
       <c r="M134" s="12"/>
@@ -16978,7 +17083,7 @@
       <c r="P134" s="12"/>
       <c r="Q134" s="12"/>
       <c r="R134" s="12" t="s">
-        <v>251</v>
+        <v>374</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.2">
@@ -16989,31 +17094,31 @@
         <v>427</v>
       </c>
       <c r="C135" s="11">
-        <v>38686</v>
+        <v>37593</v>
       </c>
       <c r="D135" s="12"/>
       <c r="E135" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F135" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G135" s="12" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="I135" s="12">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J135" s="12">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="K135" s="91">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="L135" s="12"/>
       <c r="M135" s="12"/>
@@ -17022,7 +17127,7 @@
       <c r="P135" s="12"/>
       <c r="Q135" s="12"/>
       <c r="R135" s="12" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.2">
@@ -17033,31 +17138,31 @@
         <v>427</v>
       </c>
       <c r="C136" s="11">
-        <v>39072</v>
+        <v>37889</v>
       </c>
       <c r="D136" s="12"/>
       <c r="E136" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F136" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G136" s="12" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="H136" s="12" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="I136" s="12">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="J136" s="12">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K136" s="91">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L136" s="12"/>
       <c r="M136" s="12"/>
@@ -17066,7 +17171,7 @@
       <c r="P136" s="12"/>
       <c r="Q136" s="12"/>
       <c r="R136" s="12" t="s">
-        <v>317</v>
+        <v>251</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.2">
@@ -17077,31 +17182,31 @@
         <v>427</v>
       </c>
       <c r="C137" s="11">
-        <v>39072</v>
+        <v>38686</v>
       </c>
       <c r="D137" s="12"/>
       <c r="E137" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F137" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G137" s="12" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="H137" s="12" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="I137" s="12">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J137" s="12">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="K137" s="91">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L137" s="12"/>
       <c r="M137" s="12"/>
@@ -17110,99 +17215,95 @@
       <c r="P137" s="12"/>
       <c r="Q137" s="12"/>
       <c r="R137" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A138" s="12">
+        <v>40</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C138" s="11">
+        <v>39072</v>
+      </c>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G138" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="H138" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="I138" s="12">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="J138" s="12">
+        <v>300</v>
+      </c>
+      <c r="K138" s="91">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="L138" s="12"/>
+      <c r="M138" s="12"/>
+      <c r="N138" s="12"/>
+      <c r="O138" s="12"/>
+      <c r="P138" s="12"/>
+      <c r="Q138" s="12"/>
+      <c r="R138" s="12" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A138" s="14">
-        <v>41</v>
-      </c>
-      <c r="B138" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="C138" s="13">
-        <v>37890</v>
-      </c>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F138" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G138" s="14" t="s">
-        <v>639</v>
-      </c>
-      <c r="H138" s="14" t="s">
-        <v>640</v>
-      </c>
-      <c r="I138" s="14">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A139" s="12">
+        <v>40</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C139" s="11">
+        <v>39072</v>
+      </c>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="H139" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="I139" s="12">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="J138" s="14">
-        <v>720</v>
-      </c>
-      <c r="K138" s="95">
+        <v>9</v>
+      </c>
+      <c r="J139" s="12">
+        <v>180</v>
+      </c>
+      <c r="K139" s="91">
         <f t="shared" si="11"/>
-        <v>120</v>
-      </c>
-      <c r="L138" s="14"/>
-      <c r="M138" s="14"/>
-      <c r="N138" s="14"/>
-      <c r="O138" s="14"/>
-      <c r="P138" s="14"/>
-      <c r="Q138" s="14" t="s">
-        <v>650</v>
-      </c>
-      <c r="R138" s="14" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A139" s="14">
-        <v>41</v>
-      </c>
-      <c r="B139" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="C139" s="13">
-        <v>37890</v>
-      </c>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F139" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G139" s="14" t="s">
-        <v>641</v>
-      </c>
-      <c r="H139" s="14" t="s">
-        <v>642</v>
-      </c>
-      <c r="I139" s="14">
-        <f t="shared" si="10"/>
-        <v>15</v>
-      </c>
-      <c r="J139" s="14">
-        <v>300</v>
-      </c>
-      <c r="K139" s="95">
-        <f t="shared" si="11"/>
-        <v>75</v>
-      </c>
-      <c r="L139" s="14"/>
-      <c r="M139" s="14"/>
-      <c r="N139" s="14"/>
-      <c r="O139" s="14"/>
-      <c r="P139" s="14"/>
-      <c r="Q139" s="14" t="s">
-        <v>650</v>
-      </c>
-      <c r="R139" s="14" t="s">
-        <v>320</v>
+        <v>27</v>
+      </c>
+      <c r="L139" s="12"/>
+      <c r="M139" s="12"/>
+      <c r="N139" s="12"/>
+      <c r="O139" s="12"/>
+      <c r="P139" s="12"/>
+      <c r="Q139" s="12"/>
+      <c r="R139" s="12" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.2">
@@ -17213,31 +17314,31 @@
         <v>428</v>
       </c>
       <c r="C140" s="13">
-        <v>37891</v>
+        <v>37890</v>
       </c>
       <c r="D140" s="14"/>
       <c r="E140" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F140" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="H140" s="14" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="I140" s="14">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J140" s="14">
-        <v>480</v>
+        <v>720</v>
       </c>
       <c r="K140" s="95">
         <f t="shared" si="11"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="L140" s="14"/>
       <c r="M140" s="14"/>
@@ -17259,39 +17360,131 @@
         <v>428</v>
       </c>
       <c r="C141" s="13">
-        <v>37891</v>
+        <v>37890</v>
       </c>
       <c r="D141" s="14"/>
       <c r="E141" s="14" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="F141" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="H141" s="14" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I141" s="14">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J141" s="14">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="K141" s="95">
         <f t="shared" si="11"/>
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="L141" s="14"/>
       <c r="M141" s="14"/>
       <c r="N141" s="14"/>
       <c r="O141" s="14"/>
       <c r="P141" s="14"/>
-      <c r="Q141" s="14"/>
+      <c r="Q141" s="14" t="s">
+        <v>650</v>
+      </c>
       <c r="R141" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A142" s="14">
+        <v>41</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="C142" s="13">
+        <v>37891</v>
+      </c>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G142" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="H142" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="I142" s="14">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J142" s="14">
+        <v>480</v>
+      </c>
+      <c r="K142" s="95">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="L142" s="14"/>
+      <c r="M142" s="14"/>
+      <c r="N142" s="14"/>
+      <c r="O142" s="14"/>
+      <c r="P142" s="14"/>
+      <c r="Q142" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="R142" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A143" s="14">
+        <v>41</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="C143" s="13">
+        <v>37891</v>
+      </c>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G143" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="H143" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="I143" s="14">
+        <f t="shared" si="10"/>
+        <v>29</v>
+      </c>
+      <c r="J143" s="14">
+        <v>180</v>
+      </c>
+      <c r="K143" s="95">
+        <f t="shared" si="11"/>
+        <v>87</v>
+      </c>
+      <c r="L143" s="14"/>
+      <c r="M143" s="14"/>
+      <c r="N143" s="14"/>
+      <c r="O143" s="14"/>
+      <c r="P143" s="14"/>
+      <c r="Q143" s="14"/>
+      <c r="R143" s="14" t="s">
         <v>320</v>
       </c>
     </row>

--- a/Reduction Notes/Reduction_Status_List.xlsx
+++ b/Reduction Notes/Reduction_Status_List.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawson/Git/SuprimeCam/Reduction Notes/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="420" yWindow="560" windowWidth="14720" windowHeight="19900" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="420" yWindow="560" windowWidth="22480" windowHeight="20520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Radio Relic Sample" sheetId="1" r:id="rId1"/>
     <sheet name="MC3PO Sample" sheetId="2" r:id="rId2"/>
     <sheet name="RELICS Sample" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="553">
   <si>
     <t>Semester</t>
   </si>
@@ -1637,6 +1632,54 @@
   </si>
   <si>
     <t>~0.4-0.7" seeing</t>
+  </si>
+  <si>
+    <t>SUPA01001170</t>
+  </si>
+  <si>
+    <t>SUPA01001239</t>
+  </si>
+  <si>
+    <t>SUPA01420230</t>
+  </si>
+  <si>
+    <t>SUPA01420389</t>
+  </si>
+  <si>
+    <t>SUPA01420400</t>
+  </si>
+  <si>
+    <t>SUPA01420529</t>
+  </si>
+  <si>
+    <t>SUPA01421890</t>
+  </si>
+  <si>
+    <t>SUPA01421959</t>
+  </si>
+  <si>
+    <t>SUPA01421970</t>
+  </si>
+  <si>
+    <t>SUPA01422049</t>
+  </si>
+  <si>
+    <t>A2745</t>
+  </si>
+  <si>
+    <t>A2746</t>
+  </si>
+  <si>
+    <t>A2747</t>
+  </si>
+  <si>
+    <t>A2748</t>
+  </si>
+  <si>
+    <t>(Sky) Clear | (Seeing) 0.54 to 1.36</t>
+  </si>
+  <si>
+    <t>(Sky) Cirrus | (Seeing) 0.50 to 0.84</t>
   </si>
 </sst>
 </file>
@@ -1847,7 +1890,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1881,8 +1924,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1947,8 +1996,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1965,6 +2017,9 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1981,6 +2036,9 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
@@ -2347,8 +2405,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Q85" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A1:Q85"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Q89" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:Q89"/>
   <sortState ref="A2:Q54">
     <sortCondition ref="A1:A54"/>
   </sortState>
@@ -2687,7 +2745,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2695,13 +2753,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:Q73"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.1640625" style="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="47" bestFit="1" customWidth="1"/>
@@ -2723,7 +2781,7 @@
     <col min="18" max="16384" width="10.83203125" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
@@ -2776,7 +2834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -2798,7 +2856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="4" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -2817,7 +2875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -2836,7 +2894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="6" t="s">
         <v>98</v>
       </c>
@@ -2866,7 +2924,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" s="8" customFormat="1">
       <c r="A6" s="8" t="s">
         <v>340</v>
       </c>
@@ -2900,7 +2958,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" s="8" customFormat="1">
       <c r="A7" s="8" t="s">
         <v>340</v>
       </c>
@@ -2934,7 +2992,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" s="8" customFormat="1">
       <c r="A8" s="8" t="s">
         <v>340</v>
       </c>
@@ -2968,7 +3026,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" s="8" customFormat="1">
       <c r="A9" s="8" t="s">
         <v>340</v>
       </c>
@@ -3002,7 +3060,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" s="8" customFormat="1">
       <c r="A10" s="8" t="s">
         <v>340</v>
       </c>
@@ -3036,7 +3094,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="8" customFormat="1">
       <c r="A11" s="8" t="s">
         <v>340</v>
       </c>
@@ -3070,7 +3128,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="8" customFormat="1">
       <c r="A12" s="8" t="s">
         <v>340</v>
       </c>
@@ -3104,7 +3162,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="8" customFormat="1">
       <c r="A13" s="8" t="s">
         <v>340</v>
       </c>
@@ -3138,7 +3196,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" s="8" customFormat="1">
       <c r="A14" s="8" t="s">
         <v>340</v>
       </c>
@@ -3172,7 +3230,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="8" customFormat="1">
       <c r="A15" s="8" t="s">
         <v>340</v>
       </c>
@@ -3206,7 +3264,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" s="8" customFormat="1">
       <c r="A16" s="8" t="s">
         <v>340</v>
       </c>
@@ -3240,7 +3298,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17" s="10" t="s">
         <v>341</v>
       </c>
@@ -3274,7 +3332,7 @@
       </c>
       <c r="Q17" s="10"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="10" t="s">
         <v>341</v>
       </c>
@@ -3308,7 +3366,7 @@
       </c>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="12" t="s">
         <v>342</v>
       </c>
@@ -3342,7 +3400,7 @@
       </c>
       <c r="Q19" s="12"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="12" t="s">
         <v>342</v>
       </c>
@@ -3378,7 +3436,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="14" t="s">
         <v>103</v>
       </c>
@@ -3419,7 +3477,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="14" t="s">
         <v>103</v>
       </c>
@@ -3460,7 +3518,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="14" t="s">
         <v>103</v>
       </c>
@@ -3501,7 +3559,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="14" t="s">
         <v>103</v>
       </c>
@@ -3542,7 +3600,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" s="16" t="s">
         <v>20</v>
       </c>
@@ -3576,7 +3634,7 @@
       </c>
       <c r="Q25" s="16"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="16" t="s">
         <v>20</v>
       </c>
@@ -3610,7 +3668,7 @@
       </c>
       <c r="Q26" s="16"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
@@ -3644,7 +3702,7 @@
       </c>
       <c r="Q27" s="4"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
@@ -3678,7 +3736,7 @@
       </c>
       <c r="Q28" s="4"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" s="6" t="s">
         <v>23</v>
       </c>
@@ -3708,7 +3766,7 @@
       </c>
       <c r="Q29" s="6"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="6" t="s">
         <v>23</v>
       </c>
@@ -3738,7 +3796,7 @@
       </c>
       <c r="Q30" s="6"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" s="6" t="s">
         <v>23</v>
       </c>
@@ -3768,7 +3826,7 @@
       </c>
       <c r="Q31" s="6"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="6" t="s">
         <v>23</v>
       </c>
@@ -3798,7 +3856,7 @@
       </c>
       <c r="Q32" s="6"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17">
       <c r="A33" s="8" t="s">
         <v>30</v>
       </c>
@@ -3828,7 +3886,7 @@
       </c>
       <c r="Q33" s="8"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34" s="8" t="s">
         <v>30</v>
       </c>
@@ -3858,7 +3916,7 @@
       </c>
       <c r="Q34" s="8"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35" s="8" t="s">
         <v>30</v>
       </c>
@@ -3888,7 +3946,7 @@
       </c>
       <c r="Q35" s="8"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17">
       <c r="A36" s="8" t="s">
         <v>30</v>
       </c>
@@ -3918,7 +3976,7 @@
       </c>
       <c r="Q36" s="8"/>
     </row>
-    <row r="37" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" customFormat="1">
       <c r="A37" s="10" t="s">
         <v>110</v>
       </c>
@@ -3959,7 +4017,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" customFormat="1">
       <c r="A38" s="10" t="s">
         <v>110</v>
       </c>
@@ -4000,7 +4058,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="39" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" customFormat="1">
       <c r="A39" s="10" t="s">
         <v>110</v>
       </c>
@@ -4041,7 +4099,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17">
       <c r="A40" s="12" t="s">
         <v>344</v>
       </c>
@@ -4069,7 +4127,7 @@
         <v>315</v>
       </c>
       <c r="J40" s="12">
-        <f t="shared" ref="J40:J85" si="5">H40*I40/60</f>
+        <f t="shared" ref="J40:J89" si="5">H40*I40/60</f>
         <v>42</v>
       </c>
       <c r="K40" s="12"/>
@@ -4082,7 +4140,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17">
       <c r="A41" s="12" t="s">
         <v>344</v>
       </c>
@@ -4123,7 +4181,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17">
       <c r="A42" s="12" t="s">
         <v>344</v>
       </c>
@@ -4164,7 +4222,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17">
       <c r="A43" s="12" t="s">
         <v>344</v>
       </c>
@@ -4205,7 +4263,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17">
       <c r="A44" s="12" t="s">
         <v>344</v>
       </c>
@@ -4246,7 +4304,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17">
       <c r="A45" s="14" t="s">
         <v>345</v>
       </c>
@@ -4287,7 +4345,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17">
       <c r="A46" s="14" t="s">
         <v>345</v>
       </c>
@@ -4328,7 +4386,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17">
       <c r="A47" s="14" t="s">
         <v>345</v>
       </c>
@@ -4369,21 +4427,36 @@
         <v>397</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17">
       <c r="A48" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="B48" s="53"/>
+      <c r="B48" s="53">
+        <v>39659</v>
+      </c>
       <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
+      <c r="D48" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="H48" s="66">
+        <f>(RIGHT(G48,LEN(G48)-4)-RIGHT(F48,LEN(F48)-4)+1)/10</f>
+        <v>7</v>
+      </c>
+      <c r="I48" s="16">
+        <v>240</v>
+      </c>
       <c r="J48" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K48" s="16"/>
       <c r="L48" s="16"/>
@@ -4391,470 +4464,444 @@
       <c r="N48" s="16"/>
       <c r="O48" s="16"/>
       <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="Q48" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="B49" s="64">
+        <v>41470</v>
+      </c>
+      <c r="D49" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="47" t="s">
+        <v>539</v>
+      </c>
+      <c r="G49" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="H49" s="66">
+        <f>(RIGHT(G49,LEN(G49)-4)-RIGHT(F49,LEN(F49)-4)+1)/10</f>
+        <v>16</v>
+      </c>
+      <c r="I49" s="47">
+        <v>150</v>
+      </c>
+      <c r="J49" s="66">
+        <f>H49*I49/60</f>
+        <v>40</v>
+      </c>
+      <c r="Q49" s="47" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="B50" s="64">
+        <v>41470</v>
+      </c>
+      <c r="D50" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="G50" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="H50" s="66">
+        <f>(RIGHT(G50,LEN(G50)-4)-RIGHT(F50,LEN(F50)-4)+1)/10</f>
+        <v>13</v>
+      </c>
+      <c r="I50" s="47">
+        <v>240</v>
+      </c>
+      <c r="J50" s="66">
+        <f>H50*I50/60</f>
+        <v>52</v>
+      </c>
+      <c r="Q50" s="47" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="B51" s="64">
+        <v>41471</v>
+      </c>
+      <c r="D51" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="G51" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="H51" s="66">
+        <f>(RIGHT(G51,LEN(G51)-4)-RIGHT(F51,LEN(F51)-4)+1)/10</f>
+        <v>7</v>
+      </c>
+      <c r="I51" s="47">
+        <v>300</v>
+      </c>
+      <c r="J51" s="66">
+        <f>H51*I51/60</f>
+        <v>35</v>
+      </c>
+      <c r="Q51" s="47" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="B52" s="64">
+        <v>41471</v>
+      </c>
+      <c r="D52" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="G52" s="47" t="s">
+        <v>546</v>
+      </c>
+      <c r="H52" s="66">
+        <f>(RIGHT(G52,LEN(G52)-4)-RIGHT(F52,LEN(F52)-4)+1)/10</f>
+        <v>8</v>
+      </c>
+      <c r="I52" s="47">
+        <v>150</v>
+      </c>
+      <c r="J52" s="66">
+        <f>H52*I52/60</f>
+        <v>20</v>
+      </c>
+      <c r="Q52" s="47" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="49"/>
-      <c r="C49" s="4" t="s">
+      <c r="B53" s="49"/>
+      <c r="C53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4">
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4" t="s">
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q49" s="4"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="Q53" s="4"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="49"/>
-      <c r="C50" s="4" t="s">
+      <c r="B54" s="49"/>
+      <c r="C54" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4">
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4" t="s">
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q50" s="4"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="Q54" s="4"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="49"/>
-      <c r="C51" s="4" t="s">
+      <c r="B55" s="49"/>
+      <c r="C55" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4">
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N51" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4" t="s">
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q51" s="4"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+      <c r="Q55" s="4"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="50"/>
-      <c r="C52" s="6" t="s">
+      <c r="B56" s="50"/>
+      <c r="C56" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D56" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6">
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N52" s="6" t="s">
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N56" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6" t="s">
+      <c r="O56" s="6"/>
+      <c r="P56" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q52" s="6"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+      <c r="Q56" s="6"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="50"/>
-      <c r="C53" s="6" t="s">
+      <c r="B57" s="50"/>
+      <c r="C57" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6">
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N53" s="6" t="s">
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N57" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6" t="s">
+      <c r="O57" s="6"/>
+      <c r="P57" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q53" s="6" t="s">
+      <c r="Q57" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
+    <row r="58" spans="1:17">
+      <c r="A58" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="50"/>
-      <c r="C54" s="6" t="s">
+      <c r="B58" s="50"/>
+      <c r="C58" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D58" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6">
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N54" s="6" t="s">
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N58" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6" t="s">
+      <c r="O58" s="6"/>
+      <c r="P58" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q54" s="6"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
+      <c r="Q58" s="6"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="48"/>
-      <c r="C55" s="8" t="s">
+      <c r="B59" s="48"/>
+      <c r="C59" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D59" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8">
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8" t="s">
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q55" s="8" t="s">
+      <c r="Q59" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
+    <row r="60" spans="1:17">
+      <c r="A60" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B56" s="48"/>
-      <c r="C56" s="8" t="s">
+      <c r="B60" s="48"/>
+      <c r="C60" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D60" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8">
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8" t="s">
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q56" s="8"/>
-    </row>
-    <row r="57" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="10" t="s">
+      <c r="Q60" s="8"/>
+    </row>
+    <row r="61" spans="1:17" customFormat="1">
+      <c r="A61" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B61" s="9">
         <v>36887</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="10" t="s">
+      <c r="C61" s="9"/>
+      <c r="D61" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="10" t="s">
+      <c r="E61" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="G61" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="H57" s="10">
-        <f t="shared" ref="H57:H67" si="6">(RIGHT(G57,LEN(G57)-4)-RIGHT(F57,LEN(F57)-4)+1)/10</f>
+      <c r="H61" s="10">
+        <f t="shared" ref="H61:H71" si="6">(RIGHT(G61,LEN(G61)-4)-RIGHT(F61,LEN(F61)-4)+1)/10</f>
         <v>5</v>
       </c>
-      <c r="I57" s="10">
+      <c r="I61" s="10">
         <v>300</v>
       </c>
-      <c r="J57" s="10">
+      <c r="J61" s="10">
         <f t="shared" si="5"/>
         <v>25</v>
-      </c>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="B58" s="9">
-        <v>37715</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="H58" s="10">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="I58" s="10">
-        <v>480</v>
-      </c>
-      <c r="J58" s="10">
-        <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="B59" s="9">
-        <v>37716</v>
-      </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="H59" s="10">
-        <f>(RIGHT(G59,LEN(G59)-4)-RIGHT(F59,LEN(F59)-4)+1)/10-1</f>
-        <v>14</v>
-      </c>
-      <c r="I59" s="10">
-        <v>360</v>
-      </c>
-      <c r="J59" s="10">
-        <f t="shared" si="5"/>
-        <v>84</v>
-      </c>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="B60" s="9">
-        <v>37738</v>
-      </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="H60" s="10">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="I60" s="10">
-        <v>180</v>
-      </c>
-      <c r="J60" s="10">
-        <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="B61" s="9">
-        <v>38416</v>
-      </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="H61" s="10">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="I61" s="10">
-        <v>150</v>
-      </c>
-      <c r="J61" s="10">
-        <f t="shared" si="5"/>
-        <v>7.5</v>
       </c>
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
@@ -4863,15 +4910,15 @@
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
       <c r="Q61" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" customFormat="1">
       <c r="A62" s="10" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B62" s="9">
-        <v>38416</v>
+        <v>37715</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="10" t="s">
@@ -4881,21 +4928,21 @@
         <v>12</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H62" s="10">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I62" s="10">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="J62" s="10">
         <f t="shared" si="5"/>
-        <v>7.5</v>
+        <v>48</v>
       </c>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
@@ -4904,39 +4951,39 @@
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
       <c r="Q62" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" customFormat="1">
       <c r="A63" s="10" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B63" s="9">
-        <v>38417</v>
+        <v>37716</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="10" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="H63" s="10">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f>(RIGHT(G63,LEN(G63)-4)-RIGHT(F63,LEN(F63)-4)+1)/10-1</f>
+        <v>14</v>
       </c>
       <c r="I63" s="10">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="J63" s="10">
         <f t="shared" si="5"/>
-        <v>7.5</v>
+        <v>84</v>
       </c>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
@@ -4945,39 +4992,39 @@
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
       <c r="Q63" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" customFormat="1">
       <c r="A64" s="10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B64" s="9">
-        <v>39072</v>
+        <v>37738</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H64" s="10">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I64" s="10">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="J64" s="10">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
@@ -4986,39 +5033,39 @@
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
       <c r="Q64" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" customFormat="1">
       <c r="A65" s="10" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B65" s="9">
-        <v>40255</v>
+        <v>38416</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="H65" s="10">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I65" s="10">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="J65" s="10">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
@@ -5027,15 +5074,15 @@
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
       <c r="Q65" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" customFormat="1">
       <c r="A66" s="10" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B66" s="9">
-        <v>40255</v>
+        <v>38416</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="10" t="s">
@@ -5045,21 +5092,21 @@
         <v>12</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="H66" s="10">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I66" s="10">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="J66" s="10">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>7.5</v>
       </c>
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
@@ -5068,39 +5115,39 @@
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
       <c r="Q66" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" customFormat="1">
       <c r="A67" s="10" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B67" s="9">
-        <v>40255</v>
+        <v>38417</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="10" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="H67" s="10">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I67" s="10">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="J67" s="10">
         <f t="shared" si="5"/>
-        <v>37.5</v>
+        <v>7.5</v>
       </c>
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
@@ -5109,588 +5156,758 @@
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
       <c r="Q67" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" customFormat="1">
+      <c r="A68" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B68" s="9">
+        <v>39072</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="H68" s="10">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="I68" s="10">
+        <v>240</v>
+      </c>
+      <c r="J68" s="10">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" customFormat="1">
+      <c r="A69" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="B69" s="9">
+        <v>40255</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="H69" s="10">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I69" s="10">
+        <v>450</v>
+      </c>
+      <c r="J69" s="10">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="12" t="s">
+    <row r="70" spans="1:17" customFormat="1">
+      <c r="A70" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B70" s="9">
+        <v>40255</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="H70" s="10">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="I70" s="10">
+        <v>240</v>
+      </c>
+      <c r="J70" s="10">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" customFormat="1">
+      <c r="A71" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B71" s="9">
+        <v>40255</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="H71" s="10">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="I71" s="10">
+        <v>250</v>
+      </c>
+      <c r="J71" s="10">
+        <f t="shared" si="5"/>
+        <v>37.5</v>
+      </c>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B68" s="51"/>
-      <c r="C68" s="12" t="s">
+      <c r="B72" s="51"/>
+      <c r="C72" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D72" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12">
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12" t="s">
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Q68" s="12" t="s">
+      <c r="Q72" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="12" t="s">
+    <row r="73" spans="1:17">
+      <c r="A73" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="12" t="s">
+      <c r="B73" s="51"/>
+      <c r="C73" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D73" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12">
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12" t="s">
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q69" s="12"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" s="12" t="s">
+      <c r="Q73" s="12"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B70" s="51"/>
-      <c r="C70" s="12" t="s">
+      <c r="B74" s="51"/>
+      <c r="C74" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D74" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12">
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12" t="s">
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Q70" s="12"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="12" t="s">
+      <c r="Q74" s="12"/>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="51"/>
-      <c r="C71" s="12" t="s">
+      <c r="B75" s="51"/>
+      <c r="C75" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D75" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12">
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12" t="s">
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Q71" s="12"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="14" t="s">
+      <c r="Q75" s="12"/>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B72" s="52"/>
-      <c r="C72" s="14" t="s">
+      <c r="B76" s="52"/>
+      <c r="C76" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D76" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14">
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="14"/>
-      <c r="P72" s="14" t="s">
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q72" s="14" t="s">
+      <c r="Q76" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="14" t="s">
+    <row r="77" spans="1:17">
+      <c r="A77" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B73" s="52"/>
-      <c r="C73" s="14" t="s">
+      <c r="B77" s="52"/>
+      <c r="C77" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D77" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14">
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="14"/>
-      <c r="P73" s="14" t="s">
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Q73" s="14"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A74" s="16" t="s">
+      <c r="Q77" s="14"/>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B74" s="53"/>
-      <c r="C74" s="16" t="s">
+      <c r="B78" s="53"/>
+      <c r="C78" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="D78" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16">
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16" t="s">
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
+      <c r="P78" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q74" s="16" t="s">
+      <c r="Q78" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A75" s="16" t="s">
+    <row r="79" spans="1:17">
+      <c r="A79" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B75" s="53"/>
-      <c r="C75" s="16" t="s">
+      <c r="B79" s="53"/>
+      <c r="C79" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="D79" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16">
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="16" t="s">
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q75" s="16"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
+      <c r="Q79" s="16"/>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B76" s="49"/>
-      <c r="C76" s="4" t="s">
+      <c r="B80" s="49"/>
+      <c r="C80" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D80" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4">
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N76" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4" t="s">
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q76" s="4"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+      <c r="Q80" s="4"/>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B77" s="49"/>
-      <c r="C77" s="4" t="s">
+      <c r="B81" s="49"/>
+      <c r="C81" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D81" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4">
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N77" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4" t="s">
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q77" s="4"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
+      <c r="Q81" s="4"/>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B78" s="49"/>
-      <c r="C78" s="4" t="s">
+      <c r="B82" s="49"/>
+      <c r="C82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4">
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N78" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4" t="s">
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q78" s="4"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A79" s="6" t="s">
+      <c r="Q82" s="4"/>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B79" s="50"/>
-      <c r="C79" s="6" t="s">
+      <c r="B83" s="50"/>
+      <c r="C83" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D83" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6">
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6" t="s">
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q79" s="6" t="s">
+      <c r="Q83" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="s">
+    <row r="84" spans="1:17">
+      <c r="A84" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="50"/>
-      <c r="C80" s="6" t="s">
+      <c r="B84" s="50"/>
+      <c r="C84" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D84" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6">
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6" t="s">
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q80" s="6"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
+      <c r="Q84" s="6"/>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="B81" s="48"/>
-      <c r="C81" s="8" t="s">
+      <c r="B85" s="48"/>
+      <c r="C85" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D85" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8">
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N81" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O81" s="8"/>
-      <c r="P81" s="8" t="s">
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N85" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q81" s="8"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A82" s="8" t="s">
+      <c r="Q85" s="8"/>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="B82" s="48"/>
-      <c r="C82" s="8" t="s">
+      <c r="B86" s="48"/>
+      <c r="C86" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D86" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8">
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N82" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O82" s="8"/>
-      <c r="P82" s="8" t="s">
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N86" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c r="P86" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q82" s="8"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A83" s="8" t="s">
+      <c r="Q86" s="8"/>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="B83" s="48"/>
-      <c r="C83" s="8" t="s">
+      <c r="B87" s="48"/>
+      <c r="C87" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D87" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8">
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N83" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O83" s="8"/>
-      <c r="P83" s="8" t="s">
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N87" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q83" s="8"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A84" s="10" t="s">
+      <c r="Q87" s="8"/>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B84" s="46"/>
-      <c r="C84" s="10" t="s">
+      <c r="B88" s="46"/>
+      <c r="C88" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D88" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10">
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
-      <c r="O84" s="10"/>
-      <c r="P84" s="10" t="s">
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Q84" s="10" t="s">
+      <c r="Q88" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A85" s="10" t="s">
+    <row r="89" spans="1:17">
+      <c r="A89" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B85" s="46"/>
-      <c r="C85" s="10" t="s">
+      <c r="B89" s="46"/>
+      <c r="C89" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D89" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10">
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
-      <c r="O85" s="10"/>
-      <c r="P85" s="10" t="s">
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q85" s="10"/>
+      <c r="Q89" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5698,11 +5915,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
@@ -5722,7 +5939,7 @@
     <col min="18" max="18" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="17">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5775,7 +5992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="4" t="s">
         <v>98</v>
       </c>
@@ -5814,7 +6031,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="4" t="s">
         <v>98</v>
       </c>
@@ -5851,7 +6068,7 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="4" t="s">
         <v>98</v>
       </c>
@@ -5888,7 +6105,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="6" t="s">
         <v>99</v>
       </c>
@@ -5927,7 +6144,7 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="6" t="s">
         <v>99</v>
       </c>
@@ -5966,7 +6183,7 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="6" t="s">
         <v>99</v>
       </c>
@@ -6005,7 +6222,7 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="6" t="s">
         <v>99</v>
       </c>
@@ -6044,7 +6261,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="6" t="s">
         <v>99</v>
       </c>
@@ -6083,7 +6300,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="6" t="s">
         <v>99</v>
       </c>
@@ -6122,7 +6339,7 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="6" t="s">
         <v>99</v>
       </c>
@@ -6161,7 +6378,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="8" t="s">
         <v>100</v>
       </c>
@@ -6184,7 +6401,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="10" t="s">
         <v>101</v>
       </c>
@@ -6225,7 +6442,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="10" t="s">
         <v>101</v>
       </c>
@@ -6266,7 +6483,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="10" t="s">
         <v>101</v>
       </c>
@@ -6307,7 +6524,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="10" t="s">
         <v>101</v>
       </c>
@@ -6348,7 +6565,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17" s="10" t="s">
         <v>101</v>
       </c>
@@ -6387,7 +6604,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="10" t="s">
         <v>101</v>
       </c>
@@ -6426,7 +6643,7 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="10" t="s">
         <v>101</v>
       </c>
@@ -6465,7 +6682,7 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="10" t="s">
         <v>101</v>
       </c>
@@ -6504,7 +6721,7 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="10" t="s">
         <v>101</v>
       </c>
@@ -6543,7 +6760,7 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="10" t="s">
         <v>101</v>
       </c>
@@ -6582,7 +6799,7 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="10" t="s">
         <v>101</v>
       </c>
@@ -6621,7 +6838,7 @@
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="12" t="s">
         <v>102</v>
       </c>
@@ -6660,7 +6877,7 @@
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" s="12" t="s">
         <v>102</v>
       </c>
@@ -6699,7 +6916,7 @@
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="14" t="s">
         <v>103</v>
       </c>
@@ -6738,7 +6955,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="14" t="s">
         <v>103</v>
       </c>
@@ -6779,7 +6996,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" s="14" t="s">
         <v>103</v>
       </c>
@@ -6820,7 +7037,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" s="14" t="s">
         <v>103</v>
       </c>
@@ -6861,7 +7078,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="16" t="s">
         <v>28</v>
       </c>
@@ -6884,7 +7101,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" s="33" t="s">
         <v>104</v>
       </c>
@@ -6907,7 +7124,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="20" t="s">
         <v>105</v>
       </c>
@@ -6946,7 +7163,7 @@
       <c r="P32" s="20"/>
       <c r="Q32" s="20"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17">
       <c r="A33" s="20" t="s">
         <v>105</v>
       </c>
@@ -6987,7 +7204,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34" s="20" t="s">
         <v>105</v>
       </c>
@@ -7028,7 +7245,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35" s="20" t="s">
         <v>105</v>
       </c>
@@ -7069,7 +7286,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17">
       <c r="A36" s="20" t="s">
         <v>105</v>
       </c>
@@ -7110,7 +7327,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17">
       <c r="A37" s="20" t="s">
         <v>105</v>
       </c>
@@ -7151,7 +7368,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17">
       <c r="A38" s="35" t="s">
         <v>106</v>
       </c>
@@ -7174,7 +7391,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17">
       <c r="A39" s="37" t="s">
         <v>107</v>
       </c>
@@ -7197,7 +7414,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17">
       <c r="A40" s="26" t="s">
         <v>108</v>
       </c>
@@ -7238,7 +7455,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17">
       <c r="A41" s="26" t="s">
         <v>108</v>
       </c>
@@ -7279,7 +7496,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17">
       <c r="A42" s="26" t="s">
         <v>108</v>
       </c>
@@ -7320,7 +7537,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17">
       <c r="A43" s="26" t="s">
         <v>108</v>
       </c>
@@ -7361,7 +7578,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17">
       <c r="A44" s="26" t="s">
         <v>108</v>
       </c>
@@ -7402,7 +7619,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17">
       <c r="A45" s="28" t="s">
         <v>109</v>
       </c>
@@ -7443,7 +7660,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17">
       <c r="A46" s="28" t="s">
         <v>109</v>
       </c>
@@ -7484,7 +7701,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17">
       <c r="A47" s="28" t="s">
         <v>109</v>
       </c>
@@ -7525,7 +7742,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17">
       <c r="A48" s="28" t="s">
         <v>109</v>
       </c>
@@ -7566,7 +7783,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17">
       <c r="A49" s="30" t="s">
         <v>110</v>
       </c>
@@ -7607,7 +7824,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17">
       <c r="A50" s="30" t="s">
         <v>110</v>
       </c>
@@ -7648,7 +7865,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17">
       <c r="A51" s="30" t="s">
         <v>110</v>
       </c>
@@ -7689,7 +7906,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17">
       <c r="A52" s="18" t="s">
         <v>111</v>
       </c>
@@ -7730,7 +7947,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17">
       <c r="A53" s="18" t="s">
         <v>111</v>
       </c>
@@ -7771,7 +7988,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17">
       <c r="A54" s="18" t="s">
         <v>111</v>
       </c>
@@ -7812,7 +8029,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17">
       <c r="A55" s="18" t="s">
         <v>111</v>
       </c>
@@ -7853,7 +8070,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17">
       <c r="A56" s="18" t="s">
         <v>111</v>
       </c>
@@ -7894,7 +8111,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17">
       <c r="A57" s="18" t="s">
         <v>111</v>
       </c>
@@ -7935,7 +8152,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17">
       <c r="A58" s="18" t="s">
         <v>111</v>
       </c>
@@ -7976,7 +8193,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17">
       <c r="A59" s="20" t="s">
         <v>112</v>
       </c>
@@ -8017,7 +8234,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17">
       <c r="A60" s="20" t="s">
         <v>112</v>
       </c>
@@ -8058,7 +8275,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17">
       <c r="A61" s="20" t="s">
         <v>112</v>
       </c>
@@ -8099,7 +8316,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17">
       <c r="A62" s="20" t="s">
         <v>112</v>
       </c>
@@ -8140,7 +8357,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17">
       <c r="A63" s="35" t="s">
         <v>39</v>
       </c>
@@ -8191,7 +8408,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17">
       <c r="A64" s="24" t="s">
         <v>113</v>
       </c>
@@ -8232,7 +8449,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17">
       <c r="A65" s="24" t="s">
         <v>113</v>
       </c>
@@ -8273,7 +8490,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17">
       <c r="A66" s="24" t="s">
         <v>113</v>
       </c>
@@ -8314,7 +8531,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17">
       <c r="A67" s="24" t="s">
         <v>113</v>
       </c>
@@ -8355,7 +8572,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17">
       <c r="A68" s="24" t="s">
         <v>113</v>
       </c>
@@ -8396,7 +8613,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17">
       <c r="A69" s="26" t="s">
         <v>114</v>
       </c>
@@ -8437,7 +8654,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17">
       <c r="A70" s="26" t="s">
         <v>114</v>
       </c>
@@ -8478,7 +8695,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17">
       <c r="A71" s="26" t="s">
         <v>114</v>
       </c>
@@ -8519,7 +8736,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="47" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" s="47" customFormat="1">
       <c r="A72" s="14" t="s">
         <v>18</v>
       </c>
@@ -8555,7 +8772,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="47" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" s="47" customFormat="1">
       <c r="A73" s="14" t="s">
         <v>18</v>
       </c>
@@ -8591,7 +8808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="47" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" s="47" customFormat="1">
       <c r="A74" s="14" t="s">
         <v>18</v>
       </c>
@@ -8625,7 +8842,7 @@
       </c>
       <c r="Q74" s="14"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17">
       <c r="A75" s="30" t="s">
         <v>115</v>
       </c>
@@ -8648,7 +8865,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17">
       <c r="A76" s="18" t="s">
         <v>116</v>
       </c>
@@ -8689,7 +8906,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17">
       <c r="A77" s="18" t="s">
         <v>306</v>
       </c>
@@ -8730,7 +8947,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17">
       <c r="A78" s="18" t="s">
         <v>307</v>
       </c>
@@ -8771,7 +8988,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17">
       <c r="A79" s="18" t="s">
         <v>308</v>
       </c>
@@ -8812,7 +9029,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17">
       <c r="A80" s="18" t="s">
         <v>309</v>
       </c>
@@ -8853,7 +9070,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17">
       <c r="A81" s="18" t="s">
         <v>310</v>
       </c>
@@ -8894,7 +9111,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17">
       <c r="A82" s="18" t="s">
         <v>311</v>
       </c>
@@ -8935,7 +9152,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17">
       <c r="A83" s="18" t="s">
         <v>312</v>
       </c>
@@ -8976,7 +9193,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17">
       <c r="A84" s="18" t="s">
         <v>313</v>
       </c>
@@ -9017,7 +9234,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17">
       <c r="A85" s="18" t="s">
         <v>314</v>
       </c>
@@ -9058,7 +9275,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17">
       <c r="A86" s="18" t="s">
         <v>315</v>
       </c>
@@ -9099,7 +9316,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17">
       <c r="A87" s="40" t="s">
         <v>117</v>
       </c>
@@ -9122,7 +9339,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17">
       <c r="A88" s="22" t="s">
         <v>42</v>
       </c>
@@ -9170,7 +9387,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17">
       <c r="A89" s="22" t="s">
         <v>84</v>
       </c>
@@ -9216,7 +9433,7 @@
       <c r="P89" s="22"/>
       <c r="Q89" s="22"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17">
       <c r="A90" s="22" t="s">
         <v>85</v>
       </c>
@@ -9263,7 +9480,7 @@
       <c r="P90" s="22"/>
       <c r="Q90" s="22"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17">
       <c r="A91" s="22" t="s">
         <v>86</v>
       </c>
@@ -9312,7 +9529,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17">
       <c r="A92" s="22" t="s">
         <v>87</v>
       </c>
@@ -9361,7 +9578,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17">
       <c r="A93" s="22" t="s">
         <v>88</v>
       </c>
@@ -9408,7 +9625,7 @@
       <c r="P93" s="22"/>
       <c r="Q93" s="22"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17">
       <c r="A94" s="24" t="s">
         <v>118</v>
       </c>
@@ -9449,7 +9666,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17">
       <c r="A95" s="24" t="s">
         <v>118</v>
       </c>
@@ -9490,7 +9707,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17">
       <c r="A96" s="24" t="s">
         <v>118</v>
       </c>
@@ -9531,7 +9748,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17">
       <c r="A97" s="24" t="s">
         <v>118</v>
       </c>
@@ -9572,7 +9789,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17">
       <c r="A98" s="24" t="s">
         <v>118</v>
       </c>
@@ -9613,7 +9830,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17">
       <c r="A99" s="24" t="s">
         <v>118</v>
       </c>
@@ -9654,7 +9871,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17">
       <c r="A100" s="24" t="s">
         <v>118</v>
       </c>
@@ -9695,7 +9912,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17">
       <c r="A101" s="44" t="s">
         <v>119</v>
       </c>
@@ -9718,7 +9935,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17">
       <c r="A102" s="28" t="s">
         <v>40</v>
       </c>
@@ -9765,7 +9982,7 @@
       <c r="P102" s="28"/>
       <c r="Q102" s="28"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17">
       <c r="A103" s="28" t="s">
         <v>40</v>
       </c>
@@ -9812,7 +10029,7 @@
       <c r="P103" s="28"/>
       <c r="Q103" s="28"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17">
       <c r="A104" s="28" t="s">
         <v>40</v>
       </c>
@@ -9859,7 +10076,7 @@
       <c r="P104" s="28"/>
       <c r="Q104" s="28"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17">
       <c r="A105" s="28" t="s">
         <v>40</v>
       </c>
@@ -9906,7 +10123,7 @@
       <c r="P105" s="28"/>
       <c r="Q105" s="28"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17">
       <c r="A106" s="28" t="s">
         <v>40</v>
       </c>
@@ -9947,7 +10164,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17">
       <c r="A107" s="28" t="s">
         <v>40</v>
       </c>
@@ -9988,7 +10205,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17">
       <c r="A108" s="28" t="s">
         <v>40</v>
       </c>
@@ -10029,7 +10246,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17">
       <c r="A109" s="28" t="s">
         <v>40</v>
       </c>
@@ -10070,7 +10287,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17">
       <c r="A110" s="28" t="s">
         <v>40</v>
       </c>
@@ -10117,7 +10334,7 @@
       <c r="P110" s="28"/>
       <c r="Q110" s="28"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17">
       <c r="A111" s="42" t="s">
         <v>120</v>
       </c>
@@ -10140,7 +10357,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17">
       <c r="A112" s="33" t="s">
         <v>121</v>
       </c>
@@ -10163,7 +10380,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17">
       <c r="A113" s="40" t="s">
         <v>122</v>
       </c>
@@ -10186,51 +10403,51 @@
         <v>185</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
     </row>
@@ -10240,6 +10457,11 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10247,11 +10469,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
@@ -10273,7 +10495,7 @@
     <col min="18" max="18" width="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>430</v>
       </c>
@@ -10329,7 +10551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -10373,7 +10595,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -10417,7 +10639,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -10461,7 +10683,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>2</v>
       </c>
@@ -10470,67 +10692,67 @@
       </c>
       <c r="C5" s="56"/>
       <c r="D5" t="str">
-        <f>'Radio Relic Sample'!C72</f>
+        <f>'Radio Relic Sample'!C76</f>
         <v>2014a</v>
       </c>
       <c r="E5" t="str">
-        <f>'Radio Relic Sample'!D72</f>
+        <f>'Radio Relic Sample'!D76</f>
         <v>g</v>
       </c>
       <c r="F5">
-        <f>'Radio Relic Sample'!E72</f>
+        <f>'Radio Relic Sample'!E76</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>'Radio Relic Sample'!F72</f>
+        <f>'Radio Relic Sample'!F76</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>'Radio Relic Sample'!G72</f>
+        <f>'Radio Relic Sample'!G76</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>'Radio Relic Sample'!H72</f>
+        <f>'Radio Relic Sample'!H76</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>'Radio Relic Sample'!I72</f>
+        <f>'Radio Relic Sample'!I76</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>'Radio Relic Sample'!J72</f>
+        <f>'Radio Relic Sample'!J76</f>
         <v>0</v>
       </c>
       <c r="L5">
-        <f>'Radio Relic Sample'!K72</f>
+        <f>'Radio Relic Sample'!K76</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>'Radio Relic Sample'!L72</f>
+        <f>'Radio Relic Sample'!L76</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>'Radio Relic Sample'!M72</f>
+        <f>'Radio Relic Sample'!M76</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>'Radio Relic Sample'!N72</f>
+        <f>'Radio Relic Sample'!N76</f>
         <v>0</v>
       </c>
       <c r="P5">
-        <f>'Radio Relic Sample'!O72</f>
+        <f>'Radio Relic Sample'!O76</f>
         <v>0</v>
       </c>
       <c r="Q5" t="str">
-        <f>'Radio Relic Sample'!P72</f>
+        <f>'Radio Relic Sample'!P76</f>
         <v>n</v>
       </c>
       <c r="R5" t="str">
-        <f>'Radio Relic Sample'!Q72</f>
+        <f>'Radio Relic Sample'!Q76</f>
         <v>James has a reduction</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>2</v>
       </c>
@@ -10539,67 +10761,67 @@
       </c>
       <c r="C6" s="56"/>
       <c r="D6" t="str">
-        <f>'Radio Relic Sample'!C73</f>
+        <f>'Radio Relic Sample'!C77</f>
         <v>2014a</v>
       </c>
       <c r="E6" t="str">
-        <f>'Radio Relic Sample'!D73</f>
+        <f>'Radio Relic Sample'!D77</f>
         <v>r</v>
       </c>
       <c r="F6">
-        <f>'Radio Relic Sample'!E73</f>
+        <f>'Radio Relic Sample'!E77</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>'Radio Relic Sample'!F73</f>
+        <f>'Radio Relic Sample'!F77</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>'Radio Relic Sample'!G73</f>
+        <f>'Radio Relic Sample'!G77</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>'Radio Relic Sample'!H73</f>
+        <f>'Radio Relic Sample'!H77</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>'Radio Relic Sample'!I73</f>
+        <f>'Radio Relic Sample'!I77</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>'Radio Relic Sample'!J73</f>
+        <f>'Radio Relic Sample'!J77</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>'Radio Relic Sample'!K73</f>
+        <f>'Radio Relic Sample'!K77</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>'Radio Relic Sample'!L73</f>
+        <f>'Radio Relic Sample'!L77</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>'Radio Relic Sample'!M73</f>
+        <f>'Radio Relic Sample'!M77</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>'Radio Relic Sample'!N73</f>
+        <f>'Radio Relic Sample'!N77</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>'Radio Relic Sample'!O73</f>
+        <f>'Radio Relic Sample'!O77</f>
         <v>0</v>
       </c>
       <c r="Q6" t="str">
-        <f>'Radio Relic Sample'!P73</f>
+        <f>'Radio Relic Sample'!P77</f>
         <v>y</v>
       </c>
       <c r="R6">
-        <f>'Radio Relic Sample'!Q73</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <f>'Radio Relic Sample'!Q77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>3</v>
       </c>
@@ -10636,7 +10858,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>3</v>
       </c>
@@ -10673,7 +10895,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>3</v>
       </c>
@@ -10713,7 +10935,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>3</v>
       </c>
@@ -10750,7 +10972,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>3</v>
       </c>
@@ -10787,7 +11009,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>4</v>
       </c>
@@ -10824,7 +11046,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>4</v>
       </c>
@@ -10861,7 +11083,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>4</v>
       </c>
@@ -10901,7 +11123,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" s="57">
         <v>5</v>
       </c>
@@ -10927,7 +11149,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16" s="57">
         <v>6</v>
       </c>
@@ -10953,7 +11175,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" s="59">
         <v>7</v>
       </c>
@@ -10979,7 +11201,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" s="57">
         <v>8</v>
       </c>
@@ -11005,7 +11227,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" s="57">
         <v>9</v>
       </c>
@@ -11031,7 +11253,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20" s="57">
         <v>10</v>
       </c>
@@ -11057,7 +11279,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>11</v>
       </c>
@@ -11094,7 +11316,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>11</v>
       </c>
@@ -11131,7 +11353,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>11</v>
       </c>
@@ -11168,7 +11390,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>11</v>
       </c>
@@ -11205,7 +11427,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>11</v>
       </c>
@@ -11242,7 +11464,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>11</v>
       </c>
@@ -11279,7 +11501,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>11</v>
       </c>
@@ -11316,7 +11538,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>11</v>
       </c>
@@ -11353,7 +11575,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29" s="57">
         <v>12</v>
       </c>
@@ -11379,7 +11601,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30" s="59">
         <v>13</v>
       </c>
@@ -11405,7 +11627,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>14</v>
       </c>
@@ -11442,7 +11664,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>14</v>
       </c>
@@ -11479,7 +11701,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>14</v>
       </c>
@@ -11516,7 +11738,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>14</v>
       </c>
@@ -11553,7 +11775,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>14</v>
       </c>
@@ -11590,7 +11812,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>14</v>
       </c>
@@ -11627,7 +11849,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>14</v>
       </c>
@@ -11664,7 +11886,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>14</v>
       </c>
@@ -11701,7 +11923,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>14</v>
       </c>
@@ -11738,7 +11960,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>14</v>
       </c>
@@ -11775,7 +11997,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>14</v>
       </c>
@@ -11812,7 +12034,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>14</v>
       </c>
@@ -11849,7 +12071,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>14</v>
       </c>
@@ -11886,7 +12108,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>14</v>
       </c>
@@ -11923,7 +12145,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>14</v>
       </c>
@@ -11960,7 +12182,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>14</v>
       </c>
@@ -11997,7 +12219,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>14</v>
       </c>
@@ -12034,7 +12256,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>14</v>
       </c>
@@ -12071,7 +12293,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>14</v>
       </c>
@@ -12108,7 +12330,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18">
       <c r="A50">
         <v>14</v>
       </c>
@@ -12145,7 +12367,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51" s="59">
         <v>15</v>
       </c>
@@ -12171,7 +12393,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18">
       <c r="A52" s="57">
         <v>16</v>
       </c>
@@ -12197,7 +12419,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18">
       <c r="A53" s="57">
         <v>17</v>
       </c>
@@ -12223,7 +12445,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>18</v>
       </c>
@@ -12296,7 +12518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>18</v>
       </c>
@@ -12369,7 +12591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18">
       <c r="A56" s="57">
         <v>19</v>
       </c>
@@ -12395,7 +12617,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18">
       <c r="A57" s="57">
         <v>20</v>
       </c>
@@ -12421,7 +12643,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18">
       <c r="A58">
         <v>21</v>
       </c>
@@ -12494,7 +12716,7 @@
         <v>Perhaps discard. It seems like they were having issues. Just use the 2000-Nov-25 exposures?</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18">
       <c r="A59">
         <v>21</v>
       </c>
@@ -12567,7 +12789,7 @@
         <v>Perhaps discard. It seems like they were having issues. Just use the 2000-Nov-25 exposures?</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18">
       <c r="A60">
         <v>21</v>
       </c>
@@ -12640,7 +12862,7 @@
         <v>Perhaps discard. It seems like they were having issues. Just use the 2000-Nov-25 exposures?</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18">
       <c r="A61">
         <v>21</v>
       </c>
@@ -12713,7 +12935,7 @@
         <v>Perhaps discard. It seems like they were having issues. Just use the 2000-Nov-25 exposures?</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18">
       <c r="A62">
         <v>21</v>
       </c>
@@ -12786,7 +13008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18">
       <c r="A63">
         <v>21</v>
       </c>
@@ -12859,7 +13081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18">
       <c r="A64">
         <v>21</v>
       </c>
@@ -12932,7 +13154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18">
       <c r="A65">
         <v>21</v>
       </c>
@@ -13005,7 +13227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18">
       <c r="A66">
         <v>21</v>
       </c>
@@ -13078,7 +13300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18">
       <c r="A67">
         <v>21</v>
       </c>
@@ -13151,7 +13373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18">
       <c r="A68">
         <v>21</v>
       </c>
@@ -13224,7 +13446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18">
       <c r="A69" s="57">
         <v>22</v>
       </c>
@@ -13250,7 +13472,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18">
       <c r="A70" s="59">
         <v>23</v>
       </c>
@@ -13276,7 +13498,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18">
       <c r="A71">
         <v>24</v>
       </c>
@@ -13288,7 +13510,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18">
       <c r="A72">
         <v>25</v>
       </c>
@@ -13300,7 +13522,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18">
       <c r="A73">
         <v>26</v>
       </c>
@@ -13373,7 +13595,7 @@
         <v>(Sky) Thick Cirrus | (Seeing) 0.52 - 0.74</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18">
       <c r="A74">
         <v>26</v>
       </c>
@@ -13446,7 +13668,7 @@
         <v>(Sky) Thick Cirrus | (Seeing) 0.52 - 0.75</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18">
       <c r="A75">
         <v>26</v>
       </c>
@@ -13519,7 +13741,7 @@
         <v>(Sky) Clear/Cirrus | (Seeing) 1.34</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18">
       <c r="A76">
         <v>26</v>
       </c>
@@ -13592,7 +13814,7 @@
         <v>(Sky) Clear/Clouds | (Seeing) 1.06</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18">
       <c r="A77">
         <v>26</v>
       </c>
@@ -13665,7 +13887,7 @@
         <v>(Sky) Clear | (Seeing) 0.64</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18">
       <c r="A78">
         <v>27</v>
       </c>
@@ -13738,7 +13960,7 @@
         <v>(Sky) Clear | (Seeing) 0.63 - 0.95</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18">
       <c r="A79">
         <v>27</v>
       </c>
@@ -13811,7 +14033,7 @@
         <v>(Sky) Clear | (Seeing) 0.39 - 0.60</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18">
       <c r="A80">
         <v>27</v>
       </c>
@@ -13884,7 +14106,7 @@
         <v>(Sky) Clear | (Seeing) 0.39 - 0.60</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18">
       <c r="A81">
         <v>28</v>
       </c>
@@ -13957,7 +14179,7 @@
         <v>Ask James for his reduction.</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18">
       <c r="A82" s="57">
         <v>29</v>
       </c>
@@ -13983,7 +14205,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18">
       <c r="A83" s="59">
         <v>30</v>
       </c>
@@ -14009,7 +14231,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18">
       <c r="A84" s="57">
         <v>31</v>
       </c>
@@ -14035,7 +14257,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18">
       <c r="A85" s="61">
         <v>32</v>
       </c>
@@ -14081,7 +14303,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18">
       <c r="A86" s="57">
         <v>33</v>
       </c>
@@ -14107,7 +14329,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18">
       <c r="A87">
         <v>34</v>
       </c>
@@ -14119,7 +14341,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18">
       <c r="A88" s="59">
         <v>35</v>
       </c>
@@ -14145,7 +14367,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18">
       <c r="A89" s="59">
         <v>36</v>
       </c>
@@ -14171,7 +14393,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18">
       <c r="A90">
         <v>37</v>
       </c>
@@ -14183,7 +14405,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18">
       <c r="A91">
         <v>38</v>
       </c>
@@ -14223,7 +14445,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18">
       <c r="A92">
         <v>38</v>
       </c>
@@ -14260,7 +14482,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18">
       <c r="A93">
         <v>38</v>
       </c>
@@ -14297,7 +14519,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18">
       <c r="A94" s="57">
         <v>39</v>
       </c>
@@ -14323,7 +14545,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18">
       <c r="A95">
         <v>40</v>
       </c>
@@ -14335,7 +14557,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18">
       <c r="A96">
         <v>41</v>
       </c>
@@ -14352,5 +14574,10 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Reduction Notes/Reduction_Status_List.xlsx
+++ b/Reduction Notes/Reduction_Status_List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="420" yWindow="560" windowWidth="31600" windowHeight="19900" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="3160" windowWidth="22280" windowHeight="16320" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Radio Relic Sample" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="651">
   <si>
     <t>Semester</t>
   </si>
@@ -2183,8 +2183,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2327,7 +2331,7 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2344,6 +2348,8 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2360,6 +2366,8 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
@@ -3076,7 +3084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
@@ -6243,8 +6251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q125"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" topLeftCell="B47" workbookViewId="0">
+      <selection activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8767,10 +8775,18 @@
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="K64" s="24"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="24"/>
+      <c r="K64" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L64" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M64" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N64" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="O64" s="24"/>
       <c r="P64" s="24"/>
       <c r="Q64" s="24" t="s">
@@ -8808,10 +8824,18 @@
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="K65" s="24"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="24"/>
+      <c r="K65" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L65" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M65" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N65" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="O65" s="24"/>
       <c r="P65" s="24"/>
       <c r="Q65" s="24" t="s">
@@ -8849,10 +8873,18 @@
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="24"/>
+      <c r="K66" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L66" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M66" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N66" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="O66" s="24"/>
       <c r="P66" s="24"/>
       <c r="Q66" s="24" t="s">
@@ -8972,10 +9004,18 @@
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="26"/>
+      <c r="K69" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L69" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="M69" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N69" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="O69" s="26"/>
       <c r="P69" s="26"/>
       <c r="Q69" s="26" t="s">
@@ -9013,10 +9053,18 @@
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="K70" s="26"/>
-      <c r="L70" s="26"/>
-      <c r="M70" s="26"/>
-      <c r="N70" s="26"/>
+      <c r="K70" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L70" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="M70" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N70" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="O70" s="26"/>
       <c r="P70" s="26"/>
       <c r="Q70" s="26" t="s">
@@ -9054,10 +9102,18 @@
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="K71" s="26"/>
-      <c r="L71" s="26"/>
-      <c r="M71" s="26"/>
-      <c r="N71" s="26"/>
+      <c r="K71" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L71" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="M71" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N71" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="O71" s="26"/>
       <c r="P71" s="26"/>
       <c r="Q71" s="26" t="s">
@@ -10066,10 +10122,18 @@
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
-      <c r="K96" s="24"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="24"/>
-      <c r="N96" s="24"/>
+      <c r="K96" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L96" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M96" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N96" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="O96" s="24"/>
       <c r="P96" s="24"/>
       <c r="Q96" s="24" t="s">
@@ -10107,10 +10171,18 @@
         <f t="shared" si="12"/>
         <v>36</v>
       </c>
-      <c r="K97" s="24"/>
-      <c r="L97" s="24"/>
-      <c r="M97" s="24"/>
-      <c r="N97" s="24"/>
+      <c r="K97" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L97" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M97" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N97" s="24" t="s">
+        <v>12</v>
+      </c>
       <c r="O97" s="24"/>
       <c r="P97" s="24"/>
       <c r="Q97" s="24" t="s">
@@ -10792,8 +10864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15689,21 +15761,21 @@
         <f>'MC3PO Sample'!J69</f>
         <v>28</v>
       </c>
-      <c r="L101" s="14">
+      <c r="L101" s="14" t="str">
         <f>'MC3PO Sample'!K69</f>
-        <v>0</v>
-      </c>
-      <c r="M101" s="14">
+        <v>wd</v>
+      </c>
+      <c r="M101" s="14" t="str">
         <f>'MC3PO Sample'!L69</f>
-        <v>0</v>
-      </c>
-      <c r="N101" s="14">
+        <v>wd</v>
+      </c>
+      <c r="N101" s="14" t="str">
         <f>'MC3PO Sample'!M69</f>
-        <v>0</v>
-      </c>
-      <c r="O101" s="14">
+        <v>wd</v>
+      </c>
+      <c r="O101" s="14" t="str">
         <f>'MC3PO Sample'!N69</f>
-        <v>0</v>
+        <v>wd</v>
       </c>
       <c r="P101" s="14">
         <f>'MC3PO Sample'!O69</f>
@@ -15762,21 +15834,21 @@
         <f>'MC3PO Sample'!J70</f>
         <v>28</v>
       </c>
-      <c r="L102" s="14">
+      <c r="L102" s="14" t="str">
         <f>'MC3PO Sample'!K70</f>
-        <v>0</v>
-      </c>
-      <c r="M102" s="14">
+        <v>wd</v>
+      </c>
+      <c r="M102" s="14" t="str">
         <f>'MC3PO Sample'!L70</f>
-        <v>0</v>
-      </c>
-      <c r="N102" s="14">
+        <v>wd</v>
+      </c>
+      <c r="N102" s="14" t="str">
         <f>'MC3PO Sample'!M70</f>
-        <v>0</v>
-      </c>
-      <c r="O102" s="14">
+        <v>wd</v>
+      </c>
+      <c r="O102" s="14" t="str">
         <f>'MC3PO Sample'!N70</f>
-        <v>0</v>
+        <v>wd</v>
       </c>
       <c r="P102" s="14">
         <f>'MC3PO Sample'!O70</f>
@@ -15835,21 +15907,21 @@
         <f>'MC3PO Sample'!J71</f>
         <v>36</v>
       </c>
-      <c r="L103" s="14">
+      <c r="L103" s="14" t="str">
         <f>'MC3PO Sample'!K71</f>
-        <v>0</v>
-      </c>
-      <c r="M103" s="14">
+        <v>wd</v>
+      </c>
+      <c r="M103" s="14" t="str">
         <f>'MC3PO Sample'!L71</f>
-        <v>0</v>
-      </c>
-      <c r="N103" s="14">
+        <v>wd</v>
+      </c>
+      <c r="N103" s="14" t="str">
         <f>'MC3PO Sample'!M71</f>
-        <v>0</v>
-      </c>
-      <c r="O103" s="14">
+        <v>wd</v>
+      </c>
+      <c r="O103" s="14" t="str">
         <f>'MC3PO Sample'!N71</f>
-        <v>0</v>
+        <v>wd</v>
       </c>
       <c r="P103" s="14">
         <f>'MC3PO Sample'!O71</f>
